--- a/data/fNIRSandGerbils.xlsx
+++ b/data/fNIRSandGerbils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benri\Documents\GitHub\fNIRSandGerbils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443DBDC8-F8B7-495C-ADC1-28691A935FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9425EAE-7D29-4371-B860-3180B4702BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="167">
   <si>
     <t>S</t>
   </si>
@@ -101,99 +101,36 @@
     <t>bentest</t>
   </si>
   <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\13_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\10_unscrambled.wav</t>
-  </si>
-  <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\14_scrambled.wav</t>
   </si>
   <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\11_unscrambled.wav</t>
-  </si>
-  <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\15_scrambled.wav</t>
   </si>
   <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\12_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\20_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\16_unscrambled.wav</t>
-  </si>
-  <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\21_scrambled.wav</t>
   </si>
   <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\17_unscrambled.wav</t>
   </si>
   <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\22_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\18_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\23_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\19_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\26_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\1_unscrambled.wav</t>
-  </si>
-  <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\27_scrambled.wav</t>
   </si>
   <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\24_unscrambled.wav</t>
-  </si>
-  <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\28_scrambled.wav</t>
   </si>
   <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\25_unscrambled.wav</t>
-  </si>
-  <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\29_scrambled.wav</t>
   </si>
   <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\2_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\33_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\30_unscrambled.wav</t>
-  </si>
-  <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\34_scrambled.wav</t>
   </si>
   <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\31_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\35_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\32_unscrambled.wav</t>
-  </si>
-  <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\37_scrambled.wav</t>
   </si>
   <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\36_unscrambled.wav</t>
   </si>
   <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\3_scrambled.wav</t>
-  </si>
-  <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\38_unscrambled.wav</t>
   </si>
   <si>
@@ -203,193 +140,403 @@
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\39_unscrambled.wav</t>
   </si>
   <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\44_scrambled.wav</t>
-  </si>
-  <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\40_unscrambled.wav</t>
   </si>
   <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\45_scrambled.wav</t>
-  </si>
-  <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\41_unscrambled.wav</t>
   </si>
   <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\47_scrambled.wav</t>
-  </si>
-  <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\42_unscrambled.wav</t>
   </si>
   <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\48_scrambled.wav</t>
-  </si>
-  <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\46_unscrambled.wav</t>
   </si>
   <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\5_scrambled.wav</t>
   </si>
   <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\4_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\8_scrambled.wav</t>
-  </si>
-  <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\6_unscrambled.wav</t>
   </si>
   <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\9_scrambled.wav</t>
-  </si>
-  <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\7_unscrambled.wav</t>
   </si>
   <si>
-    <t>victoriatest</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\12_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\10_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\14_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\11_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\15_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\13_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\16_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\17_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\21_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\18_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\22_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\19_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\26_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\1_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\2_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\20_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\30_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\23_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\33_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\24_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\35_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\25_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\36_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\27_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\39_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\28_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\3_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\29_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\40_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\31_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\41_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\32_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\42_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\34_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\44_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\37_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\46_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\38_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\47_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\43_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\48_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\45_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\4_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\6_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\5_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\7_unscrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\scrambled\8_scrambled.wav</t>
-  </si>
-  <si>
-    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_victoriatest\unscrambled\9_unscrambled.wav</t>
+    <t>emayatest</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\13_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\14_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\12_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\18_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\19_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\24_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\20_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\22_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\29_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\2_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\26_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\30_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\28_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\32_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\33_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\36_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\45_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\41_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\5_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\47_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\7_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\8_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\10_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\11_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\21_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\25_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\15_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\16_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\27_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\17_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\1_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\34_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\23_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\38_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\39_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\40_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\31_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\43_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\35_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\44_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\37_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\3_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\48_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\42_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\4_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\6_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\unscrambled\46_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_emayatest\scrambled\9_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\10_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\13_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\11_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\12_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\20_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\22_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\23_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\16_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\26_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\18_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\33_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\19_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\35_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\1_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\24_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\25_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\3_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\2_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\44_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\30_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\45_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\31_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\32_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\47_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\48_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\scrambled\4_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\8_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_bentest\unscrambled\9_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>stest</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\10_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\14_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\11_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\15_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\12_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\16_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\13_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\18_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\17_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\19_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\1_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\20_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\22_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\21_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\23_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\24_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\25_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\26_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\29_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\27_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\30_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\28_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\32_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\2_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\34_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\31_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\36_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\33_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\37_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\35_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\3_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\38_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\41_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\39_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\43_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\40_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\44_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\42_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\45_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\46_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\4_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\47_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\5_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\48_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\6_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\7_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\scrambled\9_scrambled.wav</t>
+  </si>
+  <si>
+    <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\8_unscrambled.wav</t>
   </si>
 </sst>
 </file>
@@ -742,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E945CDA-0894-470B-A916-C9F7C84C6ED4}">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,13 +1403,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1274,30 +1421,30 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
       <c r="I16">
-        <v>2.83</v>
+        <v>1.2769999999999999</v>
       </c>
       <c r="J16">
-        <v>3.1509999999999998</v>
+        <v>2.028</v>
       </c>
       <c r="K16">
-        <v>4.5510000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.0890000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1309,30 +1456,33 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
       <c r="I17">
-        <v>2.8010000000000002</v>
+        <v>1.37</v>
       </c>
       <c r="J17">
-        <v>4.3710000000000004</v>
+        <v>2.2919999999999998</v>
       </c>
       <c r="K17">
-        <v>5.0910000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.7389999999999999</v>
+      </c>
+      <c r="L17">
+        <v>5.3360000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1344,33 +1494,30 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
       </c>
       <c r="I18">
-        <v>0.71199999999999997</v>
+        <v>1.754</v>
       </c>
       <c r="J18">
-        <v>1.7509999999999999</v>
+        <v>4.734</v>
       </c>
       <c r="K18">
-        <v>2.4710000000000001</v>
-      </c>
-      <c r="L18">
-        <v>4.7320000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.6449999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1382,33 +1529,27 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
       </c>
       <c r="I19">
-        <v>2.7</v>
+        <v>2.6579999999999999</v>
       </c>
       <c r="J19">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="K19">
-        <v>5.36</v>
-      </c>
-      <c r="L19">
-        <v>6.27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.8079999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -1420,30 +1561,30 @@
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
       </c>
       <c r="I20">
-        <v>1.091</v>
+        <v>1.665</v>
       </c>
       <c r="J20">
-        <v>2.7509999999999999</v>
+        <v>4.3410000000000002</v>
       </c>
       <c r="K20">
-        <v>5.8760000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.7850000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -1455,33 +1596,30 @@
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
       </c>
       <c r="I21">
-        <v>1.3620000000000001</v>
+        <v>1.591</v>
       </c>
       <c r="J21">
-        <v>2.3809999999999998</v>
+        <v>4.0430000000000001</v>
       </c>
       <c r="K21">
-        <v>3.3809999999999998</v>
-      </c>
-      <c r="L21">
-        <v>5.3010000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.3369999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>7</v>
       </c>
       <c r="C22" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -1493,36 +1631,33 @@
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
       </c>
       <c r="I22">
-        <v>0.69199999999999995</v>
+        <v>1.145</v>
       </c>
       <c r="J22">
-        <v>1.1619999999999999</v>
+        <v>2.8290000000000002</v>
       </c>
       <c r="K22">
-        <v>1.952</v>
+        <v>4.5060000000000002</v>
       </c>
       <c r="L22">
-        <v>2.9710000000000001</v>
-      </c>
-      <c r="M22">
-        <v>5.3609999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.6550000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
       <c r="C23" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -1534,36 +1669,30 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
       </c>
       <c r="I23">
-        <v>1.6519999999999999</v>
+        <v>3.53</v>
       </c>
       <c r="J23">
-        <v>2.2719999999999998</v>
+        <v>3.899</v>
       </c>
       <c r="K23">
-        <v>3.0720000000000001</v>
-      </c>
-      <c r="L23">
-        <v>4.1619999999999999</v>
-      </c>
-      <c r="M23">
-        <v>5.9720000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.1130000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>9</v>
       </c>
       <c r="C24" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D24">
         <v>9</v>
@@ -1575,33 +1704,30 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
       </c>
       <c r="I24">
-        <v>1.3220000000000001</v>
+        <v>2.125</v>
       </c>
       <c r="J24">
-        <v>3.1520000000000001</v>
+        <v>3.3359999999999999</v>
       </c>
       <c r="K24">
-        <v>5.1369999999999996</v>
-      </c>
-      <c r="L24">
-        <v>5.8520000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.5629999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -1613,33 +1739,30 @@
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
       </c>
       <c r="I25">
-        <v>1.621</v>
+        <v>2.2189999999999999</v>
       </c>
       <c r="J25">
-        <v>2.3410000000000002</v>
+        <v>4.1429999999999998</v>
       </c>
       <c r="K25">
-        <v>3.7810000000000001</v>
-      </c>
-      <c r="L25">
-        <v>5.1909999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>11</v>
       </c>
       <c r="C26" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D26">
         <v>11</v>
@@ -1651,33 +1774,30 @@
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
       </c>
       <c r="I26">
-        <v>2.4500000000000002</v>
+        <v>1.6679999999999999</v>
       </c>
       <c r="J26">
-        <v>3.5510000000000002</v>
+        <v>2.8769999999999998</v>
       </c>
       <c r="K26">
-        <v>4.5709999999999997</v>
-      </c>
-      <c r="L26">
-        <v>6.1310000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.8610000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>12</v>
       </c>
       <c r="C27" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D27">
         <v>12</v>
@@ -1689,30 +1809,33 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
       </c>
       <c r="I27">
-        <v>2.2509999999999999</v>
+        <v>1.901</v>
       </c>
       <c r="J27">
-        <v>3.6909999999999998</v>
+        <v>2.7290000000000001</v>
       </c>
       <c r="K27">
-        <v>5.3010000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.0979999999999999</v>
+      </c>
+      <c r="L27">
+        <v>5.5389999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>13</v>
       </c>
       <c r="C28" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D28">
         <v>13</v>
@@ -1724,30 +1847,30 @@
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
       </c>
       <c r="I28">
-        <v>1.161</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="J28">
-        <v>2.831</v>
+        <v>2.2949999999999999</v>
       </c>
       <c r="K28">
-        <v>5.9909999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>14</v>
       </c>
       <c r="C29" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D29">
         <v>14</v>
@@ -1759,27 +1882,33 @@
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H29" t="s">
         <v>12</v>
       </c>
       <c r="I29">
-        <v>1.742</v>
+        <v>1.8280000000000001</v>
       </c>
       <c r="J29">
-        <v>4.3719999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="K29">
+        <v>3.903</v>
+      </c>
+      <c r="L29">
+        <v>5.2690000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>15</v>
       </c>
       <c r="C30" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -1791,33 +1920,33 @@
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
       </c>
       <c r="I30">
-        <v>1.071</v>
+        <v>1.508</v>
       </c>
       <c r="J30">
-        <v>1.5409999999999999</v>
+        <v>2.5680000000000001</v>
       </c>
       <c r="K30">
-        <v>2.5710000000000002</v>
+        <v>3.3959999999999999</v>
       </c>
       <c r="L30">
-        <v>3.831</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.3010000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>16</v>
       </c>
       <c r="C31" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D31">
         <v>16</v>
@@ -1829,33 +1958,30 @@
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
       </c>
       <c r="I31">
-        <v>1.8009999999999999</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="J31">
-        <v>3.5310000000000001</v>
+        <v>3.5880000000000001</v>
       </c>
       <c r="K31">
-        <v>4.5309999999999997</v>
-      </c>
-      <c r="L31">
-        <v>6.1310000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.0419999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>17</v>
       </c>
       <c r="C32" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D32">
         <v>17</v>
@@ -1867,36 +1993,30 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
       </c>
       <c r="I32">
-        <v>0.95099999999999996</v>
+        <v>2.3679999999999999</v>
       </c>
       <c r="J32">
-        <v>1.4810000000000001</v>
+        <v>3.4350000000000001</v>
       </c>
       <c r="K32">
-        <v>2.0310000000000001</v>
-      </c>
-      <c r="L32">
-        <v>3.0409999999999999</v>
-      </c>
-      <c r="M32">
-        <v>5.141</v>
+        <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D33">
         <v>18</v>
@@ -1908,33 +2028,30 @@
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
       </c>
       <c r="I33">
-        <v>1.091</v>
+        <v>1.59</v>
       </c>
       <c r="J33">
-        <v>1.8109999999999999</v>
+        <v>3.7269999999999999</v>
       </c>
       <c r="K33">
-        <v>4.3310000000000004</v>
-      </c>
-      <c r="L33">
-        <v>5.92</v>
+        <v>4.7919999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>19</v>
       </c>
       <c r="C34" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D34">
         <v>19</v>
@@ -1946,36 +2063,30 @@
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
       </c>
       <c r="I34">
-        <v>1.4319999999999999</v>
+        <v>2.5449999999999999</v>
       </c>
       <c r="J34">
-        <v>2.4220000000000002</v>
+        <v>3.9239999999999999</v>
       </c>
       <c r="K34">
-        <v>3.6019999999999999</v>
-      </c>
-      <c r="L34">
-        <v>3.9119999999999999</v>
-      </c>
-      <c r="M34">
-        <v>6.6120000000000001</v>
+        <v>5.5339999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>20</v>
       </c>
       <c r="C35" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D35">
         <v>20</v>
@@ -1987,33 +2098,30 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
       </c>
       <c r="I35">
-        <v>1.671</v>
+        <v>2.3010000000000002</v>
       </c>
       <c r="J35">
-        <v>2.4710000000000001</v>
+        <v>3.2120000000000002</v>
       </c>
       <c r="K35">
-        <v>3.2709999999999999</v>
-      </c>
-      <c r="L35">
-        <v>3.7309999999999999</v>
+        <v>4.2030000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>21</v>
       </c>
       <c r="C36" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D36">
         <v>21</v>
@@ -2025,30 +2133,30 @@
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
       </c>
       <c r="I36">
-        <v>0.79100000000000004</v>
+        <v>1.3720000000000001</v>
       </c>
       <c r="J36">
-        <v>1.732</v>
+        <v>3.0529999999999999</v>
       </c>
       <c r="K36">
-        <v>5.1420000000000003</v>
+        <v>5.1280000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>22</v>
       </c>
       <c r="C37" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D37">
         <v>22</v>
@@ -2060,30 +2168,30 @@
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
       </c>
       <c r="I37">
-        <v>2.3220000000000001</v>
+        <v>1.2829999999999999</v>
       </c>
       <c r="J37">
-        <v>3.8919999999999999</v>
+        <v>2.88</v>
       </c>
       <c r="K37">
-        <v>5.2320000000000002</v>
+        <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>23</v>
       </c>
       <c r="C38" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D38">
         <v>23</v>
@@ -2095,33 +2203,30 @@
         <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H38" t="s">
         <v>12</v>
       </c>
       <c r="I38">
-        <v>1.33</v>
+        <v>1.974</v>
       </c>
       <c r="J38">
-        <v>2.7509999999999999</v>
+        <v>4.26</v>
       </c>
       <c r="K38">
-        <v>3.831</v>
-      </c>
-      <c r="L38">
-        <v>5.7709999999999999</v>
+        <v>5.1689999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>24</v>
       </c>
       <c r="C39" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D39">
         <v>24</v>
@@ -2133,33 +2238,33 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
         <v>12</v>
       </c>
       <c r="I39">
-        <v>1.742</v>
+        <v>1.528</v>
       </c>
       <c r="J39">
-        <v>2.762</v>
+        <v>2.903</v>
       </c>
       <c r="K39">
-        <v>4.6319999999999997</v>
+        <v>4.1150000000000002</v>
       </c>
       <c r="L39">
-        <v>5.7619999999999996</v>
+        <v>4.7160000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>25</v>
       </c>
       <c r="C40" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D40">
         <v>25</v>
@@ -2171,30 +2276,30 @@
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
       </c>
       <c r="I40">
-        <v>0.85099999999999998</v>
+        <v>2.52</v>
       </c>
       <c r="J40">
-        <v>2.1859999999999999</v>
+        <v>4.2960000000000003</v>
       </c>
       <c r="K40">
-        <v>4.9909999999999997</v>
+        <v>5.516</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>26</v>
       </c>
       <c r="C41" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D41">
         <v>26</v>
@@ -2206,33 +2311,36 @@
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s">
         <v>12</v>
       </c>
       <c r="I41">
-        <v>1.972</v>
+        <v>1.677</v>
       </c>
       <c r="J41">
-        <v>2.6720000000000002</v>
+        <v>2.5249999999999999</v>
       </c>
       <c r="K41">
-        <v>3.6709999999999998</v>
+        <v>3.903</v>
       </c>
       <c r="L41">
-        <v>6.4359999999999999</v>
+        <v>5.2009999999999996</v>
+      </c>
+      <c r="M41">
+        <v>5.7229999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>27</v>
       </c>
       <c r="C42" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D42">
         <v>27</v>
@@ -2244,33 +2352,30 @@
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s">
         <v>12</v>
       </c>
       <c r="I42">
-        <v>0.85899999999999999</v>
+        <v>1.4419999999999999</v>
       </c>
       <c r="J42">
-        <v>1.1619999999999999</v>
+        <v>2.5870000000000002</v>
       </c>
       <c r="K42">
-        <v>2.8319999999999999</v>
-      </c>
-      <c r="L42">
-        <v>4.1719999999999997</v>
+        <v>4.6660000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>28</v>
       </c>
       <c r="C43" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D43">
         <v>28</v>
@@ -2282,30 +2387,30 @@
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s">
         <v>12</v>
       </c>
       <c r="I43">
-        <v>2.41</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="J43">
-        <v>3.03</v>
+        <v>2.5110000000000001</v>
       </c>
       <c r="K43">
-        <v>5.98</v>
+        <v>5.1970000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>29</v>
       </c>
       <c r="C44" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D44">
         <v>29</v>
@@ -2317,30 +2422,30 @@
         <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
         <v>12</v>
       </c>
       <c r="I44">
-        <v>2.0710000000000002</v>
+        <v>1.76</v>
       </c>
       <c r="J44">
-        <v>4.5309999999999997</v>
+        <v>3.9809999999999999</v>
       </c>
       <c r="K44">
-        <v>5.6210000000000004</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>30</v>
       </c>
       <c r="C45" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D45">
         <v>30</v>
@@ -2352,27 +2457,33 @@
         <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H45" t="s">
         <v>12</v>
       </c>
       <c r="I45">
-        <v>4.2169999999999996</v>
+        <v>1.607</v>
       </c>
       <c r="J45">
-        <v>6.1109999999999998</v>
+        <v>2.593</v>
+      </c>
+      <c r="K45">
+        <v>3.806</v>
+      </c>
+      <c r="L45">
+        <v>5.7190000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B46">
         <v>31</v>
       </c>
       <c r="C46" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D46">
         <v>31</v>
@@ -2384,33 +2495,30 @@
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H46" t="s">
         <v>12</v>
       </c>
       <c r="I46">
-        <v>1.391</v>
+        <v>2.7519999999999998</v>
       </c>
       <c r="J46">
-        <v>1.756</v>
+        <v>3.5790000000000002</v>
       </c>
       <c r="K46">
-        <v>2.1509999999999998</v>
-      </c>
-      <c r="L46">
-        <v>5.351</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <v>32</v>
       </c>
       <c r="C47" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D47">
         <v>32</v>
@@ -2422,30 +2530,30 @@
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s">
         <v>12</v>
       </c>
       <c r="I47">
-        <v>3.26</v>
+        <v>1.2869999999999999</v>
       </c>
       <c r="J47">
-        <v>4.28</v>
+        <v>3.968</v>
       </c>
       <c r="K47">
-        <v>4.9160000000000004</v>
+        <v>5.2590000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B48">
         <v>33</v>
       </c>
       <c r="C48" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D48">
         <v>33</v>
@@ -2457,30 +2565,30 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s">
         <v>12</v>
       </c>
       <c r="I48">
-        <v>2.1960000000000002</v>
+        <v>2.5259999999999998</v>
       </c>
       <c r="J48">
-        <v>3.2120000000000002</v>
+        <v>4.4409999999999998</v>
       </c>
       <c r="K48">
-        <v>5.9909999999999997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5.2679999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B49">
         <v>34</v>
       </c>
       <c r="C49" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D49">
         <v>34</v>
@@ -2492,27 +2600,30 @@
         <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s">
         <v>12</v>
       </c>
       <c r="I49">
-        <v>2.0419999999999998</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="J49">
-        <v>3.6320000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3.9489999999999998</v>
+      </c>
+      <c r="K49">
+        <v>5.1050000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B50">
         <v>35</v>
       </c>
       <c r="C50" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D50">
         <v>35</v>
@@ -2524,33 +2635,30 @@
         <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s">
         <v>12</v>
       </c>
       <c r="I50">
-        <v>2.407</v>
+        <v>1.3560000000000001</v>
       </c>
       <c r="J50">
-        <v>3.911</v>
+        <v>2.8010000000000002</v>
       </c>
       <c r="K50">
-        <v>5.1719999999999997</v>
-      </c>
-      <c r="L50">
-        <v>6.1920000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3.6339999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B51">
         <v>36</v>
       </c>
       <c r="C51" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D51">
         <v>36</v>
@@ -2562,30 +2670,30 @@
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s">
         <v>12</v>
       </c>
       <c r="I51">
-        <v>2.3759999999999999</v>
+        <v>2.129</v>
       </c>
       <c r="J51">
-        <v>3.2309999999999999</v>
+        <v>4.1139999999999999</v>
       </c>
       <c r="K51">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5.3330000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B52">
         <v>37</v>
       </c>
       <c r="C52" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D52">
         <v>37</v>
@@ -2597,33 +2705,30 @@
         <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H52" t="s">
         <v>12</v>
       </c>
       <c r="I52">
-        <v>0.871</v>
+        <v>1.593</v>
       </c>
       <c r="J52">
-        <v>1.8009999999999999</v>
+        <v>2.42</v>
       </c>
       <c r="K52">
-        <v>4.8319999999999999</v>
-      </c>
-      <c r="L52">
-        <v>5.3710000000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3.7090000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B53">
         <v>38</v>
       </c>
       <c r="C53" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D53">
         <v>38</v>
@@ -2635,33 +2740,33 @@
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s">
         <v>12</v>
       </c>
       <c r="I53">
-        <v>1.5509999999999999</v>
+        <v>1.6759999999999999</v>
       </c>
       <c r="J53">
-        <v>2.0310000000000001</v>
+        <v>2.8140000000000001</v>
       </c>
       <c r="K53">
-        <v>4.4109999999999996</v>
+        <v>3.8759999999999999</v>
       </c>
       <c r="L53">
-        <v>6.218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5.4059999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B54">
         <v>39</v>
       </c>
       <c r="C54" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D54">
         <v>39</v>
@@ -2673,36 +2778,33 @@
         <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s">
         <v>12</v>
       </c>
       <c r="I54">
-        <v>1.8029999999999999</v>
+        <v>1.5169999999999999</v>
       </c>
       <c r="J54">
-        <v>2.0230000000000001</v>
+        <v>2.4260000000000002</v>
       </c>
       <c r="K54">
-        <v>2.8220000000000001</v>
+        <v>3.1819999999999999</v>
       </c>
       <c r="L54">
-        <v>4.41</v>
-      </c>
-      <c r="M54">
-        <v>5.923</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.0869999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B55">
         <v>40</v>
       </c>
       <c r="C55" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D55">
         <v>40</v>
@@ -2714,30 +2816,33 @@
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s">
         <v>12</v>
       </c>
       <c r="I55">
-        <v>3.4809999999999999</v>
+        <v>1.7649999999999999</v>
       </c>
       <c r="J55">
-        <v>4.1120000000000001</v>
+        <v>3.2810000000000001</v>
       </c>
       <c r="K55">
-        <v>5.1920000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.5659999999999998</v>
+      </c>
+      <c r="L55">
+        <v>5.6239999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B56">
         <v>41</v>
       </c>
       <c r="C56" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D56">
         <v>41</v>
@@ -2749,30 +2854,27 @@
         <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s">
         <v>12</v>
       </c>
       <c r="I56">
-        <v>1.5609999999999999</v>
+        <v>2.7570000000000001</v>
       </c>
       <c r="J56">
-        <v>3.1720000000000002</v>
-      </c>
-      <c r="K56">
-        <v>3.8809999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+        <v>3.585</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B57">
         <v>42</v>
       </c>
       <c r="C57" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D57">
         <v>42</v>
@@ -2784,27 +2886,30 @@
         <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H57" t="s">
         <v>12</v>
       </c>
       <c r="I57">
-        <v>2.6309999999999998</v>
+        <v>3.2770000000000001</v>
       </c>
       <c r="J57">
-        <v>3.4159999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.1829999999999998</v>
+      </c>
+      <c r="K57">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B58">
         <v>43</v>
       </c>
       <c r="C58" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D58">
         <v>43</v>
@@ -2816,30 +2921,30 @@
         <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s">
         <v>12</v>
       </c>
       <c r="I58">
-        <v>1.0209999999999999</v>
+        <v>2.069</v>
       </c>
       <c r="J58">
-        <v>5.3810000000000002</v>
+        <v>3.9729999999999999</v>
       </c>
       <c r="K58">
-        <v>5.9710000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.9589999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B59">
         <v>44</v>
       </c>
       <c r="C59" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D59">
         <v>44</v>
@@ -2851,24 +2956,33 @@
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s">
         <v>12</v>
       </c>
       <c r="I59">
-        <v>5.7009999999999996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.988</v>
+      </c>
+      <c r="J59">
+        <v>2.7469999999999999</v>
+      </c>
+      <c r="K59">
+        <v>4.1210000000000004</v>
+      </c>
+      <c r="L59">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B60">
         <v>45</v>
       </c>
       <c r="C60" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D60">
         <v>45</v>
@@ -2880,33 +2994,30 @@
         <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H60" t="s">
         <v>12</v>
       </c>
       <c r="I60">
-        <v>2.871</v>
+        <v>1.137</v>
       </c>
       <c r="J60">
-        <v>3.8119999999999998</v>
+        <v>3.9009999999999998</v>
       </c>
       <c r="K60">
-        <v>5.4109999999999996</v>
-      </c>
-      <c r="L60">
-        <v>6.181</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5.6050000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B61">
         <v>46</v>
       </c>
       <c r="C61" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D61">
         <v>46</v>
@@ -2918,39 +3029,30 @@
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H61" t="s">
         <v>12</v>
       </c>
       <c r="I61">
-        <v>2.1909999999999998</v>
+        <v>2.3740000000000001</v>
       </c>
       <c r="J61">
-        <v>3.141</v>
+        <v>3.5920000000000001</v>
       </c>
       <c r="K61">
-        <v>4.218</v>
-      </c>
-      <c r="L61">
-        <v>4.8109999999999999</v>
-      </c>
-      <c r="M61">
-        <v>5.5110000000000001</v>
-      </c>
-      <c r="N61">
-        <v>6.141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.9059999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B62">
         <v>47</v>
       </c>
       <c r="C62" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D62">
         <v>47</v>
@@ -2962,33 +3064,30 @@
         <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s">
         <v>12</v>
       </c>
       <c r="I62">
-        <v>2.2719999999999998</v>
+        <v>1.677</v>
       </c>
       <c r="J62">
-        <v>4.1509999999999998</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="K62">
-        <v>5.1779999999999999</v>
-      </c>
-      <c r="L62">
-        <v>6.117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5.5839999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B63">
         <v>48</v>
       </c>
       <c r="C63" s="1">
-        <v>45000</v>
+        <v>45013</v>
       </c>
       <c r="D63">
         <v>48</v>
@@ -3000,36 +3099,33 @@
         <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H63" t="s">
         <v>12</v>
       </c>
       <c r="I63">
-        <v>2.581</v>
+        <v>2.6040000000000001</v>
       </c>
       <c r="J63">
-        <v>3.5310000000000001</v>
+        <v>3.9740000000000002</v>
       </c>
       <c r="K63">
-        <v>4.5359999999999996</v>
+        <v>5.2629999999999999</v>
       </c>
       <c r="L63">
-        <v>5.1710000000000003</v>
-      </c>
-      <c r="M63">
-        <v>6.1319999999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+        <v>6.2629999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3041,39 +3137,30 @@
         <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s">
         <v>12</v>
       </c>
       <c r="I64">
-        <v>1.4410000000000001</v>
+        <v>2.843</v>
       </c>
       <c r="J64">
-        <v>4.1609999999999996</v>
+        <v>3.7330000000000001</v>
       </c>
       <c r="K64">
-        <v>4.78</v>
-      </c>
-      <c r="L64">
-        <v>4.9809999999999999</v>
-      </c>
-      <c r="M64">
-        <v>5.0410000000000004</v>
-      </c>
-      <c r="N64">
-        <v>6.6059999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.9530000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3085,36 +3172,30 @@
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
       </c>
       <c r="I65">
-        <v>1.571</v>
+        <v>1.3180000000000001</v>
       </c>
       <c r="J65">
-        <v>2.4420000000000002</v>
+        <v>2.1890000000000001</v>
       </c>
       <c r="K65">
-        <v>3.4009999999999998</v>
-      </c>
-      <c r="L65">
-        <v>4.4909999999999997</v>
-      </c>
-      <c r="M65">
-        <v>5.6710000000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.9089999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -3126,30 +3207,30 @@
         <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
       </c>
       <c r="I66">
-        <v>1.111</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="J66">
-        <v>1.911</v>
+        <v>3.1120000000000001</v>
       </c>
       <c r="K66">
-        <v>3.911</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.5119999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
       <c r="C67" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -3161,36 +3242,30 @@
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
       </c>
       <c r="I67">
-        <v>0.754</v>
+        <v>1.5820000000000001</v>
       </c>
       <c r="J67">
-        <v>2.1480000000000001</v>
+        <v>2.5230000000000001</v>
       </c>
       <c r="K67">
-        <v>2.9950000000000001</v>
-      </c>
-      <c r="L67">
-        <v>3.9119999999999999</v>
-      </c>
-      <c r="M67">
-        <v>4.7469999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B68">
         <v>5</v>
       </c>
       <c r="C68" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -3202,33 +3277,30 @@
         <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H68" t="s">
         <v>12</v>
       </c>
       <c r="I68">
-        <v>0.754</v>
+        <v>2.7629999999999999</v>
       </c>
       <c r="J68">
-        <v>1.8240000000000001</v>
+        <v>3.9329999999999998</v>
       </c>
       <c r="K68">
-        <v>3.3639999999999999</v>
-      </c>
-      <c r="L68">
-        <v>4.3550000000000004</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.1929999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
       <c r="C69" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D69">
         <v>6</v>
@@ -3240,33 +3312,30 @@
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
       </c>
       <c r="I69">
-        <v>0.98599999999999999</v>
+        <v>1.599</v>
       </c>
       <c r="J69">
-        <v>2.4489999999999998</v>
+        <v>3.3490000000000002</v>
       </c>
       <c r="K69">
-        <v>3.827</v>
-      </c>
-      <c r="L69">
-        <v>5.9729999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.4889999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B70">
         <v>7</v>
       </c>
       <c r="C70" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D70">
         <v>7</v>
@@ -3278,33 +3347,30 @@
         <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="H70" t="s">
         <v>12</v>
       </c>
       <c r="I70">
-        <v>0.93</v>
+        <v>2.1240000000000001</v>
       </c>
       <c r="J70">
-        <v>1.611</v>
+        <v>3.754</v>
       </c>
       <c r="K70">
-        <v>2.294</v>
-      </c>
-      <c r="L70">
-        <v>4.4489999999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.9340000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B71">
         <v>8</v>
       </c>
       <c r="C71" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D71">
         <v>8</v>
@@ -3316,27 +3382,30 @@
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H71" t="s">
         <v>12</v>
       </c>
       <c r="I71">
-        <v>2.778</v>
+        <v>1.752</v>
       </c>
       <c r="J71">
-        <v>5.5570000000000004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="K71">
+        <v>4.6920000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B72">
         <v>9</v>
       </c>
       <c r="C72" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D72">
         <v>9</v>
@@ -3348,24 +3417,30 @@
         <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="H72" t="s">
         <v>12</v>
       </c>
       <c r="I72">
-        <v>2.3029999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="J72">
+        <v>3.5030000000000001</v>
+      </c>
+      <c r="K72">
+        <v>4.7629999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B73">
         <v>10</v>
       </c>
       <c r="C73" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D73">
         <v>10</v>
@@ -3377,33 +3452,30 @@
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H73" t="s">
         <v>12</v>
       </c>
       <c r="I73">
-        <v>0.68200000000000005</v>
+        <v>2.5329999999999999</v>
       </c>
       <c r="J73">
-        <v>1.286</v>
+        <v>4.2729999999999997</v>
       </c>
       <c r="K73">
-        <v>1.8879999999999999</v>
-      </c>
-      <c r="L73">
-        <v>3.952</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.5330000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B74">
         <v>11</v>
       </c>
       <c r="C74" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D74">
         <v>11</v>
@@ -3415,36 +3487,30 @@
         <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
       </c>
       <c r="I74">
-        <v>1.1419999999999999</v>
+        <v>1.5720000000000001</v>
       </c>
       <c r="J74">
-        <v>1.823</v>
+        <v>4.1120000000000001</v>
       </c>
       <c r="K74">
-        <v>2.8929999999999998</v>
-      </c>
-      <c r="L74">
-        <v>4.133</v>
-      </c>
-      <c r="M74">
         <v>4.9720000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B75">
         <v>12</v>
       </c>
       <c r="C75" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D75">
         <v>12</v>
@@ -3456,30 +3522,30 @@
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H75" t="s">
         <v>12</v>
       </c>
       <c r="I75">
-        <v>0.68100000000000005</v>
+        <v>1.8220000000000001</v>
       </c>
       <c r="J75">
-        <v>2.3660000000000001</v>
+        <v>3.8820000000000001</v>
       </c>
       <c r="K75">
-        <v>5.5270000000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.8129999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B76">
         <v>13</v>
       </c>
       <c r="C76" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D76">
         <v>13</v>
@@ -3491,30 +3557,30 @@
         <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H76" t="s">
         <v>12</v>
       </c>
       <c r="I76">
-        <v>0.90800000000000003</v>
+        <v>1.403</v>
       </c>
       <c r="J76">
-        <v>1.6679999999999999</v>
+        <v>3.0529999999999999</v>
       </c>
       <c r="K76">
-        <v>2.5030000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.8920000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B77">
         <v>14</v>
       </c>
       <c r="C77" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D77">
         <v>14</v>
@@ -3526,30 +3592,27 @@
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H77" t="s">
         <v>12</v>
       </c>
       <c r="I77">
-        <v>1.2190000000000001</v>
+        <v>1.84</v>
       </c>
       <c r="J77">
-        <v>1.992</v>
-      </c>
-      <c r="K77">
-        <v>4.4740000000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B78">
         <v>15</v>
       </c>
       <c r="C78" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D78">
         <v>15</v>
@@ -3561,27 +3624,30 @@
         <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="H78" t="s">
         <v>12</v>
       </c>
       <c r="I78">
-        <v>0.83899999999999997</v>
+        <v>2.1240000000000001</v>
       </c>
       <c r="J78">
-        <v>1.984</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.3039999999999998</v>
+      </c>
+      <c r="K78">
+        <v>4.9539999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B79">
         <v>16</v>
       </c>
       <c r="C79" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D79">
         <v>16</v>
@@ -3593,30 +3659,30 @@
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="H79" t="s">
         <v>12</v>
       </c>
       <c r="I79">
-        <v>0.52300000000000002</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="J79">
-        <v>2.6030000000000002</v>
+        <v>3.9830000000000001</v>
       </c>
       <c r="K79">
-        <v>4.3840000000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.0190000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B80">
         <v>17</v>
       </c>
       <c r="C80" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D80">
         <v>17</v>
@@ -3628,33 +3694,30 @@
         <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="H80" t="s">
         <v>12</v>
       </c>
       <c r="I80">
-        <v>0.61</v>
+        <v>1.6539999999999999</v>
       </c>
       <c r="J80">
-        <v>1.2170000000000001</v>
+        <v>2.6629999999999998</v>
       </c>
       <c r="K80">
-        <v>2.5960000000000001</v>
-      </c>
-      <c r="L80">
-        <v>4.2869999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.9539999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B81">
         <v>18</v>
       </c>
       <c r="C81" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D81">
         <v>18</v>
@@ -3666,30 +3729,33 @@
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="H81" t="s">
         <v>12</v>
       </c>
       <c r="I81">
-        <v>1.0680000000000001</v>
+        <v>2.2080000000000002</v>
       </c>
       <c r="J81">
-        <v>3.3839999999999999</v>
+        <v>3.3879999999999999</v>
       </c>
       <c r="K81">
-        <v>5.165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.6980000000000004</v>
+      </c>
+      <c r="L81">
+        <v>5.7279999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B82">
         <v>19</v>
       </c>
       <c r="C82" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D82">
         <v>19</v>
@@ -3701,33 +3767,30 @@
         <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="H82" t="s">
         <v>12</v>
       </c>
       <c r="I82">
-        <v>1.5329999999999999</v>
+        <v>2.5129999999999999</v>
       </c>
       <c r="J82">
-        <v>3.9180000000000001</v>
+        <v>3.3730000000000002</v>
       </c>
       <c r="K82">
-        <v>4.6020000000000003</v>
-      </c>
-      <c r="L82">
-        <v>5.4560000000000004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.9329999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B83">
         <v>20</v>
       </c>
       <c r="C83" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D83">
         <v>20</v>
@@ -3739,30 +3802,30 @@
         <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="H83" t="s">
         <v>12</v>
       </c>
       <c r="I83">
-        <v>4.399</v>
+        <v>2.8820000000000001</v>
       </c>
       <c r="J83">
-        <v>5.0819999999999999</v>
+        <v>3.8820000000000001</v>
       </c>
       <c r="K83">
-        <v>6.306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B84">
         <v>21</v>
       </c>
       <c r="C84" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D84">
         <v>21</v>
@@ -3774,30 +3837,30 @@
         <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="H84" t="s">
         <v>12</v>
       </c>
       <c r="I84">
-        <v>1.6970000000000001</v>
+        <v>2.1030000000000002</v>
       </c>
       <c r="J84">
-        <v>3.0190000000000001</v>
+        <v>2.9430000000000001</v>
       </c>
       <c r="K84">
-        <v>5.399</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.7330000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B85">
         <v>22</v>
       </c>
       <c r="C85" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D85">
         <v>22</v>
@@ -3809,33 +3872,33 @@
         <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="H85" t="s">
         <v>12</v>
       </c>
       <c r="I85">
-        <v>2.7669999999999999</v>
+        <v>1.339</v>
       </c>
       <c r="J85">
-        <v>3.3679999999999999</v>
+        <v>3.2090000000000001</v>
       </c>
       <c r="K85">
-        <v>3.8180000000000001</v>
+        <v>4.4080000000000004</v>
       </c>
       <c r="L85">
-        <v>5.1100000000000003</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.6689999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B86">
         <v>23</v>
       </c>
       <c r="C86" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D86">
         <v>23</v>
@@ -3847,33 +3910,30 @@
         <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="H86" t="s">
         <v>12</v>
       </c>
       <c r="I86">
-        <v>1.927</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="J86">
-        <v>3.391</v>
+        <v>4.1120000000000001</v>
       </c>
       <c r="K86">
-        <v>3.7610000000000001</v>
-      </c>
-      <c r="L86">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.3520000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B87">
         <v>24</v>
       </c>
       <c r="C87" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D87">
         <v>24</v>
@@ -3885,33 +3945,33 @@
         <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="H87" t="s">
         <v>12</v>
       </c>
       <c r="I87">
-        <v>0.82299999999999995</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="J87">
-        <v>1.347</v>
+        <v>3.5219999999999998</v>
       </c>
       <c r="K87">
-        <v>3.58</v>
+        <v>4.3819999999999997</v>
       </c>
       <c r="L87">
-        <v>4.3369999999999997</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.3109999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B88">
         <v>25</v>
       </c>
       <c r="C88" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D88">
         <v>25</v>
@@ -3923,30 +3983,30 @@
         <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="H88" t="s">
         <v>12</v>
       </c>
       <c r="I88">
-        <v>1.3049999999999999</v>
+        <v>1.802</v>
       </c>
       <c r="J88">
-        <v>4.0780000000000003</v>
+        <v>3.302</v>
       </c>
       <c r="K88">
-        <v>5.4569999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.3319999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B89">
         <v>26</v>
       </c>
       <c r="C89" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D89">
         <v>26</v>
@@ -3958,30 +4018,30 @@
         <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="H89" t="s">
         <v>12</v>
       </c>
       <c r="I89">
-        <v>0.67100000000000004</v>
+        <v>1.2569999999999999</v>
       </c>
       <c r="J89">
-        <v>2.6080000000000001</v>
+        <v>3.7770000000000001</v>
       </c>
       <c r="K89">
-        <v>3.7559999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.3769999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B90">
         <v>27</v>
       </c>
       <c r="C90" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D90">
         <v>27</v>
@@ -3993,27 +4053,30 @@
         <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="H90" t="s">
         <v>12</v>
       </c>
       <c r="I90">
-        <v>0.83199999999999996</v>
+        <v>1.173</v>
       </c>
       <c r="J90">
-        <v>1.8260000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="K90">
+        <v>2.8929999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B91">
         <v>28</v>
       </c>
       <c r="C91" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D91">
         <v>28</v>
@@ -4025,36 +4088,30 @@
         <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="H91" t="s">
         <v>12</v>
       </c>
       <c r="I91">
-        <v>0.751</v>
+        <v>1.2529999999999999</v>
       </c>
       <c r="J91">
-        <v>1.9</v>
+        <v>2.4820000000000002</v>
       </c>
       <c r="K91">
-        <v>2.8929999999999998</v>
-      </c>
-      <c r="L91">
-        <v>3.8119999999999998</v>
-      </c>
-      <c r="M91">
-        <v>4.9630000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.4029999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B92">
         <v>29</v>
       </c>
       <c r="C92" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D92">
         <v>29</v>
@@ -4066,30 +4123,30 @@
         <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="H92" t="s">
         <v>12</v>
       </c>
       <c r="I92">
-        <v>2.5539999999999998</v>
+        <v>1.5109999999999999</v>
       </c>
       <c r="J92">
-        <v>4.01</v>
+        <v>3.3010000000000002</v>
       </c>
       <c r="K92">
-        <v>5.62</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.6920000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B93">
         <v>30</v>
       </c>
       <c r="C93" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D93">
         <v>30</v>
@@ -4101,36 +4158,33 @@
         <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="H93" t="s">
         <v>12</v>
       </c>
       <c r="I93">
-        <v>2.298</v>
+        <v>1.3320000000000001</v>
       </c>
       <c r="J93">
-        <v>3.0609999999999999</v>
+        <v>2.5920000000000001</v>
       </c>
       <c r="K93">
-        <v>3.6659999999999999</v>
+        <v>3.7719999999999998</v>
       </c>
       <c r="L93">
-        <v>5.2089999999999996</v>
-      </c>
-      <c r="M93">
-        <v>6.0449999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.3319999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B94">
         <v>31</v>
       </c>
       <c r="C94" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D94">
         <v>31</v>
@@ -4142,30 +4196,30 @@
         <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H94" t="s">
         <v>12</v>
       </c>
       <c r="I94">
-        <v>0.83099999999999996</v>
+        <v>1.1020000000000001</v>
       </c>
       <c r="J94">
-        <v>1.28</v>
+        <v>4.1719999999999997</v>
       </c>
       <c r="K94">
-        <v>5.2869999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5.431</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B95">
         <v>32</v>
       </c>
       <c r="C95" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D95">
         <v>32</v>
@@ -4177,30 +4231,30 @@
         <v>10</v>
       </c>
       <c r="G95" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H95" t="s">
         <v>12</v>
       </c>
       <c r="I95">
-        <v>1.0660000000000001</v>
+        <v>1.752</v>
       </c>
       <c r="J95">
-        <v>1.76</v>
+        <v>3.3319999999999999</v>
       </c>
       <c r="K95">
-        <v>3.2229999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.5119999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B96">
         <v>33</v>
       </c>
       <c r="C96" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D96">
         <v>33</v>
@@ -4212,27 +4266,30 @@
         <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H96" t="s">
         <v>12</v>
       </c>
       <c r="I96">
-        <v>0.9</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="J96">
-        <v>3.5950000000000002</v>
+        <v>3.0529999999999999</v>
+      </c>
+      <c r="K96">
+        <v>5.0529999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B97">
         <v>34</v>
       </c>
       <c r="C97" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D97">
         <v>34</v>
@@ -4244,33 +4301,30 @@
         <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H97" t="s">
         <v>12</v>
       </c>
       <c r="I97">
-        <v>0.52900000000000003</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="J97">
-        <v>1.917</v>
+        <v>3.0939999999999999</v>
       </c>
       <c r="K97">
-        <v>2.9870000000000001</v>
-      </c>
-      <c r="L97">
-        <v>4.4530000000000003</v>
+        <v>4.9139999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B98">
         <v>35</v>
       </c>
       <c r="C98" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D98">
         <v>35</v>
@@ -4282,30 +4336,33 @@
         <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H98" t="s">
         <v>12</v>
       </c>
       <c r="I98">
-        <v>1.1479999999999999</v>
+        <v>2.3929999999999998</v>
       </c>
       <c r="J98">
-        <v>1.597</v>
+        <v>3.173</v>
       </c>
       <c r="K98">
-        <v>2.048</v>
+        <v>4.1120000000000001</v>
+      </c>
+      <c r="L98">
+        <v>5.1520000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B99">
         <v>36</v>
       </c>
       <c r="C99" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D99">
         <v>36</v>
@@ -4317,30 +4374,30 @@
         <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="H99" t="s">
         <v>12</v>
       </c>
       <c r="I99">
-        <v>1.2909999999999999</v>
+        <v>1.252</v>
       </c>
       <c r="J99">
-        <v>2.2770000000000001</v>
+        <v>2.5710000000000002</v>
       </c>
       <c r="K99">
-        <v>5.7279999999999998</v>
+        <v>5.1120000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B100">
         <v>37</v>
       </c>
       <c r="C100" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D100">
         <v>37</v>
@@ -4352,30 +4409,30 @@
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H100" t="s">
         <v>12</v>
       </c>
       <c r="I100">
-        <v>0.90300000000000002</v>
+        <v>2.5019999999999998</v>
       </c>
       <c r="J100">
-        <v>1.976</v>
+        <v>3.7519999999999998</v>
       </c>
       <c r="K100">
-        <v>2.5830000000000002</v>
+        <v>5.5519999999999996</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B101">
         <v>38</v>
       </c>
       <c r="C101" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D101">
         <v>38</v>
@@ -4387,30 +4444,30 @@
         <v>10</v>
       </c>
       <c r="G101" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H101" t="s">
         <v>12</v>
       </c>
       <c r="I101">
-        <v>1.911</v>
+        <v>2.1480000000000001</v>
       </c>
       <c r="J101">
-        <v>3.2320000000000002</v>
+        <v>4.109</v>
       </c>
       <c r="K101">
-        <v>4.6909999999999998</v>
+        <v>5.4989999999999997</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B102">
         <v>39</v>
       </c>
       <c r="C102" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D102">
         <v>39</v>
@@ -4422,33 +4479,30 @@
         <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="H102" t="s">
         <v>12</v>
       </c>
       <c r="I102">
-        <v>1.365</v>
+        <v>2.7429999999999999</v>
       </c>
       <c r="J102">
-        <v>1.891</v>
+        <v>3.6930000000000001</v>
       </c>
       <c r="K102">
-        <v>3.5070000000000001</v>
-      </c>
-      <c r="L102">
-        <v>4.5030000000000001</v>
+        <v>4.6929999999999996</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B103">
         <v>40</v>
       </c>
       <c r="C103" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D103">
         <v>40</v>
@@ -4460,33 +4514,30 @@
         <v>10</v>
       </c>
       <c r="G103" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H103" t="s">
         <v>12</v>
       </c>
       <c r="I103">
-        <v>1.6779999999999999</v>
+        <v>2.1230000000000002</v>
       </c>
       <c r="J103">
-        <v>3.1509999999999998</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="K103">
-        <v>4.9219999999999997</v>
-      </c>
-      <c r="L103">
-        <v>5.6820000000000004</v>
+        <v>4.9029999999999996</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B104">
         <v>41</v>
       </c>
       <c r="C104" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D104">
         <v>41</v>
@@ -4498,33 +4549,30 @@
         <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="H104" t="s">
         <v>12</v>
       </c>
       <c r="I104">
-        <v>1.53</v>
+        <v>2.6920000000000002</v>
       </c>
       <c r="J104">
-        <v>2.2930000000000001</v>
+        <v>4.2720000000000002</v>
       </c>
       <c r="K104">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="L104">
-        <v>5.306</v>
+        <v>5.2119999999999997</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B105">
         <v>42</v>
       </c>
       <c r="C105" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D105">
         <v>42</v>
@@ -4536,33 +4584,30 @@
         <v>10</v>
       </c>
       <c r="G105" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="H105" t="s">
         <v>12</v>
       </c>
       <c r="I105">
-        <v>1.137</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="J105">
-        <v>2.6880000000000002</v>
+        <v>3.1589999999999998</v>
       </c>
       <c r="K105">
-        <v>4.3019999999999996</v>
-      </c>
-      <c r="L105">
-        <v>4.9169999999999998</v>
+        <v>4.2489999999999997</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B106">
         <v>43</v>
       </c>
       <c r="C106" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D106">
         <v>43</v>
@@ -4574,33 +4619,30 @@
         <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="H106" t="s">
         <v>12</v>
       </c>
       <c r="I106">
-        <v>1.5169999999999999</v>
+        <v>3.0920000000000001</v>
       </c>
       <c r="J106">
-        <v>2.3450000000000002</v>
+        <v>4.1120000000000001</v>
       </c>
       <c r="K106">
-        <v>2.9460000000000002</v>
-      </c>
-      <c r="L106">
-        <v>4.3150000000000004</v>
+        <v>5.2919999999999998</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B107">
         <v>44</v>
       </c>
       <c r="C107" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D107">
         <v>44</v>
@@ -4612,33 +4654,33 @@
         <v>10</v>
       </c>
       <c r="G107" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="H107" t="s">
         <v>12</v>
       </c>
       <c r="I107">
-        <v>1.9830000000000001</v>
+        <v>1.3220000000000001</v>
       </c>
       <c r="J107">
-        <v>3.1360000000000001</v>
+        <v>2.2719999999999998</v>
       </c>
       <c r="K107">
-        <v>4.3499999999999996</v>
+        <v>3.7029999999999998</v>
       </c>
       <c r="L107">
-        <v>6.1680000000000001</v>
+        <v>4.5529999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B108">
         <v>45</v>
       </c>
       <c r="C108" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D108">
         <v>45</v>
@@ -4650,33 +4692,30 @@
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H108" t="s">
         <v>12</v>
       </c>
       <c r="I108">
-        <v>0.754</v>
+        <v>1.333</v>
       </c>
       <c r="J108">
-        <v>2.7469999999999999</v>
+        <v>2.2730000000000001</v>
       </c>
       <c r="K108">
-        <v>3.5129999999999999</v>
-      </c>
-      <c r="L108">
-        <v>4.508</v>
+        <v>3.2130000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B109">
         <v>46</v>
       </c>
       <c r="C109" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D109">
         <v>46</v>
@@ -4688,30 +4727,33 @@
         <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H109" t="s">
         <v>12</v>
       </c>
       <c r="I109">
-        <v>1.6160000000000001</v>
+        <v>1.482</v>
       </c>
       <c r="J109">
-        <v>2.6859999999999999</v>
+        <v>2.5070000000000001</v>
       </c>
       <c r="K109">
-        <v>3.8479999999999999</v>
+        <v>3.367</v>
+      </c>
+      <c r="L109">
+        <v>5.1470000000000002</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B110">
         <v>47</v>
       </c>
       <c r="C110" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D110">
         <v>47</v>
@@ -4723,30 +4765,30 @@
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="H110" t="s">
         <v>12</v>
       </c>
       <c r="I110">
-        <v>1.9219999999999999</v>
+        <v>1.6619999999999999</v>
       </c>
       <c r="J110">
-        <v>3.9329999999999998</v>
+        <v>2.282</v>
       </c>
       <c r="K110">
-        <v>4.7850000000000001</v>
+        <v>3.9319999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B111">
         <v>48</v>
       </c>
       <c r="C111" s="1">
-        <v>45000</v>
+        <v>45014</v>
       </c>
       <c r="D111">
         <v>48</v>
@@ -4764,13 +4806,1690 @@
         <v>12</v>
       </c>
       <c r="I111">
-        <v>0.52</v>
+        <v>1.472</v>
       </c>
       <c r="J111">
-        <v>3.681</v>
+        <v>3.1320000000000001</v>
       </c>
       <c r="K111">
-        <v>5.5979999999999999</v>
+        <v>4.2130000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>119</v>
+      </c>
+      <c r="H112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112">
+        <v>3.532</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>120</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113">
+        <v>0.71</v>
+      </c>
+      <c r="J113">
+        <v>3.601</v>
+      </c>
+      <c r="K113">
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>121</v>
+      </c>
+      <c r="H114" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114">
+        <v>2.452</v>
+      </c>
+      <c r="J114">
+        <v>3.2320000000000002</v>
+      </c>
+      <c r="K114">
+        <v>4.0119999999999996</v>
+      </c>
+      <c r="L114">
+        <v>5.032</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>122</v>
+      </c>
+      <c r="H115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115">
+        <v>3.61</v>
+      </c>
+      <c r="J115">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="K115">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>123</v>
+      </c>
+      <c r="H116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116">
+        <v>1.8120000000000001</v>
+      </c>
+      <c r="J116">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="K116">
+        <v>4.5019999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>6</v>
+      </c>
+      <c r="C117" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>124</v>
+      </c>
+      <c r="H117" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117">
+        <v>3.8029999999999999</v>
+      </c>
+      <c r="J117">
+        <v>5.0430000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>7</v>
+      </c>
+      <c r="C118" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D118">
+        <v>7</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>125</v>
+      </c>
+      <c r="H118" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="J118">
+        <v>3.7730000000000001</v>
+      </c>
+      <c r="K118">
+        <v>5.6029999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D119">
+        <v>8</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>126</v>
+      </c>
+      <c r="H119" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119">
+        <v>2.7730000000000001</v>
+      </c>
+      <c r="J119">
+        <v>3.633</v>
+      </c>
+      <c r="K119">
+        <v>4.4089999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>9</v>
+      </c>
+      <c r="C120" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D120">
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
+        <v>127</v>
+      </c>
+      <c r="H120" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="J120">
+        <v>2.762</v>
+      </c>
+      <c r="K120">
+        <v>3.5430000000000001</v>
+      </c>
+      <c r="L120">
+        <v>4.7930000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121">
+        <v>10</v>
+      </c>
+      <c r="C121" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>128</v>
+      </c>
+      <c r="H121" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121">
+        <v>2.9020000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122">
+        <v>11</v>
+      </c>
+      <c r="C122" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D122">
+        <v>11</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>129</v>
+      </c>
+      <c r="H122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122">
+        <v>4.0140000000000002</v>
+      </c>
+      <c r="J122">
+        <v>5.0350000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>118</v>
+      </c>
+      <c r="B123">
+        <v>12</v>
+      </c>
+      <c r="C123" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D123">
+        <v>12</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>130</v>
+      </c>
+      <c r="H123" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123">
+        <v>3.113</v>
+      </c>
+      <c r="J123">
+        <v>3.9630000000000001</v>
+      </c>
+      <c r="K123">
+        <v>4.9189999999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>118</v>
+      </c>
+      <c r="B124">
+        <v>13</v>
+      </c>
+      <c r="C124" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D124">
+        <v>13</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>131</v>
+      </c>
+      <c r="H124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124">
+        <v>1.8120000000000001</v>
+      </c>
+      <c r="J124">
+        <v>3.722</v>
+      </c>
+      <c r="K124">
+        <v>4.9320000000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>118</v>
+      </c>
+      <c r="B125">
+        <v>14</v>
+      </c>
+      <c r="C125" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D125">
+        <v>14</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>132</v>
+      </c>
+      <c r="H125" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125">
+        <v>1.863</v>
+      </c>
+      <c r="J125">
+        <v>3.363</v>
+      </c>
+      <c r="K125">
+        <v>5.2729999999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>118</v>
+      </c>
+      <c r="B126">
+        <v>15</v>
+      </c>
+      <c r="C126" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D126">
+        <v>15</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>133</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126">
+        <v>3.532</v>
+      </c>
+      <c r="J126">
+        <v>4.3920000000000003</v>
+      </c>
+      <c r="K126">
+        <v>5.1719999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127">
+        <v>16</v>
+      </c>
+      <c r="C127" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D127">
+        <v>16</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>134</v>
+      </c>
+      <c r="H127" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="J127">
+        <v>2.673</v>
+      </c>
+      <c r="K127">
+        <v>5.1180000000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128">
+        <v>17</v>
+      </c>
+      <c r="C128" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D128">
+        <v>17</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>135</v>
+      </c>
+      <c r="H128" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128">
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="J128">
+        <v>5.8920000000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>118</v>
+      </c>
+      <c r="B129">
+        <v>18</v>
+      </c>
+      <c r="C129" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D129">
+        <v>18</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>136</v>
+      </c>
+      <c r="H129" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129">
+        <v>1.8120000000000001</v>
+      </c>
+      <c r="J129">
+        <v>2.992</v>
+      </c>
+      <c r="K129">
+        <v>5.202</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>118</v>
+      </c>
+      <c r="B130">
+        <v>19</v>
+      </c>
+      <c r="C130" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D130">
+        <v>19</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>137</v>
+      </c>
+      <c r="H130" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="J130">
+        <v>3.512</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>118</v>
+      </c>
+      <c r="B131">
+        <v>20</v>
+      </c>
+      <c r="C131" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D131">
+        <v>20</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>138</v>
+      </c>
+      <c r="H131" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131">
+        <v>1.282</v>
+      </c>
+      <c r="J131">
+        <v>2.3919999999999999</v>
+      </c>
+      <c r="K131">
+        <v>3.2519999999999998</v>
+      </c>
+      <c r="L131">
+        <v>4.5119999999999996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>118</v>
+      </c>
+      <c r="B132">
+        <v>21</v>
+      </c>
+      <c r="C132" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D132">
+        <v>21</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s">
+        <v>139</v>
+      </c>
+      <c r="H132" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="J132">
+        <v>4.306</v>
+      </c>
+      <c r="K132">
+        <v>5.1849999999999996</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133">
+        <v>22</v>
+      </c>
+      <c r="C133" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D133">
+        <v>22</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>140</v>
+      </c>
+      <c r="H133" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133">
+        <v>1.982</v>
+      </c>
+      <c r="J133">
+        <v>3.952</v>
+      </c>
+      <c r="K133">
+        <v>4.8819999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>118</v>
+      </c>
+      <c r="B134">
+        <v>23</v>
+      </c>
+      <c r="C134" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D134">
+        <v>23</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s">
+        <v>141</v>
+      </c>
+      <c r="H134" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134">
+        <v>2.492</v>
+      </c>
+      <c r="J134">
+        <v>3.512</v>
+      </c>
+      <c r="K134">
+        <v>4.8819999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>118</v>
+      </c>
+      <c r="B135">
+        <v>24</v>
+      </c>
+      <c r="C135" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D135">
+        <v>24</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>142</v>
+      </c>
+      <c r="H135" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135">
+        <v>1.893</v>
+      </c>
+      <c r="J135">
+        <v>4.0529999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>118</v>
+      </c>
+      <c r="B136">
+        <v>25</v>
+      </c>
+      <c r="C136" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D136">
+        <v>25</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s">
+        <v>143</v>
+      </c>
+      <c r="H136" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136">
+        <v>1.321</v>
+      </c>
+      <c r="J136">
+        <v>2.121</v>
+      </c>
+      <c r="K136">
+        <v>2.9809999999999999</v>
+      </c>
+      <c r="L136">
+        <v>3.7610000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>118</v>
+      </c>
+      <c r="B137">
+        <v>26</v>
+      </c>
+      <c r="C137" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D137">
+        <v>26</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>144</v>
+      </c>
+      <c r="H137" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="J137">
+        <v>3.3730000000000002</v>
+      </c>
+      <c r="K137">
+        <v>4.5519999999999996</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>118</v>
+      </c>
+      <c r="B138">
+        <v>27</v>
+      </c>
+      <c r="C138" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D138">
+        <v>27</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s">
+        <v>145</v>
+      </c>
+      <c r="H138" t="s">
+        <v>12</v>
+      </c>
+      <c r="I138">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="J138">
+        <v>3.0819999999999999</v>
+      </c>
+      <c r="K138">
+        <v>3.9420000000000002</v>
+      </c>
+      <c r="L138">
+        <v>5.0419999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>118</v>
+      </c>
+      <c r="B139">
+        <v>28</v>
+      </c>
+      <c r="C139" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D139">
+        <v>28</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>146</v>
+      </c>
+      <c r="H139" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139">
+        <v>3.472</v>
+      </c>
+      <c r="J139">
+        <v>4.4119999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>118</v>
+      </c>
+      <c r="B140">
+        <v>29</v>
+      </c>
+      <c r="C140" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D140">
+        <v>29</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>147</v>
+      </c>
+      <c r="H140" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="J140">
+        <v>5.383</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>118</v>
+      </c>
+      <c r="B141">
+        <v>30</v>
+      </c>
+      <c r="C141" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D141">
+        <v>30</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>148</v>
+      </c>
+      <c r="H141" t="s">
+        <v>12</v>
+      </c>
+      <c r="I141">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="J141">
+        <v>2.573</v>
+      </c>
+      <c r="K141">
+        <v>4.1029999999999998</v>
+      </c>
+      <c r="L141">
+        <v>5.3029999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>118</v>
+      </c>
+      <c r="B142">
+        <v>31</v>
+      </c>
+      <c r="C142" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D142">
+        <v>31</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s">
+        <v>149</v>
+      </c>
+      <c r="H142" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142">
+        <v>3.7719999999999998</v>
+      </c>
+      <c r="J142">
+        <v>4.7220000000000004</v>
+      </c>
+      <c r="K142">
+        <v>5.6120000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>118</v>
+      </c>
+      <c r="B143">
+        <v>32</v>
+      </c>
+      <c r="C143" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D143">
+        <v>32</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>150</v>
+      </c>
+      <c r="H143" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143">
+        <v>3.202</v>
+      </c>
+      <c r="J143">
+        <v>4.2720000000000002</v>
+      </c>
+      <c r="K143">
+        <v>5.6920000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>118</v>
+      </c>
+      <c r="B144">
+        <v>33</v>
+      </c>
+      <c r="C144" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D144">
+        <v>33</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s">
+        <v>151</v>
+      </c>
+      <c r="H144" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144">
+        <v>1.202</v>
+      </c>
+      <c r="J144">
+        <v>2.6419999999999999</v>
+      </c>
+      <c r="K144">
+        <v>3.5830000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>118</v>
+      </c>
+      <c r="B145">
+        <v>34</v>
+      </c>
+      <c r="C145" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D145">
+        <v>34</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" t="s">
+        <v>152</v>
+      </c>
+      <c r="H145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="J145">
+        <v>3.153</v>
+      </c>
+      <c r="K145">
+        <v>4.3529999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>118</v>
+      </c>
+      <c r="B146">
+        <v>35</v>
+      </c>
+      <c r="C146" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D146">
+        <v>35</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>153</v>
+      </c>
+      <c r="H146" t="s">
+        <v>12</v>
+      </c>
+      <c r="I146">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="J146">
+        <v>3.6269999999999998</v>
+      </c>
+      <c r="K146">
+        <v>4.6920000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>118</v>
+      </c>
+      <c r="B147">
+        <v>36</v>
+      </c>
+      <c r="C147" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D147">
+        <v>36</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" t="s">
+        <v>154</v>
+      </c>
+      <c r="H147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147">
+        <v>1.494</v>
+      </c>
+      <c r="J147">
+        <v>2.274</v>
+      </c>
+      <c r="K147">
+        <v>3.133</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>118</v>
+      </c>
+      <c r="B148">
+        <v>37</v>
+      </c>
+      <c r="C148" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D148">
+        <v>37</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s">
+        <v>155</v>
+      </c>
+      <c r="H148" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148">
+        <v>1.613</v>
+      </c>
+      <c r="J148">
+        <v>3.1779999999999999</v>
+      </c>
+      <c r="K148">
+        <v>4.0229999999999997</v>
+      </c>
+      <c r="L148">
+        <v>5.0780000000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>118</v>
+      </c>
+      <c r="B149">
+        <v>38</v>
+      </c>
+      <c r="C149" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D149">
+        <v>38</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" t="s">
+        <v>156</v>
+      </c>
+      <c r="H149" t="s">
+        <v>12</v>
+      </c>
+      <c r="I149">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="J149">
+        <v>2.5190000000000001</v>
+      </c>
+      <c r="K149">
+        <v>3.6080000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>118</v>
+      </c>
+      <c r="B150">
+        <v>39</v>
+      </c>
+      <c r="C150" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D150">
+        <v>39</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s">
+        <v>157</v>
+      </c>
+      <c r="H150" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150">
+        <v>2.37</v>
+      </c>
+      <c r="J150">
+        <v>4.1909999999999998</v>
+      </c>
+      <c r="K150">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>118</v>
+      </c>
+      <c r="B151">
+        <v>40</v>
+      </c>
+      <c r="C151" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D151">
+        <v>40</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" t="s">
+        <v>158</v>
+      </c>
+      <c r="H151" t="s">
+        <v>12</v>
+      </c>
+      <c r="I151">
+        <v>1.242</v>
+      </c>
+      <c r="J151">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="K151">
+        <v>4.3419999999999996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>118</v>
+      </c>
+      <c r="B152">
+        <v>41</v>
+      </c>
+      <c r="C152" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D152">
+        <v>41</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s">
+        <v>159</v>
+      </c>
+      <c r="H152" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152">
+        <v>2.9159999999999999</v>
+      </c>
+      <c r="J152">
+        <v>3.94</v>
+      </c>
+      <c r="K152">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>118</v>
+      </c>
+      <c r="B153">
+        <v>42</v>
+      </c>
+      <c r="C153" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D153">
+        <v>42</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>160</v>
+      </c>
+      <c r="H153" t="s">
+        <v>12</v>
+      </c>
+      <c r="I153">
+        <v>3.1139999999999999</v>
+      </c>
+      <c r="J153">
+        <v>4.2949999999999999</v>
+      </c>
+      <c r="K153">
+        <v>5.6340000000000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>118</v>
+      </c>
+      <c r="B154">
+        <v>43</v>
+      </c>
+      <c r="C154" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D154">
+        <v>43</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s">
+        <v>161</v>
+      </c>
+      <c r="H154" t="s">
+        <v>12</v>
+      </c>
+      <c r="I154">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="J154">
+        <v>3.5230000000000001</v>
+      </c>
+      <c r="K154">
+        <v>4.5279999999999996</v>
+      </c>
+      <c r="L154">
+        <v>5.3929999999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>118</v>
+      </c>
+      <c r="B155">
+        <v>44</v>
+      </c>
+      <c r="C155" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D155">
+        <v>44</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" t="s">
+        <v>162</v>
+      </c>
+      <c r="H155" t="s">
+        <v>12</v>
+      </c>
+      <c r="I155">
+        <v>1.722</v>
+      </c>
+      <c r="J155">
+        <v>2.762</v>
+      </c>
+      <c r="K155">
+        <v>3.9220000000000002</v>
+      </c>
+      <c r="L155">
+        <v>5.1680000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>118</v>
+      </c>
+      <c r="B156">
+        <v>45</v>
+      </c>
+      <c r="C156" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D156">
+        <v>45</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>163</v>
+      </c>
+      <c r="H156" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156">
+        <v>1.153</v>
+      </c>
+      <c r="J156">
+        <v>3.3029999999999999</v>
+      </c>
+      <c r="K156">
+        <v>4.2430000000000003</v>
+      </c>
+      <c r="L156">
+        <v>5.4329999999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>118</v>
+      </c>
+      <c r="B157">
+        <v>46</v>
+      </c>
+      <c r="C157" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D157">
+        <v>46</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" t="s">
+        <v>164</v>
+      </c>
+      <c r="H157" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157">
+        <v>1.393</v>
+      </c>
+      <c r="J157">
+        <v>3.843</v>
+      </c>
+      <c r="K157">
+        <v>4.9329999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>118</v>
+      </c>
+      <c r="B158">
+        <v>47</v>
+      </c>
+      <c r="C158" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D158">
+        <v>47</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s">
+        <v>165</v>
+      </c>
+      <c r="H158" t="s">
+        <v>12</v>
+      </c>
+      <c r="I158">
+        <v>1.863</v>
+      </c>
+      <c r="J158">
+        <v>3.0230000000000001</v>
+      </c>
+      <c r="K158">
+        <v>4.1029999999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>118</v>
+      </c>
+      <c r="B159">
+        <v>48</v>
+      </c>
+      <c r="C159" s="1">
+        <v>45014</v>
+      </c>
+      <c r="D159">
+        <v>48</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" t="s">
+        <v>166</v>
+      </c>
+      <c r="H159" t="s">
+        <v>12</v>
+      </c>
+      <c r="I159">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="J159">
+        <v>2.4020000000000001</v>
+      </c>
+      <c r="K159">
+        <v>3.202</v>
       </c>
     </row>
   </sheetData>

--- a/data/fNIRSandGerbils.xlsx
+++ b/data/fNIRSandGerbils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benri\Documents\GitHub\fNIRSandGerbils\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiments\fNIRSandGerbils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9425EAE-7D29-4371-B860-3180B4702BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54A7FB-DCDB-4258-A362-D0B6A6168F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="265">
   <si>
     <t>S</t>
   </si>
@@ -537,6 +537,300 @@
   </si>
   <si>
     <t>C:\Users\benri\Documents\GitHub\fNIRSandGerbils\stim\s_stest\unscrambled\8_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>longtest1</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\13_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\10_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\15_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\11_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\17_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\12_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\18_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\14_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\1_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\16_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\20_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\19_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\21_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\23_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\22_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\24_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\25_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\27_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\26_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\28_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\29_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\2_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\30_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\31_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\33_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\32_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\34_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\35_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\37_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\36_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\38_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\39_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\40_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\3_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\41_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\42_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\45_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\43_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\46_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\44_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\47_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\4_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\48_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\5_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\6_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\7_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\scrambled\8_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest1\unscrambled\9_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>longtest2</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\10_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\11_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\14_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\12_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\15_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\13_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\16_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\18_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\17_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\19_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\22_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\1_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\23_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\20_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\24_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\21_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\25_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\27_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\26_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\28_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\29_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\30_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\2_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\32_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\31_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\34_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\33_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\36_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\35_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\38_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\37_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\3_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\39_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\40_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\42_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\41_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\43_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\44_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\45_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\46_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\47_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\48_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\6_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\4_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\7_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\5_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\scrambled\9_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\8_unscrambled.wav</t>
   </si>
 </sst>
 </file>
@@ -889,15 +1183,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E945CDA-0894-470B-A916-C9F7C84C6ED4}">
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:M255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="G264" sqref="G264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -926,7 +1220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -961,7 +1255,7 @@
         <v>6.7549999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -999,7 +1293,7 @@
         <v>6.5149999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1031,7 +1325,7 @@
         <v>5.9610000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1066,7 +1360,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1098,7 +1392,7 @@
         <v>6.0069999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1133,7 +1427,7 @@
         <v>5.306</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1165,7 +1459,7 @@
         <v>5.9290000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1203,7 +1497,7 @@
         <v>5.7210000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1238,7 +1532,7 @@
         <v>6.4169999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1270,7 +1564,7 @@
         <v>5.8879999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1302,7 +1596,7 @@
         <v>5.9039999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1334,7 +1628,7 @@
         <v>6.0330000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1369,7 +1663,7 @@
         <v>6.0469999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1401,7 +1695,7 @@
         <v>5.9580000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1436,7 +1730,7 @@
         <v>5.0890000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1474,7 +1768,7 @@
         <v>5.3360000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1509,7 +1803,7 @@
         <v>5.6449999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1541,7 +1835,7 @@
         <v>3.8079999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1576,7 +1870,7 @@
         <v>5.7850000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1611,7 +1905,7 @@
         <v>5.3369999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1649,7 +1943,7 @@
         <v>5.6550000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1684,7 +1978,7 @@
         <v>5.1130000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1719,7 +2013,7 @@
         <v>4.5629999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1754,7 +2048,7 @@
         <v>5.359</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1789,7 +2083,7 @@
         <v>3.8610000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1827,7 +2121,7 @@
         <v>5.5389999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1862,7 +2156,7 @@
         <v>5.508</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1900,7 +2194,7 @@
         <v>5.2690000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1938,7 +2232,7 @@
         <v>5.3010000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1973,7 +2267,7 @@
         <v>5.0419999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2008,7 +2302,7 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2043,7 +2337,7 @@
         <v>4.7919999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2078,7 +2372,7 @@
         <v>5.5339999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2113,7 +2407,7 @@
         <v>4.2030000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2148,7 +2442,7 @@
         <v>5.1280000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2183,7 +2477,7 @@
         <v>5.0199999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2218,7 +2512,7 @@
         <v>5.1689999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2256,7 +2550,7 @@
         <v>4.7160000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2291,7 +2585,7 @@
         <v>5.516</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2332,7 +2626,7 @@
         <v>5.7229999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2367,7 +2661,7 @@
         <v>4.6660000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2402,7 +2696,7 @@
         <v>5.1970000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -2437,7 +2731,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -2475,7 +2769,7 @@
         <v>5.7190000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -2510,7 +2804,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -2545,7 +2839,7 @@
         <v>5.2590000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2580,7 +2874,7 @@
         <v>5.2679999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -2615,7 +2909,7 @@
         <v>5.1050000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -2650,7 +2944,7 @@
         <v>3.6339999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -2685,7 +2979,7 @@
         <v>5.3330000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -2720,7 +3014,7 @@
         <v>3.7090000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -2758,7 +3052,7 @@
         <v>5.4059999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -2796,7 +3090,7 @@
         <v>4.0869999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -2834,7 +3128,7 @@
         <v>5.6239999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -2866,7 +3160,7 @@
         <v>3.585</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -2901,7 +3195,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>41</v>
       </c>
@@ -2936,7 +3230,7 @@
         <v>4.9589999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -2974,7 +3268,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -3009,7 +3303,7 @@
         <v>5.6050000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>41</v>
       </c>
@@ -3044,7 +3338,7 @@
         <v>4.9059999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -3079,7 +3373,7 @@
         <v>5.5839999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -3117,7 +3411,7 @@
         <v>6.2629999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -3152,7 +3446,7 @@
         <v>4.9530000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -3187,7 +3481,7 @@
         <v>3.9089999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -3222,7 +3516,7 @@
         <v>5.5119999999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -3257,7 +3551,7 @@
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -3292,7 +3586,7 @@
         <v>5.1929999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -3327,7 +3621,7 @@
         <v>4.4889999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -3362,7 +3656,7 @@
         <v>4.9340000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -3397,7 +3691,7 @@
         <v>4.6920000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -3432,7 +3726,7 @@
         <v>4.7629999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -3467,7 +3761,7 @@
         <v>5.5330000000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -3502,7 +3796,7 @@
         <v>4.9720000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -3537,7 +3831,7 @@
         <v>4.8129999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -3572,7 +3866,7 @@
         <v>4.8920000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -3604,7 +3898,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -3639,7 +3933,7 @@
         <v>4.9539999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -3674,7 +3968,7 @@
         <v>5.0190000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -3709,7 +4003,7 @@
         <v>4.9539999999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -3747,7 +4041,7 @@
         <v>5.7279999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -3782,7 +4076,7 @@
         <v>4.9329999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -3817,7 +4111,7 @@
         <v>5.36</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -3852,7 +4146,7 @@
         <v>3.7330000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -3890,7 +4184,7 @@
         <v>5.6689999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -3925,7 +4219,7 @@
         <v>5.3520000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -3963,7 +4257,7 @@
         <v>5.3109999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -3998,7 +4292,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -4033,7 +4327,7 @@
         <v>5.3769999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -4068,7 +4362,7 @@
         <v>2.8929999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -4103,7 +4397,7 @@
         <v>5.4029999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -4138,7 +4432,7 @@
         <v>4.6920000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -4176,7 +4470,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -4211,7 +4505,7 @@
         <v>5.431</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -4246,7 +4540,7 @@
         <v>4.5119999999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -4281,7 +4575,7 @@
         <v>5.0529999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -4316,7 +4610,7 @@
         <v>4.9139999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -4354,7 +4648,7 @@
         <v>5.1520000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -4389,7 +4683,7 @@
         <v>5.1120000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -4424,7 +4718,7 @@
         <v>5.5519999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4459,7 +4753,7 @@
         <v>5.4989999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -4494,7 +4788,7 @@
         <v>4.6929999999999996</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -4529,7 +4823,7 @@
         <v>4.9029999999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -4564,7 +4858,7 @@
         <v>5.2119999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -4599,7 +4893,7 @@
         <v>4.2489999999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -4634,7 +4928,7 @@
         <v>5.2919999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -4672,7 +4966,7 @@
         <v>4.5529999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -4707,7 +5001,7 @@
         <v>3.2130000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -4745,7 +5039,7 @@
         <v>5.1470000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -4780,7 +5074,7 @@
         <v>3.9319999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -4815,7 +5109,7 @@
         <v>4.2130000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -4844,7 +5138,7 @@
         <v>3.532</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -4879,7 +5173,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -4917,7 +5211,7 @@
         <v>5.032</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -4952,7 +5246,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -4987,7 +5281,7 @@
         <v>4.5019999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -5019,7 +5313,7 @@
         <v>5.0430000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -5054,7 +5348,7 @@
         <v>5.6029999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -5089,7 +5383,7 @@
         <v>4.4089999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -5127,7 +5421,7 @@
         <v>4.7930000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -5156,7 +5450,7 @@
         <v>2.9020000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>118</v>
       </c>
@@ -5188,7 +5482,7 @@
         <v>5.0350000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -5223,7 +5517,7 @@
         <v>4.9189999999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -5258,7 +5552,7 @@
         <v>4.9320000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>118</v>
       </c>
@@ -5293,7 +5587,7 @@
         <v>5.2729999999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>118</v>
       </c>
@@ -5328,7 +5622,7 @@
         <v>5.1719999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>118</v>
       </c>
@@ -5363,7 +5657,7 @@
         <v>5.1180000000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -5395,7 +5689,7 @@
         <v>5.8920000000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>118</v>
       </c>
@@ -5430,7 +5724,7 @@
         <v>5.202</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>118</v>
       </c>
@@ -5462,7 +5756,7 @@
         <v>3.512</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>118</v>
       </c>
@@ -5500,7 +5794,7 @@
         <v>4.5119999999999996</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>118</v>
       </c>
@@ -5535,7 +5829,7 @@
         <v>5.1849999999999996</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>118</v>
       </c>
@@ -5570,7 +5864,7 @@
         <v>4.8819999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>118</v>
       </c>
@@ -5605,7 +5899,7 @@
         <v>4.8819999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>118</v>
       </c>
@@ -5637,7 +5931,7 @@
         <v>4.0529999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>118</v>
       </c>
@@ -5675,7 +5969,7 @@
         <v>3.7610000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>118</v>
       </c>
@@ -5710,7 +6004,7 @@
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>118</v>
       </c>
@@ -5748,7 +6042,7 @@
         <v>5.0419999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>118</v>
       </c>
@@ -5780,7 +6074,7 @@
         <v>4.4119999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>118</v>
       </c>
@@ -5812,7 +6106,7 @@
         <v>5.383</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>118</v>
       </c>
@@ -5850,7 +6144,7 @@
         <v>5.3029999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>118</v>
       </c>
@@ -5885,7 +6179,7 @@
         <v>5.6120000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>118</v>
       </c>
@@ -5920,7 +6214,7 @@
         <v>5.6920000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>118</v>
       </c>
@@ -5955,7 +6249,7 @@
         <v>3.5830000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>118</v>
       </c>
@@ -5990,7 +6284,7 @@
         <v>4.3529999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>118</v>
       </c>
@@ -6025,7 +6319,7 @@
         <v>4.6920000000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>118</v>
       </c>
@@ -6060,7 +6354,7 @@
         <v>3.133</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>118</v>
       </c>
@@ -6098,7 +6392,7 @@
         <v>5.0780000000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>118</v>
       </c>
@@ -6133,7 +6427,7 @@
         <v>3.6080000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>118</v>
       </c>
@@ -6168,7 +6462,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>118</v>
       </c>
@@ -6203,7 +6497,7 @@
         <v>4.3419999999999996</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>118</v>
       </c>
@@ -6238,7 +6532,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>118</v>
       </c>
@@ -6273,7 +6567,7 @@
         <v>5.6340000000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>118</v>
       </c>
@@ -6311,7 +6605,7 @@
         <v>5.3929999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>118</v>
       </c>
@@ -6349,7 +6643,7 @@
         <v>5.1680000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>118</v>
       </c>
@@ -6387,7 +6681,7 @@
         <v>5.4329999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>118</v>
       </c>
@@ -6422,7 +6716,7 @@
         <v>4.9329999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>118</v>
       </c>
@@ -6457,7 +6751,7 @@
         <v>4.1029999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>118</v>
       </c>
@@ -6490,6 +6784,3423 @@
       </c>
       <c r="K159">
         <v>3.202</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>167</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" t="s">
+        <v>168</v>
+      </c>
+      <c r="H160" t="s">
+        <v>12</v>
+      </c>
+      <c r="I160">
+        <v>2.407</v>
+      </c>
+      <c r="J160">
+        <v>6.673</v>
+      </c>
+      <c r="K160">
+        <v>8.0570000000000004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" t="s">
+        <v>169</v>
+      </c>
+      <c r="H161" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161">
+        <v>3.0129999999999999</v>
+      </c>
+      <c r="J161">
+        <v>6.2549999999999999</v>
+      </c>
+      <c r="K161">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s">
+        <v>170</v>
+      </c>
+      <c r="H162" t="s">
+        <v>12</v>
+      </c>
+      <c r="I162">
+        <v>3.2530000000000001</v>
+      </c>
+      <c r="J162">
+        <v>4.6509999999999998</v>
+      </c>
+      <c r="K162">
+        <v>6.2670000000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" t="s">
+        <v>171</v>
+      </c>
+      <c r="H163" t="s">
+        <v>12</v>
+      </c>
+      <c r="I163">
+        <v>2.5619999999999998</v>
+      </c>
+      <c r="J163">
+        <v>5.6459999999999999</v>
+      </c>
+      <c r="K163">
+        <v>8.5960000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" t="s">
+        <v>172</v>
+      </c>
+      <c r="H164" t="s">
+        <v>12</v>
+      </c>
+      <c r="I164">
+        <v>2.8610000000000002</v>
+      </c>
+      <c r="J164">
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="K164">
+        <v>8.6590000000000007</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165">
+        <v>6</v>
+      </c>
+      <c r="C165" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D165">
+        <v>6</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" t="s">
+        <v>173</v>
+      </c>
+      <c r="H165" t="s">
+        <v>12</v>
+      </c>
+      <c r="I165">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="J165">
+        <v>3.23</v>
+      </c>
+      <c r="K165">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166">
+        <v>7</v>
+      </c>
+      <c r="C166" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D166">
+        <v>7</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s">
+        <v>174</v>
+      </c>
+      <c r="H166" t="s">
+        <v>12</v>
+      </c>
+      <c r="I166">
+        <v>5.9139999999999997</v>
+      </c>
+      <c r="J166">
+        <v>7.22</v>
+      </c>
+      <c r="K166">
+        <v>8.9139999999999997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>8</v>
+      </c>
+      <c r="C167" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D167">
+        <v>8</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" t="s">
+        <v>175</v>
+      </c>
+      <c r="H167" t="s">
+        <v>12</v>
+      </c>
+      <c r="I167">
+        <v>2.0070000000000001</v>
+      </c>
+      <c r="J167">
+        <v>3.9350000000000001</v>
+      </c>
+      <c r="K167">
+        <v>6.8710000000000004</v>
+      </c>
+      <c r="L167">
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>9</v>
+      </c>
+      <c r="C168" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D168">
+        <v>9</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" t="s">
+        <v>176</v>
+      </c>
+      <c r="H168" t="s">
+        <v>12</v>
+      </c>
+      <c r="I168">
+        <v>3.5840000000000001</v>
+      </c>
+      <c r="J168">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="K168">
+        <v>6.274</v>
+      </c>
+      <c r="L168">
+        <v>7.6550000000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>10</v>
+      </c>
+      <c r="C169" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D169">
+        <v>10</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" t="s">
+        <v>177</v>
+      </c>
+      <c r="H169" t="s">
+        <v>12</v>
+      </c>
+      <c r="I169">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="J169">
+        <v>4.024</v>
+      </c>
+      <c r="K169">
+        <v>6.8259999999999996</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>167</v>
+      </c>
+      <c r="B170">
+        <v>11</v>
+      </c>
+      <c r="C170" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D170">
+        <v>11</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s">
+        <v>178</v>
+      </c>
+      <c r="H170" t="s">
+        <v>12</v>
+      </c>
+      <c r="I170">
+        <v>1.919</v>
+      </c>
+      <c r="J170">
+        <v>5.0890000000000004</v>
+      </c>
+      <c r="K170">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>167</v>
+      </c>
+      <c r="B171">
+        <v>12</v>
+      </c>
+      <c r="C171" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D171">
+        <v>12</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" t="s">
+        <v>179</v>
+      </c>
+      <c r="H171" t="s">
+        <v>12</v>
+      </c>
+      <c r="I171">
+        <v>2.3130000000000002</v>
+      </c>
+      <c r="J171">
+        <v>4.9569999999999999</v>
+      </c>
+      <c r="K171">
+        <v>6.8890000000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>167</v>
+      </c>
+      <c r="B172">
+        <v>13</v>
+      </c>
+      <c r="C172" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D172">
+        <v>13</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" t="s">
+        <v>180</v>
+      </c>
+      <c r="H172" t="s">
+        <v>12</v>
+      </c>
+      <c r="I172">
+        <v>4.2519999999999998</v>
+      </c>
+      <c r="J172">
+        <v>5.6340000000000003</v>
+      </c>
+      <c r="K172">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>167</v>
+      </c>
+      <c r="B173">
+        <v>14</v>
+      </c>
+      <c r="C173" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D173">
+        <v>14</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" t="s">
+        <v>181</v>
+      </c>
+      <c r="H173" t="s">
+        <v>12</v>
+      </c>
+      <c r="I173">
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="J173">
+        <v>3.702</v>
+      </c>
+      <c r="K173">
+        <v>5.6260000000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>167</v>
+      </c>
+      <c r="B174">
+        <v>15</v>
+      </c>
+      <c r="C174" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D174">
+        <v>15</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s">
+        <v>182</v>
+      </c>
+      <c r="H174" t="s">
+        <v>12</v>
+      </c>
+      <c r="I174">
+        <v>3.0830000000000002</v>
+      </c>
+      <c r="J174">
+        <v>5.4950000000000001</v>
+      </c>
+      <c r="K174">
+        <v>8.6010000000000009</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>167</v>
+      </c>
+      <c r="B175">
+        <v>16</v>
+      </c>
+      <c r="C175" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D175">
+        <v>16</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" t="s">
+        <v>183</v>
+      </c>
+      <c r="H175" t="s">
+        <v>12</v>
+      </c>
+      <c r="I175">
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="J175">
+        <v>4.3890000000000002</v>
+      </c>
+      <c r="K175">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>167</v>
+      </c>
+      <c r="B176">
+        <v>17</v>
+      </c>
+      <c r="C176" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D176">
+        <v>17</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s">
+        <v>184</v>
+      </c>
+      <c r="H176" t="s">
+        <v>12</v>
+      </c>
+      <c r="I176">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J176">
+        <v>5.5709999999999997</v>
+      </c>
+      <c r="K176">
+        <v>7.6520000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>167</v>
+      </c>
+      <c r="B177">
+        <v>18</v>
+      </c>
+      <c r="C177" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D177">
+        <v>18</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" t="s">
+        <v>185</v>
+      </c>
+      <c r="H177" t="s">
+        <v>12</v>
+      </c>
+      <c r="I177">
+        <v>1.694</v>
+      </c>
+      <c r="J177">
+        <v>4.17</v>
+      </c>
+      <c r="K177">
+        <v>5.2489999999999997</v>
+      </c>
+      <c r="L177">
+        <v>7.6379999999999999</v>
+      </c>
+      <c r="M177">
+        <v>8.8810000000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>167</v>
+      </c>
+      <c r="B178">
+        <v>19</v>
+      </c>
+      <c r="C178" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D178">
+        <v>19</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s">
+        <v>186</v>
+      </c>
+      <c r="H178" t="s">
+        <v>12</v>
+      </c>
+      <c r="I178">
+        <v>3.944</v>
+      </c>
+      <c r="J178">
+        <v>5.9409999999999998</v>
+      </c>
+      <c r="K178">
+        <v>8.5020000000000007</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>167</v>
+      </c>
+      <c r="B179">
+        <v>20</v>
+      </c>
+      <c r="C179" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D179">
+        <v>20</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" t="s">
+        <v>187</v>
+      </c>
+      <c r="H179" t="s">
+        <v>12</v>
+      </c>
+      <c r="I179">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="J179">
+        <v>6.8979999999999997</v>
+      </c>
+      <c r="K179">
+        <v>8.5939999999999994</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>167</v>
+      </c>
+      <c r="B180">
+        <v>21</v>
+      </c>
+      <c r="C180" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D180">
+        <v>21</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s">
+        <v>188</v>
+      </c>
+      <c r="H180" t="s">
+        <v>12</v>
+      </c>
+      <c r="I180">
+        <v>2.3969999999999998</v>
+      </c>
+      <c r="J180">
+        <v>3.698</v>
+      </c>
+      <c r="K180">
+        <v>5.3129999999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>167</v>
+      </c>
+      <c r="B181">
+        <v>22</v>
+      </c>
+      <c r="C181" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D181">
+        <v>22</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" t="s">
+        <v>189</v>
+      </c>
+      <c r="H181" t="s">
+        <v>12</v>
+      </c>
+      <c r="I181">
+        <v>2.089</v>
+      </c>
+      <c r="J181">
+        <v>4.3220000000000001</v>
+      </c>
+      <c r="K181">
+        <v>7.1870000000000003</v>
+      </c>
+      <c r="L181">
+        <v>8.7219999999999995</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>167</v>
+      </c>
+      <c r="B182">
+        <v>23</v>
+      </c>
+      <c r="C182" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D182">
+        <v>23</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s">
+        <v>190</v>
+      </c>
+      <c r="H182" t="s">
+        <v>12</v>
+      </c>
+      <c r="I182">
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="J182">
+        <v>3.2280000000000002</v>
+      </c>
+      <c r="K182">
+        <v>8.2550000000000008</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>167</v>
+      </c>
+      <c r="B183">
+        <v>24</v>
+      </c>
+      <c r="C183" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D183">
+        <v>24</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" t="s">
+        <v>191</v>
+      </c>
+      <c r="H183" t="s">
+        <v>12</v>
+      </c>
+      <c r="I183">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="J183">
+        <v>4.8760000000000003</v>
+      </c>
+      <c r="K183">
+        <v>6.7240000000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>167</v>
+      </c>
+      <c r="B184">
+        <v>25</v>
+      </c>
+      <c r="C184" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D184">
+        <v>25</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" t="s">
+        <v>192</v>
+      </c>
+      <c r="H184" t="s">
+        <v>12</v>
+      </c>
+      <c r="I184">
+        <v>4.649</v>
+      </c>
+      <c r="J184">
+        <v>8.9109999999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>167</v>
+      </c>
+      <c r="B185">
+        <v>26</v>
+      </c>
+      <c r="C185" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D185">
+        <v>26</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" t="s">
+        <v>193</v>
+      </c>
+      <c r="H185" t="s">
+        <v>12</v>
+      </c>
+      <c r="I185">
+        <v>2.395</v>
+      </c>
+      <c r="J185">
+        <v>3.5609999999999999</v>
+      </c>
+      <c r="K185">
+        <v>7.9059999999999997</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>167</v>
+      </c>
+      <c r="B186">
+        <v>27</v>
+      </c>
+      <c r="C186" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D186">
+        <v>27</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" t="s">
+        <v>194</v>
+      </c>
+      <c r="H186" t="s">
+        <v>12</v>
+      </c>
+      <c r="I186">
+        <v>3.4020000000000001</v>
+      </c>
+      <c r="J186">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="K186">
+        <v>8.577</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>167</v>
+      </c>
+      <c r="B187">
+        <v>28</v>
+      </c>
+      <c r="C187" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D187">
+        <v>28</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" t="s">
+        <v>195</v>
+      </c>
+      <c r="H187" t="s">
+        <v>12</v>
+      </c>
+      <c r="I187">
+        <v>1.9419999999999999</v>
+      </c>
+      <c r="J187">
+        <v>4.883</v>
+      </c>
+      <c r="K187">
+        <v>6.2679999999999998</v>
+      </c>
+      <c r="L187">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>167</v>
+      </c>
+      <c r="B188">
+        <v>29</v>
+      </c>
+      <c r="C188" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D188">
+        <v>29</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188" t="s">
+        <v>196</v>
+      </c>
+      <c r="H188" t="s">
+        <v>12</v>
+      </c>
+      <c r="I188">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="J188">
+        <v>7.2690000000000001</v>
+      </c>
+      <c r="K188">
+        <v>8.9760000000000009</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>167</v>
+      </c>
+      <c r="B189">
+        <v>30</v>
+      </c>
+      <c r="C189" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D189">
+        <v>30</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>197</v>
+      </c>
+      <c r="H189" t="s">
+        <v>12</v>
+      </c>
+      <c r="I189">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="J189">
+        <v>5.19</v>
+      </c>
+      <c r="K189">
+        <v>7.2690000000000001</v>
+      </c>
+      <c r="L189">
+        <v>8.7330000000000005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>167</v>
+      </c>
+      <c r="B190">
+        <v>31</v>
+      </c>
+      <c r="C190" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D190">
+        <v>31</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" t="s">
+        <v>198</v>
+      </c>
+      <c r="H190" t="s">
+        <v>12</v>
+      </c>
+      <c r="I190">
+        <v>4.5650000000000004</v>
+      </c>
+      <c r="J190">
+        <v>6.2640000000000002</v>
+      </c>
+      <c r="K190">
+        <v>8.4280000000000008</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>167</v>
+      </c>
+      <c r="B191">
+        <v>32</v>
+      </c>
+      <c r="C191" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D191">
+        <v>32</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="F191" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>199</v>
+      </c>
+      <c r="H191" t="s">
+        <v>12</v>
+      </c>
+      <c r="I191">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="J191">
+        <v>4.8929999999999998</v>
+      </c>
+      <c r="K191">
+        <v>6.5830000000000002</v>
+      </c>
+      <c r="L191">
+        <v>8.5860000000000003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>167</v>
+      </c>
+      <c r="B192">
+        <v>33</v>
+      </c>
+      <c r="C192" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D192">
+        <v>33</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192" t="s">
+        <v>13</v>
+      </c>
+      <c r="G192" t="s">
+        <v>200</v>
+      </c>
+      <c r="H192" t="s">
+        <v>12</v>
+      </c>
+      <c r="I192">
+        <v>2.3149999999999999</v>
+      </c>
+      <c r="J192">
+        <v>4.0030000000000001</v>
+      </c>
+      <c r="K192">
+        <v>6.024</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>167</v>
+      </c>
+      <c r="B193">
+        <v>34</v>
+      </c>
+      <c r="C193" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D193">
+        <v>34</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>201</v>
+      </c>
+      <c r="H193" t="s">
+        <v>12</v>
+      </c>
+      <c r="I193">
+        <v>3.5489999999999999</v>
+      </c>
+      <c r="J193">
+        <v>6.0149999999999997</v>
+      </c>
+      <c r="K193">
+        <v>7.8860000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>167</v>
+      </c>
+      <c r="B194">
+        <v>35</v>
+      </c>
+      <c r="C194" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D194">
+        <v>35</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>13</v>
+      </c>
+      <c r="G194" t="s">
+        <v>202</v>
+      </c>
+      <c r="H194" t="s">
+        <v>12</v>
+      </c>
+      <c r="I194">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="J194">
+        <v>4.5510000000000002</v>
+      </c>
+      <c r="K194">
+        <v>6.4770000000000003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>167</v>
+      </c>
+      <c r="B195">
+        <v>36</v>
+      </c>
+      <c r="C195" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D195">
+        <v>36</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" t="s">
+        <v>203</v>
+      </c>
+      <c r="H195" t="s">
+        <v>12</v>
+      </c>
+      <c r="I195">
+        <v>2.8639999999999999</v>
+      </c>
+      <c r="J195">
+        <v>4.3239999999999998</v>
+      </c>
+      <c r="K195">
+        <v>6.0149999999999997</v>
+      </c>
+      <c r="L195">
+        <v>7.9489999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>167</v>
+      </c>
+      <c r="B196">
+        <v>37</v>
+      </c>
+      <c r="C196" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D196">
+        <v>37</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196" t="s">
+        <v>13</v>
+      </c>
+      <c r="G196" t="s">
+        <v>204</v>
+      </c>
+      <c r="H196" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196">
+        <v>4.6449999999999996</v>
+      </c>
+      <c r="J196">
+        <v>6.649</v>
+      </c>
+      <c r="K196">
+        <v>8.4239999999999995</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>167</v>
+      </c>
+      <c r="B197">
+        <v>38</v>
+      </c>
+      <c r="C197" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D197">
+        <v>38</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+      <c r="F197" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" t="s">
+        <v>205</v>
+      </c>
+      <c r="H197" t="s">
+        <v>12</v>
+      </c>
+      <c r="I197">
+        <v>1.712</v>
+      </c>
+      <c r="J197">
+        <v>7.6159999999999997</v>
+      </c>
+      <c r="K197">
+        <v>9.093</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>167</v>
+      </c>
+      <c r="B198">
+        <v>39</v>
+      </c>
+      <c r="C198" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D198">
+        <v>39</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198" t="s">
+        <v>13</v>
+      </c>
+      <c r="G198" t="s">
+        <v>206</v>
+      </c>
+      <c r="H198" t="s">
+        <v>12</v>
+      </c>
+      <c r="I198">
+        <v>5.5789999999999997</v>
+      </c>
+      <c r="J198">
+        <v>7.351</v>
+      </c>
+      <c r="K198">
+        <v>8.6509999999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>167</v>
+      </c>
+      <c r="B199">
+        <v>40</v>
+      </c>
+      <c r="C199" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D199">
+        <v>40</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" t="s">
+        <v>207</v>
+      </c>
+      <c r="H199" t="s">
+        <v>12</v>
+      </c>
+      <c r="I199">
+        <v>5.0410000000000004</v>
+      </c>
+      <c r="J199">
+        <v>6.367</v>
+      </c>
+      <c r="K199">
+        <v>8.3059999999999992</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>167</v>
+      </c>
+      <c r="B200">
+        <v>41</v>
+      </c>
+      <c r="C200" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D200">
+        <v>41</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200" t="s">
+        <v>13</v>
+      </c>
+      <c r="G200" t="s">
+        <v>208</v>
+      </c>
+      <c r="H200" t="s">
+        <v>12</v>
+      </c>
+      <c r="I200">
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="J200">
+        <v>3.9609999999999999</v>
+      </c>
+      <c r="K200">
+        <v>8.3030000000000008</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>167</v>
+      </c>
+      <c r="B201">
+        <v>42</v>
+      </c>
+      <c r="C201" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D201">
+        <v>42</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" t="s">
+        <v>209</v>
+      </c>
+      <c r="H201" t="s">
+        <v>12</v>
+      </c>
+      <c r="I201">
+        <v>4.3419999999999996</v>
+      </c>
+      <c r="J201">
+        <v>5.9610000000000003</v>
+      </c>
+      <c r="K201">
+        <v>8.282</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>167</v>
+      </c>
+      <c r="B202">
+        <v>43</v>
+      </c>
+      <c r="C202" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D202">
+        <v>43</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202" t="s">
+        <v>13</v>
+      </c>
+      <c r="G202" t="s">
+        <v>210</v>
+      </c>
+      <c r="H202" t="s">
+        <v>12</v>
+      </c>
+      <c r="I202">
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="J202">
+        <v>5.5620000000000003</v>
+      </c>
+      <c r="K202">
+        <v>8.2680000000000007</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>167</v>
+      </c>
+      <c r="B203">
+        <v>44</v>
+      </c>
+      <c r="C203" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D203">
+        <v>44</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" t="s">
+        <v>211</v>
+      </c>
+      <c r="H203" t="s">
+        <v>12</v>
+      </c>
+      <c r="I203">
+        <v>3.55</v>
+      </c>
+      <c r="J203">
+        <v>5.3259999999999996</v>
+      </c>
+      <c r="K203">
+        <v>7.0990000000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>167</v>
+      </c>
+      <c r="B204">
+        <v>45</v>
+      </c>
+      <c r="C204" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D204">
+        <v>45</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204" t="s">
+        <v>13</v>
+      </c>
+      <c r="G204" t="s">
+        <v>212</v>
+      </c>
+      <c r="H204" t="s">
+        <v>12</v>
+      </c>
+      <c r="I204">
+        <v>3.3220000000000001</v>
+      </c>
+      <c r="J204">
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="K204">
+        <v>7.0190000000000001</v>
+      </c>
+      <c r="L204">
+        <v>8.3219999999999992</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>167</v>
+      </c>
+      <c r="B205">
+        <v>46</v>
+      </c>
+      <c r="C205" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D205">
+        <v>46</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+      <c r="F205" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" t="s">
+        <v>213</v>
+      </c>
+      <c r="H205" t="s">
+        <v>12</v>
+      </c>
+      <c r="I205">
+        <v>1.92</v>
+      </c>
+      <c r="J205">
+        <v>4.1559999999999997</v>
+      </c>
+      <c r="K205">
+        <v>7.2549999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>167</v>
+      </c>
+      <c r="B206">
+        <v>47</v>
+      </c>
+      <c r="C206" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D206">
+        <v>47</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206" t="s">
+        <v>13</v>
+      </c>
+      <c r="G206" t="s">
+        <v>214</v>
+      </c>
+      <c r="H206" t="s">
+        <v>12</v>
+      </c>
+      <c r="I206">
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="J206">
+        <v>4.5570000000000004</v>
+      </c>
+      <c r="K206">
+        <v>7.1870000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>167</v>
+      </c>
+      <c r="B207">
+        <v>48</v>
+      </c>
+      <c r="C207" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D207">
+        <v>48</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+      <c r="F207" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" t="s">
+        <v>215</v>
+      </c>
+      <c r="H207" t="s">
+        <v>12</v>
+      </c>
+      <c r="I207">
+        <v>1.532</v>
+      </c>
+      <c r="J207">
+        <v>3.8479999999999999</v>
+      </c>
+      <c r="K207">
+        <v>5.2370000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>216</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208" t="s">
+        <v>13</v>
+      </c>
+      <c r="G208" t="s">
+        <v>217</v>
+      </c>
+      <c r="H208" t="s">
+        <v>12</v>
+      </c>
+      <c r="I208">
+        <v>4.0869999999999997</v>
+      </c>
+      <c r="J208">
+        <v>6.8029999999999999</v>
+      </c>
+      <c r="K208">
+        <v>8.7319999999999993</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>216</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209">
+        <v>2</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" t="s">
+        <v>218</v>
+      </c>
+      <c r="H209" t="s">
+        <v>12</v>
+      </c>
+      <c r="I209">
+        <v>3.952</v>
+      </c>
+      <c r="J209">
+        <v>5.1840000000000002</v>
+      </c>
+      <c r="K209">
+        <v>8.5269999999999992</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>216</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D210">
+        <v>3</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210" t="s">
+        <v>13</v>
+      </c>
+      <c r="G210" t="s">
+        <v>219</v>
+      </c>
+      <c r="H210" t="s">
+        <v>12</v>
+      </c>
+      <c r="I210">
+        <v>1.929</v>
+      </c>
+      <c r="J210">
+        <v>4.2489999999999997</v>
+      </c>
+      <c r="K210">
+        <v>5.6340000000000003</v>
+      </c>
+      <c r="L210">
+        <v>8.2639999999999993</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D211">
+        <v>4</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" t="s">
+        <v>220</v>
+      </c>
+      <c r="H211" t="s">
+        <v>12</v>
+      </c>
+      <c r="I211">
+        <v>2.629</v>
+      </c>
+      <c r="J211">
+        <v>4.6429999999999998</v>
+      </c>
+      <c r="K211">
+        <v>5.9480000000000004</v>
+      </c>
+      <c r="L211">
+        <v>8.5779999999999994</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212">
+        <v>5</v>
+      </c>
+      <c r="C212" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D212">
+        <v>5</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212" t="s">
+        <v>13</v>
+      </c>
+      <c r="G212" t="s">
+        <v>221</v>
+      </c>
+      <c r="H212" t="s">
+        <v>12</v>
+      </c>
+      <c r="I212">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="J212">
+        <v>3.5430000000000001</v>
+      </c>
+      <c r="K212">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213">
+        <v>6</v>
+      </c>
+      <c r="C213" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="E213">
+        <v>2</v>
+      </c>
+      <c r="F213" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" t="s">
+        <v>222</v>
+      </c>
+      <c r="H213" t="s">
+        <v>12</v>
+      </c>
+      <c r="I213">
+        <v>1.556</v>
+      </c>
+      <c r="J213">
+        <v>4.5709999999999997</v>
+      </c>
+      <c r="K213">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>216</v>
+      </c>
+      <c r="B214">
+        <v>7</v>
+      </c>
+      <c r="C214" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D214">
+        <v>7</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214" t="s">
+        <v>13</v>
+      </c>
+      <c r="G214" t="s">
+        <v>223</v>
+      </c>
+      <c r="H214" t="s">
+        <v>12</v>
+      </c>
+      <c r="I214">
+        <v>4.0309999999999997</v>
+      </c>
+      <c r="J214">
+        <v>6.5890000000000004</v>
+      </c>
+      <c r="K214">
+        <v>7.992</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215">
+        <v>8</v>
+      </c>
+      <c r="C215" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D215">
+        <v>8</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" t="s">
+        <v>224</v>
+      </c>
+      <c r="H215" t="s">
+        <v>12</v>
+      </c>
+      <c r="I215">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="J215">
+        <v>4.0129999999999999</v>
+      </c>
+      <c r="K215">
+        <v>5.3239999999999998</v>
+      </c>
+      <c r="L215">
+        <v>6.6340000000000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>9</v>
+      </c>
+      <c r="C216" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D216">
+        <v>9</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216" t="s">
+        <v>13</v>
+      </c>
+      <c r="G216" t="s">
+        <v>225</v>
+      </c>
+      <c r="H216" t="s">
+        <v>12</v>
+      </c>
+      <c r="I216">
+        <v>2.234</v>
+      </c>
+      <c r="J216">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>10</v>
+      </c>
+      <c r="C217" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D217">
+        <v>10</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+      <c r="F217" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" t="s">
+        <v>226</v>
+      </c>
+      <c r="H217" t="s">
+        <v>12</v>
+      </c>
+      <c r="I217">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="J217">
+        <v>6.577</v>
+      </c>
+      <c r="K217">
+        <v>8.2769999999999992</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>11</v>
+      </c>
+      <c r="C218" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D218">
+        <v>11</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218" t="s">
+        <v>13</v>
+      </c>
+      <c r="G218" t="s">
+        <v>227</v>
+      </c>
+      <c r="H218" t="s">
+        <v>12</v>
+      </c>
+      <c r="I218">
+        <v>2.7029999999999998</v>
+      </c>
+      <c r="J218">
+        <v>3.9350000000000001</v>
+      </c>
+      <c r="K218">
+        <v>7.3470000000000004</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>216</v>
+      </c>
+      <c r="B219">
+        <v>12</v>
+      </c>
+      <c r="C219" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D219">
+        <v>12</v>
+      </c>
+      <c r="E219">
+        <v>2</v>
+      </c>
+      <c r="F219" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" t="s">
+        <v>228</v>
+      </c>
+      <c r="H219" t="s">
+        <v>12</v>
+      </c>
+      <c r="I219">
+        <v>4.274</v>
+      </c>
+      <c r="J219">
+        <v>6.2990000000000004</v>
+      </c>
+      <c r="K219">
+        <v>8.1690000000000005</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>216</v>
+      </c>
+      <c r="B220">
+        <v>13</v>
+      </c>
+      <c r="C220" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D220">
+        <v>13</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220" t="s">
+        <v>13</v>
+      </c>
+      <c r="G220" t="s">
+        <v>229</v>
+      </c>
+      <c r="H220" t="s">
+        <v>12</v>
+      </c>
+      <c r="I220">
+        <v>3.4119999999999999</v>
+      </c>
+      <c r="J220">
+        <v>5.7430000000000003</v>
+      </c>
+      <c r="K220">
+        <v>9.0649999999999995</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>216</v>
+      </c>
+      <c r="B221">
+        <v>14</v>
+      </c>
+      <c r="C221" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D221">
+        <v>14</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+      <c r="F221" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" t="s">
+        <v>230</v>
+      </c>
+      <c r="H221" t="s">
+        <v>12</v>
+      </c>
+      <c r="I221">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="J221">
+        <v>7.7450000000000001</v>
+      </c>
+      <c r="K221">
+        <v>9.0649999999999995</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>216</v>
+      </c>
+      <c r="B222">
+        <v>15</v>
+      </c>
+      <c r="C222" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D222">
+        <v>15</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222" t="s">
+        <v>13</v>
+      </c>
+      <c r="G222" t="s">
+        <v>231</v>
+      </c>
+      <c r="H222" t="s">
+        <v>12</v>
+      </c>
+      <c r="I222">
+        <v>2.9380000000000002</v>
+      </c>
+      <c r="J222">
+        <v>5.0119999999999996</v>
+      </c>
+      <c r="K222">
+        <v>8.4350000000000005</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>216</v>
+      </c>
+      <c r="B223">
+        <v>16</v>
+      </c>
+      <c r="C223" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D223">
+        <v>16</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
+      <c r="F223" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" t="s">
+        <v>232</v>
+      </c>
+      <c r="H223" t="s">
+        <v>12</v>
+      </c>
+      <c r="I223">
+        <v>2.2570000000000001</v>
+      </c>
+      <c r="J223">
+        <v>3.9540000000000002</v>
+      </c>
+      <c r="K223">
+        <v>6.6619999999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>216</v>
+      </c>
+      <c r="B224">
+        <v>17</v>
+      </c>
+      <c r="C224" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D224">
+        <v>17</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224" t="s">
+        <v>13</v>
+      </c>
+      <c r="G224" t="s">
+        <v>233</v>
+      </c>
+      <c r="H224" t="s">
+        <v>12</v>
+      </c>
+      <c r="I224">
+        <v>1.617</v>
+      </c>
+      <c r="J224">
+        <v>4.7140000000000004</v>
+      </c>
+      <c r="K224">
+        <v>8.4309999999999992</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>216</v>
+      </c>
+      <c r="B225">
+        <v>18</v>
+      </c>
+      <c r="C225" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D225">
+        <v>18</v>
+      </c>
+      <c r="E225">
+        <v>2</v>
+      </c>
+      <c r="F225" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" t="s">
+        <v>234</v>
+      </c>
+      <c r="H225" t="s">
+        <v>12</v>
+      </c>
+      <c r="I225">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="J225">
+        <v>4.25</v>
+      </c>
+      <c r="K225">
+        <v>8.202</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>216</v>
+      </c>
+      <c r="B226">
+        <v>19</v>
+      </c>
+      <c r="C226" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D226">
+        <v>19</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226" t="s">
+        <v>13</v>
+      </c>
+      <c r="G226" t="s">
+        <v>235</v>
+      </c>
+      <c r="H226" t="s">
+        <v>12</v>
+      </c>
+      <c r="I226">
+        <v>3.6509999999999998</v>
+      </c>
+      <c r="J226">
+        <v>6.4480000000000004</v>
+      </c>
+      <c r="K226">
+        <v>8.0690000000000008</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>216</v>
+      </c>
+      <c r="B227">
+        <v>20</v>
+      </c>
+      <c r="C227" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D227">
+        <v>20</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" t="s">
+        <v>236</v>
+      </c>
+      <c r="H227" t="s">
+        <v>12</v>
+      </c>
+      <c r="I227">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="J227">
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="K227">
+        <v>8.2739999999999991</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>216</v>
+      </c>
+      <c r="B228">
+        <v>21</v>
+      </c>
+      <c r="C228" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D228">
+        <v>21</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228" t="s">
+        <v>13</v>
+      </c>
+      <c r="G228" t="s">
+        <v>237</v>
+      </c>
+      <c r="H228" t="s">
+        <v>12</v>
+      </c>
+      <c r="I228">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="J228">
+        <v>6.88</v>
+      </c>
+      <c r="K228">
+        <v>8.6560000000000006</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>216</v>
+      </c>
+      <c r="B229">
+        <v>22</v>
+      </c>
+      <c r="C229" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D229">
+        <v>22</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+      <c r="F229" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" t="s">
+        <v>238</v>
+      </c>
+      <c r="H229" t="s">
+        <v>12</v>
+      </c>
+      <c r="I229">
+        <v>2.464</v>
+      </c>
+      <c r="J229">
+        <v>4.6180000000000003</v>
+      </c>
+      <c r="K229">
+        <v>6.4630000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>216</v>
+      </c>
+      <c r="B230">
+        <v>23</v>
+      </c>
+      <c r="C230" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D230">
+        <v>23</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230" t="s">
+        <v>13</v>
+      </c>
+      <c r="G230" t="s">
+        <v>239</v>
+      </c>
+      <c r="H230" t="s">
+        <v>12</v>
+      </c>
+      <c r="I230">
+        <v>2.714</v>
+      </c>
+      <c r="J230">
+        <v>6.7469999999999999</v>
+      </c>
+      <c r="K230">
+        <v>8.9120000000000008</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>216</v>
+      </c>
+      <c r="B231">
+        <v>24</v>
+      </c>
+      <c r="C231" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D231">
+        <v>24</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" t="s">
+        <v>240</v>
+      </c>
+      <c r="H231" t="s">
+        <v>12</v>
+      </c>
+      <c r="I231">
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="J231">
+        <v>3.3149999999999999</v>
+      </c>
+      <c r="K231">
+        <v>4.6929999999999996</v>
+      </c>
+      <c r="L231">
+        <v>8.4120000000000008</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>216</v>
+      </c>
+      <c r="B232">
+        <v>25</v>
+      </c>
+      <c r="C232" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D232">
+        <v>25</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232" t="s">
+        <v>13</v>
+      </c>
+      <c r="G232" t="s">
+        <v>241</v>
+      </c>
+      <c r="H232" t="s">
+        <v>12</v>
+      </c>
+      <c r="I232">
+        <v>4.8929999999999998</v>
+      </c>
+      <c r="J232">
+        <v>6.2779999999999996</v>
+      </c>
+      <c r="K232">
+        <v>7.976</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>216</v>
+      </c>
+      <c r="B233">
+        <v>26</v>
+      </c>
+      <c r="C233" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D233">
+        <v>26</v>
+      </c>
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" t="s">
+        <v>242</v>
+      </c>
+      <c r="H233" t="s">
+        <v>12</v>
+      </c>
+      <c r="I233">
+        <v>3.95</v>
+      </c>
+      <c r="J233">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="K233">
+        <v>6.6580000000000004</v>
+      </c>
+      <c r="L233">
+        <v>8.9130000000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>216</v>
+      </c>
+      <c r="B234">
+        <v>27</v>
+      </c>
+      <c r="C234" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D234">
+        <v>27</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234" t="s">
+        <v>13</v>
+      </c>
+      <c r="G234" t="s">
+        <v>243</v>
+      </c>
+      <c r="H234" t="s">
+        <v>12</v>
+      </c>
+      <c r="I234">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="J234">
+        <v>5.4320000000000004</v>
+      </c>
+      <c r="K234">
+        <v>7.282</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>216</v>
+      </c>
+      <c r="B235">
+        <v>28</v>
+      </c>
+      <c r="C235" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D235">
+        <v>28</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" t="s">
+        <v>244</v>
+      </c>
+      <c r="H235" t="s">
+        <v>12</v>
+      </c>
+      <c r="I235">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="J235">
+        <v>2.9929999999999999</v>
+      </c>
+      <c r="K235">
+        <v>5.93</v>
+      </c>
+      <c r="L235">
+        <v>8.3209999999999997</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>216</v>
+      </c>
+      <c r="B236">
+        <v>29</v>
+      </c>
+      <c r="C236" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D236">
+        <v>29</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236" t="s">
+        <v>13</v>
+      </c>
+      <c r="G236" t="s">
+        <v>245</v>
+      </c>
+      <c r="H236" t="s">
+        <v>12</v>
+      </c>
+      <c r="I236">
+        <v>2.3959999999999999</v>
+      </c>
+      <c r="J236">
+        <v>4.8140000000000001</v>
+      </c>
+      <c r="K236">
+        <v>6.2089999999999996</v>
+      </c>
+      <c r="L236">
+        <v>7.4450000000000003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>216</v>
+      </c>
+      <c r="B237">
+        <v>30</v>
+      </c>
+      <c r="C237" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D237">
+        <v>30</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
+      </c>
+      <c r="F237" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" t="s">
+        <v>246</v>
+      </c>
+      <c r="H237" t="s">
+        <v>12</v>
+      </c>
+      <c r="I237">
+        <v>3.089</v>
+      </c>
+      <c r="J237">
+        <v>4.4950000000000001</v>
+      </c>
+      <c r="K237">
+        <v>7.0430000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>216</v>
+      </c>
+      <c r="B238">
+        <v>31</v>
+      </c>
+      <c r="C238" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D238">
+        <v>31</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238" t="s">
+        <v>13</v>
+      </c>
+      <c r="G238" t="s">
+        <v>247</v>
+      </c>
+      <c r="H238" t="s">
+        <v>12</v>
+      </c>
+      <c r="I238">
+        <v>3.4740000000000002</v>
+      </c>
+      <c r="J238">
+        <v>6.7190000000000003</v>
+      </c>
+      <c r="K238">
+        <v>8.6449999999999996</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>216</v>
+      </c>
+      <c r="B239">
+        <v>32</v>
+      </c>
+      <c r="C239" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D239">
+        <v>32</v>
+      </c>
+      <c r="E239">
+        <v>2</v>
+      </c>
+      <c r="F239" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" t="s">
+        <v>248</v>
+      </c>
+      <c r="H239" t="s">
+        <v>12</v>
+      </c>
+      <c r="I239">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J239">
+        <v>3.6219999999999999</v>
+      </c>
+      <c r="K239">
+        <v>5.0110000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>216</v>
+      </c>
+      <c r="B240">
+        <v>33</v>
+      </c>
+      <c r="C240" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D240">
+        <v>33</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240" t="s">
+        <v>13</v>
+      </c>
+      <c r="G240" t="s">
+        <v>249</v>
+      </c>
+      <c r="H240" t="s">
+        <v>12</v>
+      </c>
+      <c r="I240">
+        <v>3.407</v>
+      </c>
+      <c r="J240">
+        <v>5.4960000000000004</v>
+      </c>
+      <c r="K240">
+        <v>8.6660000000000004</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>216</v>
+      </c>
+      <c r="B241">
+        <v>34</v>
+      </c>
+      <c r="C241" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D241">
+        <v>34</v>
+      </c>
+      <c r="E241">
+        <v>2</v>
+      </c>
+      <c r="F241" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" t="s">
+        <v>250</v>
+      </c>
+      <c r="H241" t="s">
+        <v>12</v>
+      </c>
+      <c r="I241">
+        <v>2.7109999999999999</v>
+      </c>
+      <c r="J241">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="K241">
+        <v>5.3179999999999996</v>
+      </c>
+      <c r="L241">
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>216</v>
+      </c>
+      <c r="B242">
+        <v>35</v>
+      </c>
+      <c r="C242" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D242">
+        <v>35</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242" t="s">
+        <v>13</v>
+      </c>
+      <c r="G242" t="s">
+        <v>251</v>
+      </c>
+      <c r="H242" t="s">
+        <v>12</v>
+      </c>
+      <c r="I242">
+        <v>4.8949999999999996</v>
+      </c>
+      <c r="J242">
+        <v>6.9089999999999998</v>
+      </c>
+      <c r="K242">
+        <v>9.0709999999999997</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>216</v>
+      </c>
+      <c r="B243">
+        <v>36</v>
+      </c>
+      <c r="C243" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D243">
+        <v>36</v>
+      </c>
+      <c r="E243">
+        <v>2</v>
+      </c>
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" t="s">
+        <v>252</v>
+      </c>
+      <c r="H243" t="s">
+        <v>12</v>
+      </c>
+      <c r="I243">
+        <v>2.7029999999999998</v>
+      </c>
+      <c r="J243">
+        <v>6.2629999999999999</v>
+      </c>
+      <c r="K243">
+        <v>8.968</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>216</v>
+      </c>
+      <c r="B244">
+        <v>37</v>
+      </c>
+      <c r="C244" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D244">
+        <v>37</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244" t="s">
+        <v>13</v>
+      </c>
+      <c r="G244" t="s">
+        <v>253</v>
+      </c>
+      <c r="H244" t="s">
+        <v>12</v>
+      </c>
+      <c r="I244">
+        <v>2.3140000000000001</v>
+      </c>
+      <c r="J244">
+        <v>4.008</v>
+      </c>
+      <c r="K244">
+        <v>5.94</v>
+      </c>
+      <c r="L244">
+        <v>7.5570000000000004</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>216</v>
+      </c>
+      <c r="B245">
+        <v>38</v>
+      </c>
+      <c r="C245" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D245">
+        <v>38</v>
+      </c>
+      <c r="E245">
+        <v>2</v>
+      </c>
+      <c r="F245" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" t="s">
+        <v>254</v>
+      </c>
+      <c r="H245" t="s">
+        <v>12</v>
+      </c>
+      <c r="I245">
+        <v>2.242</v>
+      </c>
+      <c r="J245">
+        <v>5.1970000000000001</v>
+      </c>
+      <c r="K245">
+        <v>7.202</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>216</v>
+      </c>
+      <c r="B246">
+        <v>39</v>
+      </c>
+      <c r="C246" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D246">
+        <v>39</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246" t="s">
+        <v>13</v>
+      </c>
+      <c r="G246" t="s">
+        <v>255</v>
+      </c>
+      <c r="H246" t="s">
+        <v>12</v>
+      </c>
+      <c r="I246">
+        <v>3.2509999999999999</v>
+      </c>
+      <c r="J246">
+        <v>5.891</v>
+      </c>
+      <c r="K246">
+        <v>7.2789999999999999</v>
+      </c>
+      <c r="L246">
+        <v>8.7520000000000007</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>216</v>
+      </c>
+      <c r="B247">
+        <v>40</v>
+      </c>
+      <c r="C247" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D247">
+        <v>40</v>
+      </c>
+      <c r="E247">
+        <v>2</v>
+      </c>
+      <c r="F247" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" t="s">
+        <v>256</v>
+      </c>
+      <c r="H247" t="s">
+        <v>12</v>
+      </c>
+      <c r="I247">
+        <v>2.87</v>
+      </c>
+      <c r="J247">
+        <v>4.8710000000000004</v>
+      </c>
+      <c r="K247">
+        <v>8.282</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>216</v>
+      </c>
+      <c r="B248">
+        <v>41</v>
+      </c>
+      <c r="C248" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D248">
+        <v>41</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248" t="s">
+        <v>13</v>
+      </c>
+      <c r="G248" t="s">
+        <v>257</v>
+      </c>
+      <c r="H248" t="s">
+        <v>12</v>
+      </c>
+      <c r="I248">
+        <v>2.2370000000000001</v>
+      </c>
+      <c r="J248">
+        <v>3.7050000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>216</v>
+      </c>
+      <c r="B249">
+        <v>42</v>
+      </c>
+      <c r="C249" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D249">
+        <v>42</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
+      </c>
+      <c r="F249" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" t="s">
+        <v>258</v>
+      </c>
+      <c r="H249" t="s">
+        <v>12</v>
+      </c>
+      <c r="I249">
+        <v>2.9420000000000002</v>
+      </c>
+      <c r="J249">
+        <v>4.7919999999999998</v>
+      </c>
+      <c r="K249">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>216</v>
+      </c>
+      <c r="B250">
+        <v>43</v>
+      </c>
+      <c r="C250" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D250">
+        <v>43</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250" t="s">
+        <v>13</v>
+      </c>
+      <c r="G250" t="s">
+        <v>259</v>
+      </c>
+      <c r="H250" t="s">
+        <v>12</v>
+      </c>
+      <c r="I250">
+        <v>2.085</v>
+      </c>
+      <c r="J250">
+        <v>3.698</v>
+      </c>
+      <c r="K250">
+        <v>5.4720000000000004</v>
+      </c>
+      <c r="L250">
+        <v>8.6460000000000008</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>216</v>
+      </c>
+      <c r="B251">
+        <v>44</v>
+      </c>
+      <c r="C251" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D251">
+        <v>44</v>
+      </c>
+      <c r="E251">
+        <v>2</v>
+      </c>
+      <c r="F251" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" t="s">
+        <v>260</v>
+      </c>
+      <c r="H251" t="s">
+        <v>12</v>
+      </c>
+      <c r="I251">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="J251">
+        <v>6.9720000000000004</v>
+      </c>
+      <c r="K251">
+        <v>8.3580000000000005</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>216</v>
+      </c>
+      <c r="B252">
+        <v>45</v>
+      </c>
+      <c r="C252" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D252">
+        <v>45</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252" t="s">
+        <v>13</v>
+      </c>
+      <c r="G252" t="s">
+        <v>261</v>
+      </c>
+      <c r="H252" t="s">
+        <v>12</v>
+      </c>
+      <c r="I252">
+        <v>2.3140000000000001</v>
+      </c>
+      <c r="J252">
+        <v>4.968</v>
+      </c>
+      <c r="K252">
+        <v>6.9009999999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>216</v>
+      </c>
+      <c r="B253">
+        <v>46</v>
+      </c>
+      <c r="C253" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D253">
+        <v>46</v>
+      </c>
+      <c r="E253">
+        <v>2</v>
+      </c>
+      <c r="F253" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" t="s">
+        <v>262</v>
+      </c>
+      <c r="H253" t="s">
+        <v>12</v>
+      </c>
+      <c r="I253">
+        <v>2.7</v>
+      </c>
+      <c r="J253">
+        <v>4.468</v>
+      </c>
+      <c r="K253">
+        <v>6.407</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>216</v>
+      </c>
+      <c r="B254">
+        <v>47</v>
+      </c>
+      <c r="C254" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D254">
+        <v>47</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254" t="s">
+        <v>13</v>
+      </c>
+      <c r="G254" t="s">
+        <v>263</v>
+      </c>
+      <c r="H254" t="s">
+        <v>12</v>
+      </c>
+      <c r="I254">
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="J254">
+        <v>6.4290000000000003</v>
+      </c>
+      <c r="K254">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>216</v>
+      </c>
+      <c r="B255">
+        <v>48</v>
+      </c>
+      <c r="C255" s="1">
+        <v>45039</v>
+      </c>
+      <c r="D255">
+        <v>48</v>
+      </c>
+      <c r="E255">
+        <v>2</v>
+      </c>
+      <c r="F255" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" t="s">
+        <v>264</v>
+      </c>
+      <c r="H255" t="s">
+        <v>12</v>
+      </c>
+      <c r="I255">
+        <v>3.4009999999999998</v>
+      </c>
+      <c r="J255">
+        <v>5.0229999999999997</v>
+      </c>
+      <c r="K255">
+        <v>7.26</v>
+      </c>
+      <c r="L255">
+        <v>8.7200000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/data/fNIRSandGerbils.xlsx
+++ b/data/fNIRSandGerbils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiments\fNIRSandGerbils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54A7FB-DCDB-4258-A362-D0B6A6168F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53AF44E-4C63-4895-9BF6-C96A9BDC5969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17400" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="266">
   <si>
     <t>S</t>
   </si>
@@ -831,6 +831,9 @@
   </si>
   <si>
     <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest2\unscrambled\8_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>perfectdata</t>
   </si>
 </sst>
 </file>
@@ -1183,13 +1186,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E945CDA-0894-470B-A916-C9F7C84C6ED4}">
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="G264" sqref="G264"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="104" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -10203,6 +10210,628 @@
         <v>8.7200000000000006</v>
       </c>
     </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>265</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>265</v>
+      </c>
+      <c r="B257">
+        <f>B256+1</f>
+        <v>2</v>
+      </c>
+      <c r="D257">
+        <f>D256+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>265</v>
+      </c>
+      <c r="B258">
+        <f t="shared" ref="B258:D305" si="0">B257+1</f>
+        <v>3</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>265</v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>265</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>265</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>265</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>265</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>265</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>265</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>265</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>265</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>265</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>265</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>265</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>265</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>265</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>265</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>265</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>265</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>265</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>265</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>265</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>265</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>265</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>265</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>265</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>265</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>265</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>265</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>265</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>265</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>265</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>265</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>265</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>265</v>
+      </c>
+      <c r="B295">
+        <f>B294+1</f>
+        <v>40</v>
+      </c>
+      <c r="D295">
+        <f>D294+1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>265</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>265</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>265</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>265</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>265</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>265</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>265</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>265</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fNIRSandGerbils.xlsx
+++ b/data/fNIRSandGerbils.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiments\fNIRSandGerbils\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benri\Documents\GitHub\fNIRSandGerbils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53AF44E-4C63-4895-9BF6-C96A9BDC5969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B865B836-2616-4339-A0B1-9E790D3C5B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17400" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="314">
   <si>
     <t>S</t>
   </si>
@@ -834,6 +834,150 @@
   </si>
   <si>
     <t>perfectdata</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\14_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\12_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\16_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\21_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\27_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\29_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\2_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\32_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\4_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\5_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\6_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\7_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\8_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\9_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\15_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\17_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\18_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\20_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\23_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\25_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\28_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\30_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\33_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\34_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\38_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\39_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\40_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\42_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\43_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\44_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\1_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\3_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\10_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\11_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\13_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\scrambled\19_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\22_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\24_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\26_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\31_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\35_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\36_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\37_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\41_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\45_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\46_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\47_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\48_unscrambled.wav</t>
   </si>
 </sst>
 </file>
@@ -1188,17 +1332,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E945CDA-0894-470B-A916-C9F7C84C6ED4}">
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+    <sheetView tabSelected="1" topLeftCell="B260" workbookViewId="0">
+      <selection activeCell="G286" sqref="G286"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="104" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1262,7 +1406,7 @@
         <v>6.7549999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1300,7 +1444,7 @@
         <v>6.5149999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1332,7 +1476,7 @@
         <v>5.9610000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1367,7 +1511,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1399,7 +1543,7 @@
         <v>6.0069999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1434,7 +1578,7 @@
         <v>5.306</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1466,7 +1610,7 @@
         <v>5.9290000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1504,7 +1648,7 @@
         <v>5.7210000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1539,7 +1683,7 @@
         <v>6.4169999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1571,7 +1715,7 @@
         <v>5.8879999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1603,7 +1747,7 @@
         <v>5.9039999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1635,7 +1779,7 @@
         <v>6.0330000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1670,7 +1814,7 @@
         <v>6.0469999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1702,7 +1846,7 @@
         <v>5.9580000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1737,7 +1881,7 @@
         <v>5.0890000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1775,7 +1919,7 @@
         <v>5.3360000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1810,7 +1954,7 @@
         <v>5.6449999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1842,7 +1986,7 @@
         <v>3.8079999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1877,7 +2021,7 @@
         <v>5.7850000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1912,7 +2056,7 @@
         <v>5.3369999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1950,7 +2094,7 @@
         <v>5.6550000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1985,7 +2129,7 @@
         <v>5.1130000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -2020,7 +2164,7 @@
         <v>4.5629999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -2055,7 +2199,7 @@
         <v>5.359</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2090,7 +2234,7 @@
         <v>3.8610000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2128,7 +2272,7 @@
         <v>5.5389999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2163,7 +2307,7 @@
         <v>5.508</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -2201,7 +2345,7 @@
         <v>5.2690000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2239,7 +2383,7 @@
         <v>5.3010000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2274,7 +2418,7 @@
         <v>5.0419999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2309,7 +2453,7 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2344,7 +2488,7 @@
         <v>4.7919999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2379,7 +2523,7 @@
         <v>5.5339999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2414,7 +2558,7 @@
         <v>4.2030000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2449,7 +2593,7 @@
         <v>5.1280000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2484,7 +2628,7 @@
         <v>5.0199999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2519,7 +2663,7 @@
         <v>5.1689999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2557,7 +2701,7 @@
         <v>4.7160000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2592,7 +2736,7 @@
         <v>5.516</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2633,7 +2777,7 @@
         <v>5.7229999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2668,7 +2812,7 @@
         <v>4.6660000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2703,7 +2847,7 @@
         <v>5.1970000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -2738,7 +2882,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -2776,7 +2920,7 @@
         <v>5.7190000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -2811,7 +2955,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -2846,7 +2990,7 @@
         <v>5.2590000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2881,7 +3025,7 @@
         <v>5.2679999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -2916,7 +3060,7 @@
         <v>5.1050000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -2951,7 +3095,7 @@
         <v>3.6339999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -2986,7 +3130,7 @@
         <v>5.3330000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -3021,7 +3165,7 @@
         <v>3.7090000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -3059,7 +3203,7 @@
         <v>5.4059999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -3097,7 +3241,7 @@
         <v>4.0869999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -3135,7 +3279,7 @@
         <v>5.6239999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -3167,7 +3311,7 @@
         <v>3.585</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -3202,7 +3346,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>41</v>
       </c>
@@ -3237,7 +3381,7 @@
         <v>4.9589999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -3275,7 +3419,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -3310,7 +3454,7 @@
         <v>5.6050000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>41</v>
       </c>
@@ -3345,7 +3489,7 @@
         <v>4.9059999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -3380,7 +3524,7 @@
         <v>5.5839999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -3418,7 +3562,7 @@
         <v>6.2629999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -3453,7 +3597,7 @@
         <v>4.9530000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -3488,7 +3632,7 @@
         <v>3.9089999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -3523,7 +3667,7 @@
         <v>5.5119999999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -3558,7 +3702,7 @@
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -3593,7 +3737,7 @@
         <v>5.1929999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -3628,7 +3772,7 @@
         <v>4.4889999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -3663,7 +3807,7 @@
         <v>4.9340000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -3698,7 +3842,7 @@
         <v>4.6920000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -3733,7 +3877,7 @@
         <v>4.7629999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -3768,7 +3912,7 @@
         <v>5.5330000000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -3803,7 +3947,7 @@
         <v>4.9720000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -3838,7 +3982,7 @@
         <v>4.8129999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -3873,7 +4017,7 @@
         <v>4.8920000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -3905,7 +4049,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -3940,7 +4084,7 @@
         <v>4.9539999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -3975,7 +4119,7 @@
         <v>5.0190000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -4010,7 +4154,7 @@
         <v>4.9539999999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -4048,7 +4192,7 @@
         <v>5.7279999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -4083,7 +4227,7 @@
         <v>4.9329999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -4118,7 +4262,7 @@
         <v>5.36</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -4153,7 +4297,7 @@
         <v>3.7330000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -4191,7 +4335,7 @@
         <v>5.6689999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -4226,7 +4370,7 @@
         <v>5.3520000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -4264,7 +4408,7 @@
         <v>5.3109999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -4299,7 +4443,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -4334,7 +4478,7 @@
         <v>5.3769999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -4369,7 +4513,7 @@
         <v>2.8929999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -4404,7 +4548,7 @@
         <v>5.4029999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -4439,7 +4583,7 @@
         <v>4.6920000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -4477,7 +4621,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -4512,7 +4656,7 @@
         <v>5.431</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -4547,7 +4691,7 @@
         <v>4.5119999999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -4582,7 +4726,7 @@
         <v>5.0529999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -4617,7 +4761,7 @@
         <v>4.9139999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -4655,7 +4799,7 @@
         <v>5.1520000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -4690,7 +4834,7 @@
         <v>5.1120000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -4725,7 +4869,7 @@
         <v>5.5519999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -4760,7 +4904,7 @@
         <v>5.4989999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -4795,7 +4939,7 @@
         <v>4.6929999999999996</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -4830,7 +4974,7 @@
         <v>4.9029999999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -4865,7 +5009,7 @@
         <v>5.2119999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -4900,7 +5044,7 @@
         <v>4.2489999999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -4935,7 +5079,7 @@
         <v>5.2919999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -4973,7 +5117,7 @@
         <v>4.5529999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -5008,7 +5152,7 @@
         <v>3.2130000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -5046,7 +5190,7 @@
         <v>5.1470000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -5081,7 +5225,7 @@
         <v>3.9319999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -5116,7 +5260,7 @@
         <v>4.2130000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -5145,7 +5289,7 @@
         <v>3.532</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -5180,7 +5324,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -5218,7 +5362,7 @@
         <v>5.032</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -5253,7 +5397,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -5288,7 +5432,7 @@
         <v>4.5019999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -5320,7 +5464,7 @@
         <v>5.0430000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -5355,7 +5499,7 @@
         <v>5.6029999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -5390,7 +5534,7 @@
         <v>4.4089999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -5428,7 +5572,7 @@
         <v>4.7930000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -5457,7 +5601,7 @@
         <v>2.9020000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>118</v>
       </c>
@@ -5489,7 +5633,7 @@
         <v>5.0350000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -5524,7 +5668,7 @@
         <v>4.9189999999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -5559,7 +5703,7 @@
         <v>4.9320000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>118</v>
       </c>
@@ -5594,7 +5738,7 @@
         <v>5.2729999999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>118</v>
       </c>
@@ -5629,7 +5773,7 @@
         <v>5.1719999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>118</v>
       </c>
@@ -5664,7 +5808,7 @@
         <v>5.1180000000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -5696,7 +5840,7 @@
         <v>5.8920000000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>118</v>
       </c>
@@ -5731,7 +5875,7 @@
         <v>5.202</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>118</v>
       </c>
@@ -5763,7 +5907,7 @@
         <v>3.512</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>118</v>
       </c>
@@ -5801,7 +5945,7 @@
         <v>4.5119999999999996</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>118</v>
       </c>
@@ -5836,7 +5980,7 @@
         <v>5.1849999999999996</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>118</v>
       </c>
@@ -5871,7 +6015,7 @@
         <v>4.8819999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>118</v>
       </c>
@@ -5906,7 +6050,7 @@
         <v>4.8819999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>118</v>
       </c>
@@ -5938,7 +6082,7 @@
         <v>4.0529999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>118</v>
       </c>
@@ -5976,7 +6120,7 @@
         <v>3.7610000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>118</v>
       </c>
@@ -6011,7 +6155,7 @@
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>118</v>
       </c>
@@ -6049,7 +6193,7 @@
         <v>5.0419999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>118</v>
       </c>
@@ -6081,7 +6225,7 @@
         <v>4.4119999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>118</v>
       </c>
@@ -6113,7 +6257,7 @@
         <v>5.383</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>118</v>
       </c>
@@ -6151,7 +6295,7 @@
         <v>5.3029999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>118</v>
       </c>
@@ -6186,7 +6330,7 @@
         <v>5.6120000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>118</v>
       </c>
@@ -6221,7 +6365,7 @@
         <v>5.6920000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>118</v>
       </c>
@@ -6256,7 +6400,7 @@
         <v>3.5830000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>118</v>
       </c>
@@ -6291,7 +6435,7 @@
         <v>4.3529999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>118</v>
       </c>
@@ -6326,7 +6470,7 @@
         <v>4.6920000000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>118</v>
       </c>
@@ -6361,7 +6505,7 @@
         <v>3.133</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>118</v>
       </c>
@@ -6399,7 +6543,7 @@
         <v>5.0780000000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>118</v>
       </c>
@@ -6434,7 +6578,7 @@
         <v>3.6080000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>118</v>
       </c>
@@ -6469,7 +6613,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>118</v>
       </c>
@@ -6504,7 +6648,7 @@
         <v>4.3419999999999996</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>118</v>
       </c>
@@ -6539,7 +6683,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>118</v>
       </c>
@@ -6574,7 +6718,7 @@
         <v>5.6340000000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>118</v>
       </c>
@@ -6612,7 +6756,7 @@
         <v>5.3929999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>118</v>
       </c>
@@ -6650,7 +6794,7 @@
         <v>5.1680000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>118</v>
       </c>
@@ -6688,7 +6832,7 @@
         <v>5.4329999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>118</v>
       </c>
@@ -6723,7 +6867,7 @@
         <v>4.9329999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>118</v>
       </c>
@@ -6758,7 +6902,7 @@
         <v>4.1029999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>118</v>
       </c>
@@ -6793,7 +6937,7 @@
         <v>3.202</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>167</v>
       </c>
@@ -6828,7 +6972,7 @@
         <v>8.0570000000000004</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -6863,7 +7007,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -6898,7 +7042,7 @@
         <v>6.2670000000000003</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>167</v>
       </c>
@@ -6933,7 +7077,7 @@
         <v>8.5960000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -6968,7 +7112,7 @@
         <v>8.6590000000000007</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -7003,7 +7147,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -7038,7 +7182,7 @@
         <v>8.9139999999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -7076,7 +7220,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -7114,7 +7258,7 @@
         <v>7.6550000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -7149,7 +7293,7 @@
         <v>6.8259999999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -7184,7 +7328,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>167</v>
       </c>
@@ -7219,7 +7363,7 @@
         <v>6.8890000000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>167</v>
       </c>
@@ -7254,7 +7398,7 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>167</v>
       </c>
@@ -7289,7 +7433,7 @@
         <v>5.6260000000000003</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>167</v>
       </c>
@@ -7324,7 +7468,7 @@
         <v>8.6010000000000009</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>167</v>
       </c>
@@ -7359,7 +7503,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>167</v>
       </c>
@@ -7394,7 +7538,7 @@
         <v>7.6520000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>167</v>
       </c>
@@ -7435,7 +7579,7 @@
         <v>8.8810000000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>167</v>
       </c>
@@ -7470,7 +7614,7 @@
         <v>8.5020000000000007</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>167</v>
       </c>
@@ -7505,7 +7649,7 @@
         <v>8.5939999999999994</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>167</v>
       </c>
@@ -7540,7 +7684,7 @@
         <v>5.3129999999999997</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>167</v>
       </c>
@@ -7578,7 +7722,7 @@
         <v>8.7219999999999995</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>167</v>
       </c>
@@ -7613,7 +7757,7 @@
         <v>8.2550000000000008</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>167</v>
       </c>
@@ -7648,7 +7792,7 @@
         <v>6.7240000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>167</v>
       </c>
@@ -7680,7 +7824,7 @@
         <v>8.9109999999999996</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>167</v>
       </c>
@@ -7715,7 +7859,7 @@
         <v>7.9059999999999997</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>167</v>
       </c>
@@ -7750,7 +7894,7 @@
         <v>8.577</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>167</v>
       </c>
@@ -7788,7 +7932,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>167</v>
       </c>
@@ -7823,7 +7967,7 @@
         <v>8.9760000000000009</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>167</v>
       </c>
@@ -7861,7 +8005,7 @@
         <v>8.7330000000000005</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>167</v>
       </c>
@@ -7896,7 +8040,7 @@
         <v>8.4280000000000008</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>167</v>
       </c>
@@ -7934,7 +8078,7 @@
         <v>8.5860000000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>167</v>
       </c>
@@ -7969,7 +8113,7 @@
         <v>6.024</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>167</v>
       </c>
@@ -8004,7 +8148,7 @@
         <v>7.8860000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>167</v>
       </c>
@@ -8039,7 +8183,7 @@
         <v>6.4770000000000003</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>167</v>
       </c>
@@ -8077,7 +8221,7 @@
         <v>7.9489999999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>167</v>
       </c>
@@ -8112,7 +8256,7 @@
         <v>8.4239999999999995</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>167</v>
       </c>
@@ -8147,7 +8291,7 @@
         <v>9.093</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>167</v>
       </c>
@@ -8182,7 +8326,7 @@
         <v>8.6509999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>167</v>
       </c>
@@ -8217,7 +8361,7 @@
         <v>8.3059999999999992</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>167</v>
       </c>
@@ -8252,7 +8396,7 @@
         <v>8.3030000000000008</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>167</v>
       </c>
@@ -8287,7 +8431,7 @@
         <v>8.282</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>167</v>
       </c>
@@ -8322,7 +8466,7 @@
         <v>8.2680000000000007</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>167</v>
       </c>
@@ -8357,7 +8501,7 @@
         <v>7.0990000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>167</v>
       </c>
@@ -8395,7 +8539,7 @@
         <v>8.3219999999999992</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>167</v>
       </c>
@@ -8430,7 +8574,7 @@
         <v>7.2549999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>167</v>
       </c>
@@ -8465,7 +8609,7 @@
         <v>7.1870000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>167</v>
       </c>
@@ -8500,7 +8644,7 @@
         <v>5.2370000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>216</v>
       </c>
@@ -8535,7 +8679,7 @@
         <v>8.7319999999999993</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>216</v>
       </c>
@@ -8570,7 +8714,7 @@
         <v>8.5269999999999992</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -8608,7 +8752,7 @@
         <v>8.2639999999999993</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -8646,7 +8790,7 @@
         <v>8.5779999999999994</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>216</v>
       </c>
@@ -8681,7 +8825,7 @@
         <v>6.87</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -8716,7 +8860,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -8751,7 +8895,7 @@
         <v>7.992</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -8789,7 +8933,7 @@
         <v>6.6340000000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -8821,7 +8965,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -8856,7 +9000,7 @@
         <v>8.2769999999999992</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -8891,7 +9035,7 @@
         <v>7.3470000000000004</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -8926,7 +9070,7 @@
         <v>8.1690000000000005</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>216</v>
       </c>
@@ -8961,7 +9105,7 @@
         <v>9.0649999999999995</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>216</v>
       </c>
@@ -8996,7 +9140,7 @@
         <v>9.0649999999999995</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>216</v>
       </c>
@@ -9031,7 +9175,7 @@
         <v>8.4350000000000005</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>216</v>
       </c>
@@ -9066,7 +9210,7 @@
         <v>6.6619999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>216</v>
       </c>
@@ -9101,7 +9245,7 @@
         <v>8.4309999999999992</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>216</v>
       </c>
@@ -9136,7 +9280,7 @@
         <v>8.202</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>216</v>
       </c>
@@ -9171,7 +9315,7 @@
         <v>8.0690000000000008</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>216</v>
       </c>
@@ -9206,7 +9350,7 @@
         <v>8.2739999999999991</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>216</v>
       </c>
@@ -9241,7 +9385,7 @@
         <v>8.6560000000000006</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>216</v>
       </c>
@@ -9276,7 +9420,7 @@
         <v>6.4630000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>216</v>
       </c>
@@ -9311,7 +9455,7 @@
         <v>8.9120000000000008</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>216</v>
       </c>
@@ -9349,7 +9493,7 @@
         <v>8.4120000000000008</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>216</v>
       </c>
@@ -9384,7 +9528,7 @@
         <v>7.976</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>216</v>
       </c>
@@ -9422,7 +9566,7 @@
         <v>8.9130000000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>216</v>
       </c>
@@ -9457,7 +9601,7 @@
         <v>7.282</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>216</v>
       </c>
@@ -9495,7 +9639,7 @@
         <v>8.3209999999999997</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>216</v>
       </c>
@@ -9533,7 +9677,7 @@
         <v>7.4450000000000003</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>216</v>
       </c>
@@ -9568,7 +9712,7 @@
         <v>7.0430000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>216</v>
       </c>
@@ -9603,7 +9747,7 @@
         <v>8.6449999999999996</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>216</v>
       </c>
@@ -9638,7 +9782,7 @@
         <v>5.0110000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>216</v>
       </c>
@@ -9673,7 +9817,7 @@
         <v>8.6660000000000004</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>216</v>
       </c>
@@ -9711,7 +9855,7 @@
         <v>9.0399999999999991</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>216</v>
       </c>
@@ -9746,7 +9890,7 @@
         <v>9.0709999999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>216</v>
       </c>
@@ -9781,7 +9925,7 @@
         <v>8.968</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>216</v>
       </c>
@@ -9819,7 +9963,7 @@
         <v>7.5570000000000004</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>216</v>
       </c>
@@ -9854,7 +9998,7 @@
         <v>7.202</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>216</v>
       </c>
@@ -9892,7 +10036,7 @@
         <v>8.7520000000000007</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>216</v>
       </c>
@@ -9927,7 +10071,7 @@
         <v>8.282</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>216</v>
       </c>
@@ -9959,7 +10103,7 @@
         <v>3.7050000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>216</v>
       </c>
@@ -9994,7 +10138,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>216</v>
       </c>
@@ -10032,7 +10176,7 @@
         <v>8.6460000000000008</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>216</v>
       </c>
@@ -10067,7 +10211,7 @@
         <v>8.3580000000000005</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>216</v>
       </c>
@@ -10102,7 +10246,7 @@
         <v>6.9009999999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>216</v>
       </c>
@@ -10137,7 +10281,7 @@
         <v>6.407</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>216</v>
       </c>
@@ -10172,7 +10316,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>216</v>
       </c>
@@ -10210,7 +10354,7 @@
         <v>8.7200000000000006</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>265</v>
       </c>
@@ -10220,8 +10364,11 @@
       <c r="D256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G256" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>265</v>
       </c>
@@ -10233,21 +10380,27 @@
         <f>D256+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G257" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>265</v>
       </c>
       <c r="B258">
-        <f t="shared" ref="B258:D305" si="0">B257+1</f>
+        <f t="shared" ref="B258:D303" si="0">B257+1</f>
         <v>3</v>
       </c>
       <c r="D258">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G258" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>265</v>
       </c>
@@ -10259,8 +10412,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G259" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>265</v>
       </c>
@@ -10272,8 +10428,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G260" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>265</v>
       </c>
@@ -10285,8 +10444,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G261" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>265</v>
       </c>
@@ -10298,8 +10460,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G262" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>265</v>
       </c>
@@ -10311,8 +10476,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G263" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -10324,8 +10492,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G264" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -10337,8 +10508,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G265" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -10350,8 +10524,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G266" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -10363,8 +10540,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G267" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>265</v>
       </c>
@@ -10376,8 +10556,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G268" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>265</v>
       </c>
@@ -10389,8 +10572,11 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G269" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>265</v>
       </c>
@@ -10402,8 +10588,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G270" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>265</v>
       </c>
@@ -10415,8 +10604,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G271" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>265</v>
       </c>
@@ -10428,8 +10620,11 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G272" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>265</v>
       </c>
@@ -10441,8 +10636,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G273" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>265</v>
       </c>
@@ -10454,8 +10652,11 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G274" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>265</v>
       </c>
@@ -10467,8 +10668,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G275" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>265</v>
       </c>
@@ -10480,8 +10684,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G276" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>265</v>
       </c>
@@ -10493,8 +10700,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G277" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>265</v>
       </c>
@@ -10506,8 +10716,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G278" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>265</v>
       </c>
@@ -10519,8 +10732,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G279" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>265</v>
       </c>
@@ -10532,8 +10748,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G280" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>265</v>
       </c>
@@ -10545,8 +10764,11 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G281" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>265</v>
       </c>
@@ -10558,8 +10780,11 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G282" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>265</v>
       </c>
@@ -10571,8 +10796,11 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G283" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>265</v>
       </c>
@@ -10584,8 +10812,11 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G284" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>265</v>
       </c>
@@ -10597,8 +10828,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G285" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>265</v>
       </c>
@@ -10610,8 +10844,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G286" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>265</v>
       </c>
@@ -10623,8 +10860,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G287" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>265</v>
       </c>
@@ -10636,8 +10876,11 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G288" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>265</v>
       </c>
@@ -10649,8 +10892,11 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G289" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>265</v>
       </c>
@@ -10662,8 +10908,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G290" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>265</v>
       </c>
@@ -10675,8 +10924,11 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G291" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>265</v>
       </c>
@@ -10688,8 +10940,11 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G292" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>265</v>
       </c>
@@ -10701,8 +10956,11 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G293" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>265</v>
       </c>
@@ -10714,8 +10972,11 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G294" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>265</v>
       </c>
@@ -10727,8 +10988,11 @@
         <f>D294+1</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G295" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>265</v>
       </c>
@@ -10740,8 +11004,11 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G296" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>265</v>
       </c>
@@ -10753,8 +11020,11 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G297" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>265</v>
       </c>
@@ -10766,8 +11036,11 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G298" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>265</v>
       </c>
@@ -10779,8 +11052,11 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G299" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>265</v>
       </c>
@@ -10792,8 +11068,11 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G300" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>265</v>
       </c>
@@ -10805,8 +11084,11 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G301" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>265</v>
       </c>
@@ -10818,8 +11100,11 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G302" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>265</v>
       </c>
@@ -10830,6 +11115,9 @@
       <c r="D303">
         <f t="shared" si="0"/>
         <v>48</v>
+      </c>
+      <c r="G303" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/data/fNIRSandGerbils.xlsx
+++ b/data/fNIRSandGerbils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benri\Documents\GitHub\fNIRSandGerbils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B865B836-2616-4339-A0B1-9E790D3C5B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAD83E6-8587-4C71-8030-8BABB6F83205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="314">
   <si>
     <t>S</t>
   </si>
@@ -1332,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E945CDA-0894-470B-A916-C9F7C84C6ED4}">
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B260" workbookViewId="0">
-      <selection activeCell="G286" sqref="G286"/>
+    <sheetView tabSelected="1" topLeftCell="C280" workbookViewId="0">
+      <selection activeCell="G304" sqref="G304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10364,11 +10364,32 @@
       <c r="D256">
         <v>1</v>
       </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256" t="s">
+        <v>13</v>
+      </c>
       <c r="G256" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H256" t="s">
+        <v>12</v>
+      </c>
+      <c r="I256">
+        <v>3.4</v>
+      </c>
+      <c r="J256">
+        <v>6.06666666666667</v>
+      </c>
+      <c r="K256">
+        <v>5</v>
+      </c>
+      <c r="L256">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>265</v>
       </c>
@@ -10380,11 +10401,32 @@
         <f>D256+1</f>
         <v>2</v>
       </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257" t="s">
+        <v>13</v>
+      </c>
       <c r="G257" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H257" t="s">
+        <v>12</v>
+      </c>
+      <c r="I257">
+        <v>3.4</v>
+      </c>
+      <c r="J257">
+        <v>6.7333333333333396</v>
+      </c>
+      <c r="K257">
+        <v>5</v>
+      </c>
+      <c r="L257">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>265</v>
       </c>
@@ -10396,11 +10438,32 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258" t="s">
+        <v>13</v>
+      </c>
       <c r="G258" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H258" t="s">
+        <v>12</v>
+      </c>
+      <c r="I258">
+        <v>2.4</v>
+      </c>
+      <c r="J258">
+        <v>5.06666666666667</v>
+      </c>
+      <c r="K258">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L258">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>265</v>
       </c>
@@ -10412,11 +10475,32 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259" t="s">
+        <v>13</v>
+      </c>
       <c r="G259" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H259" t="s">
+        <v>12</v>
+      </c>
+      <c r="I259">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="J259">
+        <v>4.06666666666667</v>
+      </c>
+      <c r="K259">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L259">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>265</v>
       </c>
@@ -10428,11 +10512,32 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="E260">
+        <v>2</v>
+      </c>
+      <c r="F260" t="s">
+        <v>10</v>
+      </c>
       <c r="G260" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H260" t="s">
+        <v>12</v>
+      </c>
+      <c r="I260">
+        <v>1.4</v>
+      </c>
+      <c r="J260">
+        <v>3.4</v>
+      </c>
+      <c r="K260">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L260">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>265</v>
       </c>
@@ -10444,11 +10549,32 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261" t="s">
+        <v>13</v>
+      </c>
       <c r="G261" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H261" t="s">
+        <v>12</v>
+      </c>
+      <c r="I261">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="J261">
+        <v>4.7333333333333298</v>
+      </c>
+      <c r="K261">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L261">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>265</v>
       </c>
@@ -10460,11 +10586,32 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="E262">
+        <v>2</v>
+      </c>
+      <c r="F262" t="s">
+        <v>10</v>
+      </c>
       <c r="G262" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H262" t="s">
+        <v>12</v>
+      </c>
+      <c r="I262">
+        <v>2.7333333333333298</v>
+      </c>
+      <c r="J262">
+        <v>6.4</v>
+      </c>
+      <c r="K262">
+        <v>5</v>
+      </c>
+      <c r="L262">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>265</v>
       </c>
@@ -10476,11 +10623,32 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263" t="s">
+        <v>13</v>
+      </c>
       <c r="G263" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H263" t="s">
+        <v>12</v>
+      </c>
+      <c r="I263">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="J263">
+        <v>3.4</v>
+      </c>
+      <c r="K263">
+        <v>5.6666666666666696</v>
+      </c>
+      <c r="L263">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -10492,11 +10660,32 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="E264">
+        <v>2</v>
+      </c>
+      <c r="F264" t="s">
+        <v>10</v>
+      </c>
       <c r="G264" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H264" t="s">
+        <v>12</v>
+      </c>
+      <c r="I264">
+        <v>3.06666666666667</v>
+      </c>
+      <c r="J264">
+        <v>5.7333333333333396</v>
+      </c>
+      <c r="K264">
+        <v>5</v>
+      </c>
+      <c r="L264">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -10508,11 +10697,32 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="E265">
+        <v>2</v>
+      </c>
+      <c r="F265" t="s">
+        <v>10</v>
+      </c>
       <c r="G265" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H265" t="s">
+        <v>12</v>
+      </c>
+      <c r="I265">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="J265">
+        <v>4.7333333333333298</v>
+      </c>
+      <c r="K265">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L265">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -10524,11 +10734,32 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266" t="s">
+        <v>13</v>
+      </c>
       <c r="G266" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H266" t="s">
+        <v>12</v>
+      </c>
+      <c r="I266">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J266">
+        <v>6.06666666666667</v>
+      </c>
+      <c r="K266">
+        <v>5</v>
+      </c>
+      <c r="L266">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -10540,11 +10771,32 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267" t="s">
+        <v>10</v>
+      </c>
       <c r="G267" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H267" t="s">
+        <v>12</v>
+      </c>
+      <c r="I267">
+        <v>4.06666666666667</v>
+      </c>
+      <c r="J267">
+        <v>6.4</v>
+      </c>
+      <c r="K267">
+        <v>5</v>
+      </c>
+      <c r="L267">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>265</v>
       </c>
@@ -10556,11 +10808,32 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268" t="s">
+        <v>13</v>
+      </c>
       <c r="G268" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H268" t="s">
+        <v>12</v>
+      </c>
+      <c r="I268">
+        <v>1.4</v>
+      </c>
+      <c r="J268">
+        <v>2.7333333333333298</v>
+      </c>
+      <c r="K268">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L268">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>265</v>
       </c>
@@ -10572,11 +10845,32 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269" t="s">
+        <v>13</v>
+      </c>
       <c r="G269" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H269" t="s">
+        <v>12</v>
+      </c>
+      <c r="I269">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="J269">
+        <v>6.06666666666667</v>
+      </c>
+      <c r="K269">
+        <v>5</v>
+      </c>
+      <c r="L269">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>265</v>
       </c>
@@ -10588,11 +10882,32 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="E270">
+        <v>2</v>
+      </c>
+      <c r="F270" t="s">
+        <v>10</v>
+      </c>
       <c r="G270" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H270" t="s">
+        <v>12</v>
+      </c>
+      <c r="I270">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J270">
+        <v>5.7333333333333396</v>
+      </c>
+      <c r="K270">
+        <v>5</v>
+      </c>
+      <c r="L270">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>265</v>
       </c>
@@ -10604,11 +10919,32 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271" t="s">
+        <v>13</v>
+      </c>
       <c r="G271" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H271" t="s">
+        <v>12</v>
+      </c>
+      <c r="I271">
+        <v>2.4</v>
+      </c>
+      <c r="J271">
+        <v>5.4</v>
+      </c>
+      <c r="K271">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L271">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>265</v>
       </c>
@@ -10620,11 +10956,32 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="E272">
+        <v>2</v>
+      </c>
+      <c r="F272" t="s">
+        <v>10</v>
+      </c>
       <c r="G272" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H272" t="s">
+        <v>12</v>
+      </c>
+      <c r="I272">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="J272">
+        <v>3.4</v>
+      </c>
+      <c r="K272">
+        <v>5.6666666666666696</v>
+      </c>
+      <c r="L272">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>265</v>
       </c>
@@ -10636,11 +10993,35 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273" t="s">
+        <v>13</v>
+      </c>
       <c r="G273" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H273" t="s">
+        <v>12</v>
+      </c>
+      <c r="I273">
+        <v>3.4</v>
+      </c>
+      <c r="J273">
+        <v>5.4</v>
+      </c>
+      <c r="K273">
+        <v>7.06666666666667</v>
+      </c>
+      <c r="L273">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="M273">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>265</v>
       </c>
@@ -10652,11 +11033,35 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274" t="s">
+        <v>13</v>
+      </c>
       <c r="G274" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H274" t="s">
+        <v>12</v>
+      </c>
+      <c r="I274">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="J274">
+        <v>4.7333333333333298</v>
+      </c>
+      <c r="K274">
+        <v>6.4</v>
+      </c>
+      <c r="L274">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="M274">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>265</v>
       </c>
@@ -10668,11 +11073,32 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275" t="s">
+        <v>13</v>
+      </c>
       <c r="G275" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H275" t="s">
+        <v>12</v>
+      </c>
+      <c r="I275">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="J275">
+        <v>5.06666666666667</v>
+      </c>
+      <c r="K275">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L275">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>265</v>
       </c>
@@ -10684,11 +11110,32 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="E276">
+        <v>2</v>
+      </c>
+      <c r="F276" t="s">
+        <v>10</v>
+      </c>
       <c r="G276" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H276" t="s">
+        <v>12</v>
+      </c>
+      <c r="I276">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="J276">
+        <v>7.06666666666667</v>
+      </c>
+      <c r="K276">
+        <v>5</v>
+      </c>
+      <c r="L276">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>265</v>
       </c>
@@ -10700,11 +11147,32 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="E277">
+        <v>2</v>
+      </c>
+      <c r="F277" t="s">
+        <v>10</v>
+      </c>
       <c r="G277" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H277" t="s">
+        <v>12</v>
+      </c>
+      <c r="I277">
+        <v>3.06666666666667</v>
+      </c>
+      <c r="J277">
+        <v>4.7333333333333298</v>
+      </c>
+      <c r="K277">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L277">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>265</v>
       </c>
@@ -10716,11 +11184,32 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="E278">
+        <v>2</v>
+      </c>
+      <c r="F278" t="s">
+        <v>10</v>
+      </c>
       <c r="G278" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H278" t="s">
+        <v>12</v>
+      </c>
+      <c r="I278">
+        <v>1.4</v>
+      </c>
+      <c r="J278">
+        <v>4.06666666666667</v>
+      </c>
+      <c r="K278">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L278">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>265</v>
       </c>
@@ -10732,11 +11221,32 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="F279" t="s">
+        <v>10</v>
+      </c>
       <c r="G279" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H279" t="s">
+        <v>12</v>
+      </c>
+      <c r="I279">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="J279">
+        <v>4.06666666666667</v>
+      </c>
+      <c r="K279">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L279">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>265</v>
       </c>
@@ -10748,11 +11258,32 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="E280">
+        <v>2</v>
+      </c>
+      <c r="F280" t="s">
+        <v>10</v>
+      </c>
       <c r="G280" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H280" t="s">
+        <v>12</v>
+      </c>
+      <c r="I280">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="J280">
+        <v>6.06666666666667</v>
+      </c>
+      <c r="K280">
+        <v>5</v>
+      </c>
+      <c r="L280">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>265</v>
       </c>
@@ -10764,11 +11295,32 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
+      <c r="E281">
+        <v>2</v>
+      </c>
+      <c r="F281" t="s">
+        <v>10</v>
+      </c>
       <c r="G281" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H281" t="s">
+        <v>12</v>
+      </c>
+      <c r="I281">
+        <v>1.4</v>
+      </c>
+      <c r="J281">
+        <v>5.7333333333333396</v>
+      </c>
+      <c r="K281">
+        <v>5</v>
+      </c>
+      <c r="L281">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>265</v>
       </c>
@@ -10780,11 +11332,32 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="E282">
+        <v>2</v>
+      </c>
+      <c r="F282" t="s">
+        <v>10</v>
+      </c>
       <c r="G282" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H282" t="s">
+        <v>12</v>
+      </c>
+      <c r="I282">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="J282">
+        <v>4.7333333333333298</v>
+      </c>
+      <c r="K282">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L282">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>265</v>
       </c>
@@ -10796,11 +11369,32 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283" t="s">
+        <v>13</v>
+      </c>
       <c r="G283" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H283" t="s">
+        <v>12</v>
+      </c>
+      <c r="I283">
+        <v>1.4</v>
+      </c>
+      <c r="J283">
+        <v>5.7333333333333396</v>
+      </c>
+      <c r="K283">
+        <v>5</v>
+      </c>
+      <c r="L283">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>265</v>
       </c>
@@ -10812,11 +11406,32 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284" t="s">
+        <v>13</v>
+      </c>
       <c r="G284" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H284" t="s">
+        <v>12</v>
+      </c>
+      <c r="I284">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="J284">
+        <v>6.4</v>
+      </c>
+      <c r="K284">
+        <v>5</v>
+      </c>
+      <c r="L284">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>265</v>
       </c>
@@ -10828,11 +11443,32 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285" t="s">
+        <v>13</v>
+      </c>
       <c r="G285" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H285" t="s">
+        <v>12</v>
+      </c>
+      <c r="I285">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="J285">
+        <v>6.4</v>
+      </c>
+      <c r="K285">
+        <v>5</v>
+      </c>
+      <c r="L285">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>265</v>
       </c>
@@ -10844,11 +11480,32 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286" t="s">
+        <v>10</v>
+      </c>
       <c r="G286" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H286" t="s">
+        <v>12</v>
+      </c>
+      <c r="I286">
+        <v>2.4</v>
+      </c>
+      <c r="J286">
+        <v>5.06666666666667</v>
+      </c>
+      <c r="K286">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L286">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>265</v>
       </c>
@@ -10860,11 +11517,35 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
+      <c r="E287">
+        <v>2</v>
+      </c>
+      <c r="F287" t="s">
+        <v>10</v>
+      </c>
       <c r="G287" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H287" t="s">
+        <v>12</v>
+      </c>
+      <c r="I287">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="J287">
+        <v>5.06666666666667</v>
+      </c>
+      <c r="K287">
+        <v>7.06666666666667</v>
+      </c>
+      <c r="L287">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="M287">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>265</v>
       </c>
@@ -10876,11 +11557,32 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288" t="s">
+        <v>13</v>
+      </c>
       <c r="G288" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H288" t="s">
+        <v>12</v>
+      </c>
+      <c r="I288">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="J288">
+        <v>5.06666666666667</v>
+      </c>
+      <c r="K288">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L288">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>265</v>
       </c>
@@ -10892,11 +11594,32 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289" t="s">
+        <v>13</v>
+      </c>
       <c r="G289" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H289" t="s">
+        <v>12</v>
+      </c>
+      <c r="I289">
+        <v>3.06666666666667</v>
+      </c>
+      <c r="J289">
+        <v>5.7333333333333396</v>
+      </c>
+      <c r="K289">
+        <v>5</v>
+      </c>
+      <c r="L289">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>265</v>
       </c>
@@ -10908,11 +11631,32 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
+      <c r="E290">
+        <v>2</v>
+      </c>
+      <c r="F290" t="s">
+        <v>10</v>
+      </c>
       <c r="G290" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H290" t="s">
+        <v>12</v>
+      </c>
+      <c r="I290">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="J290">
+        <v>6.7333333333333396</v>
+      </c>
+      <c r="K290">
+        <v>5</v>
+      </c>
+      <c r="L290">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>265</v>
       </c>
@@ -10924,11 +11668,32 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="F291" t="s">
+        <v>10</v>
+      </c>
       <c r="G291" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H291" t="s">
+        <v>12</v>
+      </c>
+      <c r="I291">
+        <v>3.4</v>
+      </c>
+      <c r="J291">
+        <v>5.4</v>
+      </c>
+      <c r="K291">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L291">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>265</v>
       </c>
@@ -10940,11 +11705,32 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
+      <c r="E292">
+        <v>2</v>
+      </c>
+      <c r="F292" t="s">
+        <v>10</v>
+      </c>
       <c r="G292" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H292" t="s">
+        <v>12</v>
+      </c>
+      <c r="I292">
+        <v>3.4</v>
+      </c>
+      <c r="J292">
+        <v>5.4</v>
+      </c>
+      <c r="K292">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L292">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>265</v>
       </c>
@@ -10956,11 +11742,32 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293" t="s">
+        <v>13</v>
+      </c>
       <c r="G293" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H293" t="s">
+        <v>12</v>
+      </c>
+      <c r="I293">
+        <v>2.7333333333333298</v>
+      </c>
+      <c r="J293">
+        <v>6.4</v>
+      </c>
+      <c r="K293">
+        <v>5</v>
+      </c>
+      <c r="L293">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>265</v>
       </c>
@@ -10972,11 +11779,35 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294" t="s">
+        <v>13</v>
+      </c>
       <c r="G294" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H294" t="s">
+        <v>12</v>
+      </c>
+      <c r="I294">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="J294">
+        <v>4.7333333333333298</v>
+      </c>
+      <c r="K294">
+        <v>6.06666666666667</v>
+      </c>
+      <c r="L294">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="M294">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>265</v>
       </c>
@@ -10988,11 +11819,32 @@
         <f>D294+1</f>
         <v>40</v>
       </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295" t="s">
+        <v>13</v>
+      </c>
       <c r="G295" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H295" t="s">
+        <v>12</v>
+      </c>
+      <c r="I295">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="J295">
+        <v>3.4</v>
+      </c>
+      <c r="K295">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L295">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>265</v>
       </c>
@@ -11004,11 +11856,32 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
+      <c r="E296">
+        <v>2</v>
+      </c>
+      <c r="F296" t="s">
+        <v>10</v>
+      </c>
       <c r="G296" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H296" t="s">
+        <v>12</v>
+      </c>
+      <c r="I296">
+        <v>1.4</v>
+      </c>
+      <c r="J296">
+        <v>2.7333333333333298</v>
+      </c>
+      <c r="K296">
+        <v>5.6666666666666696</v>
+      </c>
+      <c r="L296">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>265</v>
       </c>
@@ -11020,11 +11893,32 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297" t="s">
+        <v>13</v>
+      </c>
       <c r="G297" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H297" t="s">
+        <v>12</v>
+      </c>
+      <c r="I297">
+        <v>1.4</v>
+      </c>
+      <c r="J297">
+        <v>2.7333333333333298</v>
+      </c>
+      <c r="K297">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L297">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>265</v>
       </c>
@@ -11036,11 +11930,32 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298" t="s">
+        <v>13</v>
+      </c>
       <c r="G298" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H298" t="s">
+        <v>12</v>
+      </c>
+      <c r="I298">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="J298">
+        <v>5.06666666666667</v>
+      </c>
+      <c r="K298">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L298">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>265</v>
       </c>
@@ -11052,11 +11967,32 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299" t="s">
+        <v>13</v>
+      </c>
       <c r="G299" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H299" t="s">
+        <v>12</v>
+      </c>
+      <c r="I299">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="J299">
+        <v>4.7333333333333298</v>
+      </c>
+      <c r="K299">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L299">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>265</v>
       </c>
@@ -11068,11 +12004,32 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
+      <c r="E300">
+        <v>2</v>
+      </c>
+      <c r="F300" t="s">
+        <v>10</v>
+      </c>
       <c r="G300" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H300" t="s">
+        <v>12</v>
+      </c>
+      <c r="I300">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="J300">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K300">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L300">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>265</v>
       </c>
@@ -11084,11 +12041,32 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
+      <c r="E301">
+        <v>2</v>
+      </c>
+      <c r="F301" t="s">
+        <v>10</v>
+      </c>
       <c r="G301" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H301" t="s">
+        <v>12</v>
+      </c>
+      <c r="I301">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="J301">
+        <v>3.4</v>
+      </c>
+      <c r="K301">
+        <v>5.3333333333333401</v>
+      </c>
+      <c r="L301">
+        <v>7.6666666666666696</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>265</v>
       </c>
@@ -11100,11 +12078,32 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302" t="s">
+        <v>10</v>
+      </c>
       <c r="G302" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H302" t="s">
+        <v>12</v>
+      </c>
+      <c r="I302">
+        <v>2.7333333333333298</v>
+      </c>
+      <c r="J302">
+        <v>5.7333333333333396</v>
+      </c>
+      <c r="K302">
+        <v>5</v>
+      </c>
+      <c r="L302">
+        <v>7.3333333333333401</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>265</v>
       </c>
@@ -11116,8 +12115,29 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
+      <c r="E303">
+        <v>2</v>
+      </c>
+      <c r="F303" t="s">
+        <v>10</v>
+      </c>
       <c r="G303" t="s">
         <v>313</v>
+      </c>
+      <c r="H303" t="s">
+        <v>12</v>
+      </c>
+      <c r="I303">
+        <v>1.4</v>
+      </c>
+      <c r="J303">
+        <v>3.7333333333333298</v>
+      </c>
+      <c r="K303">
+        <v>5.6666666666666696</v>
+      </c>
+      <c r="L303">
+        <v>7.6666666666666696</v>
       </c>
     </row>
   </sheetData>

--- a/data/fNIRSandGerbils.xlsx
+++ b/data/fNIRSandGerbils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benri\Documents\GitHub\fNIRSandGerbils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAD83E6-8587-4C71-8030-8BABB6F83205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3E1FC4-2096-44D5-B5E7-DCA582E20B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="462">
   <si>
     <t>S</t>
   </si>
@@ -978,6 +978,450 @@
   </si>
   <si>
     <t>D:\Experiments\fNIRSandGerbils\stim\s_perfectdata\unscrambled\48_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>longtest3</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\10_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\13_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\11_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\17_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\12_scrambled.wav</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\20_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\14_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\22_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\15_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\23_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\16_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\26_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\18_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\33_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\19_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\35_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\1_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\36_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\21_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\38_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\24_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\39_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\25_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\3_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\27_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\40_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\28_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\41_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\29_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\42_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\2_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\44_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\30_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\45_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\31_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\46_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\32_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\47_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\34_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\48_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\37_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\6_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\43_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\7_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\4_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\8_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\scrambled\5_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest3\unscrambled\9_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>longtest4</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\11_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\10_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\12_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\14_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\13_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\18_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\15_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\22_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\16_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\23_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\17_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\24_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\19_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\26_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\1_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\27_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\20_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\28_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\21_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\29_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\25_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\2_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\32_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\30_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\33_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\31_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\34_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\35_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\38_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\36_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\39_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\37_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\43_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\3_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\45_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\40_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\48_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\41_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\4_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\42_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\5_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\44_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\6_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\46_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\7_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\47_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\scrambled\9_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest4\unscrambled\8_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>longtest5</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\10_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\12_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\11_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\13_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\14_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\16_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\15_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\18_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\17_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\1_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\19_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\20_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\21_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\22_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\23_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\26_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\24_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\27_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\25_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\28_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\29_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\2_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\30_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\32_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\31_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\33_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\34_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\39_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\35_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\42_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\36_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\44_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\37_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\46_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\38_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\47_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\3_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\4_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\40_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\5_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\41_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\6_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\43_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\7_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\45_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\8_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\scrambled\48_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\9_unscrambled.wav</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E945CDA-0894-470B-A916-C9F7C84C6ED4}">
-  <dimension ref="A1:M303"/>
+  <dimension ref="A1:M447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C280" workbookViewId="0">
-      <selection activeCell="G304" sqref="G304"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12140,6 +12584,5139 @@
         <v>7.6666666666666696</v>
       </c>
     </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>314</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304" t="s">
+        <v>13</v>
+      </c>
+      <c r="G304" t="s">
+        <v>315</v>
+      </c>
+      <c r="H304" t="s">
+        <v>12</v>
+      </c>
+      <c r="I304">
+        <v>4.1559999999999997</v>
+      </c>
+      <c r="J304">
+        <v>5.3780000000000001</v>
+      </c>
+      <c r="K304">
+        <v>7.4279999999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>314</v>
+      </c>
+      <c r="B305">
+        <v>2</v>
+      </c>
+      <c r="C305" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D305">
+        <v>2</v>
+      </c>
+      <c r="E305">
+        <v>2</v>
+      </c>
+      <c r="F305" t="s">
+        <v>10</v>
+      </c>
+      <c r="G305" t="s">
+        <v>316</v>
+      </c>
+      <c r="H305" t="s">
+        <v>12</v>
+      </c>
+      <c r="I305">
+        <v>4.3170000000000002</v>
+      </c>
+      <c r="J305">
+        <v>6.9290000000000003</v>
+      </c>
+      <c r="K305">
+        <v>8.8490000000000002</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>314</v>
+      </c>
+      <c r="B306">
+        <v>3</v>
+      </c>
+      <c r="C306" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D306">
+        <v>3</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+      <c r="F306" t="s">
+        <v>13</v>
+      </c>
+      <c r="G306" t="s">
+        <v>317</v>
+      </c>
+      <c r="H306" t="s">
+        <v>12</v>
+      </c>
+      <c r="I306">
+        <v>4.1470000000000002</v>
+      </c>
+      <c r="J306">
+        <v>5.3040000000000003</v>
+      </c>
+      <c r="K306">
+        <v>6.9550000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>314</v>
+      </c>
+      <c r="B307">
+        <v>4</v>
+      </c>
+      <c r="C307" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D307">
+        <v>4</v>
+      </c>
+      <c r="E307">
+        <v>2</v>
+      </c>
+      <c r="F307" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" t="s">
+        <v>318</v>
+      </c>
+      <c r="H307" t="s">
+        <v>12</v>
+      </c>
+      <c r="I307">
+        <v>2.3769999999999998</v>
+      </c>
+      <c r="J307">
+        <v>4.4980000000000002</v>
+      </c>
+      <c r="K307">
+        <v>5.6680000000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>314</v>
+      </c>
+      <c r="B308">
+        <v>5</v>
+      </c>
+      <c r="C308" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D308">
+        <v>5</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="F308" t="s">
+        <v>13</v>
+      </c>
+      <c r="G308" t="s">
+        <v>319</v>
+      </c>
+      <c r="H308" t="s">
+        <v>320</v>
+      </c>
+      <c r="I308">
+        <v>2.9710000000000001</v>
+      </c>
+      <c r="J308">
+        <v>4.0170000000000003</v>
+      </c>
+      <c r="K308">
+        <v>7.399</v>
+      </c>
+      <c r="L308">
+        <v>9.2089999999999996</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>314</v>
+      </c>
+      <c r="B309">
+        <v>6</v>
+      </c>
+      <c r="C309" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D309">
+        <v>6</v>
+      </c>
+      <c r="E309">
+        <v>2</v>
+      </c>
+      <c r="F309" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" t="s">
+        <v>321</v>
+      </c>
+      <c r="H309" t="s">
+        <v>320</v>
+      </c>
+      <c r="I309">
+        <v>1.589</v>
+      </c>
+      <c r="J309">
+        <v>3.931</v>
+      </c>
+      <c r="K309">
+        <v>6.2919999999999998</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>314</v>
+      </c>
+      <c r="B310">
+        <v>7</v>
+      </c>
+      <c r="C310" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D310">
+        <v>7</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310" t="s">
+        <v>13</v>
+      </c>
+      <c r="G310" t="s">
+        <v>322</v>
+      </c>
+      <c r="H310" t="s">
+        <v>320</v>
+      </c>
+      <c r="I310">
+        <v>3.327</v>
+      </c>
+      <c r="J310">
+        <v>6.1470000000000002</v>
+      </c>
+      <c r="K310">
+        <v>7.3949999999999996</v>
+      </c>
+      <c r="L310">
+        <v>8.7140000000000004</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>314</v>
+      </c>
+      <c r="B311">
+        <v>8</v>
+      </c>
+      <c r="C311" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D311">
+        <v>8</v>
+      </c>
+      <c r="E311">
+        <v>2</v>
+      </c>
+      <c r="F311" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" t="s">
+        <v>323</v>
+      </c>
+      <c r="H311" t="s">
+        <v>320</v>
+      </c>
+      <c r="I311">
+        <v>4.6539999999999999</v>
+      </c>
+      <c r="J311">
+        <v>6.6749999999999998</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>314</v>
+      </c>
+      <c r="B312">
+        <v>9</v>
+      </c>
+      <c r="C312" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D312">
+        <v>9</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312" t="s">
+        <v>13</v>
+      </c>
+      <c r="G312" t="s">
+        <v>324</v>
+      </c>
+      <c r="H312" t="s">
+        <v>320</v>
+      </c>
+      <c r="I312">
+        <v>4.0890000000000004</v>
+      </c>
+      <c r="J312">
+        <v>6.0410000000000004</v>
+      </c>
+      <c r="K312">
+        <v>7.5309999999999997</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313">
+        <v>10</v>
+      </c>
+      <c r="C313" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D313">
+        <v>10</v>
+      </c>
+      <c r="E313">
+        <v>2</v>
+      </c>
+      <c r="F313" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" t="s">
+        <v>325</v>
+      </c>
+      <c r="H313" t="s">
+        <v>320</v>
+      </c>
+      <c r="I313">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="J313">
+        <v>4.149</v>
+      </c>
+      <c r="K313">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>11</v>
+      </c>
+      <c r="C314" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D314">
+        <v>11</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314" t="s">
+        <v>13</v>
+      </c>
+      <c r="G314" t="s">
+        <v>326</v>
+      </c>
+      <c r="H314" t="s">
+        <v>320</v>
+      </c>
+      <c r="I314">
+        <v>3.3839999999999999</v>
+      </c>
+      <c r="J314">
+        <v>5.1139999999999999</v>
+      </c>
+      <c r="K314">
+        <v>8.3840000000000003</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>12</v>
+      </c>
+      <c r="C315" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D315">
+        <v>12</v>
+      </c>
+      <c r="E315">
+        <v>2</v>
+      </c>
+      <c r="F315" t="s">
+        <v>10</v>
+      </c>
+      <c r="G315" t="s">
+        <v>327</v>
+      </c>
+      <c r="H315" t="s">
+        <v>320</v>
+      </c>
+      <c r="I315">
+        <v>1.732</v>
+      </c>
+      <c r="J315">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="K315">
+        <v>7.734</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>13</v>
+      </c>
+      <c r="C316" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D316">
+        <v>13</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+      <c r="F316" t="s">
+        <v>13</v>
+      </c>
+      <c r="G316" t="s">
+        <v>328</v>
+      </c>
+      <c r="H316" t="s">
+        <v>320</v>
+      </c>
+      <c r="I316">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="J316">
+        <v>4.1520000000000001</v>
+      </c>
+      <c r="K316">
+        <v>7.0519999999999996</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>314</v>
+      </c>
+      <c r="B317">
+        <v>14</v>
+      </c>
+      <c r="C317" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D317">
+        <v>14</v>
+      </c>
+      <c r="E317">
+        <v>2</v>
+      </c>
+      <c r="F317" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317" t="s">
+        <v>329</v>
+      </c>
+      <c r="H317" t="s">
+        <v>320</v>
+      </c>
+      <c r="I317">
+        <v>3.403</v>
+      </c>
+      <c r="J317">
+        <v>4.7130000000000001</v>
+      </c>
+      <c r="K317">
+        <v>9.0939999999999994</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>314</v>
+      </c>
+      <c r="B318">
+        <v>15</v>
+      </c>
+      <c r="C318" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D318">
+        <v>15</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+      <c r="F318" t="s">
+        <v>13</v>
+      </c>
+      <c r="G318" t="s">
+        <v>330</v>
+      </c>
+      <c r="H318" t="s">
+        <v>320</v>
+      </c>
+      <c r="I318">
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="J318">
+        <v>6.4690000000000003</v>
+      </c>
+      <c r="K318">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>314</v>
+      </c>
+      <c r="B319">
+        <v>16</v>
+      </c>
+      <c r="C319" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D319">
+        <v>16</v>
+      </c>
+      <c r="E319">
+        <v>2</v>
+      </c>
+      <c r="F319" t="s">
+        <v>10</v>
+      </c>
+      <c r="G319" t="s">
+        <v>331</v>
+      </c>
+      <c r="H319" t="s">
+        <v>320</v>
+      </c>
+      <c r="I319">
+        <v>2.464</v>
+      </c>
+      <c r="J319">
+        <v>5.2770000000000001</v>
+      </c>
+      <c r="K319">
+        <v>6.4370000000000003</v>
+      </c>
+      <c r="L319">
+        <v>8.9789999999999992</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>314</v>
+      </c>
+      <c r="B320">
+        <v>17</v>
+      </c>
+      <c r="C320" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D320">
+        <v>17</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+      <c r="F320" t="s">
+        <v>13</v>
+      </c>
+      <c r="G320" t="s">
+        <v>332</v>
+      </c>
+      <c r="H320" t="s">
+        <v>320</v>
+      </c>
+      <c r="I320">
+        <v>2.649</v>
+      </c>
+      <c r="J320">
+        <v>4.3289999999999997</v>
+      </c>
+      <c r="K320">
+        <v>8.3330000000000002</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>314</v>
+      </c>
+      <c r="B321">
+        <v>18</v>
+      </c>
+      <c r="C321" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D321">
+        <v>18</v>
+      </c>
+      <c r="E321">
+        <v>2</v>
+      </c>
+      <c r="F321" t="s">
+        <v>10</v>
+      </c>
+      <c r="G321" t="s">
+        <v>333</v>
+      </c>
+      <c r="H321" t="s">
+        <v>320</v>
+      </c>
+      <c r="I321">
+        <v>3</v>
+      </c>
+      <c r="J321">
+        <v>5.593</v>
+      </c>
+      <c r="K321">
+        <v>7.6040000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>314</v>
+      </c>
+      <c r="B322">
+        <v>19</v>
+      </c>
+      <c r="C322" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D322">
+        <v>19</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+      <c r="F322" t="s">
+        <v>13</v>
+      </c>
+      <c r="G322" t="s">
+        <v>334</v>
+      </c>
+      <c r="H322" t="s">
+        <v>320</v>
+      </c>
+      <c r="I322">
+        <v>2.2210000000000001</v>
+      </c>
+      <c r="J322">
+        <v>4.79</v>
+      </c>
+      <c r="K322">
+        <v>8.6120000000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>314</v>
+      </c>
+      <c r="B323">
+        <v>20</v>
+      </c>
+      <c r="C323" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D323">
+        <v>20</v>
+      </c>
+      <c r="E323">
+        <v>2</v>
+      </c>
+      <c r="F323" t="s">
+        <v>10</v>
+      </c>
+      <c r="G323" t="s">
+        <v>335</v>
+      </c>
+      <c r="H323" t="s">
+        <v>320</v>
+      </c>
+      <c r="I323">
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="J323">
+        <v>3.6230000000000002</v>
+      </c>
+      <c r="K323">
+        <v>6.7480000000000002</v>
+      </c>
+      <c r="L323">
+        <v>8.8070000000000004</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>314</v>
+      </c>
+      <c r="B324">
+        <v>21</v>
+      </c>
+      <c r="C324" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D324">
+        <v>21</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+      <c r="F324" t="s">
+        <v>13</v>
+      </c>
+      <c r="G324" t="s">
+        <v>336</v>
+      </c>
+      <c r="H324" t="s">
+        <v>320</v>
+      </c>
+      <c r="I324">
+        <v>2.069</v>
+      </c>
+      <c r="J324">
+        <v>4.9390000000000001</v>
+      </c>
+      <c r="K324">
+        <v>6.9390000000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>314</v>
+      </c>
+      <c r="B325">
+        <v>22</v>
+      </c>
+      <c r="C325" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D325">
+        <v>22</v>
+      </c>
+      <c r="E325">
+        <v>2</v>
+      </c>
+      <c r="F325" t="s">
+        <v>10</v>
+      </c>
+      <c r="G325" t="s">
+        <v>337</v>
+      </c>
+      <c r="H325" t="s">
+        <v>320</v>
+      </c>
+      <c r="I325">
+        <v>2.036</v>
+      </c>
+      <c r="J325">
+        <v>4.976</v>
+      </c>
+      <c r="K325">
+        <v>8.6270000000000007</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>314</v>
+      </c>
+      <c r="B326">
+        <v>23</v>
+      </c>
+      <c r="C326" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D326">
+        <v>23</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326" t="s">
+        <v>13</v>
+      </c>
+      <c r="G326" t="s">
+        <v>338</v>
+      </c>
+      <c r="H326" t="s">
+        <v>320</v>
+      </c>
+      <c r="I326">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="J326">
+        <v>5.3440000000000003</v>
+      </c>
+      <c r="K326">
+        <v>8.9979999999999993</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>314</v>
+      </c>
+      <c r="B327">
+        <v>24</v>
+      </c>
+      <c r="C327" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D327">
+        <v>24</v>
+      </c>
+      <c r="E327">
+        <v>2</v>
+      </c>
+      <c r="F327" t="s">
+        <v>10</v>
+      </c>
+      <c r="G327" t="s">
+        <v>339</v>
+      </c>
+      <c r="H327" t="s">
+        <v>320</v>
+      </c>
+      <c r="I327">
+        <v>2.0230000000000001</v>
+      </c>
+      <c r="J327">
+        <v>6.4039999999999999</v>
+      </c>
+      <c r="K327">
+        <v>7.6539999999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>314</v>
+      </c>
+      <c r="B328">
+        <v>25</v>
+      </c>
+      <c r="C328" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D328">
+        <v>25</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328" t="s">
+        <v>13</v>
+      </c>
+      <c r="G328" t="s">
+        <v>340</v>
+      </c>
+      <c r="H328" t="s">
+        <v>320</v>
+      </c>
+      <c r="I328">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="J328">
+        <v>4.3760000000000003</v>
+      </c>
+      <c r="K328">
+        <v>6.9269999999999996</v>
+      </c>
+      <c r="L328">
+        <v>8.6479999999999997</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>314</v>
+      </c>
+      <c r="B329">
+        <v>26</v>
+      </c>
+      <c r="C329" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D329">
+        <v>26</v>
+      </c>
+      <c r="E329">
+        <v>2</v>
+      </c>
+      <c r="F329" t="s">
+        <v>10</v>
+      </c>
+      <c r="G329" t="s">
+        <v>341</v>
+      </c>
+      <c r="H329" t="s">
+        <v>320</v>
+      </c>
+      <c r="I329">
+        <v>4.3230000000000004</v>
+      </c>
+      <c r="J329">
+        <v>7.3</v>
+      </c>
+      <c r="K329">
+        <v>8.6389999999999993</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>314</v>
+      </c>
+      <c r="B330">
+        <v>27</v>
+      </c>
+      <c r="C330" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D330">
+        <v>27</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330" t="s">
+        <v>13</v>
+      </c>
+      <c r="G330" t="s">
+        <v>342</v>
+      </c>
+      <c r="H330" t="s">
+        <v>320</v>
+      </c>
+      <c r="I330">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="J330">
+        <v>3.24</v>
+      </c>
+      <c r="K330">
+        <v>8.298</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>314</v>
+      </c>
+      <c r="B331">
+        <v>28</v>
+      </c>
+      <c r="C331" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D331">
+        <v>28</v>
+      </c>
+      <c r="E331">
+        <v>2</v>
+      </c>
+      <c r="F331" t="s">
+        <v>10</v>
+      </c>
+      <c r="G331" t="s">
+        <v>343</v>
+      </c>
+      <c r="H331" t="s">
+        <v>320</v>
+      </c>
+      <c r="I331">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J331">
+        <v>7.3319999999999999</v>
+      </c>
+      <c r="K331">
+        <v>8.923</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>314</v>
+      </c>
+      <c r="B332">
+        <v>29</v>
+      </c>
+      <c r="C332" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D332">
+        <v>29</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332" t="s">
+        <v>13</v>
+      </c>
+      <c r="G332" t="s">
+        <v>344</v>
+      </c>
+      <c r="H332" t="s">
+        <v>320</v>
+      </c>
+      <c r="I332">
+        <v>2.988</v>
+      </c>
+      <c r="J332">
+        <v>4.29</v>
+      </c>
+      <c r="K332">
+        <v>7.4059999999999997</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>314</v>
+      </c>
+      <c r="B333">
+        <v>30</v>
+      </c>
+      <c r="C333" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D333">
+        <v>30</v>
+      </c>
+      <c r="E333">
+        <v>2</v>
+      </c>
+      <c r="F333" t="s">
+        <v>10</v>
+      </c>
+      <c r="G333" t="s">
+        <v>345</v>
+      </c>
+      <c r="H333" t="s">
+        <v>320</v>
+      </c>
+      <c r="I333">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="J333">
+        <v>4.9180000000000001</v>
+      </c>
+      <c r="K333">
+        <v>7.2889999999999997</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>314</v>
+      </c>
+      <c r="B334">
+        <v>31</v>
+      </c>
+      <c r="C334" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D334">
+        <v>31</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334" t="s">
+        <v>13</v>
+      </c>
+      <c r="G334" t="s">
+        <v>346</v>
+      </c>
+      <c r="H334" t="s">
+        <v>320</v>
+      </c>
+      <c r="I334">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="J334">
+        <v>5.0129999999999999</v>
+      </c>
+      <c r="K334">
+        <v>6.9329999999999998</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>314</v>
+      </c>
+      <c r="B335">
+        <v>32</v>
+      </c>
+      <c r="C335" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D335">
+        <v>32</v>
+      </c>
+      <c r="E335">
+        <v>2</v>
+      </c>
+      <c r="F335" t="s">
+        <v>10</v>
+      </c>
+      <c r="G335" t="s">
+        <v>347</v>
+      </c>
+      <c r="H335" t="s">
+        <v>320</v>
+      </c>
+      <c r="I335">
+        <v>2.367</v>
+      </c>
+      <c r="J335">
+        <v>4.2270000000000003</v>
+      </c>
+      <c r="K335">
+        <v>8.3870000000000005</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>314</v>
+      </c>
+      <c r="B336">
+        <v>33</v>
+      </c>
+      <c r="C336" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D336">
+        <v>33</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336" t="s">
+        <v>13</v>
+      </c>
+      <c r="G336" t="s">
+        <v>348</v>
+      </c>
+      <c r="H336" t="s">
+        <v>320</v>
+      </c>
+      <c r="I336">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="J336">
+        <v>3.605</v>
+      </c>
+      <c r="K336">
+        <v>7.4459999999999997</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>314</v>
+      </c>
+      <c r="B337">
+        <v>34</v>
+      </c>
+      <c r="C337" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D337">
+        <v>34</v>
+      </c>
+      <c r="E337">
+        <v>2</v>
+      </c>
+      <c r="F337" t="s">
+        <v>10</v>
+      </c>
+      <c r="G337" t="s">
+        <v>349</v>
+      </c>
+      <c r="H337" t="s">
+        <v>320</v>
+      </c>
+      <c r="I337">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="J337">
+        <v>4.657</v>
+      </c>
+      <c r="K337">
+        <v>7.9969999999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>314</v>
+      </c>
+      <c r="B338">
+        <v>35</v>
+      </c>
+      <c r="C338" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D338">
+        <v>35</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338" t="s">
+        <v>13</v>
+      </c>
+      <c r="G338" t="s">
+        <v>350</v>
+      </c>
+      <c r="H338" t="s">
+        <v>320</v>
+      </c>
+      <c r="I338">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="J338">
+        <v>5.5419999999999998</v>
+      </c>
+      <c r="K338">
+        <v>6.9829999999999997</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>314</v>
+      </c>
+      <c r="B339">
+        <v>36</v>
+      </c>
+      <c r="C339" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D339">
+        <v>36</v>
+      </c>
+      <c r="E339">
+        <v>2</v>
+      </c>
+      <c r="F339" t="s">
+        <v>10</v>
+      </c>
+      <c r="G339" t="s">
+        <v>351</v>
+      </c>
+      <c r="H339" t="s">
+        <v>320</v>
+      </c>
+      <c r="I339">
+        <v>3.2570000000000001</v>
+      </c>
+      <c r="J339">
+        <v>5.0679999999999996</v>
+      </c>
+      <c r="K339">
+        <v>6.2480000000000002</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>314</v>
+      </c>
+      <c r="B340">
+        <v>37</v>
+      </c>
+      <c r="C340" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D340">
+        <v>37</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+      <c r="F340" t="s">
+        <v>13</v>
+      </c>
+      <c r="G340" t="s">
+        <v>352</v>
+      </c>
+      <c r="H340" t="s">
+        <v>320</v>
+      </c>
+      <c r="I340">
+        <v>2.56</v>
+      </c>
+      <c r="J340">
+        <v>4.5880000000000001</v>
+      </c>
+      <c r="K340">
+        <v>5.9589999999999996</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>314</v>
+      </c>
+      <c r="B341">
+        <v>38</v>
+      </c>
+      <c r="C341" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D341">
+        <v>38</v>
+      </c>
+      <c r="E341">
+        <v>2</v>
+      </c>
+      <c r="F341" t="s">
+        <v>10</v>
+      </c>
+      <c r="G341" t="s">
+        <v>353</v>
+      </c>
+      <c r="H341" t="s">
+        <v>320</v>
+      </c>
+      <c r="I341">
+        <v>2.4180000000000001</v>
+      </c>
+      <c r="J341">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="K341">
+        <v>5.9349999999999996</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>314</v>
+      </c>
+      <c r="B342">
+        <v>39</v>
+      </c>
+      <c r="C342" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D342">
+        <v>39</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="F342" t="s">
+        <v>13</v>
+      </c>
+      <c r="G342" t="s">
+        <v>354</v>
+      </c>
+      <c r="H342" t="s">
+        <v>320</v>
+      </c>
+      <c r="I342">
+        <v>3.6659999999999999</v>
+      </c>
+      <c r="J342">
+        <v>5.6669999999999998</v>
+      </c>
+      <c r="K342">
+        <v>8.6769999999999996</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>314</v>
+      </c>
+      <c r="B343">
+        <v>40</v>
+      </c>
+      <c r="C343" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D343">
+        <v>40</v>
+      </c>
+      <c r="E343">
+        <v>2</v>
+      </c>
+      <c r="F343" t="s">
+        <v>10</v>
+      </c>
+      <c r="G343" t="s">
+        <v>355</v>
+      </c>
+      <c r="H343" t="s">
+        <v>320</v>
+      </c>
+      <c r="I343">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="J343">
+        <v>3.323</v>
+      </c>
+      <c r="K343">
+        <v>8.3170000000000002</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>314</v>
+      </c>
+      <c r="B344">
+        <v>41</v>
+      </c>
+      <c r="C344" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D344">
+        <v>41</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344" t="s">
+        <v>13</v>
+      </c>
+      <c r="G344" t="s">
+        <v>356</v>
+      </c>
+      <c r="H344" t="s">
+        <v>320</v>
+      </c>
+      <c r="I344">
+        <v>2.9790000000000001</v>
+      </c>
+      <c r="J344">
+        <v>5.0389999999999997</v>
+      </c>
+      <c r="K344">
+        <v>6.6980000000000004</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>314</v>
+      </c>
+      <c r="B345">
+        <v>42</v>
+      </c>
+      <c r="C345" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D345">
+        <v>42</v>
+      </c>
+      <c r="E345">
+        <v>2</v>
+      </c>
+      <c r="F345" t="s">
+        <v>10</v>
+      </c>
+      <c r="G345" t="s">
+        <v>357</v>
+      </c>
+      <c r="H345" t="s">
+        <v>320</v>
+      </c>
+      <c r="I345">
+        <v>5.7060000000000004</v>
+      </c>
+      <c r="J345">
+        <v>7.0149999999999997</v>
+      </c>
+      <c r="K345">
+        <v>8.6029999999999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>314</v>
+      </c>
+      <c r="B346">
+        <v>43</v>
+      </c>
+      <c r="C346" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D346">
+        <v>43</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346" t="s">
+        <v>13</v>
+      </c>
+      <c r="G346" t="s">
+        <v>358</v>
+      </c>
+      <c r="H346" t="s">
+        <v>320</v>
+      </c>
+      <c r="I346">
+        <v>2.9169999999999998</v>
+      </c>
+      <c r="J346">
+        <v>6.5919999999999996</v>
+      </c>
+      <c r="K346">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>314</v>
+      </c>
+      <c r="B347">
+        <v>44</v>
+      </c>
+      <c r="C347" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D347">
+        <v>44</v>
+      </c>
+      <c r="E347">
+        <v>2</v>
+      </c>
+      <c r="F347" t="s">
+        <v>10</v>
+      </c>
+      <c r="G347" t="s">
+        <v>359</v>
+      </c>
+      <c r="H347" t="s">
+        <v>320</v>
+      </c>
+      <c r="I347">
+        <v>5.0720000000000001</v>
+      </c>
+      <c r="J347">
+        <v>6.383</v>
+      </c>
+      <c r="K347">
+        <v>8.7379999999999995</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>314</v>
+      </c>
+      <c r="B348">
+        <v>45</v>
+      </c>
+      <c r="C348" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D348">
+        <v>45</v>
+      </c>
+      <c r="E348">
+        <v>1</v>
+      </c>
+      <c r="F348" t="s">
+        <v>13</v>
+      </c>
+      <c r="G348" t="s">
+        <v>360</v>
+      </c>
+      <c r="H348" t="s">
+        <v>320</v>
+      </c>
+      <c r="I348">
+        <v>5.3070000000000004</v>
+      </c>
+      <c r="J348">
+        <v>7.2279999999999998</v>
+      </c>
+      <c r="K348">
+        <v>8.9779999999999998</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>314</v>
+      </c>
+      <c r="B349">
+        <v>46</v>
+      </c>
+      <c r="C349" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D349">
+        <v>46</v>
+      </c>
+      <c r="E349">
+        <v>2</v>
+      </c>
+      <c r="F349" t="s">
+        <v>10</v>
+      </c>
+      <c r="G349" t="s">
+        <v>361</v>
+      </c>
+      <c r="H349" t="s">
+        <v>320</v>
+      </c>
+      <c r="I349">
+        <v>1.728</v>
+      </c>
+      <c r="J349">
+        <v>3.94</v>
+      </c>
+      <c r="K349">
+        <v>8.2620000000000005</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>314</v>
+      </c>
+      <c r="B350">
+        <v>47</v>
+      </c>
+      <c r="C350" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D350">
+        <v>47</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350" t="s">
+        <v>13</v>
+      </c>
+      <c r="G350" t="s">
+        <v>362</v>
+      </c>
+      <c r="H350" t="s">
+        <v>320</v>
+      </c>
+      <c r="I350">
+        <v>2.641</v>
+      </c>
+      <c r="J350">
+        <v>5.6859999999999999</v>
+      </c>
+      <c r="K350">
+        <v>7.3579999999999997</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>314</v>
+      </c>
+      <c r="B351">
+        <v>48</v>
+      </c>
+      <c r="C351" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D351">
+        <v>48</v>
+      </c>
+      <c r="E351">
+        <v>2</v>
+      </c>
+      <c r="F351" t="s">
+        <v>10</v>
+      </c>
+      <c r="G351" t="s">
+        <v>363</v>
+      </c>
+      <c r="H351" t="s">
+        <v>320</v>
+      </c>
+      <c r="I351">
+        <v>4.0179999999999998</v>
+      </c>
+      <c r="J351">
+        <v>7.2279999999999998</v>
+      </c>
+      <c r="K351">
+        <v>8.6780000000000008</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>364</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+      <c r="E352">
+        <v>1</v>
+      </c>
+      <c r="F352" t="s">
+        <v>13</v>
+      </c>
+      <c r="G352" t="s">
+        <v>365</v>
+      </c>
+      <c r="H352" t="s">
+        <v>12</v>
+      </c>
+      <c r="I352">
+        <v>3.1880000000000002</v>
+      </c>
+      <c r="J352">
+        <v>6.5979999999999999</v>
+      </c>
+      <c r="K352">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>364</v>
+      </c>
+      <c r="B353">
+        <v>2</v>
+      </c>
+      <c r="C353" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D353">
+        <v>2</v>
+      </c>
+      <c r="E353">
+        <v>2</v>
+      </c>
+      <c r="F353" t="s">
+        <v>10</v>
+      </c>
+      <c r="G353" t="s">
+        <v>366</v>
+      </c>
+      <c r="H353" t="s">
+        <v>12</v>
+      </c>
+      <c r="I353">
+        <v>3.6779999999999999</v>
+      </c>
+      <c r="J353">
+        <v>4.3369999999999997</v>
+      </c>
+      <c r="K353">
+        <v>5.6630000000000003</v>
+      </c>
+      <c r="L353">
+        <v>7.3040000000000003</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>364</v>
+      </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
+      <c r="C354" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D354">
+        <v>3</v>
+      </c>
+      <c r="E354">
+        <v>1</v>
+      </c>
+      <c r="F354" t="s">
+        <v>13</v>
+      </c>
+      <c r="G354" t="s">
+        <v>367</v>
+      </c>
+      <c r="H354" t="s">
+        <v>12</v>
+      </c>
+      <c r="I354">
+        <v>4.6390000000000002</v>
+      </c>
+      <c r="J354">
+        <v>6.37</v>
+      </c>
+      <c r="K354">
+        <v>8.3659999999999997</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>364</v>
+      </c>
+      <c r="B355">
+        <v>4</v>
+      </c>
+      <c r="C355" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D355">
+        <v>4</v>
+      </c>
+      <c r="E355">
+        <v>2</v>
+      </c>
+      <c r="F355" t="s">
+        <v>10</v>
+      </c>
+      <c r="G355" t="s">
+        <v>368</v>
+      </c>
+      <c r="H355" t="s">
+        <v>12</v>
+      </c>
+      <c r="I355">
+        <v>3.956</v>
+      </c>
+      <c r="J355">
+        <v>5.7080000000000002</v>
+      </c>
+      <c r="K355">
+        <v>7.2990000000000004</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>364</v>
+      </c>
+      <c r="B356">
+        <v>5</v>
+      </c>
+      <c r="C356" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D356">
+        <v>5</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
+      <c r="F356" t="s">
+        <v>13</v>
+      </c>
+      <c r="G356" t="s">
+        <v>369</v>
+      </c>
+      <c r="H356" t="s">
+        <v>12</v>
+      </c>
+      <c r="I356">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="J356">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="K356">
+        <v>6.7190000000000003</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>364</v>
+      </c>
+      <c r="B357">
+        <v>6</v>
+      </c>
+      <c r="C357" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D357">
+        <v>6</v>
+      </c>
+      <c r="E357">
+        <v>2</v>
+      </c>
+      <c r="F357" t="s">
+        <v>10</v>
+      </c>
+      <c r="G357" t="s">
+        <v>370</v>
+      </c>
+      <c r="H357" t="s">
+        <v>12</v>
+      </c>
+      <c r="I357">
+        <v>1.696</v>
+      </c>
+      <c r="J357">
+        <v>4.9109999999999996</v>
+      </c>
+      <c r="K357">
+        <v>8.8710000000000004</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>364</v>
+      </c>
+      <c r="B358">
+        <v>7</v>
+      </c>
+      <c r="C358" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D358">
+        <v>7</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+      <c r="F358" t="s">
+        <v>13</v>
+      </c>
+      <c r="G358" t="s">
+        <v>371</v>
+      </c>
+      <c r="H358" t="s">
+        <v>12</v>
+      </c>
+      <c r="I358">
+        <v>2.331</v>
+      </c>
+      <c r="J358">
+        <v>5.5979999999999999</v>
+      </c>
+      <c r="K358">
+        <v>7.6710000000000003</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>364</v>
+      </c>
+      <c r="B359">
+        <v>8</v>
+      </c>
+      <c r="C359" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D359">
+        <v>8</v>
+      </c>
+      <c r="E359">
+        <v>2</v>
+      </c>
+      <c r="F359" t="s">
+        <v>10</v>
+      </c>
+      <c r="G359" t="s">
+        <v>372</v>
+      </c>
+      <c r="H359" t="s">
+        <v>12</v>
+      </c>
+      <c r="I359">
+        <v>2.7490000000000001</v>
+      </c>
+      <c r="J359">
+        <v>4.05</v>
+      </c>
+      <c r="K359">
+        <v>5.5419999999999998</v>
+      </c>
+      <c r="L359">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>364</v>
+      </c>
+      <c r="B360">
+        <v>9</v>
+      </c>
+      <c r="C360" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D360">
+        <v>9</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
+      <c r="F360" t="s">
+        <v>13</v>
+      </c>
+      <c r="G360" t="s">
+        <v>373</v>
+      </c>
+      <c r="H360" t="s">
+        <v>12</v>
+      </c>
+      <c r="I360">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="J360">
+        <v>4.9390000000000001</v>
+      </c>
+      <c r="K360">
+        <v>7.2770000000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>364</v>
+      </c>
+      <c r="B361">
+        <v>10</v>
+      </c>
+      <c r="C361" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D361">
+        <v>10</v>
+      </c>
+      <c r="E361">
+        <v>2</v>
+      </c>
+      <c r="F361" t="s">
+        <v>10</v>
+      </c>
+      <c r="G361" t="s">
+        <v>374</v>
+      </c>
+      <c r="H361" t="s">
+        <v>12</v>
+      </c>
+      <c r="I361">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="J361">
+        <v>2.903</v>
+      </c>
+      <c r="K361">
+        <v>5.9450000000000003</v>
+      </c>
+      <c r="L361">
+        <v>8.3800000000000008</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>364</v>
+      </c>
+      <c r="B362">
+        <v>11</v>
+      </c>
+      <c r="C362" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D362">
+        <v>11</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362" t="s">
+        <v>13</v>
+      </c>
+      <c r="G362" t="s">
+        <v>375</v>
+      </c>
+      <c r="H362" t="s">
+        <v>12</v>
+      </c>
+      <c r="I362">
+        <v>2.98</v>
+      </c>
+      <c r="J362">
+        <v>4.3609999999999998</v>
+      </c>
+      <c r="K362">
+        <v>7.3209999999999997</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>364</v>
+      </c>
+      <c r="B363">
+        <v>12</v>
+      </c>
+      <c r="C363" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D363">
+        <v>12</v>
+      </c>
+      <c r="E363">
+        <v>2</v>
+      </c>
+      <c r="F363" t="s">
+        <v>10</v>
+      </c>
+      <c r="G363" t="s">
+        <v>376</v>
+      </c>
+      <c r="H363" t="s">
+        <v>12</v>
+      </c>
+      <c r="I363">
+        <v>1.669</v>
+      </c>
+      <c r="J363">
+        <v>3.24</v>
+      </c>
+      <c r="K363">
+        <v>5.3250000000000002</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364">
+        <v>13</v>
+      </c>
+      <c r="C364" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D364">
+        <v>13</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+      <c r="F364" t="s">
+        <v>13</v>
+      </c>
+      <c r="G364" t="s">
+        <v>377</v>
+      </c>
+      <c r="H364" t="s">
+        <v>12</v>
+      </c>
+      <c r="I364">
+        <v>2.7229999999999999</v>
+      </c>
+      <c r="J364">
+        <v>5.2830000000000004</v>
+      </c>
+      <c r="K364">
+        <v>7.6580000000000004</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>14</v>
+      </c>
+      <c r="C365" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D365">
+        <v>14</v>
+      </c>
+      <c r="E365">
+        <v>2</v>
+      </c>
+      <c r="F365" t="s">
+        <v>10</v>
+      </c>
+      <c r="G365" t="s">
+        <v>378</v>
+      </c>
+      <c r="H365" t="s">
+        <v>12</v>
+      </c>
+      <c r="I365">
+        <v>2.968</v>
+      </c>
+      <c r="J365">
+        <v>4.5590000000000002</v>
+      </c>
+      <c r="K365">
+        <v>7.2709999999999999</v>
+      </c>
+      <c r="L365">
+        <v>8.6470000000000002</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>15</v>
+      </c>
+      <c r="C366" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D366">
+        <v>15</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+      <c r="F366" t="s">
+        <v>13</v>
+      </c>
+      <c r="G366" t="s">
+        <v>379</v>
+      </c>
+      <c r="H366" t="s">
+        <v>12</v>
+      </c>
+      <c r="I366">
+        <v>5.6559999999999997</v>
+      </c>
+      <c r="J366">
+        <v>6.9779999999999998</v>
+      </c>
+      <c r="K366">
+        <v>8.7889999999999997</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>364</v>
+      </c>
+      <c r="B367">
+        <v>16</v>
+      </c>
+      <c r="C367" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D367">
+        <v>16</v>
+      </c>
+      <c r="E367">
+        <v>2</v>
+      </c>
+      <c r="F367" t="s">
+        <v>10</v>
+      </c>
+      <c r="G367" t="s">
+        <v>380</v>
+      </c>
+      <c r="H367" t="s">
+        <v>12</v>
+      </c>
+      <c r="I367">
+        <v>1.669</v>
+      </c>
+      <c r="J367">
+        <v>3.6070000000000002</v>
+      </c>
+      <c r="K367">
+        <v>5.327</v>
+      </c>
+      <c r="L367">
+        <v>8.6110000000000007</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>364</v>
+      </c>
+      <c r="B368">
+        <v>17</v>
+      </c>
+      <c r="C368" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D368">
+        <v>17</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368" t="s">
+        <v>13</v>
+      </c>
+      <c r="G368" t="s">
+        <v>381</v>
+      </c>
+      <c r="H368" t="s">
+        <v>12</v>
+      </c>
+      <c r="I368">
+        <v>4.0190000000000001</v>
+      </c>
+      <c r="J368">
+        <v>6.6189999999999998</v>
+      </c>
+      <c r="K368">
+        <v>8.4190000000000005</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>364</v>
+      </c>
+      <c r="B369">
+        <v>18</v>
+      </c>
+      <c r="C369" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D369">
+        <v>18</v>
+      </c>
+      <c r="E369">
+        <v>2</v>
+      </c>
+      <c r="F369" t="s">
+        <v>10</v>
+      </c>
+      <c r="G369" t="s">
+        <v>382</v>
+      </c>
+      <c r="H369" t="s">
+        <v>12</v>
+      </c>
+      <c r="I369">
+        <v>2.6379999999999999</v>
+      </c>
+      <c r="J369">
+        <v>4.6970000000000001</v>
+      </c>
+      <c r="K369">
+        <v>7.6280000000000001</v>
+      </c>
+      <c r="L369">
+        <v>9.0180000000000007</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>364</v>
+      </c>
+      <c r="B370">
+        <v>19</v>
+      </c>
+      <c r="C370" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D370">
+        <v>19</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+      <c r="F370" t="s">
+        <v>13</v>
+      </c>
+      <c r="G370" t="s">
+        <v>383</v>
+      </c>
+      <c r="H370" t="s">
+        <v>12</v>
+      </c>
+      <c r="I370">
+        <v>2.327</v>
+      </c>
+      <c r="J370">
+        <v>4.4059999999999997</v>
+      </c>
+      <c r="K370">
+        <v>7.9569999999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>364</v>
+      </c>
+      <c r="B371">
+        <v>20</v>
+      </c>
+      <c r="C371" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D371">
+        <v>20</v>
+      </c>
+      <c r="E371">
+        <v>2</v>
+      </c>
+      <c r="F371" t="s">
+        <v>10</v>
+      </c>
+      <c r="G371" t="s">
+        <v>384</v>
+      </c>
+      <c r="H371" t="s">
+        <v>12</v>
+      </c>
+      <c r="I371">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="J371">
+        <v>5.6550000000000002</v>
+      </c>
+      <c r="K371">
+        <v>6.9660000000000002</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>364</v>
+      </c>
+      <c r="B372">
+        <v>21</v>
+      </c>
+      <c r="C372" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D372">
+        <v>21</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
+      <c r="F372" t="s">
+        <v>13</v>
+      </c>
+      <c r="G372" t="s">
+        <v>385</v>
+      </c>
+      <c r="H372" t="s">
+        <v>12</v>
+      </c>
+      <c r="I372">
+        <v>3.004</v>
+      </c>
+      <c r="J372">
+        <v>5.625</v>
+      </c>
+      <c r="K372">
+        <v>8.3439999999999994</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>364</v>
+      </c>
+      <c r="B373">
+        <v>22</v>
+      </c>
+      <c r="C373" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D373">
+        <v>22</v>
+      </c>
+      <c r="E373">
+        <v>2</v>
+      </c>
+      <c r="F373" t="s">
+        <v>10</v>
+      </c>
+      <c r="G373" t="s">
+        <v>386</v>
+      </c>
+      <c r="H373" t="s">
+        <v>12</v>
+      </c>
+      <c r="I373">
+        <v>2.6960000000000002</v>
+      </c>
+      <c r="J373">
+        <v>6.649</v>
+      </c>
+      <c r="K373">
+        <v>8.9990000000000006</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>364</v>
+      </c>
+      <c r="B374">
+        <v>23</v>
+      </c>
+      <c r="C374" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D374">
+        <v>23</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+      <c r="F374" t="s">
+        <v>13</v>
+      </c>
+      <c r="G374" t="s">
+        <v>387</v>
+      </c>
+      <c r="H374" t="s">
+        <v>12</v>
+      </c>
+      <c r="I374">
+        <v>3.0219999999999998</v>
+      </c>
+      <c r="J374">
+        <v>4.952</v>
+      </c>
+      <c r="K374">
+        <v>8.6140000000000008</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>364</v>
+      </c>
+      <c r="B375">
+        <v>24</v>
+      </c>
+      <c r="C375" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D375">
+        <v>24</v>
+      </c>
+      <c r="E375">
+        <v>2</v>
+      </c>
+      <c r="F375" t="s">
+        <v>10</v>
+      </c>
+      <c r="G375" t="s">
+        <v>388</v>
+      </c>
+      <c r="H375" t="s">
+        <v>12</v>
+      </c>
+      <c r="I375">
+        <v>1.929</v>
+      </c>
+      <c r="J375">
+        <v>4.2229999999999999</v>
+      </c>
+      <c r="K375">
+        <v>5.6020000000000003</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>364</v>
+      </c>
+      <c r="B376">
+        <v>25</v>
+      </c>
+      <c r="C376" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D376">
+        <v>25</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+      <c r="F376" t="s">
+        <v>13</v>
+      </c>
+      <c r="G376" t="s">
+        <v>389</v>
+      </c>
+      <c r="H376" t="s">
+        <v>12</v>
+      </c>
+      <c r="I376">
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="J376">
+        <v>5.5970000000000004</v>
+      </c>
+      <c r="K376">
+        <v>8.9280000000000008</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>364</v>
+      </c>
+      <c r="B377">
+        <v>26</v>
+      </c>
+      <c r="C377" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D377">
+        <v>26</v>
+      </c>
+      <c r="E377">
+        <v>2</v>
+      </c>
+      <c r="F377" t="s">
+        <v>10</v>
+      </c>
+      <c r="G377" t="s">
+        <v>390</v>
+      </c>
+      <c r="H377" t="s">
+        <v>12</v>
+      </c>
+      <c r="I377">
+        <v>3.3479999999999999</v>
+      </c>
+      <c r="J377">
+        <v>5.3390000000000004</v>
+      </c>
+      <c r="K377">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>364</v>
+      </c>
+      <c r="B378">
+        <v>27</v>
+      </c>
+      <c r="C378" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D378">
+        <v>27</v>
+      </c>
+      <c r="E378">
+        <v>1</v>
+      </c>
+      <c r="F378" t="s">
+        <v>13</v>
+      </c>
+      <c r="G378" t="s">
+        <v>391</v>
+      </c>
+      <c r="H378" t="s">
+        <v>12</v>
+      </c>
+      <c r="I378">
+        <v>4.6340000000000003</v>
+      </c>
+      <c r="J378">
+        <v>6.6769999999999996</v>
+      </c>
+      <c r="K378">
+        <v>8.6170000000000009</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>364</v>
+      </c>
+      <c r="B379">
+        <v>28</v>
+      </c>
+      <c r="C379" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D379">
+        <v>28</v>
+      </c>
+      <c r="E379">
+        <v>2</v>
+      </c>
+      <c r="F379" t="s">
+        <v>10</v>
+      </c>
+      <c r="G379" t="s">
+        <v>392</v>
+      </c>
+      <c r="H379" t="s">
+        <v>12</v>
+      </c>
+      <c r="I379">
+        <v>2.2709999999999999</v>
+      </c>
+      <c r="J379">
+        <v>5.6890000000000001</v>
+      </c>
+      <c r="K379">
+        <v>7.98</v>
+      </c>
+      <c r="L379">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>364</v>
+      </c>
+      <c r="B380">
+        <v>29</v>
+      </c>
+      <c r="C380" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D380">
+        <v>29</v>
+      </c>
+      <c r="E380">
+        <v>1</v>
+      </c>
+      <c r="F380" t="s">
+        <v>13</v>
+      </c>
+      <c r="G380" t="s">
+        <v>393</v>
+      </c>
+      <c r="H380" t="s">
+        <v>12</v>
+      </c>
+      <c r="I380">
+        <v>3.931</v>
+      </c>
+      <c r="J380">
+        <v>6.1840000000000002</v>
+      </c>
+      <c r="K380">
+        <v>7.9340000000000002</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>364</v>
+      </c>
+      <c r="B381">
+        <v>30</v>
+      </c>
+      <c r="C381" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D381">
+        <v>30</v>
+      </c>
+      <c r="E381">
+        <v>2</v>
+      </c>
+      <c r="F381" t="s">
+        <v>10</v>
+      </c>
+      <c r="G381" t="s">
+        <v>394</v>
+      </c>
+      <c r="H381" t="s">
+        <v>12</v>
+      </c>
+      <c r="I381">
+        <v>3.883</v>
+      </c>
+      <c r="J381">
+        <v>5.3419999999999996</v>
+      </c>
+      <c r="K381">
+        <v>7.4930000000000003</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>364</v>
+      </c>
+      <c r="B382">
+        <v>31</v>
+      </c>
+      <c r="C382" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D382">
+        <v>31</v>
+      </c>
+      <c r="E382">
+        <v>1</v>
+      </c>
+      <c r="F382" t="s">
+        <v>13</v>
+      </c>
+      <c r="G382" t="s">
+        <v>395</v>
+      </c>
+      <c r="H382" t="s">
+        <v>12</v>
+      </c>
+      <c r="I382">
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="J382">
+        <v>5.09</v>
+      </c>
+      <c r="K382">
+        <v>7.5549999999999997</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>364</v>
+      </c>
+      <c r="B383">
+        <v>32</v>
+      </c>
+      <c r="C383" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D383">
+        <v>32</v>
+      </c>
+      <c r="E383">
+        <v>2</v>
+      </c>
+      <c r="F383" t="s">
+        <v>10</v>
+      </c>
+      <c r="G383" t="s">
+        <v>396</v>
+      </c>
+      <c r="H383" t="s">
+        <v>12</v>
+      </c>
+      <c r="I383">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="J383">
+        <v>3.948</v>
+      </c>
+      <c r="K383">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>364</v>
+      </c>
+      <c r="B384">
+        <v>33</v>
+      </c>
+      <c r="C384" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D384">
+        <v>33</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+      <c r="F384" t="s">
+        <v>13</v>
+      </c>
+      <c r="G384" t="s">
+        <v>397</v>
+      </c>
+      <c r="H384" t="s">
+        <v>12</v>
+      </c>
+      <c r="I384">
+        <v>3.1789999999999998</v>
+      </c>
+      <c r="J384">
+        <v>5.0339999999999998</v>
+      </c>
+      <c r="K384">
+        <v>6.3109999999999999</v>
+      </c>
+      <c r="L384">
+        <v>8.3209999999999997</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>364</v>
+      </c>
+      <c r="B385">
+        <v>34</v>
+      </c>
+      <c r="C385" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D385">
+        <v>34</v>
+      </c>
+      <c r="E385">
+        <v>2</v>
+      </c>
+      <c r="F385" t="s">
+        <v>10</v>
+      </c>
+      <c r="G385" t="s">
+        <v>398</v>
+      </c>
+      <c r="H385" t="s">
+        <v>12</v>
+      </c>
+      <c r="I385">
+        <v>1.667</v>
+      </c>
+      <c r="J385">
+        <v>3.2690000000000001</v>
+      </c>
+      <c r="K385">
+        <v>5.0810000000000004</v>
+      </c>
+      <c r="L385">
+        <v>8.9540000000000006</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>364</v>
+      </c>
+      <c r="B386">
+        <v>35</v>
+      </c>
+      <c r="C386" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D386">
+        <v>35</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+      <c r="F386" t="s">
+        <v>13</v>
+      </c>
+      <c r="G386" t="s">
+        <v>399</v>
+      </c>
+      <c r="H386" t="s">
+        <v>12</v>
+      </c>
+      <c r="I386">
+        <v>3.754</v>
+      </c>
+      <c r="J386">
+        <v>6.5869999999999997</v>
+      </c>
+      <c r="K386">
+        <v>8.3179999999999996</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>364</v>
+      </c>
+      <c r="B387">
+        <v>36</v>
+      </c>
+      <c r="C387" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D387">
+        <v>36</v>
+      </c>
+      <c r="E387">
+        <v>2</v>
+      </c>
+      <c r="F387" t="s">
+        <v>10</v>
+      </c>
+      <c r="G387" t="s">
+        <v>400</v>
+      </c>
+      <c r="H387" t="s">
+        <v>12</v>
+      </c>
+      <c r="I387">
+        <v>2.64</v>
+      </c>
+      <c r="J387">
+        <v>5.5570000000000004</v>
+      </c>
+      <c r="K387">
+        <v>8.5679999999999996</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>364</v>
+      </c>
+      <c r="B388">
+        <v>37</v>
+      </c>
+      <c r="C388" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D388">
+        <v>37</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="F388" t="s">
+        <v>13</v>
+      </c>
+      <c r="G388" t="s">
+        <v>401</v>
+      </c>
+      <c r="H388" t="s">
+        <v>12</v>
+      </c>
+      <c r="I388">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="J388">
+        <v>7.2309999999999999</v>
+      </c>
+      <c r="K388">
+        <v>9.4380000000000006</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>364</v>
+      </c>
+      <c r="B389">
+        <v>38</v>
+      </c>
+      <c r="C389" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D389">
+        <v>38</v>
+      </c>
+      <c r="E389">
+        <v>2</v>
+      </c>
+      <c r="F389" t="s">
+        <v>10</v>
+      </c>
+      <c r="G389" t="s">
+        <v>402</v>
+      </c>
+      <c r="H389" t="s">
+        <v>12</v>
+      </c>
+      <c r="I389">
+        <v>2.9430000000000001</v>
+      </c>
+      <c r="J389">
+        <v>5.0149999999999997</v>
+      </c>
+      <c r="K389">
+        <v>6.976</v>
+      </c>
+      <c r="L389">
+        <v>10.590999999999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>364</v>
+      </c>
+      <c r="B390">
+        <v>39</v>
+      </c>
+      <c r="C390" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D390">
+        <v>39</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
+      <c r="F390" t="s">
+        <v>13</v>
+      </c>
+      <c r="G390" t="s">
+        <v>403</v>
+      </c>
+      <c r="H390" t="s">
+        <v>12</v>
+      </c>
+      <c r="I390">
+        <v>2.911</v>
+      </c>
+      <c r="J390">
+        <v>6.6319999999999997</v>
+      </c>
+      <c r="K390">
+        <v>7.9480000000000004</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>364</v>
+      </c>
+      <c r="B391">
+        <v>40</v>
+      </c>
+      <c r="C391" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D391">
+        <v>40</v>
+      </c>
+      <c r="E391">
+        <v>2</v>
+      </c>
+      <c r="F391" t="s">
+        <v>10</v>
+      </c>
+      <c r="G391" t="s">
+        <v>404</v>
+      </c>
+      <c r="H391" t="s">
+        <v>12</v>
+      </c>
+      <c r="I391">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="J391">
+        <v>3.88</v>
+      </c>
+      <c r="K391">
+        <v>5.3419999999999996</v>
+      </c>
+      <c r="L391">
+        <v>6.9340000000000002</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>364</v>
+      </c>
+      <c r="B392">
+        <v>41</v>
+      </c>
+      <c r="C392" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D392">
+        <v>41</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+      <c r="F392" t="s">
+        <v>13</v>
+      </c>
+      <c r="G392" t="s">
+        <v>405</v>
+      </c>
+      <c r="H392" t="s">
+        <v>12</v>
+      </c>
+      <c r="I392">
+        <v>1.64</v>
+      </c>
+      <c r="J392">
+        <v>3.03</v>
+      </c>
+      <c r="K392">
+        <v>6.3390000000000004</v>
+      </c>
+      <c r="L392">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>364</v>
+      </c>
+      <c r="B393">
+        <v>42</v>
+      </c>
+      <c r="C393" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D393">
+        <v>42</v>
+      </c>
+      <c r="E393">
+        <v>2</v>
+      </c>
+      <c r="F393" t="s">
+        <v>10</v>
+      </c>
+      <c r="G393" t="s">
+        <v>406</v>
+      </c>
+      <c r="H393" t="s">
+        <v>12</v>
+      </c>
+      <c r="I393">
+        <v>3.2069999999999999</v>
+      </c>
+      <c r="J393">
+        <v>3.887</v>
+      </c>
+      <c r="K393">
+        <v>5.968</v>
+      </c>
+      <c r="L393">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>364</v>
+      </c>
+      <c r="B394">
+        <v>43</v>
+      </c>
+      <c r="C394" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D394">
+        <v>43</v>
+      </c>
+      <c r="E394">
+        <v>1</v>
+      </c>
+      <c r="F394" t="s">
+        <v>13</v>
+      </c>
+      <c r="G394" t="s">
+        <v>407</v>
+      </c>
+      <c r="H394" t="s">
+        <v>12</v>
+      </c>
+      <c r="I394">
+        <v>5.0119999999999996</v>
+      </c>
+      <c r="J394">
+        <v>6.2830000000000004</v>
+      </c>
+      <c r="K394">
+        <v>7.9930000000000003</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>364</v>
+      </c>
+      <c r="B395">
+        <v>44</v>
+      </c>
+      <c r="C395" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D395">
+        <v>44</v>
+      </c>
+      <c r="E395">
+        <v>2</v>
+      </c>
+      <c r="F395" t="s">
+        <v>10</v>
+      </c>
+      <c r="G395" t="s">
+        <v>408</v>
+      </c>
+      <c r="H395" t="s">
+        <v>12</v>
+      </c>
+      <c r="I395">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="J395">
+        <v>5.306</v>
+      </c>
+      <c r="K395">
+        <v>7.306</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>364</v>
+      </c>
+      <c r="B396">
+        <v>45</v>
+      </c>
+      <c r="C396" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D396">
+        <v>45</v>
+      </c>
+      <c r="E396">
+        <v>1</v>
+      </c>
+      <c r="F396" t="s">
+        <v>13</v>
+      </c>
+      <c r="G396" t="s">
+        <v>409</v>
+      </c>
+      <c r="H396" t="s">
+        <v>12</v>
+      </c>
+      <c r="I396">
+        <v>3.617</v>
+      </c>
+      <c r="J396">
+        <v>5.9610000000000003</v>
+      </c>
+      <c r="K396">
+        <v>8.9510000000000005</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>364</v>
+      </c>
+      <c r="B397">
+        <v>46</v>
+      </c>
+      <c r="C397" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D397">
+        <v>46</v>
+      </c>
+      <c r="E397">
+        <v>2</v>
+      </c>
+      <c r="F397" t="s">
+        <v>10</v>
+      </c>
+      <c r="G397" t="s">
+        <v>410</v>
+      </c>
+      <c r="H397" t="s">
+        <v>12</v>
+      </c>
+      <c r="I397">
+        <v>1.8779999999999999</v>
+      </c>
+      <c r="J397">
+        <v>3.9929999999999999</v>
+      </c>
+      <c r="K397">
+        <v>5.6379999999999999</v>
+      </c>
+      <c r="L397">
+        <v>7.5979999999999999</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>364</v>
+      </c>
+      <c r="B398">
+        <v>47</v>
+      </c>
+      <c r="C398" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D398">
+        <v>47</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
+      <c r="F398" t="s">
+        <v>13</v>
+      </c>
+      <c r="G398" t="s">
+        <v>411</v>
+      </c>
+      <c r="H398" t="s">
+        <v>12</v>
+      </c>
+      <c r="I398">
+        <v>4.0289999999999999</v>
+      </c>
+      <c r="J398">
+        <v>5.61</v>
+      </c>
+      <c r="K398">
+        <v>8.9390000000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>364</v>
+      </c>
+      <c r="B399">
+        <v>48</v>
+      </c>
+      <c r="C399" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D399">
+        <v>48</v>
+      </c>
+      <c r="E399">
+        <v>2</v>
+      </c>
+      <c r="F399" t="s">
+        <v>10</v>
+      </c>
+      <c r="G399" t="s">
+        <v>412</v>
+      </c>
+      <c r="H399" t="s">
+        <v>12</v>
+      </c>
+      <c r="I399">
+        <v>3.27</v>
+      </c>
+      <c r="J399">
+        <v>5.87</v>
+      </c>
+      <c r="K399">
+        <v>8.23</v>
+      </c>
+      <c r="L399">
+        <v>8.9269999999999996</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>413</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+      <c r="E400">
+        <v>1</v>
+      </c>
+      <c r="F400" t="s">
+        <v>13</v>
+      </c>
+      <c r="G400" t="s">
+        <v>414</v>
+      </c>
+      <c r="H400" t="s">
+        <v>12</v>
+      </c>
+      <c r="I400">
+        <v>2.992</v>
+      </c>
+      <c r="J400">
+        <v>4.5570000000000004</v>
+      </c>
+      <c r="K400">
+        <v>8.9079999999999995</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>413</v>
+      </c>
+      <c r="B401">
+        <v>2</v>
+      </c>
+      <c r="C401" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+      <c r="E401">
+        <v>2</v>
+      </c>
+      <c r="F401" t="s">
+        <v>10</v>
+      </c>
+      <c r="G401" t="s">
+        <v>415</v>
+      </c>
+      <c r="H401" t="s">
+        <v>12</v>
+      </c>
+      <c r="I401">
+        <v>3.6280000000000001</v>
+      </c>
+      <c r="J401">
+        <v>5.0880000000000001</v>
+      </c>
+      <c r="K401">
+        <v>7.7169999999999996</v>
+      </c>
+      <c r="L401">
+        <v>9.1069999999999993</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>413</v>
+      </c>
+      <c r="B402">
+        <v>3</v>
+      </c>
+      <c r="C402" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D402">
+        <v>3</v>
+      </c>
+      <c r="E402">
+        <v>1</v>
+      </c>
+      <c r="F402" t="s">
+        <v>13</v>
+      </c>
+      <c r="G402" t="s">
+        <v>416</v>
+      </c>
+      <c r="H402" t="s">
+        <v>12</v>
+      </c>
+      <c r="I402">
+        <v>3.2639999999999998</v>
+      </c>
+      <c r="J402">
+        <v>5.9539999999999997</v>
+      </c>
+      <c r="K402">
+        <v>7.5949999999999998</v>
+      </c>
+      <c r="L402">
+        <v>8.9770000000000003</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>413</v>
+      </c>
+      <c r="B403">
+        <v>4</v>
+      </c>
+      <c r="C403" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D403">
+        <v>4</v>
+      </c>
+      <c r="E403">
+        <v>2</v>
+      </c>
+      <c r="F403" t="s">
+        <v>10</v>
+      </c>
+      <c r="G403" t="s">
+        <v>417</v>
+      </c>
+      <c r="H403" t="s">
+        <v>12</v>
+      </c>
+      <c r="I403">
+        <v>2.4</v>
+      </c>
+      <c r="J403">
+        <v>3.6509999999999998</v>
+      </c>
+      <c r="K403">
+        <v>5.9530000000000003</v>
+      </c>
+      <c r="L403">
+        <v>8.673</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>413</v>
+      </c>
+      <c r="B404">
+        <v>5</v>
+      </c>
+      <c r="C404" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D404">
+        <v>5</v>
+      </c>
+      <c r="E404">
+        <v>1</v>
+      </c>
+      <c r="F404" t="s">
+        <v>13</v>
+      </c>
+      <c r="G404" t="s">
+        <v>418</v>
+      </c>
+      <c r="H404" t="s">
+        <v>12</v>
+      </c>
+      <c r="I404">
+        <v>1.589</v>
+      </c>
+      <c r="J404">
+        <v>3.9489999999999998</v>
+      </c>
+      <c r="K404">
+        <v>6.6079999999999997</v>
+      </c>
+      <c r="L404">
+        <v>8.968</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>413</v>
+      </c>
+      <c r="B405">
+        <v>6</v>
+      </c>
+      <c r="C405" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D405">
+        <v>6</v>
+      </c>
+      <c r="E405">
+        <v>2</v>
+      </c>
+      <c r="F405" t="s">
+        <v>10</v>
+      </c>
+      <c r="G405" t="s">
+        <v>419</v>
+      </c>
+      <c r="H405" t="s">
+        <v>12</v>
+      </c>
+      <c r="I405">
+        <v>5.6079999999999997</v>
+      </c>
+      <c r="J405">
+        <v>7.7009999999999996</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>413</v>
+      </c>
+      <c r="B406">
+        <v>7</v>
+      </c>
+      <c r="C406" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D406">
+        <v>7</v>
+      </c>
+      <c r="E406">
+        <v>1</v>
+      </c>
+      <c r="F406" t="s">
+        <v>13</v>
+      </c>
+      <c r="G406" t="s">
+        <v>420</v>
+      </c>
+      <c r="H406" t="s">
+        <v>12</v>
+      </c>
+      <c r="I406">
+        <v>3.3559999999999999</v>
+      </c>
+      <c r="J406">
+        <v>5.2770000000000001</v>
+      </c>
+      <c r="K406">
+        <v>7.6280000000000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>413</v>
+      </c>
+      <c r="B407">
+        <v>8</v>
+      </c>
+      <c r="C407" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D407">
+        <v>8</v>
+      </c>
+      <c r="E407">
+        <v>2</v>
+      </c>
+      <c r="F407" t="s">
+        <v>10</v>
+      </c>
+      <c r="G407" t="s">
+        <v>421</v>
+      </c>
+      <c r="H407" t="s">
+        <v>12</v>
+      </c>
+      <c r="I407">
+        <v>4.2939999999999996</v>
+      </c>
+      <c r="J407">
+        <v>5.6859999999999999</v>
+      </c>
+      <c r="K407">
+        <v>7.1269999999999998</v>
+      </c>
+      <c r="L407">
+        <v>9.0069999999999997</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>413</v>
+      </c>
+      <c r="B408">
+        <v>9</v>
+      </c>
+      <c r="C408" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D408">
+        <v>9</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408" t="s">
+        <v>13</v>
+      </c>
+      <c r="G408" t="s">
+        <v>422</v>
+      </c>
+      <c r="H408" t="s">
+        <v>12</v>
+      </c>
+      <c r="I408">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="J408">
+        <v>7.2069999999999999</v>
+      </c>
+      <c r="K408">
+        <v>8.6489999999999991</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>413</v>
+      </c>
+      <c r="B409">
+        <v>10</v>
+      </c>
+      <c r="C409" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D409">
+        <v>10</v>
+      </c>
+      <c r="E409">
+        <v>2</v>
+      </c>
+      <c r="F409" t="s">
+        <v>10</v>
+      </c>
+      <c r="G409" t="s">
+        <v>423</v>
+      </c>
+      <c r="H409" t="s">
+        <v>12</v>
+      </c>
+      <c r="I409">
+        <v>1.63</v>
+      </c>
+      <c r="J409">
+        <v>4.2510000000000003</v>
+      </c>
+      <c r="K409">
+        <v>5.6390000000000002</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>413</v>
+      </c>
+      <c r="B410">
+        <v>11</v>
+      </c>
+      <c r="C410" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D410">
+        <v>11</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
+      <c r="F410" t="s">
+        <v>13</v>
+      </c>
+      <c r="G410" t="s">
+        <v>424</v>
+      </c>
+      <c r="H410" t="s">
+        <v>12</v>
+      </c>
+      <c r="I410">
+        <v>2.419</v>
+      </c>
+      <c r="J410">
+        <v>4.0090000000000003</v>
+      </c>
+      <c r="K410">
+        <v>8.2509999999999994</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>413</v>
+      </c>
+      <c r="B411">
+        <v>12</v>
+      </c>
+      <c r="C411" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D411">
+        <v>12</v>
+      </c>
+      <c r="E411">
+        <v>2</v>
+      </c>
+      <c r="F411" t="s">
+        <v>10</v>
+      </c>
+      <c r="G411" t="s">
+        <v>425</v>
+      </c>
+      <c r="H411" t="s">
+        <v>12</v>
+      </c>
+      <c r="I411">
+        <v>2.919</v>
+      </c>
+      <c r="J411">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="K411">
+        <v>7.3159999999999998</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>413</v>
+      </c>
+      <c r="B412">
+        <v>13</v>
+      </c>
+      <c r="C412" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D412">
+        <v>13</v>
+      </c>
+      <c r="E412">
+        <v>1</v>
+      </c>
+      <c r="F412" t="s">
+        <v>13</v>
+      </c>
+      <c r="G412" t="s">
+        <v>426</v>
+      </c>
+      <c r="H412" t="s">
+        <v>12</v>
+      </c>
+      <c r="I412">
+        <v>2.7120000000000002</v>
+      </c>
+      <c r="J412">
+        <v>5.6539999999999999</v>
+      </c>
+      <c r="K412">
+        <v>7.2539999999999996</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413">
+        <v>14</v>
+      </c>
+      <c r="C413" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D413">
+        <v>14</v>
+      </c>
+      <c r="E413">
+        <v>2</v>
+      </c>
+      <c r="F413" t="s">
+        <v>10</v>
+      </c>
+      <c r="G413" t="s">
+        <v>427</v>
+      </c>
+      <c r="H413" t="s">
+        <v>12</v>
+      </c>
+      <c r="I413">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="J413">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="K413">
+        <v>4.3810000000000002</v>
+      </c>
+      <c r="L413">
+        <v>5.6920000000000002</v>
+      </c>
+      <c r="M413">
+        <v>7.3529999999999998</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>15</v>
+      </c>
+      <c r="C414" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D414">
+        <v>15</v>
+      </c>
+      <c r="E414">
+        <v>1</v>
+      </c>
+      <c r="F414" t="s">
+        <v>13</v>
+      </c>
+      <c r="G414" t="s">
+        <v>428</v>
+      </c>
+      <c r="H414" t="s">
+        <v>12</v>
+      </c>
+      <c r="I414">
+        <v>5.2039999999999997</v>
+      </c>
+      <c r="J414">
+        <v>7.2430000000000003</v>
+      </c>
+      <c r="K414">
+        <v>8.6140000000000008</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>16</v>
+      </c>
+      <c r="C415" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D415">
+        <v>16</v>
+      </c>
+      <c r="E415">
+        <v>2</v>
+      </c>
+      <c r="F415" t="s">
+        <v>10</v>
+      </c>
+      <c r="G415" t="s">
+        <v>429</v>
+      </c>
+      <c r="H415" t="s">
+        <v>12</v>
+      </c>
+      <c r="I415">
+        <v>3.327</v>
+      </c>
+      <c r="J415">
+        <v>5.6289999999999996</v>
+      </c>
+      <c r="K415">
+        <v>8.9220000000000006</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>413</v>
+      </c>
+      <c r="B416">
+        <v>17</v>
+      </c>
+      <c r="C416" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D416">
+        <v>17</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+      <c r="F416" t="s">
+        <v>13</v>
+      </c>
+      <c r="G416" t="s">
+        <v>430</v>
+      </c>
+      <c r="H416" t="s">
+        <v>12</v>
+      </c>
+      <c r="I416">
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="J416">
+        <v>4.2889999999999997</v>
+      </c>
+      <c r="K416">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>413</v>
+      </c>
+      <c r="B417">
+        <v>18</v>
+      </c>
+      <c r="C417" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D417">
+        <v>18</v>
+      </c>
+      <c r="E417">
+        <v>2</v>
+      </c>
+      <c r="F417" t="s">
+        <v>10</v>
+      </c>
+      <c r="G417" t="s">
+        <v>431</v>
+      </c>
+      <c r="H417" t="s">
+        <v>12</v>
+      </c>
+      <c r="I417">
+        <v>3.64</v>
+      </c>
+      <c r="J417">
+        <v>5.04</v>
+      </c>
+      <c r="K417">
+        <v>7.9409999999999998</v>
+      </c>
+      <c r="L417">
+        <v>10.311999999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>413</v>
+      </c>
+      <c r="B418">
+        <v>19</v>
+      </c>
+      <c r="C418" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D418">
+        <v>19</v>
+      </c>
+      <c r="E418">
+        <v>1</v>
+      </c>
+      <c r="F418" t="s">
+        <v>13</v>
+      </c>
+      <c r="G418" t="s">
+        <v>432</v>
+      </c>
+      <c r="H418" t="s">
+        <v>12</v>
+      </c>
+      <c r="I418">
+        <v>2.2690000000000001</v>
+      </c>
+      <c r="J418">
+        <v>4.2729999999999997</v>
+      </c>
+      <c r="K418">
+        <v>6.944</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>413</v>
+      </c>
+      <c r="B419">
+        <v>20</v>
+      </c>
+      <c r="C419" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D419">
+        <v>20</v>
+      </c>
+      <c r="E419">
+        <v>2</v>
+      </c>
+      <c r="F419" t="s">
+        <v>10</v>
+      </c>
+      <c r="G419" t="s">
+        <v>433</v>
+      </c>
+      <c r="H419" t="s">
+        <v>12</v>
+      </c>
+      <c r="I419">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="J419">
+        <v>5.6020000000000003</v>
+      </c>
+      <c r="K419">
+        <v>7.6820000000000004</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>413</v>
+      </c>
+      <c r="B420">
+        <v>21</v>
+      </c>
+      <c r="C420" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D420">
+        <v>21</v>
+      </c>
+      <c r="E420">
+        <v>1</v>
+      </c>
+      <c r="F420" t="s">
+        <v>13</v>
+      </c>
+      <c r="G420" t="s">
+        <v>434</v>
+      </c>
+      <c r="H420" t="s">
+        <v>12</v>
+      </c>
+      <c r="I420">
+        <v>3.69</v>
+      </c>
+      <c r="J420">
+        <v>8.0869999999999997</v>
+      </c>
+      <c r="K420">
+        <v>8.7780000000000005</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>413</v>
+      </c>
+      <c r="B421">
+        <v>22</v>
+      </c>
+      <c r="C421" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D421">
+        <v>22</v>
+      </c>
+      <c r="E421">
+        <v>2</v>
+      </c>
+      <c r="F421" t="s">
+        <v>10</v>
+      </c>
+      <c r="G421" t="s">
+        <v>435</v>
+      </c>
+      <c r="H421" t="s">
+        <v>12</v>
+      </c>
+      <c r="I421">
+        <v>4</v>
+      </c>
+      <c r="J421">
+        <v>5.3209999999999997</v>
+      </c>
+      <c r="K421">
+        <v>8.2390000000000008</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>413</v>
+      </c>
+      <c r="B422">
+        <v>23</v>
+      </c>
+      <c r="C422" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D422">
+        <v>23</v>
+      </c>
+      <c r="E422">
+        <v>1</v>
+      </c>
+      <c r="F422" t="s">
+        <v>13</v>
+      </c>
+      <c r="G422" t="s">
+        <v>436</v>
+      </c>
+      <c r="H422" t="s">
+        <v>12</v>
+      </c>
+      <c r="I422">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="J422">
+        <v>3.6379999999999999</v>
+      </c>
+      <c r="K422">
+        <v>5.0090000000000003</v>
+      </c>
+      <c r="L422">
+        <v>7.6680000000000001</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>413</v>
+      </c>
+      <c r="B423">
+        <v>24</v>
+      </c>
+      <c r="C423" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D423">
+        <v>24</v>
+      </c>
+      <c r="E423">
+        <v>2</v>
+      </c>
+      <c r="F423" t="s">
+        <v>10</v>
+      </c>
+      <c r="G423" t="s">
+        <v>437</v>
+      </c>
+      <c r="H423" t="s">
+        <v>12</v>
+      </c>
+      <c r="I423">
+        <v>2.367</v>
+      </c>
+      <c r="J423">
+        <v>3.8860000000000001</v>
+      </c>
+      <c r="K423">
+        <v>5.976</v>
+      </c>
+      <c r="L423">
+        <v>7.3659999999999997</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>413</v>
+      </c>
+      <c r="B424">
+        <v>25</v>
+      </c>
+      <c r="C424" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D424">
+        <v>25</v>
+      </c>
+      <c r="E424">
+        <v>1</v>
+      </c>
+      <c r="F424" t="s">
+        <v>13</v>
+      </c>
+      <c r="G424" t="s">
+        <v>438</v>
+      </c>
+      <c r="H424" t="s">
+        <v>12</v>
+      </c>
+      <c r="I424">
+        <v>3.9580000000000002</v>
+      </c>
+      <c r="J424">
+        <v>6.29</v>
+      </c>
+      <c r="K424">
+        <v>8.9719999999999995</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>413</v>
+      </c>
+      <c r="B425">
+        <v>26</v>
+      </c>
+      <c r="C425" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D425">
+        <v>26</v>
+      </c>
+      <c r="E425">
+        <v>2</v>
+      </c>
+      <c r="F425" t="s">
+        <v>10</v>
+      </c>
+      <c r="G425" t="s">
+        <v>439</v>
+      </c>
+      <c r="H425" t="s">
+        <v>12</v>
+      </c>
+      <c r="I425">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="J425">
+        <v>4.3289999999999997</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>413</v>
+      </c>
+      <c r="B426">
+        <v>27</v>
+      </c>
+      <c r="C426" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D426">
+        <v>27</v>
+      </c>
+      <c r="E426">
+        <v>1</v>
+      </c>
+      <c r="F426" t="s">
+        <v>13</v>
+      </c>
+      <c r="G426" t="s">
+        <v>440</v>
+      </c>
+      <c r="H426" t="s">
+        <v>12</v>
+      </c>
+      <c r="I426">
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="J426">
+        <v>5.875</v>
+      </c>
+      <c r="K426">
+        <v>7.3150000000000004</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>413</v>
+      </c>
+      <c r="B427">
+        <v>28</v>
+      </c>
+      <c r="C427" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D427">
+        <v>28</v>
+      </c>
+      <c r="E427">
+        <v>2</v>
+      </c>
+      <c r="F427" t="s">
+        <v>10</v>
+      </c>
+      <c r="G427" t="s">
+        <v>441</v>
+      </c>
+      <c r="H427" t="s">
+        <v>12</v>
+      </c>
+      <c r="I427">
+        <v>2.6280000000000001</v>
+      </c>
+      <c r="J427">
+        <v>3.97</v>
+      </c>
+      <c r="K427">
+        <v>5.9950000000000001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>413</v>
+      </c>
+      <c r="B428">
+        <v>29</v>
+      </c>
+      <c r="C428" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D428">
+        <v>29</v>
+      </c>
+      <c r="E428">
+        <v>1</v>
+      </c>
+      <c r="F428" t="s">
+        <v>13</v>
+      </c>
+      <c r="G428" t="s">
+        <v>442</v>
+      </c>
+      <c r="H428" t="s">
+        <v>12</v>
+      </c>
+      <c r="I428">
+        <v>3.5990000000000002</v>
+      </c>
+      <c r="J428">
+        <v>4.9589999999999996</v>
+      </c>
+      <c r="K428">
+        <v>7.6420000000000003</v>
+      </c>
+      <c r="L428">
+        <v>8.9629999999999992</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>413</v>
+      </c>
+      <c r="B429">
+        <v>30</v>
+      </c>
+      <c r="C429" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D429">
+        <v>30</v>
+      </c>
+      <c r="E429">
+        <v>2</v>
+      </c>
+      <c r="F429" t="s">
+        <v>10</v>
+      </c>
+      <c r="G429" t="s">
+        <v>443</v>
+      </c>
+      <c r="H429" t="s">
+        <v>12</v>
+      </c>
+      <c r="I429">
+        <v>1.911</v>
+      </c>
+      <c r="J429">
+        <v>3.585</v>
+      </c>
+      <c r="K429">
+        <v>5.5629999999999997</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>413</v>
+      </c>
+      <c r="B430">
+        <v>31</v>
+      </c>
+      <c r="C430" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D430">
+        <v>31</v>
+      </c>
+      <c r="E430">
+        <v>1</v>
+      </c>
+      <c r="F430" t="s">
+        <v>13</v>
+      </c>
+      <c r="G430" t="s">
+        <v>444</v>
+      </c>
+      <c r="H430" t="s">
+        <v>12</v>
+      </c>
+      <c r="I430">
+        <v>1.59</v>
+      </c>
+      <c r="J430">
+        <v>6.62</v>
+      </c>
+      <c r="K430">
+        <v>8.2609999999999992</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>413</v>
+      </c>
+      <c r="B431">
+        <v>32</v>
+      </c>
+      <c r="C431" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D431">
+        <v>32</v>
+      </c>
+      <c r="E431">
+        <v>2</v>
+      </c>
+      <c r="F431" t="s">
+        <v>10</v>
+      </c>
+      <c r="G431" t="s">
+        <v>445</v>
+      </c>
+      <c r="H431" t="s">
+        <v>12</v>
+      </c>
+      <c r="I431">
+        <v>3.6179999999999999</v>
+      </c>
+      <c r="J431">
+        <v>4.9489999999999998</v>
+      </c>
+      <c r="K431">
+        <v>8.0429999999999993</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>413</v>
+      </c>
+      <c r="B432">
+        <v>33</v>
+      </c>
+      <c r="C432" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D432">
+        <v>33</v>
+      </c>
+      <c r="E432">
+        <v>1</v>
+      </c>
+      <c r="F432" t="s">
+        <v>13</v>
+      </c>
+      <c r="G432" t="s">
+        <v>446</v>
+      </c>
+      <c r="H432" t="s">
+        <v>12</v>
+      </c>
+      <c r="I432">
+        <v>2.282</v>
+      </c>
+      <c r="J432">
+        <v>7.1340000000000003</v>
+      </c>
+      <c r="K432">
+        <v>8.5850000000000009</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>413</v>
+      </c>
+      <c r="B433">
+        <v>34</v>
+      </c>
+      <c r="C433" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D433">
+        <v>34</v>
+      </c>
+      <c r="E433">
+        <v>2</v>
+      </c>
+      <c r="F433" t="s">
+        <v>10</v>
+      </c>
+      <c r="G433" t="s">
+        <v>447</v>
+      </c>
+      <c r="H433" t="s">
+        <v>12</v>
+      </c>
+      <c r="I433">
+        <v>2.2370000000000001</v>
+      </c>
+      <c r="J433">
+        <v>3.9580000000000002</v>
+      </c>
+      <c r="K433">
+        <v>6.59</v>
+      </c>
+      <c r="L433">
+        <v>8.6649999999999991</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>413</v>
+      </c>
+      <c r="B434">
+        <v>35</v>
+      </c>
+      <c r="C434" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D434">
+        <v>35</v>
+      </c>
+      <c r="E434">
+        <v>1</v>
+      </c>
+      <c r="F434" t="s">
+        <v>13</v>
+      </c>
+      <c r="G434" t="s">
+        <v>448</v>
+      </c>
+      <c r="H434" t="s">
+        <v>12</v>
+      </c>
+      <c r="I434">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="J434">
+        <v>3.9390000000000001</v>
+      </c>
+      <c r="K434">
+        <v>5.3239999999999998</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>413</v>
+      </c>
+      <c r="B435">
+        <v>36</v>
+      </c>
+      <c r="C435" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D435">
+        <v>36</v>
+      </c>
+      <c r="E435">
+        <v>2</v>
+      </c>
+      <c r="F435" t="s">
+        <v>10</v>
+      </c>
+      <c r="G435" t="s">
+        <v>449</v>
+      </c>
+      <c r="H435" t="s">
+        <v>12</v>
+      </c>
+      <c r="I435">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="J435">
+        <v>4.2880000000000003</v>
+      </c>
+      <c r="K435">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>413</v>
+      </c>
+      <c r="B436">
+        <v>37</v>
+      </c>
+      <c r="C436" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D436">
+        <v>37</v>
+      </c>
+      <c r="E436">
+        <v>1</v>
+      </c>
+      <c r="F436" t="s">
+        <v>13</v>
+      </c>
+      <c r="G436" t="s">
+        <v>450</v>
+      </c>
+      <c r="H436" t="s">
+        <v>12</v>
+      </c>
+      <c r="I436">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J436">
+        <v>4.1959999999999997</v>
+      </c>
+      <c r="K436">
+        <v>5.9290000000000003</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>413</v>
+      </c>
+      <c r="B437">
+        <v>38</v>
+      </c>
+      <c r="C437" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D437">
+        <v>38</v>
+      </c>
+      <c r="E437">
+        <v>2</v>
+      </c>
+      <c r="F437" t="s">
+        <v>10</v>
+      </c>
+      <c r="G437" t="s">
+        <v>451</v>
+      </c>
+      <c r="H437" t="s">
+        <v>12</v>
+      </c>
+      <c r="I437">
+        <v>1.8779999999999999</v>
+      </c>
+      <c r="J437">
+        <v>3.3290000000000002</v>
+      </c>
+      <c r="K437">
+        <v>6.62</v>
+      </c>
+      <c r="L437">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>413</v>
+      </c>
+      <c r="B438">
+        <v>39</v>
+      </c>
+      <c r="C438" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D438">
+        <v>39</v>
+      </c>
+      <c r="E438">
+        <v>1</v>
+      </c>
+      <c r="F438" t="s">
+        <v>13</v>
+      </c>
+      <c r="G438" t="s">
+        <v>452</v>
+      </c>
+      <c r="H438" t="s">
+        <v>12</v>
+      </c>
+      <c r="I438">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="J438">
+        <v>6.2489999999999997</v>
+      </c>
+      <c r="K438">
+        <v>7.6189999999999998</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>413</v>
+      </c>
+      <c r="B439">
+        <v>40</v>
+      </c>
+      <c r="C439" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D439">
+        <v>40</v>
+      </c>
+      <c r="E439">
+        <v>2</v>
+      </c>
+      <c r="F439" t="s">
+        <v>10</v>
+      </c>
+      <c r="G439" t="s">
+        <v>453</v>
+      </c>
+      <c r="H439" t="s">
+        <v>12</v>
+      </c>
+      <c r="I439">
+        <v>4.282</v>
+      </c>
+      <c r="J439">
+        <v>6.282</v>
+      </c>
+      <c r="K439">
+        <v>8.4160000000000004</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>413</v>
+      </c>
+      <c r="B440">
+        <v>41</v>
+      </c>
+      <c r="C440" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D440">
+        <v>41</v>
+      </c>
+      <c r="E440">
+        <v>1</v>
+      </c>
+      <c r="F440" t="s">
+        <v>13</v>
+      </c>
+      <c r="G440" t="s">
+        <v>454</v>
+      </c>
+      <c r="H440" t="s">
+        <v>12</v>
+      </c>
+      <c r="I440">
+        <v>2.8980000000000001</v>
+      </c>
+      <c r="J440">
+        <v>5.6660000000000004</v>
+      </c>
+      <c r="K440">
+        <v>8.2319999999999993</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>413</v>
+      </c>
+      <c r="B441">
+        <v>42</v>
+      </c>
+      <c r="C441" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D441">
+        <v>42</v>
+      </c>
+      <c r="E441">
+        <v>2</v>
+      </c>
+      <c r="F441" t="s">
+        <v>10</v>
+      </c>
+      <c r="G441" t="s">
+        <v>455</v>
+      </c>
+      <c r="H441" t="s">
+        <v>12</v>
+      </c>
+      <c r="I441">
+        <v>1.91</v>
+      </c>
+      <c r="J441">
+        <v>4.8410000000000002</v>
+      </c>
+      <c r="K441">
+        <v>8.3840000000000003</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>413</v>
+      </c>
+      <c r="B442">
+        <v>43</v>
+      </c>
+      <c r="C442" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D442">
+        <v>43</v>
+      </c>
+      <c r="E442">
+        <v>1</v>
+      </c>
+      <c r="F442" t="s">
+        <v>13</v>
+      </c>
+      <c r="G442" t="s">
+        <v>456</v>
+      </c>
+      <c r="H442" t="s">
+        <v>12</v>
+      </c>
+      <c r="I442">
+        <v>2.68</v>
+      </c>
+      <c r="J442">
+        <v>2.7389999999999999</v>
+      </c>
+      <c r="K442">
+        <v>4.9349999999999996</v>
+      </c>
+      <c r="L442">
+        <v>6.6059999999999999</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>413</v>
+      </c>
+      <c r="B443">
+        <v>44</v>
+      </c>
+      <c r="C443" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D443">
+        <v>44</v>
+      </c>
+      <c r="E443">
+        <v>2</v>
+      </c>
+      <c r="F443" t="s">
+        <v>10</v>
+      </c>
+      <c r="G443" t="s">
+        <v>457</v>
+      </c>
+      <c r="H443" t="s">
+        <v>12</v>
+      </c>
+      <c r="I443">
+        <v>2.06</v>
+      </c>
+      <c r="J443">
+        <v>5.1909999999999998</v>
+      </c>
+      <c r="K443">
+        <v>7.9109999999999996</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>413</v>
+      </c>
+      <c r="B444">
+        <v>45</v>
+      </c>
+      <c r="C444" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D444">
+        <v>45</v>
+      </c>
+      <c r="E444">
+        <v>1</v>
+      </c>
+      <c r="F444" t="s">
+        <v>13</v>
+      </c>
+      <c r="G444" t="s">
+        <v>458</v>
+      </c>
+      <c r="H444" t="s">
+        <v>12</v>
+      </c>
+      <c r="I444">
+        <v>3.2149999999999999</v>
+      </c>
+      <c r="J444">
+        <v>8.2789999999999999</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>413</v>
+      </c>
+      <c r="B445">
+        <v>46</v>
+      </c>
+      <c r="C445" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D445">
+        <v>46</v>
+      </c>
+      <c r="E445">
+        <v>2</v>
+      </c>
+      <c r="F445" t="s">
+        <v>10</v>
+      </c>
+      <c r="G445" t="s">
+        <v>459</v>
+      </c>
+      <c r="H445" t="s">
+        <v>12</v>
+      </c>
+      <c r="I445">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J445">
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="K445">
+        <v>7.923</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>413</v>
+      </c>
+      <c r="B446">
+        <v>47</v>
+      </c>
+      <c r="C446" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D446">
+        <v>47</v>
+      </c>
+      <c r="E446">
+        <v>1</v>
+      </c>
+      <c r="F446" t="s">
+        <v>13</v>
+      </c>
+      <c r="G446" t="s">
+        <v>460</v>
+      </c>
+      <c r="H446" t="s">
+        <v>12</v>
+      </c>
+      <c r="I446">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="J446">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="K446">
+        <v>5.1970000000000001</v>
+      </c>
+      <c r="L446">
+        <v>7.1980000000000004</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>413</v>
+      </c>
+      <c r="B447">
+        <v>48</v>
+      </c>
+      <c r="C447" s="1">
+        <v>45056</v>
+      </c>
+      <c r="D447">
+        <v>48</v>
+      </c>
+      <c r="E447">
+        <v>2</v>
+      </c>
+      <c r="F447" t="s">
+        <v>10</v>
+      </c>
+      <c r="G447" t="s">
+        <v>461</v>
+      </c>
+      <c r="H447" t="s">
+        <v>12</v>
+      </c>
+      <c r="I447">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="J447">
+        <v>4.5359999999999996</v>
+      </c>
+      <c r="K447">
+        <v>7.2160000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fNIRSandGerbils.xlsx
+++ b/data/fNIRSandGerbils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benri\Documents\GitHub\fNIRSandGerbils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3E1FC4-2096-44D5-B5E7-DCA582E20B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57DBB56-46AE-4821-839B-271C04BC5179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="560">
   <si>
     <t>S</t>
   </si>
@@ -1422,6 +1422,300 @@
   </si>
   <si>
     <t>D:\Experiments\fNIRSandGerbils\stim\s_longtest5\unscrambled\9_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>nooverlappilot1</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\10_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\11_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\14_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\12_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\16_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\13_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\18_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\15_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\1_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\17_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\21_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\19_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\24_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\20_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\26_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\22_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\28_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\23_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\2_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\25_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\30_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\27_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\32_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\29_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\33_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\31_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\35_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\34_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\37_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\36_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\38_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\39_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\3_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\40_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\41_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\42_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\45_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\43_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\4_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\44_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\5_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\46_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\6_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\47_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\7_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\48_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\scrambled\8_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot1\unscrambled\9_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>nooverlappilot2</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\10_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\13_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\11_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\17_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\12_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\20_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\14_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\22_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\15_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\23_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\16_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\26_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\18_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\33_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\19_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\35_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\1_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\36_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\21_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\38_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\24_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\39_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\25_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\3_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\27_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\40_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\28_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\41_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\29_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\42_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\2_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\44_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\30_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\45_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\31_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\46_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\32_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\47_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\34_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\48_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\37_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\6_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\43_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\7_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\4_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\8_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\scrambled\5_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\9_unscrambled.wav</t>
   </si>
 </sst>
 </file>
@@ -1774,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E945CDA-0894-470B-A916-C9F7C84C6ED4}">
-  <dimension ref="A1:M447"/>
+  <dimension ref="A1:M543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="G200" sqref="G200"/>
+    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="F455" sqref="F455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17183,7 +17477,7 @@
         <v>8.5850000000000009</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>413</v>
       </c>
@@ -17221,7 +17515,7 @@
         <v>8.6649999999999991</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>413</v>
       </c>
@@ -17256,7 +17550,7 @@
         <v>5.3239999999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>413</v>
       </c>
@@ -17291,7 +17585,7 @@
         <v>7.89</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>413</v>
       </c>
@@ -17326,7 +17620,7 @@
         <v>5.9290000000000003</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>413</v>
       </c>
@@ -17364,7 +17658,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>413</v>
       </c>
@@ -17399,7 +17693,7 @@
         <v>7.6189999999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>413</v>
       </c>
@@ -17434,7 +17728,7 @@
         <v>8.4160000000000004</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>413</v>
       </c>
@@ -17469,7 +17763,7 @@
         <v>8.2319999999999993</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>413</v>
       </c>
@@ -17504,7 +17798,7 @@
         <v>8.3840000000000003</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>413</v>
       </c>
@@ -17542,7 +17836,7 @@
         <v>6.6059999999999999</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>413</v>
       </c>
@@ -17577,7 +17871,7 @@
         <v>7.9109999999999996</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>413</v>
       </c>
@@ -17609,7 +17903,7 @@
         <v>8.2789999999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>413</v>
       </c>
@@ -17644,7 +17938,7 @@
         <v>7.923</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>413</v>
       </c>
@@ -17682,7 +17976,7 @@
         <v>7.1980000000000004</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>413</v>
       </c>
@@ -17715,6 +18009,3408 @@
       </c>
       <c r="K447">
         <v>7.2160000000000002</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>462</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+      <c r="C448" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+      <c r="E448">
+        <v>1</v>
+      </c>
+      <c r="F448" t="s">
+        <v>13</v>
+      </c>
+      <c r="G448" t="s">
+        <v>463</v>
+      </c>
+      <c r="H448" t="s">
+        <v>12</v>
+      </c>
+      <c r="I448">
+        <v>3.2469999999999999</v>
+      </c>
+      <c r="J448">
+        <v>3.7829999999999999</v>
+      </c>
+      <c r="K448">
+        <v>5.0179999999999998</v>
+      </c>
+      <c r="L448">
+        <v>8.0350000000000001</v>
+      </c>
+      <c r="M448">
+        <v>12.544</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>462</v>
+      </c>
+      <c r="B449">
+        <v>2</v>
+      </c>
+      <c r="C449" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D449">
+        <v>2</v>
+      </c>
+      <c r="E449">
+        <v>2</v>
+      </c>
+      <c r="F449" t="s">
+        <v>10</v>
+      </c>
+      <c r="G449" t="s">
+        <v>464</v>
+      </c>
+      <c r="H449" t="s">
+        <v>12</v>
+      </c>
+      <c r="I449">
+        <v>3.4140000000000001</v>
+      </c>
+      <c r="J449">
+        <v>5.4939999999999998</v>
+      </c>
+      <c r="K449">
+        <v>9.9179999999999993</v>
+      </c>
+      <c r="L449">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>462</v>
+      </c>
+      <c r="B450">
+        <v>3</v>
+      </c>
+      <c r="C450" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D450">
+        <v>3</v>
+      </c>
+      <c r="E450">
+        <v>1</v>
+      </c>
+      <c r="F450" t="s">
+        <v>13</v>
+      </c>
+      <c r="G450" t="s">
+        <v>465</v>
+      </c>
+      <c r="H450" t="s">
+        <v>12</v>
+      </c>
+      <c r="I450">
+        <v>3.5840000000000001</v>
+      </c>
+      <c r="J450">
+        <v>8.4760000000000009</v>
+      </c>
+      <c r="K450">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>462</v>
+      </c>
+      <c r="B451">
+        <v>4</v>
+      </c>
+      <c r="C451" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D451">
+        <v>4</v>
+      </c>
+      <c r="E451">
+        <v>2</v>
+      </c>
+      <c r="F451" t="s">
+        <v>10</v>
+      </c>
+      <c r="G451" t="s">
+        <v>466</v>
+      </c>
+      <c r="H451" t="s">
+        <v>12</v>
+      </c>
+      <c r="I451">
+        <v>4.0369999999999999</v>
+      </c>
+      <c r="J451">
+        <v>6.516</v>
+      </c>
+      <c r="K451">
+        <v>8.6039999999999992</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>462</v>
+      </c>
+      <c r="B452">
+        <v>5</v>
+      </c>
+      <c r="C452" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D452">
+        <v>5</v>
+      </c>
+      <c r="E452">
+        <v>1</v>
+      </c>
+      <c r="F452" t="s">
+        <v>13</v>
+      </c>
+      <c r="G452" t="s">
+        <v>467</v>
+      </c>
+      <c r="H452" t="s">
+        <v>12</v>
+      </c>
+      <c r="I452">
+        <v>5.12</v>
+      </c>
+      <c r="J452">
+        <v>9.5310000000000006</v>
+      </c>
+      <c r="K452">
+        <v>13.087</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>462</v>
+      </c>
+      <c r="B453">
+        <v>6</v>
+      </c>
+      <c r="C453" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D453">
+        <v>6</v>
+      </c>
+      <c r="E453">
+        <v>2</v>
+      </c>
+      <c r="F453" t="s">
+        <v>10</v>
+      </c>
+      <c r="G453" t="s">
+        <v>468</v>
+      </c>
+      <c r="H453" t="s">
+        <v>12</v>
+      </c>
+      <c r="I453">
+        <v>2.1659999999999999</v>
+      </c>
+      <c r="J453">
+        <v>5.5730000000000004</v>
+      </c>
+      <c r="K453">
+        <v>8.0649999999999995</v>
+      </c>
+      <c r="L453">
+        <v>11.097</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>462</v>
+      </c>
+      <c r="B454">
+        <v>7</v>
+      </c>
+      <c r="C454" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D454">
+        <v>7</v>
+      </c>
+      <c r="E454">
+        <v>1</v>
+      </c>
+      <c r="F454" t="s">
+        <v>13</v>
+      </c>
+      <c r="G454" t="s">
+        <v>469</v>
+      </c>
+      <c r="H454" t="s">
+        <v>12</v>
+      </c>
+      <c r="I454">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="J454">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="K454">
+        <v>7.069</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>462</v>
+      </c>
+      <c r="B455">
+        <v>8</v>
+      </c>
+      <c r="C455" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D455">
+        <v>8</v>
+      </c>
+      <c r="E455">
+        <v>2</v>
+      </c>
+      <c r="F455" t="s">
+        <v>10</v>
+      </c>
+      <c r="G455" t="s">
+        <v>470</v>
+      </c>
+      <c r="H455" t="s">
+        <v>12</v>
+      </c>
+      <c r="I455">
+        <v>2.0870000000000002</v>
+      </c>
+      <c r="J455">
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="K455">
+        <v>9.1590000000000007</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>462</v>
+      </c>
+      <c r="B456">
+        <v>9</v>
+      </c>
+      <c r="C456" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D456">
+        <v>9</v>
+      </c>
+      <c r="E456">
+        <v>1</v>
+      </c>
+      <c r="F456" t="s">
+        <v>13</v>
+      </c>
+      <c r="G456" t="s">
+        <v>471</v>
+      </c>
+      <c r="H456" t="s">
+        <v>12</v>
+      </c>
+      <c r="I456">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="J456">
+        <v>4.6520000000000001</v>
+      </c>
+      <c r="K456">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>462</v>
+      </c>
+      <c r="B457">
+        <v>10</v>
+      </c>
+      <c r="C457" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D457">
+        <v>10</v>
+      </c>
+      <c r="E457">
+        <v>2</v>
+      </c>
+      <c r="F457" t="s">
+        <v>10</v>
+      </c>
+      <c r="G457" t="s">
+        <v>472</v>
+      </c>
+      <c r="H457" t="s">
+        <v>12</v>
+      </c>
+      <c r="I457">
+        <v>3.653</v>
+      </c>
+      <c r="J457">
+        <v>7.0640000000000001</v>
+      </c>
+      <c r="K457">
+        <v>11.648</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>462</v>
+      </c>
+      <c r="B458">
+        <v>11</v>
+      </c>
+      <c r="C458" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D458">
+        <v>11</v>
+      </c>
+      <c r="E458">
+        <v>1</v>
+      </c>
+      <c r="F458" t="s">
+        <v>13</v>
+      </c>
+      <c r="G458" t="s">
+        <v>473</v>
+      </c>
+      <c r="H458" t="s">
+        <v>12</v>
+      </c>
+      <c r="I458">
+        <v>3.556</v>
+      </c>
+      <c r="J458">
+        <v>7.5839999999999996</v>
+      </c>
+      <c r="K458">
+        <v>12.635999999999999</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>462</v>
+      </c>
+      <c r="B459">
+        <v>12</v>
+      </c>
+      <c r="C459" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D459">
+        <v>12</v>
+      </c>
+      <c r="E459">
+        <v>2</v>
+      </c>
+      <c r="F459" t="s">
+        <v>10</v>
+      </c>
+      <c r="G459" t="s">
+        <v>474</v>
+      </c>
+      <c r="H459" t="s">
+        <v>12</v>
+      </c>
+      <c r="I459">
+        <v>2.0910000000000002</v>
+      </c>
+      <c r="J459">
+        <v>4.0179999999999998</v>
+      </c>
+      <c r="K459">
+        <v>10.641999999999999</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>462</v>
+      </c>
+      <c r="B460">
+        <v>13</v>
+      </c>
+      <c r="C460" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D460">
+        <v>13</v>
+      </c>
+      <c r="E460">
+        <v>1</v>
+      </c>
+      <c r="F460" t="s">
+        <v>13</v>
+      </c>
+      <c r="G460" t="s">
+        <v>475</v>
+      </c>
+      <c r="H460" t="s">
+        <v>12</v>
+      </c>
+      <c r="I460">
+        <v>2.4769999999999999</v>
+      </c>
+      <c r="J460">
+        <v>10.177</v>
+      </c>
+      <c r="K460">
+        <v>13.045999999999999</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>462</v>
+      </c>
+      <c r="B461">
+        <v>14</v>
+      </c>
+      <c r="C461" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D461">
+        <v>14</v>
+      </c>
+      <c r="E461">
+        <v>2</v>
+      </c>
+      <c r="F461" t="s">
+        <v>10</v>
+      </c>
+      <c r="G461" t="s">
+        <v>476</v>
+      </c>
+      <c r="H461" t="s">
+        <v>12</v>
+      </c>
+      <c r="I461">
+        <v>4.1890000000000001</v>
+      </c>
+      <c r="J461">
+        <v>6.0389999999999997</v>
+      </c>
+      <c r="K461">
+        <v>8.5210000000000008</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462">
+        <v>15</v>
+      </c>
+      <c r="C462" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D462">
+        <v>15</v>
+      </c>
+      <c r="E462">
+        <v>1</v>
+      </c>
+      <c r="F462" t="s">
+        <v>13</v>
+      </c>
+      <c r="G462" t="s">
+        <v>477</v>
+      </c>
+      <c r="H462" t="s">
+        <v>12</v>
+      </c>
+      <c r="I462">
+        <v>3.9729999999999999</v>
+      </c>
+      <c r="J462">
+        <v>8.7940000000000005</v>
+      </c>
+      <c r="K462">
+        <v>11.207000000000001</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>462</v>
+      </c>
+      <c r="B463">
+        <v>16</v>
+      </c>
+      <c r="C463" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D463">
+        <v>16</v>
+      </c>
+      <c r="E463">
+        <v>2</v>
+      </c>
+      <c r="F463" t="s">
+        <v>10</v>
+      </c>
+      <c r="G463" t="s">
+        <v>478</v>
+      </c>
+      <c r="H463" t="s">
+        <v>12</v>
+      </c>
+      <c r="I463">
+        <v>6.6260000000000003</v>
+      </c>
+      <c r="J463">
+        <v>9.1020000000000003</v>
+      </c>
+      <c r="K463">
+        <v>12.68</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>17</v>
+      </c>
+      <c r="C464" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D464">
+        <v>17</v>
+      </c>
+      <c r="E464">
+        <v>1</v>
+      </c>
+      <c r="F464" t="s">
+        <v>13</v>
+      </c>
+      <c r="G464" t="s">
+        <v>479</v>
+      </c>
+      <c r="H464" t="s">
+        <v>12</v>
+      </c>
+      <c r="I464">
+        <v>2.16</v>
+      </c>
+      <c r="J464">
+        <v>4.5570000000000004</v>
+      </c>
+      <c r="K464">
+        <v>8.5280000000000005</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>462</v>
+      </c>
+      <c r="B465">
+        <v>18</v>
+      </c>
+      <c r="C465" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D465">
+        <v>18</v>
+      </c>
+      <c r="E465">
+        <v>2</v>
+      </c>
+      <c r="F465" t="s">
+        <v>10</v>
+      </c>
+      <c r="G465" t="s">
+        <v>480</v>
+      </c>
+      <c r="H465" t="s">
+        <v>12</v>
+      </c>
+      <c r="I465">
+        <v>8.3290000000000006</v>
+      </c>
+      <c r="J465">
+        <v>10.566000000000001</v>
+      </c>
+      <c r="K465">
+        <v>13.042999999999999</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>462</v>
+      </c>
+      <c r="B466">
+        <v>19</v>
+      </c>
+      <c r="C466" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D466">
+        <v>19</v>
+      </c>
+      <c r="E466">
+        <v>1</v>
+      </c>
+      <c r="F466" t="s">
+        <v>13</v>
+      </c>
+      <c r="G466" t="s">
+        <v>481</v>
+      </c>
+      <c r="H466" t="s">
+        <v>12</v>
+      </c>
+      <c r="I466">
+        <v>3.492</v>
+      </c>
+      <c r="J466">
+        <v>6.5819999999999999</v>
+      </c>
+      <c r="K466">
+        <v>9.0559999999999992</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>462</v>
+      </c>
+      <c r="B467">
+        <v>20</v>
+      </c>
+      <c r="C467" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D467">
+        <v>20</v>
+      </c>
+      <c r="E467">
+        <v>2</v>
+      </c>
+      <c r="F467" t="s">
+        <v>10</v>
+      </c>
+      <c r="G467" t="s">
+        <v>482</v>
+      </c>
+      <c r="H467" t="s">
+        <v>12</v>
+      </c>
+      <c r="I467">
+        <v>3.0270000000000001</v>
+      </c>
+      <c r="J467">
+        <v>5.1189999999999998</v>
+      </c>
+      <c r="K467">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>462</v>
+      </c>
+      <c r="B468">
+        <v>21</v>
+      </c>
+      <c r="C468" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D468">
+        <v>21</v>
+      </c>
+      <c r="E468">
+        <v>1</v>
+      </c>
+      <c r="F468" t="s">
+        <v>13</v>
+      </c>
+      <c r="G468" t="s">
+        <v>483</v>
+      </c>
+      <c r="H468" t="s">
+        <v>12</v>
+      </c>
+      <c r="I468">
+        <v>3.4860000000000002</v>
+      </c>
+      <c r="J468">
+        <v>6.4219999999999997</v>
+      </c>
+      <c r="K468">
+        <v>12.483000000000001</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>462</v>
+      </c>
+      <c r="B469">
+        <v>22</v>
+      </c>
+      <c r="C469" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D469">
+        <v>22</v>
+      </c>
+      <c r="E469">
+        <v>2</v>
+      </c>
+      <c r="F469" t="s">
+        <v>10</v>
+      </c>
+      <c r="G469" t="s">
+        <v>484</v>
+      </c>
+      <c r="H469" t="s">
+        <v>12</v>
+      </c>
+      <c r="I469">
+        <v>2.1789999999999998</v>
+      </c>
+      <c r="J469">
+        <v>8.4879999999999995</v>
+      </c>
+      <c r="K469">
+        <v>10.574999999999999</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>462</v>
+      </c>
+      <c r="B470">
+        <v>23</v>
+      </c>
+      <c r="C470" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D470">
+        <v>23</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
+      <c r="F470" t="s">
+        <v>13</v>
+      </c>
+      <c r="G470" t="s">
+        <v>485</v>
+      </c>
+      <c r="H470" t="s">
+        <v>12</v>
+      </c>
+      <c r="I470">
+        <v>2.6360000000000001</v>
+      </c>
+      <c r="J470">
+        <v>5.9820000000000002</v>
+      </c>
+      <c r="K470">
+        <v>9.5589999999999993</v>
+      </c>
+      <c r="L470">
+        <v>12.654999999999999</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>462</v>
+      </c>
+      <c r="B471">
+        <v>24</v>
+      </c>
+      <c r="C471" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D471">
+        <v>24</v>
+      </c>
+      <c r="E471">
+        <v>2</v>
+      </c>
+      <c r="F471" t="s">
+        <v>10</v>
+      </c>
+      <c r="G471" t="s">
+        <v>486</v>
+      </c>
+      <c r="H471" t="s">
+        <v>12</v>
+      </c>
+      <c r="I471">
+        <v>3.9590000000000001</v>
+      </c>
+      <c r="J471">
+        <v>8.9179999999999993</v>
+      </c>
+      <c r="K471">
+        <v>11.781000000000001</v>
+      </c>
+      <c r="L471">
+        <v>14.958</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>462</v>
+      </c>
+      <c r="B472">
+        <v>25</v>
+      </c>
+      <c r="C472" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D472">
+        <v>25</v>
+      </c>
+      <c r="E472">
+        <v>1</v>
+      </c>
+      <c r="F472" t="s">
+        <v>13</v>
+      </c>
+      <c r="G472" t="s">
+        <v>487</v>
+      </c>
+      <c r="H472" t="s">
+        <v>12</v>
+      </c>
+      <c r="I472">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="J472">
+        <v>9.5459999999999994</v>
+      </c>
+      <c r="K472">
+        <v>12.028</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>462</v>
+      </c>
+      <c r="B473">
+        <v>26</v>
+      </c>
+      <c r="C473" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D473">
+        <v>26</v>
+      </c>
+      <c r="E473">
+        <v>2</v>
+      </c>
+      <c r="F473" t="s">
+        <v>10</v>
+      </c>
+      <c r="G473" t="s">
+        <v>488</v>
+      </c>
+      <c r="H473" t="s">
+        <v>12</v>
+      </c>
+      <c r="I473">
+        <v>6.5069999999999997</v>
+      </c>
+      <c r="J473">
+        <v>8.8350000000000009</v>
+      </c>
+      <c r="K473">
+        <v>12.012</v>
+      </c>
+      <c r="L473">
+        <v>13.634</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>462</v>
+      </c>
+      <c r="B474">
+        <v>27</v>
+      </c>
+      <c r="C474" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D474">
+        <v>27</v>
+      </c>
+      <c r="E474">
+        <v>1</v>
+      </c>
+      <c r="F474" t="s">
+        <v>13</v>
+      </c>
+      <c r="G474" t="s">
+        <v>489</v>
+      </c>
+      <c r="H474" t="s">
+        <v>12</v>
+      </c>
+      <c r="I474">
+        <v>2.7149999999999999</v>
+      </c>
+      <c r="J474">
+        <v>6.5990000000000002</v>
+      </c>
+      <c r="K474">
+        <v>8.6270000000000007</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>462</v>
+      </c>
+      <c r="B475">
+        <v>28</v>
+      </c>
+      <c r="C475" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D475">
+        <v>28</v>
+      </c>
+      <c r="E475">
+        <v>2</v>
+      </c>
+      <c r="F475" t="s">
+        <v>10</v>
+      </c>
+      <c r="G475" t="s">
+        <v>490</v>
+      </c>
+      <c r="H475" t="s">
+        <v>12</v>
+      </c>
+      <c r="I475">
+        <v>6.99</v>
+      </c>
+      <c r="J475">
+        <v>9.0190000000000001</v>
+      </c>
+      <c r="K475">
+        <v>11.183</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>462</v>
+      </c>
+      <c r="B476">
+        <v>29</v>
+      </c>
+      <c r="C476" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D476">
+        <v>29</v>
+      </c>
+      <c r="E476">
+        <v>1</v>
+      </c>
+      <c r="F476" t="s">
+        <v>13</v>
+      </c>
+      <c r="G476" t="s">
+        <v>491</v>
+      </c>
+      <c r="H476" t="s">
+        <v>12</v>
+      </c>
+      <c r="I476">
+        <v>4.5759999999999996</v>
+      </c>
+      <c r="J476">
+        <v>7.45</v>
+      </c>
+      <c r="K476">
+        <v>11.093999999999999</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>462</v>
+      </c>
+      <c r="B477">
+        <v>30</v>
+      </c>
+      <c r="C477" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D477">
+        <v>30</v>
+      </c>
+      <c r="E477">
+        <v>2</v>
+      </c>
+      <c r="F477" t="s">
+        <v>10</v>
+      </c>
+      <c r="G477" t="s">
+        <v>492</v>
+      </c>
+      <c r="H477" t="s">
+        <v>12</v>
+      </c>
+      <c r="I477">
+        <v>4.5069999999999997</v>
+      </c>
+      <c r="J477">
+        <v>6.5339999999999998</v>
+      </c>
+      <c r="K477">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>462</v>
+      </c>
+      <c r="B478">
+        <v>31</v>
+      </c>
+      <c r="C478" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D478">
+        <v>31</v>
+      </c>
+      <c r="E478">
+        <v>1</v>
+      </c>
+      <c r="F478" t="s">
+        <v>13</v>
+      </c>
+      <c r="G478" t="s">
+        <v>493</v>
+      </c>
+      <c r="H478" t="s">
+        <v>12</v>
+      </c>
+      <c r="I478">
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="J478">
+        <v>7.9960000000000004</v>
+      </c>
+      <c r="K478">
+        <v>13.048999999999999</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>462</v>
+      </c>
+      <c r="B479">
+        <v>32</v>
+      </c>
+      <c r="C479" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D479">
+        <v>32</v>
+      </c>
+      <c r="E479">
+        <v>2</v>
+      </c>
+      <c r="F479" t="s">
+        <v>10</v>
+      </c>
+      <c r="G479" t="s">
+        <v>494</v>
+      </c>
+      <c r="H479" t="s">
+        <v>12</v>
+      </c>
+      <c r="I479">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="J479">
+        <v>4.4859999999999998</v>
+      </c>
+      <c r="K479">
+        <v>11.798999999999999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>462</v>
+      </c>
+      <c r="B480">
+        <v>33</v>
+      </c>
+      <c r="C480" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D480">
+        <v>33</v>
+      </c>
+      <c r="E480">
+        <v>1</v>
+      </c>
+      <c r="F480" t="s">
+        <v>13</v>
+      </c>
+      <c r="G480" t="s">
+        <v>495</v>
+      </c>
+      <c r="H480" t="s">
+        <v>12</v>
+      </c>
+      <c r="I480">
+        <v>2.5470000000000002</v>
+      </c>
+      <c r="J480">
+        <v>4.9640000000000004</v>
+      </c>
+      <c r="K480">
+        <v>10.012</v>
+      </c>
+      <c r="L480">
+        <v>11.944000000000001</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>462</v>
+      </c>
+      <c r="B481">
+        <v>34</v>
+      </c>
+      <c r="C481" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D481">
+        <v>34</v>
+      </c>
+      <c r="E481">
+        <v>2</v>
+      </c>
+      <c r="F481" t="s">
+        <v>10</v>
+      </c>
+      <c r="G481" t="s">
+        <v>496</v>
+      </c>
+      <c r="H481" t="s">
+        <v>12</v>
+      </c>
+      <c r="I481">
+        <v>2.5529999999999999</v>
+      </c>
+      <c r="J481">
+        <v>5.03</v>
+      </c>
+      <c r="K481">
+        <v>7.4210000000000003</v>
+      </c>
+      <c r="L481">
+        <v>13.162000000000001</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>462</v>
+      </c>
+      <c r="B482">
+        <v>35</v>
+      </c>
+      <c r="C482" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D482">
+        <v>35</v>
+      </c>
+      <c r="E482">
+        <v>1</v>
+      </c>
+      <c r="F482" t="s">
+        <v>13</v>
+      </c>
+      <c r="G482" t="s">
+        <v>497</v>
+      </c>
+      <c r="H482" t="s">
+        <v>12</v>
+      </c>
+      <c r="I482">
+        <v>5.14</v>
+      </c>
+      <c r="J482">
+        <v>7.085</v>
+      </c>
+      <c r="K482">
+        <v>10.105</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>462</v>
+      </c>
+      <c r="B483">
+        <v>36</v>
+      </c>
+      <c r="C483" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D483">
+        <v>36</v>
+      </c>
+      <c r="E483">
+        <v>2</v>
+      </c>
+      <c r="F483" t="s">
+        <v>10</v>
+      </c>
+      <c r="G483" t="s">
+        <v>498</v>
+      </c>
+      <c r="H483" t="s">
+        <v>12</v>
+      </c>
+      <c r="I483">
+        <v>2.008</v>
+      </c>
+      <c r="J483">
+        <v>4.484</v>
+      </c>
+      <c r="K483">
+        <v>8.5960000000000001</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>462</v>
+      </c>
+      <c r="B484">
+        <v>37</v>
+      </c>
+      <c r="C484" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D484">
+        <v>37</v>
+      </c>
+      <c r="E484">
+        <v>1</v>
+      </c>
+      <c r="F484" t="s">
+        <v>13</v>
+      </c>
+      <c r="G484" t="s">
+        <v>499</v>
+      </c>
+      <c r="H484" t="s">
+        <v>12</v>
+      </c>
+      <c r="I484">
+        <v>6.0590000000000002</v>
+      </c>
+      <c r="J484">
+        <v>10.481999999999999</v>
+      </c>
+      <c r="K484">
+        <v>12.573</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>462</v>
+      </c>
+      <c r="B485">
+        <v>38</v>
+      </c>
+      <c r="C485" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D485">
+        <v>38</v>
+      </c>
+      <c r="E485">
+        <v>2</v>
+      </c>
+      <c r="F485" t="s">
+        <v>10</v>
+      </c>
+      <c r="G485" t="s">
+        <v>500</v>
+      </c>
+      <c r="H485" t="s">
+        <v>12</v>
+      </c>
+      <c r="I485">
+        <v>4.899</v>
+      </c>
+      <c r="J485">
+        <v>7.4470000000000001</v>
+      </c>
+      <c r="K485">
+        <v>11.558999999999999</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>462</v>
+      </c>
+      <c r="B486">
+        <v>39</v>
+      </c>
+      <c r="C486" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D486">
+        <v>39</v>
+      </c>
+      <c r="E486">
+        <v>1</v>
+      </c>
+      <c r="F486" t="s">
+        <v>13</v>
+      </c>
+      <c r="G486" t="s">
+        <v>501</v>
+      </c>
+      <c r="H486" t="s">
+        <v>12</v>
+      </c>
+      <c r="I486">
+        <v>5.149</v>
+      </c>
+      <c r="J486">
+        <v>7.5460000000000003</v>
+      </c>
+      <c r="K486">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>462</v>
+      </c>
+      <c r="B487">
+        <v>40</v>
+      </c>
+      <c r="C487" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D487">
+        <v>40</v>
+      </c>
+      <c r="E487">
+        <v>2</v>
+      </c>
+      <c r="F487" t="s">
+        <v>10</v>
+      </c>
+      <c r="G487" t="s">
+        <v>502</v>
+      </c>
+      <c r="H487" t="s">
+        <v>12</v>
+      </c>
+      <c r="I487">
+        <v>4.5720000000000001</v>
+      </c>
+      <c r="J487">
+        <v>8.218</v>
+      </c>
+      <c r="K487">
+        <v>10.611000000000001</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>462</v>
+      </c>
+      <c r="B488">
+        <v>41</v>
+      </c>
+      <c r="C488" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D488">
+        <v>41</v>
+      </c>
+      <c r="E488">
+        <v>1</v>
+      </c>
+      <c r="F488" t="s">
+        <v>13</v>
+      </c>
+      <c r="G488" t="s">
+        <v>503</v>
+      </c>
+      <c r="H488" t="s">
+        <v>12</v>
+      </c>
+      <c r="I488">
+        <v>4.0960000000000001</v>
+      </c>
+      <c r="J488">
+        <v>7.5810000000000004</v>
+      </c>
+      <c r="K488">
+        <v>10.529</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>462</v>
+      </c>
+      <c r="B489">
+        <v>42</v>
+      </c>
+      <c r="C489" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D489">
+        <v>42</v>
+      </c>
+      <c r="E489">
+        <v>2</v>
+      </c>
+      <c r="F489" t="s">
+        <v>10</v>
+      </c>
+      <c r="G489" t="s">
+        <v>504</v>
+      </c>
+      <c r="H489" t="s">
+        <v>12</v>
+      </c>
+      <c r="I489">
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="J489">
+        <v>8.7739999999999991</v>
+      </c>
+      <c r="K489">
+        <v>10.702</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>462</v>
+      </c>
+      <c r="B490">
+        <v>43</v>
+      </c>
+      <c r="C490" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D490">
+        <v>43</v>
+      </c>
+      <c r="E490">
+        <v>1</v>
+      </c>
+      <c r="F490" t="s">
+        <v>13</v>
+      </c>
+      <c r="G490" t="s">
+        <v>505</v>
+      </c>
+      <c r="H490" t="s">
+        <v>12</v>
+      </c>
+      <c r="I490">
+        <v>2.71</v>
+      </c>
+      <c r="J490">
+        <v>7.609</v>
+      </c>
+      <c r="K490">
+        <v>12.183999999999999</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>462</v>
+      </c>
+      <c r="B491">
+        <v>44</v>
+      </c>
+      <c r="C491" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D491">
+        <v>44</v>
+      </c>
+      <c r="E491">
+        <v>2</v>
+      </c>
+      <c r="F491" t="s">
+        <v>10</v>
+      </c>
+      <c r="G491" t="s">
+        <v>506</v>
+      </c>
+      <c r="H491" t="s">
+        <v>12</v>
+      </c>
+      <c r="I491">
+        <v>3.0190000000000001</v>
+      </c>
+      <c r="J491">
+        <v>6.1150000000000002</v>
+      </c>
+      <c r="K491">
+        <v>9.5250000000000004</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>462</v>
+      </c>
+      <c r="B492">
+        <v>45</v>
+      </c>
+      <c r="C492" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D492">
+        <v>45</v>
+      </c>
+      <c r="E492">
+        <v>1</v>
+      </c>
+      <c r="F492" t="s">
+        <v>13</v>
+      </c>
+      <c r="G492" t="s">
+        <v>507</v>
+      </c>
+      <c r="H492" t="s">
+        <v>12</v>
+      </c>
+      <c r="I492">
+        <v>5.12</v>
+      </c>
+      <c r="J492">
+        <v>8.08</v>
+      </c>
+      <c r="K492">
+        <v>10.581</v>
+      </c>
+      <c r="L492">
+        <v>13.064</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>462</v>
+      </c>
+      <c r="B493">
+        <v>46</v>
+      </c>
+      <c r="C493" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D493">
+        <v>46</v>
+      </c>
+      <c r="E493">
+        <v>2</v>
+      </c>
+      <c r="F493" t="s">
+        <v>10</v>
+      </c>
+      <c r="G493" t="s">
+        <v>508</v>
+      </c>
+      <c r="H493" t="s">
+        <v>12</v>
+      </c>
+      <c r="I493">
+        <v>4.1210000000000004</v>
+      </c>
+      <c r="J493">
+        <v>9.0169999999999995</v>
+      </c>
+      <c r="K493">
+        <v>13.058</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>462</v>
+      </c>
+      <c r="B494">
+        <v>47</v>
+      </c>
+      <c r="C494" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D494">
+        <v>47</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
+      <c r="F494" t="s">
+        <v>13</v>
+      </c>
+      <c r="G494" t="s">
+        <v>509</v>
+      </c>
+      <c r="H494" t="s">
+        <v>12</v>
+      </c>
+      <c r="I494">
+        <v>4.6790000000000003</v>
+      </c>
+      <c r="J494">
+        <v>6.468</v>
+      </c>
+      <c r="K494">
+        <v>12.532999999999999</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>462</v>
+      </c>
+      <c r="B495">
+        <v>48</v>
+      </c>
+      <c r="C495" s="1">
+        <v>45077</v>
+      </c>
+      <c r="D495">
+        <v>48</v>
+      </c>
+      <c r="E495">
+        <v>2</v>
+      </c>
+      <c r="F495" t="s">
+        <v>10</v>
+      </c>
+      <c r="G495" t="s">
+        <v>510</v>
+      </c>
+      <c r="H495" t="s">
+        <v>12</v>
+      </c>
+      <c r="I495">
+        <v>3.093</v>
+      </c>
+      <c r="J495">
+        <v>8.2170000000000005</v>
+      </c>
+      <c r="K495">
+        <v>10.148999999999999</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>511</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+      <c r="E496">
+        <v>1</v>
+      </c>
+      <c r="F496" t="s">
+        <v>13</v>
+      </c>
+      <c r="G496" t="s">
+        <v>512</v>
+      </c>
+      <c r="H496" t="s">
+        <v>12</v>
+      </c>
+      <c r="I496">
+        <v>2.6179999999999999</v>
+      </c>
+      <c r="J496">
+        <v>6.0220000000000002</v>
+      </c>
+      <c r="K496">
+        <v>8.7210000000000001</v>
+      </c>
+      <c r="L496">
+        <v>11.331</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>511</v>
+      </c>
+      <c r="B497">
+        <v>2</v>
+      </c>
+      <c r="C497" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D497">
+        <v>2</v>
+      </c>
+      <c r="E497">
+        <v>2</v>
+      </c>
+      <c r="F497" t="s">
+        <v>10</v>
+      </c>
+      <c r="G497" t="s">
+        <v>513</v>
+      </c>
+      <c r="H497" t="s">
+        <v>12</v>
+      </c>
+      <c r="I497">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="J497">
+        <v>3.371</v>
+      </c>
+      <c r="K497">
+        <v>8.1519999999999992</v>
+      </c>
+      <c r="L497">
+        <v>13.257</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>511</v>
+      </c>
+      <c r="B498">
+        <v>3</v>
+      </c>
+      <c r="C498" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D498">
+        <v>3</v>
+      </c>
+      <c r="E498">
+        <v>1</v>
+      </c>
+      <c r="F498" t="s">
+        <v>13</v>
+      </c>
+      <c r="G498" t="s">
+        <v>514</v>
+      </c>
+      <c r="H498" t="s">
+        <v>12</v>
+      </c>
+      <c r="I498">
+        <v>3.6240000000000001</v>
+      </c>
+      <c r="J498">
+        <v>6.1630000000000003</v>
+      </c>
+      <c r="K498">
+        <v>8.1609999999999996</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>511</v>
+      </c>
+      <c r="B499">
+        <v>4</v>
+      </c>
+      <c r="C499" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D499">
+        <v>4</v>
+      </c>
+      <c r="E499">
+        <v>2</v>
+      </c>
+      <c r="F499" t="s">
+        <v>10</v>
+      </c>
+      <c r="G499" t="s">
+        <v>515</v>
+      </c>
+      <c r="H499" t="s">
+        <v>12</v>
+      </c>
+      <c r="I499">
+        <v>5.0279999999999996</v>
+      </c>
+      <c r="J499">
+        <v>8.343</v>
+      </c>
+      <c r="K499">
+        <v>13.055999999999999</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>511</v>
+      </c>
+      <c r="B500">
+        <v>5</v>
+      </c>
+      <c r="C500" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D500">
+        <v>5</v>
+      </c>
+      <c r="E500">
+        <v>1</v>
+      </c>
+      <c r="F500" t="s">
+        <v>13</v>
+      </c>
+      <c r="G500" t="s">
+        <v>516</v>
+      </c>
+      <c r="H500" t="s">
+        <v>12</v>
+      </c>
+      <c r="I500">
+        <v>5.6369999999999996</v>
+      </c>
+      <c r="J500">
+        <v>8.0190000000000001</v>
+      </c>
+      <c r="K500">
+        <v>10.972</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>511</v>
+      </c>
+      <c r="B501">
+        <v>6</v>
+      </c>
+      <c r="C501" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D501">
+        <v>6</v>
+      </c>
+      <c r="E501">
+        <v>2</v>
+      </c>
+      <c r="F501" t="s">
+        <v>10</v>
+      </c>
+      <c r="G501" t="s">
+        <v>517</v>
+      </c>
+      <c r="H501" t="s">
+        <v>12</v>
+      </c>
+      <c r="I501">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="J501">
+        <v>10.137</v>
+      </c>
+      <c r="K501">
+        <v>13.065</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>511</v>
+      </c>
+      <c r="B502">
+        <v>7</v>
+      </c>
+      <c r="C502" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D502">
+        <v>7</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
+      <c r="F502" t="s">
+        <v>13</v>
+      </c>
+      <c r="G502" t="s">
+        <v>518</v>
+      </c>
+      <c r="H502" t="s">
+        <v>12</v>
+      </c>
+      <c r="I502">
+        <v>3.01</v>
+      </c>
+      <c r="J502">
+        <v>6.0170000000000003</v>
+      </c>
+      <c r="K502">
+        <v>9.1010000000000009</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>511</v>
+      </c>
+      <c r="B503">
+        <v>8</v>
+      </c>
+      <c r="C503" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D503">
+        <v>8</v>
+      </c>
+      <c r="E503">
+        <v>2</v>
+      </c>
+      <c r="F503" t="s">
+        <v>10</v>
+      </c>
+      <c r="G503" t="s">
+        <v>519</v>
+      </c>
+      <c r="H503" t="s">
+        <v>12</v>
+      </c>
+      <c r="I503">
+        <v>2.3260000000000001</v>
+      </c>
+      <c r="J503">
+        <v>6.1980000000000004</v>
+      </c>
+      <c r="K503">
+        <v>12.151999999999999</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>511</v>
+      </c>
+      <c r="B504">
+        <v>9</v>
+      </c>
+      <c r="C504" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D504">
+        <v>9</v>
+      </c>
+      <c r="E504">
+        <v>1</v>
+      </c>
+      <c r="F504" t="s">
+        <v>13</v>
+      </c>
+      <c r="G504" t="s">
+        <v>520</v>
+      </c>
+      <c r="H504" t="s">
+        <v>12</v>
+      </c>
+      <c r="I504">
+        <v>5.5709999999999997</v>
+      </c>
+      <c r="J504">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="K504">
+        <v>12.068</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>511</v>
+      </c>
+      <c r="B505">
+        <v>10</v>
+      </c>
+      <c r="C505" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D505">
+        <v>10</v>
+      </c>
+      <c r="E505">
+        <v>2</v>
+      </c>
+      <c r="F505" t="s">
+        <v>10</v>
+      </c>
+      <c r="G505" t="s">
+        <v>521</v>
+      </c>
+      <c r="H505" t="s">
+        <v>12</v>
+      </c>
+      <c r="I505">
+        <v>7.5670000000000002</v>
+      </c>
+      <c r="J505">
+        <v>10.881</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>511</v>
+      </c>
+      <c r="B506">
+        <v>11</v>
+      </c>
+      <c r="C506" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D506">
+        <v>11</v>
+      </c>
+      <c r="E506">
+        <v>1</v>
+      </c>
+      <c r="F506" t="s">
+        <v>13</v>
+      </c>
+      <c r="G506" t="s">
+        <v>522</v>
+      </c>
+      <c r="H506" t="s">
+        <v>12</v>
+      </c>
+      <c r="I506">
+        <v>5.665</v>
+      </c>
+      <c r="J506">
+        <v>8.3670000000000009</v>
+      </c>
+      <c r="K506">
+        <v>10.217000000000001</v>
+      </c>
+      <c r="L506">
+        <v>12.692</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>511</v>
+      </c>
+      <c r="B507">
+        <v>12</v>
+      </c>
+      <c r="C507" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D507">
+        <v>12</v>
+      </c>
+      <c r="E507">
+        <v>2</v>
+      </c>
+      <c r="F507" t="s">
+        <v>10</v>
+      </c>
+      <c r="G507" t="s">
+        <v>523</v>
+      </c>
+      <c r="H507" t="s">
+        <v>12</v>
+      </c>
+      <c r="I507">
+        <v>2.4740000000000002</v>
+      </c>
+      <c r="J507">
+        <v>7.9790000000000001</v>
+      </c>
+      <c r="K507">
+        <v>9.6690000000000005</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>511</v>
+      </c>
+      <c r="B508">
+        <v>13</v>
+      </c>
+      <c r="C508" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D508">
+        <v>13</v>
+      </c>
+      <c r="E508">
+        <v>1</v>
+      </c>
+      <c r="F508" t="s">
+        <v>13</v>
+      </c>
+      <c r="G508" t="s">
+        <v>524</v>
+      </c>
+      <c r="H508" t="s">
+        <v>12</v>
+      </c>
+      <c r="I508">
+        <v>2.23</v>
+      </c>
+      <c r="J508">
+        <v>10.266</v>
+      </c>
+      <c r="K508">
+        <v>11.271000000000001</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>511</v>
+      </c>
+      <c r="B509">
+        <v>14</v>
+      </c>
+      <c r="C509" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D509">
+        <v>14</v>
+      </c>
+      <c r="E509">
+        <v>2</v>
+      </c>
+      <c r="F509" t="s">
+        <v>10</v>
+      </c>
+      <c r="G509" t="s">
+        <v>525</v>
+      </c>
+      <c r="H509" t="s">
+        <v>12</v>
+      </c>
+      <c r="I509">
+        <v>4.7060000000000004</v>
+      </c>
+      <c r="J509">
+        <v>7.2690000000000001</v>
+      </c>
+      <c r="K509">
+        <v>8.2759999999999998</v>
+      </c>
+      <c r="L509">
+        <v>9.4990000000000006</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>511</v>
+      </c>
+      <c r="B510">
+        <v>15</v>
+      </c>
+      <c r="C510" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D510">
+        <v>15</v>
+      </c>
+      <c r="E510">
+        <v>1</v>
+      </c>
+      <c r="F510" t="s">
+        <v>13</v>
+      </c>
+      <c r="G510" t="s">
+        <v>526</v>
+      </c>
+      <c r="H510" t="s">
+        <v>12</v>
+      </c>
+      <c r="I510">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J510">
+        <v>7.1079999999999997</v>
+      </c>
+      <c r="K510">
+        <v>9.109</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>511</v>
+      </c>
+      <c r="B511">
+        <v>16</v>
+      </c>
+      <c r="C511" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D511">
+        <v>16</v>
+      </c>
+      <c r="E511">
+        <v>2</v>
+      </c>
+      <c r="F511" t="s">
+        <v>10</v>
+      </c>
+      <c r="G511" t="s">
+        <v>527</v>
+      </c>
+      <c r="H511" t="s">
+        <v>12</v>
+      </c>
+      <c r="I511">
+        <v>7.1909999999999998</v>
+      </c>
+      <c r="J511">
+        <v>9.7309999999999999</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>511</v>
+      </c>
+      <c r="B512">
+        <v>17</v>
+      </c>
+      <c r="C512" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D512">
+        <v>17</v>
+      </c>
+      <c r="E512">
+        <v>1</v>
+      </c>
+      <c r="F512" t="s">
+        <v>13</v>
+      </c>
+      <c r="G512" t="s">
+        <v>528</v>
+      </c>
+      <c r="H512" t="s">
+        <v>12</v>
+      </c>
+      <c r="I512">
+        <v>5.0259999999999998</v>
+      </c>
+      <c r="J512">
+        <v>7.415</v>
+      </c>
+      <c r="K512">
+        <v>12.276</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>18</v>
+      </c>
+      <c r="C513" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D513">
+        <v>18</v>
+      </c>
+      <c r="E513">
+        <v>2</v>
+      </c>
+      <c r="F513" t="s">
+        <v>10</v>
+      </c>
+      <c r="G513" t="s">
+        <v>529</v>
+      </c>
+      <c r="H513" t="s">
+        <v>12</v>
+      </c>
+      <c r="I513">
+        <v>5.1040000000000001</v>
+      </c>
+      <c r="J513">
+        <v>11.225</v>
+      </c>
+      <c r="K513">
+        <v>12.680999999999999</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>511</v>
+      </c>
+      <c r="B514">
+        <v>19</v>
+      </c>
+      <c r="C514" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D514">
+        <v>19</v>
+      </c>
+      <c r="E514">
+        <v>1</v>
+      </c>
+      <c r="F514" t="s">
+        <v>13</v>
+      </c>
+      <c r="G514" t="s">
+        <v>530</v>
+      </c>
+      <c r="H514" t="s">
+        <v>12</v>
+      </c>
+      <c r="I514">
+        <v>5.1059999999999999</v>
+      </c>
+      <c r="J514">
+        <v>7.101</v>
+      </c>
+      <c r="K514">
+        <v>11.574</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>511</v>
+      </c>
+      <c r="B515">
+        <v>20</v>
+      </c>
+      <c r="C515" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D515">
+        <v>20</v>
+      </c>
+      <c r="E515">
+        <v>2</v>
+      </c>
+      <c r="F515" t="s">
+        <v>10</v>
+      </c>
+      <c r="G515" t="s">
+        <v>531</v>
+      </c>
+      <c r="H515" t="s">
+        <v>12</v>
+      </c>
+      <c r="I515">
+        <v>4.6360000000000001</v>
+      </c>
+      <c r="J515">
+        <v>10.202</v>
+      </c>
+      <c r="K515">
+        <v>13.592000000000001</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>511</v>
+      </c>
+      <c r="B516">
+        <v>21</v>
+      </c>
+      <c r="C516" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D516">
+        <v>21</v>
+      </c>
+      <c r="E516">
+        <v>1</v>
+      </c>
+      <c r="F516" t="s">
+        <v>13</v>
+      </c>
+      <c r="G516" t="s">
+        <v>532</v>
+      </c>
+      <c r="H516" t="s">
+        <v>12</v>
+      </c>
+      <c r="I516">
+        <v>7.2039999999999997</v>
+      </c>
+      <c r="J516">
+        <v>10.523999999999999</v>
+      </c>
+      <c r="K516">
+        <v>12.603999999999999</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>511</v>
+      </c>
+      <c r="B517">
+        <v>22</v>
+      </c>
+      <c r="C517" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D517">
+        <v>22</v>
+      </c>
+      <c r="E517">
+        <v>2</v>
+      </c>
+      <c r="F517" t="s">
+        <v>10</v>
+      </c>
+      <c r="G517" t="s">
+        <v>533</v>
+      </c>
+      <c r="H517" t="s">
+        <v>12</v>
+      </c>
+      <c r="I517">
+        <v>4.5090000000000003</v>
+      </c>
+      <c r="J517">
+        <v>7.9690000000000003</v>
+      </c>
+      <c r="K517">
+        <v>10.755000000000001</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>511</v>
+      </c>
+      <c r="B518">
+        <v>23</v>
+      </c>
+      <c r="C518" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D518">
+        <v>23</v>
+      </c>
+      <c r="E518">
+        <v>1</v>
+      </c>
+      <c r="F518" t="s">
+        <v>13</v>
+      </c>
+      <c r="G518" t="s">
+        <v>534</v>
+      </c>
+      <c r="H518" t="s">
+        <v>12</v>
+      </c>
+      <c r="I518">
+        <v>3.8639999999999999</v>
+      </c>
+      <c r="J518">
+        <v>9.5850000000000009</v>
+      </c>
+      <c r="K518">
+        <v>12.125999999999999</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>511</v>
+      </c>
+      <c r="B519">
+        <v>24</v>
+      </c>
+      <c r="C519" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D519">
+        <v>24</v>
+      </c>
+      <c r="E519">
+        <v>2</v>
+      </c>
+      <c r="F519" t="s">
+        <v>10</v>
+      </c>
+      <c r="G519" t="s">
+        <v>535</v>
+      </c>
+      <c r="H519" t="s">
+        <v>12</v>
+      </c>
+      <c r="I519">
+        <v>6.718</v>
+      </c>
+      <c r="J519">
+        <v>7.9409999999999998</v>
+      </c>
+      <c r="K519">
+        <v>10.247999999999999</v>
+      </c>
+      <c r="L519">
+        <v>13.032999999999999</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>511</v>
+      </c>
+      <c r="B520">
+        <v>25</v>
+      </c>
+      <c r="C520" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D520">
+        <v>25</v>
+      </c>
+      <c r="E520">
+        <v>1</v>
+      </c>
+      <c r="F520" t="s">
+        <v>13</v>
+      </c>
+      <c r="G520" t="s">
+        <v>536</v>
+      </c>
+      <c r="H520" t="s">
+        <v>12</v>
+      </c>
+      <c r="I520">
+        <v>3.6190000000000002</v>
+      </c>
+      <c r="J520">
+        <v>8.0150000000000006</v>
+      </c>
+      <c r="K520">
+        <v>11.733000000000001</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>511</v>
+      </c>
+      <c r="B521">
+        <v>26</v>
+      </c>
+      <c r="C521" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D521">
+        <v>26</v>
+      </c>
+      <c r="E521">
+        <v>2</v>
+      </c>
+      <c r="F521" t="s">
+        <v>10</v>
+      </c>
+      <c r="G521" t="s">
+        <v>537</v>
+      </c>
+      <c r="H521" t="s">
+        <v>12</v>
+      </c>
+      <c r="I521">
+        <v>3.395</v>
+      </c>
+      <c r="J521">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>511</v>
+      </c>
+      <c r="B522">
+        <v>27</v>
+      </c>
+      <c r="C522" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D522">
+        <v>27</v>
+      </c>
+      <c r="E522">
+        <v>1</v>
+      </c>
+      <c r="F522" t="s">
+        <v>13</v>
+      </c>
+      <c r="G522" t="s">
+        <v>538</v>
+      </c>
+      <c r="H522" t="s">
+        <v>12</v>
+      </c>
+      <c r="I522">
+        <v>7.5119999999999996</v>
+      </c>
+      <c r="J522">
+        <v>9.67</v>
+      </c>
+      <c r="K522">
+        <v>12.76</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>511</v>
+      </c>
+      <c r="B523">
+        <v>28</v>
+      </c>
+      <c r="C523" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D523">
+        <v>28</v>
+      </c>
+      <c r="E523">
+        <v>2</v>
+      </c>
+      <c r="F523" t="s">
+        <v>10</v>
+      </c>
+      <c r="G523" t="s">
+        <v>539</v>
+      </c>
+      <c r="H523" t="s">
+        <v>12</v>
+      </c>
+      <c r="I523">
+        <v>6.0979999999999999</v>
+      </c>
+      <c r="J523">
+        <v>10.584</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>511</v>
+      </c>
+      <c r="B524">
+        <v>29</v>
+      </c>
+      <c r="C524" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D524">
+        <v>29</v>
+      </c>
+      <c r="E524">
+        <v>1</v>
+      </c>
+      <c r="F524" t="s">
+        <v>13</v>
+      </c>
+      <c r="G524" t="s">
+        <v>540</v>
+      </c>
+      <c r="H524" t="s">
+        <v>12</v>
+      </c>
+      <c r="I524">
+        <v>3.629</v>
+      </c>
+      <c r="J524">
+        <v>5.5529999999999999</v>
+      </c>
+      <c r="K524">
+        <v>10.029</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>511</v>
+      </c>
+      <c r="B525">
+        <v>30</v>
+      </c>
+      <c r="C525" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D525">
+        <v>30</v>
+      </c>
+      <c r="E525">
+        <v>2</v>
+      </c>
+      <c r="F525" t="s">
+        <v>10</v>
+      </c>
+      <c r="G525" t="s">
+        <v>541</v>
+      </c>
+      <c r="H525" t="s">
+        <v>12</v>
+      </c>
+      <c r="I525">
+        <v>2.92</v>
+      </c>
+      <c r="J525">
+        <v>4.6870000000000003</v>
+      </c>
+      <c r="K525">
+        <v>7.3840000000000003</v>
+      </c>
+      <c r="L525">
+        <v>12.337</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>511</v>
+      </c>
+      <c r="B526">
+        <v>31</v>
+      </c>
+      <c r="C526" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D526">
+        <v>31</v>
+      </c>
+      <c r="E526">
+        <v>1</v>
+      </c>
+      <c r="F526" t="s">
+        <v>13</v>
+      </c>
+      <c r="G526" t="s">
+        <v>542</v>
+      </c>
+      <c r="H526" t="s">
+        <v>12</v>
+      </c>
+      <c r="I526">
+        <v>3.323</v>
+      </c>
+      <c r="J526">
+        <v>7.6360000000000001</v>
+      </c>
+      <c r="K526">
+        <v>10.486000000000001</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>511</v>
+      </c>
+      <c r="B527">
+        <v>32</v>
+      </c>
+      <c r="C527" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D527">
+        <v>32</v>
+      </c>
+      <c r="E527">
+        <v>2</v>
+      </c>
+      <c r="F527" t="s">
+        <v>10</v>
+      </c>
+      <c r="G527" t="s">
+        <v>543</v>
+      </c>
+      <c r="H527" t="s">
+        <v>12</v>
+      </c>
+      <c r="I527">
+        <v>3.5459999999999998</v>
+      </c>
+      <c r="J527">
+        <v>9.2810000000000006</v>
+      </c>
+      <c r="K527">
+        <v>11.356</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>511</v>
+      </c>
+      <c r="B528">
+        <v>33</v>
+      </c>
+      <c r="C528" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D528">
+        <v>33</v>
+      </c>
+      <c r="E528">
+        <v>1</v>
+      </c>
+      <c r="F528" t="s">
+        <v>13</v>
+      </c>
+      <c r="G528" t="s">
+        <v>544</v>
+      </c>
+      <c r="H528" t="s">
+        <v>12</v>
+      </c>
+      <c r="I528">
+        <v>2.532</v>
+      </c>
+      <c r="J528">
+        <v>10.221</v>
+      </c>
+      <c r="K528">
+        <v>12.164</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>511</v>
+      </c>
+      <c r="B529">
+        <v>34</v>
+      </c>
+      <c r="C529" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D529">
+        <v>34</v>
+      </c>
+      <c r="E529">
+        <v>2</v>
+      </c>
+      <c r="F529" t="s">
+        <v>10</v>
+      </c>
+      <c r="G529" t="s">
+        <v>545</v>
+      </c>
+      <c r="H529" t="s">
+        <v>12</v>
+      </c>
+      <c r="I529">
+        <v>5.6379999999999999</v>
+      </c>
+      <c r="J529">
+        <v>10.494999999999999</v>
+      </c>
+      <c r="K529">
+        <v>13.129</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>511</v>
+      </c>
+      <c r="B530">
+        <v>35</v>
+      </c>
+      <c r="C530" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D530">
+        <v>35</v>
+      </c>
+      <c r="E530">
+        <v>1</v>
+      </c>
+      <c r="F530" t="s">
+        <v>13</v>
+      </c>
+      <c r="G530" t="s">
+        <v>546</v>
+      </c>
+      <c r="H530" t="s">
+        <v>12</v>
+      </c>
+      <c r="I530">
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="J530">
+        <v>10.577999999999999</v>
+      </c>
+      <c r="K530">
+        <v>12.659000000000001</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>511</v>
+      </c>
+      <c r="B531">
+        <v>36</v>
+      </c>
+      <c r="C531" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D531">
+        <v>36</v>
+      </c>
+      <c r="E531">
+        <v>2</v>
+      </c>
+      <c r="F531" t="s">
+        <v>10</v>
+      </c>
+      <c r="G531" t="s">
+        <v>547</v>
+      </c>
+      <c r="H531" t="s">
+        <v>12</v>
+      </c>
+      <c r="I531">
+        <v>2.23</v>
+      </c>
+      <c r="J531">
+        <v>3.6240000000000001</v>
+      </c>
+      <c r="K531">
+        <v>8.1159999999999997</v>
+      </c>
+      <c r="L531">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>511</v>
+      </c>
+      <c r="B532">
+        <v>37</v>
+      </c>
+      <c r="C532" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D532">
+        <v>37</v>
+      </c>
+      <c r="E532">
+        <v>1</v>
+      </c>
+      <c r="F532" t="s">
+        <v>13</v>
+      </c>
+      <c r="G532" t="s">
+        <v>548</v>
+      </c>
+      <c r="H532" t="s">
+        <v>12</v>
+      </c>
+      <c r="I532">
+        <v>4.6260000000000003</v>
+      </c>
+      <c r="J532">
+        <v>8.0329999999999995</v>
+      </c>
+      <c r="K532">
+        <v>12.606</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>511</v>
+      </c>
+      <c r="B533">
+        <v>38</v>
+      </c>
+      <c r="C533" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D533">
+        <v>38</v>
+      </c>
+      <c r="E533">
+        <v>2</v>
+      </c>
+      <c r="F533" t="s">
+        <v>10</v>
+      </c>
+      <c r="G533" t="s">
+        <v>549</v>
+      </c>
+      <c r="H533" t="s">
+        <v>12</v>
+      </c>
+      <c r="I533">
+        <v>2.573</v>
+      </c>
+      <c r="J533">
+        <v>6.8959999999999999</v>
+      </c>
+      <c r="K533">
+        <v>9.593</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>511</v>
+      </c>
+      <c r="B534">
+        <v>39</v>
+      </c>
+      <c r="C534" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D534">
+        <v>39</v>
+      </c>
+      <c r="E534">
+        <v>1</v>
+      </c>
+      <c r="F534" t="s">
+        <v>13</v>
+      </c>
+      <c r="G534" t="s">
+        <v>550</v>
+      </c>
+      <c r="H534" t="s">
+        <v>12</v>
+      </c>
+      <c r="I534">
+        <v>4.7329999999999997</v>
+      </c>
+      <c r="J534">
+        <v>8.0510000000000002</v>
+      </c>
+      <c r="K534">
+        <v>12.545999999999999</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>511</v>
+      </c>
+      <c r="B535">
+        <v>40</v>
+      </c>
+      <c r="C535" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D535">
+        <v>40</v>
+      </c>
+      <c r="E535">
+        <v>2</v>
+      </c>
+      <c r="F535" t="s">
+        <v>10</v>
+      </c>
+      <c r="G535" t="s">
+        <v>551</v>
+      </c>
+      <c r="H535" t="s">
+        <v>12</v>
+      </c>
+      <c r="I535">
+        <v>4.3209999999999997</v>
+      </c>
+      <c r="J535">
+        <v>7.73</v>
+      </c>
+      <c r="K535">
+        <v>10.43</v>
+      </c>
+      <c r="L535">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>511</v>
+      </c>
+      <c r="B536">
+        <v>41</v>
+      </c>
+      <c r="C536" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D536">
+        <v>41</v>
+      </c>
+      <c r="E536">
+        <v>1</v>
+      </c>
+      <c r="F536" t="s">
+        <v>13</v>
+      </c>
+      <c r="G536" t="s">
+        <v>552</v>
+      </c>
+      <c r="H536" t="s">
+        <v>12</v>
+      </c>
+      <c r="I536">
+        <v>3.6930000000000001</v>
+      </c>
+      <c r="J536">
+        <v>7.1550000000000002</v>
+      </c>
+      <c r="K536">
+        <v>8.9979999999999993</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>511</v>
+      </c>
+      <c r="B537">
+        <v>42</v>
+      </c>
+      <c r="C537" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D537">
+        <v>42</v>
+      </c>
+      <c r="E537">
+        <v>2</v>
+      </c>
+      <c r="F537" t="s">
+        <v>10</v>
+      </c>
+      <c r="G537" t="s">
+        <v>553</v>
+      </c>
+      <c r="H537" t="s">
+        <v>12</v>
+      </c>
+      <c r="I537">
+        <v>5.726</v>
+      </c>
+      <c r="J537">
+        <v>7.7229999999999999</v>
+      </c>
+      <c r="K537">
+        <v>11.971</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>511</v>
+      </c>
+      <c r="B538">
+        <v>43</v>
+      </c>
+      <c r="C538" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D538">
+        <v>43</v>
+      </c>
+      <c r="E538">
+        <v>1</v>
+      </c>
+      <c r="F538" t="s">
+        <v>13</v>
+      </c>
+      <c r="G538" t="s">
+        <v>554</v>
+      </c>
+      <c r="H538" t="s">
+        <v>12</v>
+      </c>
+      <c r="I538">
+        <v>4.6230000000000002</v>
+      </c>
+      <c r="J538">
+        <v>7.55</v>
+      </c>
+      <c r="K538">
+        <v>10.872</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>511</v>
+      </c>
+      <c r="B539">
+        <v>44</v>
+      </c>
+      <c r="C539" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D539">
+        <v>44</v>
+      </c>
+      <c r="E539">
+        <v>2</v>
+      </c>
+      <c r="F539" t="s">
+        <v>10</v>
+      </c>
+      <c r="G539" t="s">
+        <v>555</v>
+      </c>
+      <c r="H539" t="s">
+        <v>12</v>
+      </c>
+      <c r="I539">
+        <v>3.7</v>
+      </c>
+      <c r="J539">
+        <v>7.1029999999999998</v>
+      </c>
+      <c r="K539">
+        <v>12.534000000000001</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>511</v>
+      </c>
+      <c r="B540">
+        <v>45</v>
+      </c>
+      <c r="C540" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D540">
+        <v>45</v>
+      </c>
+      <c r="E540">
+        <v>1</v>
+      </c>
+      <c r="F540" t="s">
+        <v>13</v>
+      </c>
+      <c r="G540" t="s">
+        <v>556</v>
+      </c>
+      <c r="H540" t="s">
+        <v>12</v>
+      </c>
+      <c r="I540">
+        <v>2.9329999999999998</v>
+      </c>
+      <c r="J540">
+        <v>6.101</v>
+      </c>
+      <c r="K540">
+        <v>12.589</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>511</v>
+      </c>
+      <c r="B541">
+        <v>46</v>
+      </c>
+      <c r="C541" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D541">
+        <v>46</v>
+      </c>
+      <c r="E541">
+        <v>2</v>
+      </c>
+      <c r="F541" t="s">
+        <v>10</v>
+      </c>
+      <c r="G541" t="s">
+        <v>557</v>
+      </c>
+      <c r="H541" t="s">
+        <v>12</v>
+      </c>
+      <c r="I541">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="J541">
+        <v>6.3410000000000002</v>
+      </c>
+      <c r="K541">
+        <v>11.749000000000001</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>511</v>
+      </c>
+      <c r="B542">
+        <v>47</v>
+      </c>
+      <c r="C542" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D542">
+        <v>47</v>
+      </c>
+      <c r="E542">
+        <v>1</v>
+      </c>
+      <c r="F542" t="s">
+        <v>13</v>
+      </c>
+      <c r="G542" t="s">
+        <v>558</v>
+      </c>
+      <c r="H542" t="s">
+        <v>12</v>
+      </c>
+      <c r="I542">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="J542">
+        <v>9.4350000000000005</v>
+      </c>
+      <c r="K542">
+        <v>11.435</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>511</v>
+      </c>
+      <c r="B543">
+        <v>48</v>
+      </c>
+      <c r="C543" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D543">
+        <v>48</v>
+      </c>
+      <c r="E543">
+        <v>2</v>
+      </c>
+      <c r="F543" t="s">
+        <v>10</v>
+      </c>
+      <c r="G543" t="s">
+        <v>559</v>
+      </c>
+      <c r="H543" t="s">
+        <v>12</v>
+      </c>
+      <c r="I543">
+        <v>3.3149999999999999</v>
+      </c>
+      <c r="J543">
+        <v>6.09</v>
+      </c>
+      <c r="K543">
+        <v>11.73</v>
       </c>
     </row>
   </sheetData>

--- a/data/fNIRSandGerbils.xlsx
+++ b/data/fNIRSandGerbils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benri\Documents\GitHub\fNIRSandGerbils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57DBB56-46AE-4821-839B-271C04BC5179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727D8831-C39F-4ED9-9786-51ADEF9E6F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="609">
   <si>
     <t>S</t>
   </si>
@@ -1716,6 +1716,153 @@
   </si>
   <si>
     <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot2\unscrambled\9_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>nooverlappilot3</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\10_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\13_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\11_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\17_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\12_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\20_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\14_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\22_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\15_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\23_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\16_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\26_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\18_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\33_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\19_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\35_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\1_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\36_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\21_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\38_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\24_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\39_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\25_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\3_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\27_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\40_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\28_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\41_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\29_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\42_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\2_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\44_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\30_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\45_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\31_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\46_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\32_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\47_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\34_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\48_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\37_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\6_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\43_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\7_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\4_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\8_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\scrambled\5_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\9_unscrambled.wav</t>
   </si>
 </sst>
 </file>
@@ -2068,14 +2215,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E945CDA-0894-470B-A916-C9F7C84C6ED4}">
-  <dimension ref="A1:M543"/>
+  <dimension ref="A1:M591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="F455" sqref="F455"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="A564" sqref="A564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="104" customWidth="1"/>
   </cols>
@@ -21413,6 +21561,1710 @@
         <v>11.73</v>
       </c>
     </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>560</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+      <c r="C544" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="E544">
+        <v>1</v>
+      </c>
+      <c r="F544" t="s">
+        <v>13</v>
+      </c>
+      <c r="G544" t="s">
+        <v>561</v>
+      </c>
+      <c r="H544" t="s">
+        <v>12</v>
+      </c>
+      <c r="I544">
+        <v>2.6429999999999998</v>
+      </c>
+      <c r="J544">
+        <v>8.625</v>
+      </c>
+      <c r="K544">
+        <v>11.064</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>560</v>
+      </c>
+      <c r="B545">
+        <v>2</v>
+      </c>
+      <c r="C545" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D545">
+        <v>2</v>
+      </c>
+      <c r="E545">
+        <v>2</v>
+      </c>
+      <c r="F545" t="s">
+        <v>10</v>
+      </c>
+      <c r="G545" t="s">
+        <v>562</v>
+      </c>
+      <c r="H545" t="s">
+        <v>12</v>
+      </c>
+      <c r="I545">
+        <v>3.2549999999999999</v>
+      </c>
+      <c r="J545">
+        <v>8.1120000000000001</v>
+      </c>
+      <c r="K545">
+        <v>13.46</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>560</v>
+      </c>
+      <c r="B546">
+        <v>3</v>
+      </c>
+      <c r="C546" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D546">
+        <v>3</v>
+      </c>
+      <c r="E546">
+        <v>1</v>
+      </c>
+      <c r="F546" t="s">
+        <v>13</v>
+      </c>
+      <c r="G546" t="s">
+        <v>563</v>
+      </c>
+      <c r="H546" t="s">
+        <v>12</v>
+      </c>
+      <c r="I546">
+        <v>3.5640000000000001</v>
+      </c>
+      <c r="J546">
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="K546">
+        <v>8.0950000000000006</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>560</v>
+      </c>
+      <c r="B547">
+        <v>4</v>
+      </c>
+      <c r="C547" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D547">
+        <v>4</v>
+      </c>
+      <c r="E547">
+        <v>2</v>
+      </c>
+      <c r="F547" t="s">
+        <v>10</v>
+      </c>
+      <c r="G547" t="s">
+        <v>564</v>
+      </c>
+      <c r="H547" t="s">
+        <v>12</v>
+      </c>
+      <c r="I547">
+        <v>5.0830000000000002</v>
+      </c>
+      <c r="J547">
+        <v>8.234</v>
+      </c>
+      <c r="K547">
+        <v>13.116</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>560</v>
+      </c>
+      <c r="B548">
+        <v>5</v>
+      </c>
+      <c r="C548" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D548">
+        <v>5</v>
+      </c>
+      <c r="E548">
+        <v>1</v>
+      </c>
+      <c r="F548" t="s">
+        <v>13</v>
+      </c>
+      <c r="G548" t="s">
+        <v>565</v>
+      </c>
+      <c r="H548" t="s">
+        <v>12</v>
+      </c>
+      <c r="I548">
+        <v>6.1059999999999999</v>
+      </c>
+      <c r="J548">
+        <v>8.1159999999999997</v>
+      </c>
+      <c r="K548">
+        <v>11.097</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>560</v>
+      </c>
+      <c r="B549">
+        <v>6</v>
+      </c>
+      <c r="C549" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D549">
+        <v>6</v>
+      </c>
+      <c r="E549">
+        <v>2</v>
+      </c>
+      <c r="F549" t="s">
+        <v>10</v>
+      </c>
+      <c r="G549" t="s">
+        <v>566</v>
+      </c>
+      <c r="H549" t="s">
+        <v>12</v>
+      </c>
+      <c r="I549">
+        <v>2.02</v>
+      </c>
+      <c r="J549">
+        <v>10.084</v>
+      </c>
+      <c r="K549">
+        <v>13.202</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>560</v>
+      </c>
+      <c r="B550">
+        <v>7</v>
+      </c>
+      <c r="C550" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D550">
+        <v>7</v>
+      </c>
+      <c r="E550">
+        <v>1</v>
+      </c>
+      <c r="F550" t="s">
+        <v>13</v>
+      </c>
+      <c r="G550" t="s">
+        <v>567</v>
+      </c>
+      <c r="H550" t="s">
+        <v>12</v>
+      </c>
+      <c r="I550">
+        <v>3.121</v>
+      </c>
+      <c r="J550">
+        <v>6.0990000000000002</v>
+      </c>
+      <c r="K550">
+        <v>9.0519999999999996</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>560</v>
+      </c>
+      <c r="B551">
+        <v>8</v>
+      </c>
+      <c r="C551" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D551">
+        <v>8</v>
+      </c>
+      <c r="E551">
+        <v>2</v>
+      </c>
+      <c r="F551" t="s">
+        <v>10</v>
+      </c>
+      <c r="G551" t="s">
+        <v>568</v>
+      </c>
+      <c r="H551" t="s">
+        <v>12</v>
+      </c>
+      <c r="I551">
+        <v>2.15</v>
+      </c>
+      <c r="J551">
+        <v>6.101</v>
+      </c>
+      <c r="K551">
+        <v>12.124000000000001</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>560</v>
+      </c>
+      <c r="B552">
+        <v>9</v>
+      </c>
+      <c r="C552" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D552">
+        <v>9</v>
+      </c>
+      <c r="E552">
+        <v>1</v>
+      </c>
+      <c r="F552" t="s">
+        <v>13</v>
+      </c>
+      <c r="G552" t="s">
+        <v>569</v>
+      </c>
+      <c r="H552" t="s">
+        <v>12</v>
+      </c>
+      <c r="I552">
+        <v>5.62</v>
+      </c>
+      <c r="J552">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="K552">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>560</v>
+      </c>
+      <c r="B553">
+        <v>10</v>
+      </c>
+      <c r="C553" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D553">
+        <v>10</v>
+      </c>
+      <c r="E553">
+        <v>2</v>
+      </c>
+      <c r="F553" t="s">
+        <v>10</v>
+      </c>
+      <c r="G553" t="s">
+        <v>570</v>
+      </c>
+      <c r="H553" t="s">
+        <v>12</v>
+      </c>
+      <c r="I553">
+        <v>2.0939999999999999</v>
+      </c>
+      <c r="J553">
+        <v>7.6749999999999998</v>
+      </c>
+      <c r="K553">
+        <v>10.625</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>560</v>
+      </c>
+      <c r="B554">
+        <v>11</v>
+      </c>
+      <c r="C554" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D554">
+        <v>11</v>
+      </c>
+      <c r="E554">
+        <v>1</v>
+      </c>
+      <c r="F554" t="s">
+        <v>13</v>
+      </c>
+      <c r="G554" t="s">
+        <v>571</v>
+      </c>
+      <c r="H554" t="s">
+        <v>12</v>
+      </c>
+      <c r="I554">
+        <v>5.0910000000000002</v>
+      </c>
+      <c r="J554">
+        <v>8.1370000000000005</v>
+      </c>
+      <c r="K554">
+        <v>10.054</v>
+      </c>
+      <c r="L554">
+        <v>12.571999999999999</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>560</v>
+      </c>
+      <c r="B555">
+        <v>12</v>
+      </c>
+      <c r="C555" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D555">
+        <v>12</v>
+      </c>
+      <c r="E555">
+        <v>2</v>
+      </c>
+      <c r="F555" t="s">
+        <v>10</v>
+      </c>
+      <c r="G555" t="s">
+        <v>572</v>
+      </c>
+      <c r="H555" t="s">
+        <v>12</v>
+      </c>
+      <c r="I555">
+        <v>2.181</v>
+      </c>
+      <c r="J555">
+        <v>7.593</v>
+      </c>
+      <c r="K555">
+        <v>9.7929999999999993</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>560</v>
+      </c>
+      <c r="B556">
+        <v>13</v>
+      </c>
+      <c r="C556" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D556">
+        <v>13</v>
+      </c>
+      <c r="E556">
+        <v>1</v>
+      </c>
+      <c r="F556" t="s">
+        <v>13</v>
+      </c>
+      <c r="G556" t="s">
+        <v>573</v>
+      </c>
+      <c r="H556" t="s">
+        <v>12</v>
+      </c>
+      <c r="I556">
+        <v>2.101</v>
+      </c>
+      <c r="J556">
+        <v>6.5490000000000004</v>
+      </c>
+      <c r="K556">
+        <v>11.105</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>560</v>
+      </c>
+      <c r="B557">
+        <v>14</v>
+      </c>
+      <c r="C557" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D557">
+        <v>14</v>
+      </c>
+      <c r="E557">
+        <v>2</v>
+      </c>
+      <c r="F557" t="s">
+        <v>10</v>
+      </c>
+      <c r="G557" t="s">
+        <v>574</v>
+      </c>
+      <c r="H557" t="s">
+        <v>12</v>
+      </c>
+      <c r="I557">
+        <v>4.6319999999999997</v>
+      </c>
+      <c r="J557">
+        <v>7.19</v>
+      </c>
+      <c r="K557">
+        <v>9.1940000000000008</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>560</v>
+      </c>
+      <c r="B558">
+        <v>15</v>
+      </c>
+      <c r="C558" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D558">
+        <v>15</v>
+      </c>
+      <c r="E558">
+        <v>1</v>
+      </c>
+      <c r="F558" t="s">
+        <v>13</v>
+      </c>
+      <c r="G558" t="s">
+        <v>575</v>
+      </c>
+      <c r="H558" t="s">
+        <v>12</v>
+      </c>
+      <c r="I558">
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="J558">
+        <v>7.4359999999999999</v>
+      </c>
+      <c r="K558">
+        <v>9.0869999999999997</v>
+      </c>
+    </row>
+    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>560</v>
+      </c>
+      <c r="B559">
+        <v>16</v>
+      </c>
+      <c r="C559" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D559">
+        <v>16</v>
+      </c>
+      <c r="E559">
+        <v>2</v>
+      </c>
+      <c r="F559" t="s">
+        <v>10</v>
+      </c>
+      <c r="G559" t="s">
+        <v>576</v>
+      </c>
+      <c r="H559" t="s">
+        <v>12</v>
+      </c>
+      <c r="I559">
+        <v>7.0979999999999999</v>
+      </c>
+      <c r="J559">
+        <v>9.548</v>
+      </c>
+      <c r="K559">
+        <v>12.555999999999999</v>
+      </c>
+    </row>
+    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>560</v>
+      </c>
+      <c r="B560">
+        <v>17</v>
+      </c>
+      <c r="C560" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D560">
+        <v>17</v>
+      </c>
+      <c r="E560">
+        <v>1</v>
+      </c>
+      <c r="F560" t="s">
+        <v>13</v>
+      </c>
+      <c r="G560" t="s">
+        <v>577</v>
+      </c>
+      <c r="H560" t="s">
+        <v>12</v>
+      </c>
+      <c r="I560">
+        <v>4.6829999999999998</v>
+      </c>
+      <c r="J560">
+        <v>7.1040000000000001</v>
+      </c>
+      <c r="K560">
+        <v>12.022</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>560</v>
+      </c>
+      <c r="B561">
+        <v>18</v>
+      </c>
+      <c r="C561" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D561">
+        <v>18</v>
+      </c>
+      <c r="E561">
+        <v>2</v>
+      </c>
+      <c r="F561" t="s">
+        <v>10</v>
+      </c>
+      <c r="G561" t="s">
+        <v>578</v>
+      </c>
+      <c r="H561" t="s">
+        <v>12</v>
+      </c>
+      <c r="I561">
+        <v>2.7</v>
+      </c>
+      <c r="J561">
+        <v>5.149</v>
+      </c>
+      <c r="K561">
+        <v>10.618</v>
+      </c>
+      <c r="L561">
+        <v>12.561999999999999</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>19</v>
+      </c>
+      <c r="C562" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D562">
+        <v>19</v>
+      </c>
+      <c r="E562">
+        <v>1</v>
+      </c>
+      <c r="F562" t="s">
+        <v>13</v>
+      </c>
+      <c r="G562" t="s">
+        <v>579</v>
+      </c>
+      <c r="H562" t="s">
+        <v>12</v>
+      </c>
+      <c r="I562">
+        <v>5.1210000000000004</v>
+      </c>
+      <c r="J562">
+        <v>7.1210000000000004</v>
+      </c>
+      <c r="K562">
+        <v>11.606999999999999</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>560</v>
+      </c>
+      <c r="B563">
+        <v>20</v>
+      </c>
+      <c r="C563" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D563">
+        <v>20</v>
+      </c>
+      <c r="E563">
+        <v>2</v>
+      </c>
+      <c r="F563" t="s">
+        <v>10</v>
+      </c>
+      <c r="G563" t="s">
+        <v>580</v>
+      </c>
+      <c r="H563" t="s">
+        <v>12</v>
+      </c>
+      <c r="I563">
+        <v>4.5510000000000002</v>
+      </c>
+      <c r="J563">
+        <v>7.593</v>
+      </c>
+      <c r="K563">
+        <v>10.093999999999999</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>560</v>
+      </c>
+      <c r="B564">
+        <v>21</v>
+      </c>
+      <c r="C564" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D564">
+        <v>21</v>
+      </c>
+      <c r="E564">
+        <v>1</v>
+      </c>
+      <c r="F564" t="s">
+        <v>13</v>
+      </c>
+      <c r="G564" t="s">
+        <v>581</v>
+      </c>
+      <c r="H564" t="s">
+        <v>12</v>
+      </c>
+      <c r="I564">
+        <v>7.1559999999999997</v>
+      </c>
+      <c r="J564">
+        <v>10.590999999999999</v>
+      </c>
+      <c r="K564">
+        <v>12.612</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>560</v>
+      </c>
+      <c r="B565">
+        <v>22</v>
+      </c>
+      <c r="C565" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D565">
+        <v>22</v>
+      </c>
+      <c r="E565">
+        <v>2</v>
+      </c>
+      <c r="F565" t="s">
+        <v>10</v>
+      </c>
+      <c r="G565" t="s">
+        <v>582</v>
+      </c>
+      <c r="H565" t="s">
+        <v>12</v>
+      </c>
+      <c r="I565">
+        <v>4.5650000000000004</v>
+      </c>
+      <c r="J565">
+        <v>7.57</v>
+      </c>
+      <c r="K565">
+        <v>10.122999999999999</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>560</v>
+      </c>
+      <c r="B566">
+        <v>23</v>
+      </c>
+      <c r="C566" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D566">
+        <v>23</v>
+      </c>
+      <c r="E566">
+        <v>1</v>
+      </c>
+      <c r="F566" t="s">
+        <v>13</v>
+      </c>
+      <c r="G566" t="s">
+        <v>583</v>
+      </c>
+      <c r="H566" t="s">
+        <v>12</v>
+      </c>
+      <c r="I566">
+        <v>3.5760000000000001</v>
+      </c>
+      <c r="J566">
+        <v>9.6539999999999999</v>
+      </c>
+      <c r="K566">
+        <v>12.048</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>560</v>
+      </c>
+      <c r="B567">
+        <v>24</v>
+      </c>
+      <c r="C567" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D567">
+        <v>24</v>
+      </c>
+      <c r="E567">
+        <v>2</v>
+      </c>
+      <c r="F567" t="s">
+        <v>10</v>
+      </c>
+      <c r="G567" t="s">
+        <v>584</v>
+      </c>
+      <c r="H567" t="s">
+        <v>12</v>
+      </c>
+      <c r="I567">
+        <v>7.6879999999999997</v>
+      </c>
+      <c r="J567">
+        <v>10.129</v>
+      </c>
+      <c r="K567">
+        <v>12.079000000000001</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>560</v>
+      </c>
+      <c r="B568">
+        <v>25</v>
+      </c>
+      <c r="C568" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D568">
+        <v>25</v>
+      </c>
+      <c r="E568">
+        <v>1</v>
+      </c>
+      <c r="F568" t="s">
+        <v>13</v>
+      </c>
+      <c r="G568" t="s">
+        <v>585</v>
+      </c>
+      <c r="H568" t="s">
+        <v>12</v>
+      </c>
+      <c r="I568">
+        <v>3.4830000000000001</v>
+      </c>
+      <c r="J568">
+        <v>7.593</v>
+      </c>
+      <c r="K568">
+        <v>11.595000000000001</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>560</v>
+      </c>
+      <c r="B569">
+        <v>26</v>
+      </c>
+      <c r="C569" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D569">
+        <v>26</v>
+      </c>
+      <c r="E569">
+        <v>2</v>
+      </c>
+      <c r="F569" t="s">
+        <v>10</v>
+      </c>
+      <c r="G569" t="s">
+        <v>586</v>
+      </c>
+      <c r="H569" t="s">
+        <v>12</v>
+      </c>
+      <c r="I569">
+        <v>3.0430000000000001</v>
+      </c>
+      <c r="J569">
+        <v>10.754</v>
+      </c>
+      <c r="K569">
+        <v>13.286</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>560</v>
+      </c>
+      <c r="B570">
+        <v>27</v>
+      </c>
+      <c r="C570" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D570">
+        <v>27</v>
+      </c>
+      <c r="E570">
+        <v>1</v>
+      </c>
+      <c r="F570" t="s">
+        <v>13</v>
+      </c>
+      <c r="G570" t="s">
+        <v>587</v>
+      </c>
+      <c r="H570" t="s">
+        <v>12</v>
+      </c>
+      <c r="I570">
+        <v>7.62</v>
+      </c>
+      <c r="J570">
+        <v>9.5589999999999993</v>
+      </c>
+      <c r="K570">
+        <v>12.611000000000001</v>
+      </c>
+    </row>
+    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>560</v>
+      </c>
+      <c r="B571">
+        <v>28</v>
+      </c>
+      <c r="C571" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D571">
+        <v>28</v>
+      </c>
+      <c r="E571">
+        <v>2</v>
+      </c>
+      <c r="F571" t="s">
+        <v>10</v>
+      </c>
+      <c r="G571" t="s">
+        <v>588</v>
+      </c>
+      <c r="H571" t="s">
+        <v>12</v>
+      </c>
+      <c r="I571">
+        <v>6.2110000000000003</v>
+      </c>
+      <c r="J571">
+        <v>10.452</v>
+      </c>
+      <c r="K571">
+        <v>13.231</v>
+      </c>
+    </row>
+    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>560</v>
+      </c>
+      <c r="B572">
+        <v>29</v>
+      </c>
+      <c r="C572" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D572">
+        <v>29</v>
+      </c>
+      <c r="E572">
+        <v>1</v>
+      </c>
+      <c r="F572" t="s">
+        <v>13</v>
+      </c>
+      <c r="G572" t="s">
+        <v>589</v>
+      </c>
+      <c r="H572" t="s">
+        <v>12</v>
+      </c>
+      <c r="I572">
+        <v>3.0760000000000001</v>
+      </c>
+      <c r="J572">
+        <v>5.585</v>
+      </c>
+      <c r="K572">
+        <v>10.086</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>560</v>
+      </c>
+      <c r="B573">
+        <v>30</v>
+      </c>
+      <c r="C573" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D573">
+        <v>30</v>
+      </c>
+      <c r="E573">
+        <v>2</v>
+      </c>
+      <c r="F573" t="s">
+        <v>10</v>
+      </c>
+      <c r="G573" t="s">
+        <v>590</v>
+      </c>
+      <c r="H573" t="s">
+        <v>12</v>
+      </c>
+      <c r="I573">
+        <v>2.609</v>
+      </c>
+      <c r="J573">
+        <v>4.8369999999999997</v>
+      </c>
+      <c r="K573">
+        <v>7.109</v>
+      </c>
+      <c r="L573">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>560</v>
+      </c>
+      <c r="B574">
+        <v>31</v>
+      </c>
+      <c r="C574" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D574">
+        <v>31</v>
+      </c>
+      <c r="E574">
+        <v>1</v>
+      </c>
+      <c r="F574" t="s">
+        <v>13</v>
+      </c>
+      <c r="G574" t="s">
+        <v>591</v>
+      </c>
+      <c r="H574" t="s">
+        <v>12</v>
+      </c>
+      <c r="I574">
+        <v>3.125</v>
+      </c>
+      <c r="J574">
+        <v>7.5789999999999997</v>
+      </c>
+      <c r="K574">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>560</v>
+      </c>
+      <c r="B575">
+        <v>32</v>
+      </c>
+      <c r="C575" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D575">
+        <v>32</v>
+      </c>
+      <c r="E575">
+        <v>2</v>
+      </c>
+      <c r="F575" t="s">
+        <v>10</v>
+      </c>
+      <c r="G575" t="s">
+        <v>592</v>
+      </c>
+      <c r="H575" t="s">
+        <v>12</v>
+      </c>
+      <c r="I575">
+        <v>3.613</v>
+      </c>
+      <c r="J575">
+        <v>7.5519999999999996</v>
+      </c>
+      <c r="K575">
+        <v>9.0449999999999999</v>
+      </c>
+      <c r="L575">
+        <v>11.196</v>
+      </c>
+    </row>
+    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>560</v>
+      </c>
+      <c r="B576">
+        <v>33</v>
+      </c>
+      <c r="C576" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D576">
+        <v>33</v>
+      </c>
+      <c r="E576">
+        <v>1</v>
+      </c>
+      <c r="F576" t="s">
+        <v>13</v>
+      </c>
+      <c r="G576" t="s">
+        <v>593</v>
+      </c>
+      <c r="H576" t="s">
+        <v>12</v>
+      </c>
+      <c r="I576">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="J576">
+        <v>10.083</v>
+      </c>
+      <c r="K576">
+        <v>12.093999999999999</v>
+      </c>
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>560</v>
+      </c>
+      <c r="B577">
+        <v>34</v>
+      </c>
+      <c r="C577" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D577">
+        <v>34</v>
+      </c>
+      <c r="E577">
+        <v>2</v>
+      </c>
+      <c r="F577" t="s">
+        <v>10</v>
+      </c>
+      <c r="G577" t="s">
+        <v>594</v>
+      </c>
+      <c r="H577" t="s">
+        <v>12</v>
+      </c>
+      <c r="I577">
+        <v>5.7539999999999996</v>
+      </c>
+      <c r="J577">
+        <v>10.180999999999999</v>
+      </c>
+      <c r="K577">
+        <v>13.222</v>
+      </c>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>560</v>
+      </c>
+      <c r="B578">
+        <v>35</v>
+      </c>
+      <c r="C578" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D578">
+        <v>35</v>
+      </c>
+      <c r="E578">
+        <v>1</v>
+      </c>
+      <c r="F578" t="s">
+        <v>13</v>
+      </c>
+      <c r="G578" t="s">
+        <v>595</v>
+      </c>
+      <c r="H578" t="s">
+        <v>12</v>
+      </c>
+      <c r="I578">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="J578">
+        <v>10.6</v>
+      </c>
+      <c r="K578">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>560</v>
+      </c>
+      <c r="B579">
+        <v>36</v>
+      </c>
+      <c r="C579" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D579">
+        <v>36</v>
+      </c>
+      <c r="E579">
+        <v>2</v>
+      </c>
+      <c r="F579" t="s">
+        <v>10</v>
+      </c>
+      <c r="G579" t="s">
+        <v>596</v>
+      </c>
+      <c r="H579" t="s">
+        <v>12</v>
+      </c>
+      <c r="I579">
+        <v>3.5939999999999999</v>
+      </c>
+      <c r="J579">
+        <v>5.2640000000000002</v>
+      </c>
+      <c r="K579">
+        <v>8.1639999999999997</v>
+      </c>
+      <c r="L579">
+        <v>10.234</v>
+      </c>
+      <c r="M579">
+        <v>14.336</v>
+      </c>
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>560</v>
+      </c>
+      <c r="B580">
+        <v>37</v>
+      </c>
+      <c r="C580" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D580">
+        <v>37</v>
+      </c>
+      <c r="E580">
+        <v>1</v>
+      </c>
+      <c r="F580" t="s">
+        <v>13</v>
+      </c>
+      <c r="G580" t="s">
+        <v>597</v>
+      </c>
+      <c r="H580" t="s">
+        <v>12</v>
+      </c>
+      <c r="I580">
+        <v>4.6580000000000004</v>
+      </c>
+      <c r="J580">
+        <v>8.1389999999999993</v>
+      </c>
+      <c r="K580">
+        <v>12.769</v>
+      </c>
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>560</v>
+      </c>
+      <c r="B581">
+        <v>38</v>
+      </c>
+      <c r="C581" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D581">
+        <v>38</v>
+      </c>
+      <c r="E581">
+        <v>2</v>
+      </c>
+      <c r="F581" t="s">
+        <v>10</v>
+      </c>
+      <c r="G581" t="s">
+        <v>598</v>
+      </c>
+      <c r="H581" t="s">
+        <v>12</v>
+      </c>
+      <c r="I581">
+        <v>3.056</v>
+      </c>
+      <c r="J581">
+        <v>6.7510000000000003</v>
+      </c>
+      <c r="K581">
+        <v>9.702</v>
+      </c>
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>560</v>
+      </c>
+      <c r="B582">
+        <v>39</v>
+      </c>
+      <c r="C582" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D582">
+        <v>39</v>
+      </c>
+      <c r="E582">
+        <v>1</v>
+      </c>
+      <c r="F582" t="s">
+        <v>13</v>
+      </c>
+      <c r="G582" t="s">
+        <v>599</v>
+      </c>
+      <c r="H582" t="s">
+        <v>12</v>
+      </c>
+      <c r="I582">
+        <v>4.8460000000000001</v>
+      </c>
+      <c r="J582">
+        <v>8.298</v>
+      </c>
+      <c r="K582">
+        <v>12.615</v>
+      </c>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>560</v>
+      </c>
+      <c r="B583">
+        <v>40</v>
+      </c>
+      <c r="C583" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D583">
+        <v>40</v>
+      </c>
+      <c r="E583">
+        <v>2</v>
+      </c>
+      <c r="F583" t="s">
+        <v>10</v>
+      </c>
+      <c r="G583" t="s">
+        <v>600</v>
+      </c>
+      <c r="H583" t="s">
+        <v>12</v>
+      </c>
+      <c r="I583">
+        <v>4.032</v>
+      </c>
+      <c r="J583">
+        <v>10.821999999999999</v>
+      </c>
+      <c r="K583">
+        <v>13.236000000000001</v>
+      </c>
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>560</v>
+      </c>
+      <c r="B584">
+        <v>41</v>
+      </c>
+      <c r="C584" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D584">
+        <v>41</v>
+      </c>
+      <c r="E584">
+        <v>1</v>
+      </c>
+      <c r="F584" t="s">
+        <v>13</v>
+      </c>
+      <c r="G584" t="s">
+        <v>601</v>
+      </c>
+      <c r="H584" t="s">
+        <v>12</v>
+      </c>
+      <c r="I584">
+        <v>3.6909999999999998</v>
+      </c>
+      <c r="J584">
+        <v>7.1269999999999998</v>
+      </c>
+      <c r="K584">
+        <v>9.1880000000000006</v>
+      </c>
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>560</v>
+      </c>
+      <c r="B585">
+        <v>42</v>
+      </c>
+      <c r="C585" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D585">
+        <v>42</v>
+      </c>
+      <c r="E585">
+        <v>2</v>
+      </c>
+      <c r="F585" t="s">
+        <v>10</v>
+      </c>
+      <c r="G585" t="s">
+        <v>602</v>
+      </c>
+      <c r="H585" t="s">
+        <v>12</v>
+      </c>
+      <c r="I585">
+        <v>5.6879999999999997</v>
+      </c>
+      <c r="J585">
+        <v>7.6790000000000003</v>
+      </c>
+      <c r="K585">
+        <v>9.7189999999999994</v>
+      </c>
+      <c r="L585">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>560</v>
+      </c>
+      <c r="B586">
+        <v>43</v>
+      </c>
+      <c r="C586" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D586">
+        <v>43</v>
+      </c>
+      <c r="E586">
+        <v>1</v>
+      </c>
+      <c r="F586" t="s">
+        <v>13</v>
+      </c>
+      <c r="G586" t="s">
+        <v>603</v>
+      </c>
+      <c r="H586" t="s">
+        <v>12</v>
+      </c>
+      <c r="I586">
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="J586">
+        <v>7.65</v>
+      </c>
+      <c r="K586">
+        <v>10.657</v>
+      </c>
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>560</v>
+      </c>
+      <c r="B587">
+        <v>44</v>
+      </c>
+      <c r="C587" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D587">
+        <v>44</v>
+      </c>
+      <c r="E587">
+        <v>2</v>
+      </c>
+      <c r="F587" t="s">
+        <v>10</v>
+      </c>
+      <c r="G587" t="s">
+        <v>604</v>
+      </c>
+      <c r="H587" t="s">
+        <v>12</v>
+      </c>
+      <c r="I587">
+        <v>3.7320000000000002</v>
+      </c>
+      <c r="J587">
+        <v>7.109</v>
+      </c>
+      <c r="K587">
+        <v>10.180999999999999</v>
+      </c>
+      <c r="L587">
+        <v>12.342000000000001</v>
+      </c>
+    </row>
+    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>560</v>
+      </c>
+      <c r="B588">
+        <v>45</v>
+      </c>
+      <c r="C588" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D588">
+        <v>45</v>
+      </c>
+      <c r="E588">
+        <v>1</v>
+      </c>
+      <c r="F588" t="s">
+        <v>13</v>
+      </c>
+      <c r="G588" t="s">
+        <v>605</v>
+      </c>
+      <c r="H588" t="s">
+        <v>12</v>
+      </c>
+      <c r="I588">
+        <v>2.6</v>
+      </c>
+      <c r="J588">
+        <v>6.0780000000000003</v>
+      </c>
+      <c r="K588">
+        <v>12.551</v>
+      </c>
+    </row>
+    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>560</v>
+      </c>
+      <c r="B589">
+        <v>46</v>
+      </c>
+      <c r="C589" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D589">
+        <v>46</v>
+      </c>
+      <c r="E589">
+        <v>2</v>
+      </c>
+      <c r="F589" t="s">
+        <v>10</v>
+      </c>
+      <c r="G589" t="s">
+        <v>606</v>
+      </c>
+      <c r="H589" t="s">
+        <v>12</v>
+      </c>
+      <c r="I589">
+        <v>4.1289999999999996</v>
+      </c>
+      <c r="J589">
+        <v>6.0789999999999997</v>
+      </c>
+      <c r="K589">
+        <v>11.667</v>
+      </c>
+    </row>
+    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>560</v>
+      </c>
+      <c r="B590">
+        <v>47</v>
+      </c>
+      <c r="C590" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D590">
+        <v>47</v>
+      </c>
+      <c r="E590">
+        <v>1</v>
+      </c>
+      <c r="F590" t="s">
+        <v>13</v>
+      </c>
+      <c r="G590" t="s">
+        <v>607</v>
+      </c>
+      <c r="H590" t="s">
+        <v>12</v>
+      </c>
+      <c r="I590">
+        <v>4.6219999999999999</v>
+      </c>
+      <c r="J590">
+        <v>9.1620000000000008</v>
+      </c>
+      <c r="K590">
+        <v>11.162000000000001</v>
+      </c>
+    </row>
+    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>560</v>
+      </c>
+      <c r="B591">
+        <v>48</v>
+      </c>
+      <c r="C591" s="1">
+        <v>45085</v>
+      </c>
+      <c r="D591">
+        <v>48</v>
+      </c>
+      <c r="E591">
+        <v>2</v>
+      </c>
+      <c r="F591" t="s">
+        <v>10</v>
+      </c>
+      <c r="G591" t="s">
+        <v>608</v>
+      </c>
+      <c r="H591" t="s">
+        <v>12</v>
+      </c>
+      <c r="I591">
+        <v>3.1880000000000002</v>
+      </c>
+      <c r="J591">
+        <v>6.109</v>
+      </c>
+      <c r="K591">
+        <v>11.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fNIRSandGerbils.xlsx
+++ b/data/fNIRSandGerbils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benri\Documents\GitHub\fNIRSandGerbils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727D8831-C39F-4ED9-9786-51ADEF9E6F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3990893F-28F0-4F00-9F1B-D7F9141144F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
+    <workbookView xWindow="1920" yWindow="720" windowWidth="15564" windowHeight="12240" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="753">
   <si>
     <t>S</t>
   </si>
@@ -1863,6 +1863,438 @@
   </si>
   <si>
     <t>D:\Experiments\fNIRSandGerbils\stim\s_nooverlappilot3\unscrambled\9_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\101_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\100_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\103_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\102_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\104_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\105_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\10_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\106_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\110_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\107_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\111_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\108_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\115_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\109_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\116_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\10_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\117_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\112_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\118_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\113_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\11_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\114_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\121_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\119_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\123_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\11_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\127_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\120_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\12_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\122_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\130_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\124_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\132_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\125_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\136_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\126_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\138_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\128_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\13_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\129_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\142_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\131_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\143_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\133_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\17_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\134_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\18_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\135_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\19_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\137_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\1_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\139_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\20_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\140_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\21_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\141_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\22_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\144_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\29_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\14_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\2_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\15_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\30_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\16_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\33_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\1_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\35_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\23_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\36_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\24_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\37_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\25_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\3_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\26_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\40_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\27_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\41_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\28_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\43_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\2_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\44_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\31_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\45_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\32_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\48_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\34_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\49_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\38_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\4_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\39_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\51_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\42_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\54_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\46_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\56_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\47_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\57_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\4_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\58_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\50_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\5_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\52_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\60_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\53_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\61_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\55_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\63_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\59_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\66_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\5_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\68_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\62_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\69_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\64_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\6_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\65_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\72_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\67_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\73_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\6_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\74_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\70_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\75_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\71_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\77_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\76_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\78_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\7_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\79_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\80_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\7_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\82_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\81_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\84_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\83_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\86_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\85_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\87_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\88_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\89_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\8_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\8_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\scrambled\90_scrambled.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\92_unscrambled.wav</t>
   </si>
 </sst>
 </file>
@@ -2215,10 +2647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E945CDA-0894-470B-A916-C9F7C84C6ED4}">
-  <dimension ref="A1:M591"/>
+  <dimension ref="A1:M735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="A564" sqref="A564"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="E604" sqref="E604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23265,6 +23697,5094 @@
         <v>11.58</v>
       </c>
     </row>
+    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>1</v>
+      </c>
+      <c r="B592">
+        <v>1</v>
+      </c>
+      <c r="C592" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D592">
+        <v>1</v>
+      </c>
+      <c r="E592">
+        <v>1</v>
+      </c>
+      <c r="F592" t="s">
+        <v>13</v>
+      </c>
+      <c r="G592" t="s">
+        <v>609</v>
+      </c>
+      <c r="H592" t="s">
+        <v>12</v>
+      </c>
+      <c r="I592">
+        <v>4.6420000000000003</v>
+      </c>
+      <c r="J592">
+        <v>7.1959999999999997</v>
+      </c>
+      <c r="K592">
+        <v>12.066000000000001</v>
+      </c>
+    </row>
+    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>1</v>
+      </c>
+      <c r="B593">
+        <v>2</v>
+      </c>
+      <c r="C593" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D593">
+        <v>2</v>
+      </c>
+      <c r="E593">
+        <v>2</v>
+      </c>
+      <c r="F593" t="s">
+        <v>10</v>
+      </c>
+      <c r="G593" t="s">
+        <v>610</v>
+      </c>
+      <c r="H593" t="s">
+        <v>12</v>
+      </c>
+      <c r="I593">
+        <v>4.726</v>
+      </c>
+      <c r="J593">
+        <v>9.8279999999999994</v>
+      </c>
+      <c r="K593">
+        <v>13.39</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>1</v>
+      </c>
+      <c r="B594">
+        <v>3</v>
+      </c>
+      <c r="C594" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D594">
+        <v>3</v>
+      </c>
+      <c r="E594">
+        <v>1</v>
+      </c>
+      <c r="F594" t="s">
+        <v>13</v>
+      </c>
+      <c r="G594" t="s">
+        <v>611</v>
+      </c>
+      <c r="H594" t="s">
+        <v>12</v>
+      </c>
+      <c r="I594">
+        <v>4.7069999999999999</v>
+      </c>
+      <c r="J594">
+        <v>9.6579999999999995</v>
+      </c>
+      <c r="K594">
+        <v>12.672000000000001</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>1</v>
+      </c>
+      <c r="B595">
+        <v>4</v>
+      </c>
+      <c r="C595" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D595">
+        <v>4</v>
+      </c>
+      <c r="E595">
+        <v>2</v>
+      </c>
+      <c r="F595" t="s">
+        <v>10</v>
+      </c>
+      <c r="G595" t="s">
+        <v>612</v>
+      </c>
+      <c r="H595" t="s">
+        <v>12</v>
+      </c>
+      <c r="I595">
+        <v>2.78</v>
+      </c>
+      <c r="J595">
+        <v>8.1129999999999995</v>
+      </c>
+      <c r="K595">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>1</v>
+      </c>
+      <c r="B596">
+        <v>5</v>
+      </c>
+      <c r="C596" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D596">
+        <v>5</v>
+      </c>
+      <c r="E596">
+        <v>1</v>
+      </c>
+      <c r="F596" t="s">
+        <v>13</v>
+      </c>
+      <c r="G596" t="s">
+        <v>613</v>
+      </c>
+      <c r="H596" t="s">
+        <v>12</v>
+      </c>
+      <c r="I596">
+        <v>5.5720000000000001</v>
+      </c>
+      <c r="J596">
+        <v>9.0459999999999994</v>
+      </c>
+      <c r="K596">
+        <v>13.065</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>1</v>
+      </c>
+      <c r="B597">
+        <v>6</v>
+      </c>
+      <c r="C597" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D597">
+        <v>6</v>
+      </c>
+      <c r="E597">
+        <v>2</v>
+      </c>
+      <c r="F597" t="s">
+        <v>10</v>
+      </c>
+      <c r="G597" t="s">
+        <v>614</v>
+      </c>
+      <c r="H597" t="s">
+        <v>12</v>
+      </c>
+      <c r="I597">
+        <v>3.0150000000000001</v>
+      </c>
+      <c r="J597">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="K597">
+        <v>9.1419999999999995</v>
+      </c>
+      <c r="L597">
+        <v>13.082000000000001</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>1</v>
+      </c>
+      <c r="B598">
+        <v>7</v>
+      </c>
+      <c r="C598" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D598">
+        <v>7</v>
+      </c>
+      <c r="E598">
+        <v>1</v>
+      </c>
+      <c r="F598" t="s">
+        <v>13</v>
+      </c>
+      <c r="G598" t="s">
+        <v>615</v>
+      </c>
+      <c r="H598" t="s">
+        <v>12</v>
+      </c>
+      <c r="I598">
+        <v>2.3170000000000002</v>
+      </c>
+      <c r="J598">
+        <v>4.7329999999999997</v>
+      </c>
+      <c r="K598">
+        <v>11.185</v>
+      </c>
+    </row>
+    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>1</v>
+      </c>
+      <c r="B599">
+        <v>8</v>
+      </c>
+      <c r="C599" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D599">
+        <v>8</v>
+      </c>
+      <c r="E599">
+        <v>2</v>
+      </c>
+      <c r="F599" t="s">
+        <v>10</v>
+      </c>
+      <c r="G599" t="s">
+        <v>616</v>
+      </c>
+      <c r="H599" t="s">
+        <v>12</v>
+      </c>
+      <c r="I599">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="J599">
+        <v>2.7559999999999998</v>
+      </c>
+      <c r="K599">
+        <v>4.76</v>
+      </c>
+      <c r="L599">
+        <v>8.1709999999999994</v>
+      </c>
+      <c r="M599">
+        <v>12.608000000000001</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>1</v>
+      </c>
+      <c r="B600">
+        <v>9</v>
+      </c>
+      <c r="C600" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D600">
+        <v>9</v>
+      </c>
+      <c r="E600">
+        <v>1</v>
+      </c>
+      <c r="F600" t="s">
+        <v>13</v>
+      </c>
+      <c r="G600" t="s">
+        <v>617</v>
+      </c>
+      <c r="H600" t="s">
+        <v>12</v>
+      </c>
+      <c r="I600">
+        <v>2.6920000000000002</v>
+      </c>
+      <c r="J600">
+        <v>5.7160000000000002</v>
+      </c>
+      <c r="K600">
+        <v>10.141999999999999</v>
+      </c>
+      <c r="L600">
+        <v>13.180999999999999</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>1</v>
+      </c>
+      <c r="B601">
+        <v>10</v>
+      </c>
+      <c r="C601" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D601">
+        <v>10</v>
+      </c>
+      <c r="E601">
+        <v>2</v>
+      </c>
+      <c r="F601" t="s">
+        <v>10</v>
+      </c>
+      <c r="G601" t="s">
+        <v>618</v>
+      </c>
+      <c r="H601" t="s">
+        <v>12</v>
+      </c>
+      <c r="I601">
+        <v>6.2640000000000002</v>
+      </c>
+      <c r="J601">
+        <v>10.587</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>1</v>
+      </c>
+      <c r="B602">
+        <v>11</v>
+      </c>
+      <c r="C602" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D602">
+        <v>11</v>
+      </c>
+      <c r="E602">
+        <v>1</v>
+      </c>
+      <c r="F602" t="s">
+        <v>13</v>
+      </c>
+      <c r="G602" t="s">
+        <v>619</v>
+      </c>
+      <c r="H602" t="s">
+        <v>12</v>
+      </c>
+      <c r="I602">
+        <v>4.7359999999999998</v>
+      </c>
+      <c r="J602">
+        <v>7.673</v>
+      </c>
+      <c r="K602">
+        <v>9.5990000000000002</v>
+      </c>
+    </row>
+    <row r="603" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>1</v>
+      </c>
+      <c r="B603">
+        <v>12</v>
+      </c>
+      <c r="C603" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D603">
+        <v>12</v>
+      </c>
+      <c r="E603">
+        <v>2</v>
+      </c>
+      <c r="F603" t="s">
+        <v>10</v>
+      </c>
+      <c r="G603" t="s">
+        <v>620</v>
+      </c>
+      <c r="H603" t="s">
+        <v>12</v>
+      </c>
+      <c r="I603">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="J603">
+        <v>6.0449999999999999</v>
+      </c>
+      <c r="K603">
+        <v>8.1980000000000004</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>1</v>
+      </c>
+      <c r="B604">
+        <v>13</v>
+      </c>
+      <c r="C604" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D604">
+        <v>13</v>
+      </c>
+      <c r="E604">
+        <v>1</v>
+      </c>
+      <c r="F604" t="s">
+        <v>13</v>
+      </c>
+      <c r="G604" t="s">
+        <v>621</v>
+      </c>
+      <c r="H604" t="s">
+        <v>12</v>
+      </c>
+      <c r="I604">
+        <v>4.6449999999999996</v>
+      </c>
+      <c r="J604">
+        <v>7.6529999999999996</v>
+      </c>
+      <c r="K604">
+        <v>11.122999999999999</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>1</v>
+      </c>
+      <c r="B605">
+        <v>14</v>
+      </c>
+      <c r="C605" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D605">
+        <v>14</v>
+      </c>
+      <c r="E605">
+        <v>2</v>
+      </c>
+      <c r="F605" t="s">
+        <v>10</v>
+      </c>
+      <c r="G605" t="s">
+        <v>622</v>
+      </c>
+      <c r="H605" t="s">
+        <v>12</v>
+      </c>
+      <c r="I605">
+        <v>4.7880000000000003</v>
+      </c>
+      <c r="J605">
+        <v>7.7149999999999999</v>
+      </c>
+      <c r="K605">
+        <v>10.257999999999999</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>1</v>
+      </c>
+      <c r="B606">
+        <v>15</v>
+      </c>
+      <c r="C606" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D606">
+        <v>15</v>
+      </c>
+      <c r="E606">
+        <v>1</v>
+      </c>
+      <c r="F606" t="s">
+        <v>13</v>
+      </c>
+      <c r="G606" t="s">
+        <v>623</v>
+      </c>
+      <c r="H606" t="s">
+        <v>12</v>
+      </c>
+      <c r="I606">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="J606">
+        <v>4.3109999999999999</v>
+      </c>
+      <c r="K606">
+        <v>6.085</v>
+      </c>
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>1</v>
+      </c>
+      <c r="B607">
+        <v>16</v>
+      </c>
+      <c r="C607" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D607">
+        <v>16</v>
+      </c>
+      <c r="E607">
+        <v>2</v>
+      </c>
+      <c r="F607" t="s">
+        <v>10</v>
+      </c>
+      <c r="G607" t="s">
+        <v>624</v>
+      </c>
+      <c r="H607" t="s">
+        <v>12</v>
+      </c>
+      <c r="I607">
+        <v>2.7709999999999999</v>
+      </c>
+      <c r="J607">
+        <v>6.2539999999999996</v>
+      </c>
+      <c r="K607">
+        <v>12.082000000000001</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>1</v>
+      </c>
+      <c r="B608">
+        <v>17</v>
+      </c>
+      <c r="C608" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D608">
+        <v>17</v>
+      </c>
+      <c r="E608">
+        <v>1</v>
+      </c>
+      <c r="F608" t="s">
+        <v>13</v>
+      </c>
+      <c r="G608" t="s">
+        <v>625</v>
+      </c>
+      <c r="H608" t="s">
+        <v>12</v>
+      </c>
+      <c r="I608">
+        <v>4.0890000000000004</v>
+      </c>
+      <c r="J608">
+        <v>9.1170000000000009</v>
+      </c>
+      <c r="K608">
+        <v>12.055</v>
+      </c>
+    </row>
+    <row r="609" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>1</v>
+      </c>
+      <c r="B609">
+        <v>18</v>
+      </c>
+      <c r="C609" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D609">
+        <v>18</v>
+      </c>
+      <c r="E609">
+        <v>2</v>
+      </c>
+      <c r="F609" t="s">
+        <v>10</v>
+      </c>
+      <c r="G609" t="s">
+        <v>626</v>
+      </c>
+      <c r="H609" t="s">
+        <v>12</v>
+      </c>
+      <c r="I609">
+        <v>2.851</v>
+      </c>
+      <c r="J609">
+        <v>5.6219999999999999</v>
+      </c>
+      <c r="K609">
+        <v>10.568</v>
+      </c>
+    </row>
+    <row r="610" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>1</v>
+      </c>
+      <c r="B610">
+        <v>19</v>
+      </c>
+      <c r="C610" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D610">
+        <v>19</v>
+      </c>
+      <c r="E610">
+        <v>1</v>
+      </c>
+      <c r="F610" t="s">
+        <v>13</v>
+      </c>
+      <c r="G610" t="s">
+        <v>627</v>
+      </c>
+      <c r="H610" t="s">
+        <v>12</v>
+      </c>
+      <c r="I610">
+        <v>2.31</v>
+      </c>
+      <c r="J610">
+        <v>8.6449999999999996</v>
+      </c>
+    </row>
+    <row r="611" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>1</v>
+      </c>
+      <c r="B611">
+        <v>20</v>
+      </c>
+      <c r="C611" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D611">
+        <v>20</v>
+      </c>
+      <c r="E611">
+        <v>2</v>
+      </c>
+      <c r="F611" t="s">
+        <v>10</v>
+      </c>
+      <c r="G611" t="s">
+        <v>628</v>
+      </c>
+      <c r="H611" t="s">
+        <v>12</v>
+      </c>
+      <c r="I611">
+        <v>3.081</v>
+      </c>
+      <c r="J611">
+        <v>5.6239999999999997</v>
+      </c>
+      <c r="K611">
+        <v>7.6269999999999998</v>
+      </c>
+    </row>
+    <row r="612" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>1</v>
+      </c>
+      <c r="B612">
+        <v>21</v>
+      </c>
+      <c r="C612" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D612">
+        <v>21</v>
+      </c>
+      <c r="E612">
+        <v>1</v>
+      </c>
+      <c r="F612" t="s">
+        <v>13</v>
+      </c>
+      <c r="G612" t="s">
+        <v>629</v>
+      </c>
+      <c r="H612" t="s">
+        <v>12</v>
+      </c>
+      <c r="I612">
+        <v>3.093</v>
+      </c>
+      <c r="J612">
+        <v>6.181</v>
+      </c>
+    </row>
+    <row r="613" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>1</v>
+      </c>
+      <c r="B613">
+        <v>22</v>
+      </c>
+      <c r="C613" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D613">
+        <v>22</v>
+      </c>
+      <c r="E613">
+        <v>2</v>
+      </c>
+      <c r="F613" t="s">
+        <v>10</v>
+      </c>
+      <c r="G613" t="s">
+        <v>630</v>
+      </c>
+      <c r="H613" t="s">
+        <v>12</v>
+      </c>
+      <c r="I613">
+        <v>6.11</v>
+      </c>
+      <c r="J613">
+        <v>8.1150000000000002</v>
+      </c>
+      <c r="K613">
+        <v>12.076000000000001</v>
+      </c>
+    </row>
+    <row r="614" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>1</v>
+      </c>
+      <c r="B614">
+        <v>23</v>
+      </c>
+      <c r="C614" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D614">
+        <v>23</v>
+      </c>
+      <c r="E614">
+        <v>1</v>
+      </c>
+      <c r="F614" t="s">
+        <v>13</v>
+      </c>
+      <c r="G614" t="s">
+        <v>631</v>
+      </c>
+      <c r="H614" t="s">
+        <v>12</v>
+      </c>
+      <c r="I614">
+        <v>3.2410000000000001</v>
+      </c>
+      <c r="J614">
+        <v>7.12</v>
+      </c>
+      <c r="K614">
+        <v>9.6660000000000004</v>
+      </c>
+    </row>
+    <row r="615" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>1</v>
+      </c>
+      <c r="B615">
+        <v>24</v>
+      </c>
+      <c r="C615" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D615">
+        <v>24</v>
+      </c>
+      <c r="E615">
+        <v>2</v>
+      </c>
+      <c r="F615" t="s">
+        <v>10</v>
+      </c>
+      <c r="G615" t="s">
+        <v>632</v>
+      </c>
+      <c r="H615" t="s">
+        <v>12</v>
+      </c>
+      <c r="I615">
+        <v>2.6259999999999999</v>
+      </c>
+      <c r="J615">
+        <v>5.5640000000000001</v>
+      </c>
+      <c r="K615">
+        <v>12.138</v>
+      </c>
+    </row>
+    <row r="616" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>1</v>
+      </c>
+      <c r="B616">
+        <v>25</v>
+      </c>
+      <c r="C616" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D616">
+        <v>25</v>
+      </c>
+      <c r="E616">
+        <v>1</v>
+      </c>
+      <c r="F616" t="s">
+        <v>13</v>
+      </c>
+      <c r="G616" t="s">
+        <v>633</v>
+      </c>
+      <c r="H616" t="s">
+        <v>12</v>
+      </c>
+      <c r="I616">
+        <v>3.6230000000000002</v>
+      </c>
+      <c r="J616">
+        <v>8.0259999999999998</v>
+      </c>
+      <c r="K616">
+        <v>12.598000000000001</v>
+      </c>
+    </row>
+    <row r="617" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>1</v>
+      </c>
+      <c r="B617">
+        <v>26</v>
+      </c>
+      <c r="C617" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D617">
+        <v>26</v>
+      </c>
+      <c r="E617">
+        <v>2</v>
+      </c>
+      <c r="F617" t="s">
+        <v>10</v>
+      </c>
+      <c r="G617" t="s">
+        <v>634</v>
+      </c>
+      <c r="H617" t="s">
+        <v>12</v>
+      </c>
+      <c r="I617">
+        <v>2.448</v>
+      </c>
+      <c r="J617">
+        <v>6.7</v>
+      </c>
+      <c r="K617">
+        <v>12.206</v>
+      </c>
+      <c r="L617">
+        <v>15.141</v>
+      </c>
+    </row>
+    <row r="618" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>1</v>
+      </c>
+      <c r="B618">
+        <v>27</v>
+      </c>
+      <c r="C618" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D618">
+        <v>27</v>
+      </c>
+      <c r="E618">
+        <v>1</v>
+      </c>
+      <c r="F618" t="s">
+        <v>13</v>
+      </c>
+      <c r="G618" t="s">
+        <v>635</v>
+      </c>
+      <c r="H618" t="s">
+        <v>12</v>
+      </c>
+      <c r="I618">
+        <v>3.0920000000000001</v>
+      </c>
+      <c r="J618">
+        <v>6.6689999999999996</v>
+      </c>
+      <c r="K618">
+        <v>9.6869999999999994</v>
+      </c>
+    </row>
+    <row r="619" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>1</v>
+      </c>
+      <c r="B619">
+        <v>28</v>
+      </c>
+      <c r="C619" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D619">
+        <v>28</v>
+      </c>
+      <c r="E619">
+        <v>2</v>
+      </c>
+      <c r="F619" t="s">
+        <v>10</v>
+      </c>
+      <c r="G619" t="s">
+        <v>636</v>
+      </c>
+      <c r="H619" t="s">
+        <v>12</v>
+      </c>
+      <c r="I619">
+        <v>2.3260000000000001</v>
+      </c>
+      <c r="J619">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="K619">
+        <v>8.6440000000000001</v>
+      </c>
+      <c r="L619">
+        <v>11.191000000000001</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>1</v>
+      </c>
+      <c r="B620">
+        <v>29</v>
+      </c>
+      <c r="C620" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D620">
+        <v>29</v>
+      </c>
+      <c r="E620">
+        <v>1</v>
+      </c>
+      <c r="F620" t="s">
+        <v>13</v>
+      </c>
+      <c r="G620" t="s">
+        <v>637</v>
+      </c>
+      <c r="H620" t="s">
+        <v>12</v>
+      </c>
+      <c r="I620">
+        <v>6.0510000000000002</v>
+      </c>
+      <c r="J620">
+        <v>8.1270000000000007</v>
+      </c>
+      <c r="K620">
+        <v>11.605</v>
+      </c>
+    </row>
+    <row r="621" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>1</v>
+      </c>
+      <c r="B621">
+        <v>30</v>
+      </c>
+      <c r="C621" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D621">
+        <v>30</v>
+      </c>
+      <c r="E621">
+        <v>2</v>
+      </c>
+      <c r="F621" t="s">
+        <v>10</v>
+      </c>
+      <c r="G621" t="s">
+        <v>638</v>
+      </c>
+      <c r="H621" t="s">
+        <v>12</v>
+      </c>
+      <c r="I621">
+        <v>3.6360000000000001</v>
+      </c>
+      <c r="J621">
+        <v>7.5940000000000003</v>
+      </c>
+      <c r="K621">
+        <v>9.6929999999999996</v>
+      </c>
+    </row>
+    <row r="622" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>1</v>
+      </c>
+      <c r="B622">
+        <v>31</v>
+      </c>
+      <c r="C622" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D622">
+        <v>31</v>
+      </c>
+      <c r="E622">
+        <v>1</v>
+      </c>
+      <c r="F622" t="s">
+        <v>13</v>
+      </c>
+      <c r="G622" t="s">
+        <v>639</v>
+      </c>
+      <c r="H622" t="s">
+        <v>12</v>
+      </c>
+      <c r="I622">
+        <v>3.5590000000000002</v>
+      </c>
+      <c r="J622">
+        <v>10.138999999999999</v>
+      </c>
+      <c r="K622">
+        <v>13.148999999999999</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>1</v>
+      </c>
+      <c r="B623">
+        <v>32</v>
+      </c>
+      <c r="C623" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D623">
+        <v>32</v>
+      </c>
+      <c r="E623">
+        <v>2</v>
+      </c>
+      <c r="F623" t="s">
+        <v>10</v>
+      </c>
+      <c r="G623" t="s">
+        <v>640</v>
+      </c>
+      <c r="H623" t="s">
+        <v>12</v>
+      </c>
+      <c r="I623">
+        <v>5.6639999999999997</v>
+      </c>
+      <c r="J623">
+        <v>7.7640000000000002</v>
+      </c>
+    </row>
+    <row r="624" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>1</v>
+      </c>
+      <c r="B624">
+        <v>33</v>
+      </c>
+      <c r="C624" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D624">
+        <v>33</v>
+      </c>
+      <c r="E624">
+        <v>1</v>
+      </c>
+      <c r="F624" t="s">
+        <v>13</v>
+      </c>
+      <c r="G624" t="s">
+        <v>641</v>
+      </c>
+      <c r="H624" t="s">
+        <v>12</v>
+      </c>
+      <c r="I624">
+        <v>5.5730000000000004</v>
+      </c>
+      <c r="J624">
+        <v>9.5960000000000001</v>
+      </c>
+      <c r="K624">
+        <v>13.250999999999999</v>
+      </c>
+    </row>
+    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>1</v>
+      </c>
+      <c r="B625">
+        <v>34</v>
+      </c>
+      <c r="C625" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D625">
+        <v>34</v>
+      </c>
+      <c r="E625">
+        <v>2</v>
+      </c>
+      <c r="F625" t="s">
+        <v>10</v>
+      </c>
+      <c r="G625" t="s">
+        <v>642</v>
+      </c>
+      <c r="H625" t="s">
+        <v>12</v>
+      </c>
+      <c r="I625">
+        <v>7.1479999999999997</v>
+      </c>
+      <c r="J625">
+        <v>9.6159999999999997</v>
+      </c>
+      <c r="K625">
+        <v>12.702999999999999</v>
+      </c>
+    </row>
+    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>1</v>
+      </c>
+      <c r="B626">
+        <v>35</v>
+      </c>
+      <c r="C626" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D626">
+        <v>35</v>
+      </c>
+      <c r="E626">
+        <v>1</v>
+      </c>
+      <c r="F626" t="s">
+        <v>13</v>
+      </c>
+      <c r="G626" t="s">
+        <v>643</v>
+      </c>
+      <c r="H626" t="s">
+        <v>12</v>
+      </c>
+      <c r="I626">
+        <v>2.153</v>
+      </c>
+      <c r="J626">
+        <v>4.0839999999999996</v>
+      </c>
+    </row>
+    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>1</v>
+      </c>
+      <c r="B627">
+        <v>36</v>
+      </c>
+      <c r="C627" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D627">
+        <v>36</v>
+      </c>
+      <c r="E627">
+        <v>2</v>
+      </c>
+      <c r="F627" t="s">
+        <v>10</v>
+      </c>
+      <c r="G627" t="s">
+        <v>644</v>
+      </c>
+      <c r="H627" t="s">
+        <v>12</v>
+      </c>
+      <c r="I627">
+        <v>5.4969999999999999</v>
+      </c>
+      <c r="J627">
+        <v>9.5329999999999995</v>
+      </c>
+    </row>
+    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>1</v>
+      </c>
+      <c r="B628">
+        <v>37</v>
+      </c>
+      <c r="C628" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D628">
+        <v>37</v>
+      </c>
+      <c r="E628">
+        <v>1</v>
+      </c>
+      <c r="F628" t="s">
+        <v>13</v>
+      </c>
+      <c r="G628" t="s">
+        <v>645</v>
+      </c>
+      <c r="H628" t="s">
+        <v>12</v>
+      </c>
+      <c r="I628">
+        <v>3.16</v>
+      </c>
+      <c r="J628">
+        <v>9.0419999999999998</v>
+      </c>
+      <c r="K628">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>1</v>
+      </c>
+      <c r="B629">
+        <v>38</v>
+      </c>
+      <c r="C629" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D629">
+        <v>38</v>
+      </c>
+      <c r="E629">
+        <v>2</v>
+      </c>
+      <c r="F629" t="s">
+        <v>10</v>
+      </c>
+      <c r="G629" t="s">
+        <v>646</v>
+      </c>
+      <c r="H629" t="s">
+        <v>12</v>
+      </c>
+      <c r="I629">
+        <v>5.7149999999999999</v>
+      </c>
+      <c r="J629">
+        <v>9.6620000000000008</v>
+      </c>
+    </row>
+    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>1</v>
+      </c>
+      <c r="B630">
+        <v>39</v>
+      </c>
+      <c r="C630" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D630">
+        <v>39</v>
+      </c>
+      <c r="E630">
+        <v>1</v>
+      </c>
+      <c r="F630" t="s">
+        <v>13</v>
+      </c>
+      <c r="G630" t="s">
+        <v>647</v>
+      </c>
+      <c r="H630" t="s">
+        <v>12</v>
+      </c>
+      <c r="I630">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="J630">
+        <v>6.085</v>
+      </c>
+      <c r="K630">
+        <v>12.507999999999999</v>
+      </c>
+    </row>
+    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>1</v>
+      </c>
+      <c r="B631">
+        <v>40</v>
+      </c>
+      <c r="C631" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D631">
+        <v>40</v>
+      </c>
+      <c r="E631">
+        <v>2</v>
+      </c>
+      <c r="F631" t="s">
+        <v>10</v>
+      </c>
+      <c r="G631" t="s">
+        <v>648</v>
+      </c>
+      <c r="H631" t="s">
+        <v>12</v>
+      </c>
+      <c r="I631">
+        <v>5.1820000000000004</v>
+      </c>
+      <c r="J631">
+        <v>7.1070000000000002</v>
+      </c>
+      <c r="K631">
+        <v>10.597</v>
+      </c>
+    </row>
+    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>1</v>
+      </c>
+      <c r="B632">
+        <v>41</v>
+      </c>
+      <c r="C632" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D632">
+        <v>41</v>
+      </c>
+      <c r="E632">
+        <v>1</v>
+      </c>
+      <c r="F632" t="s">
+        <v>13</v>
+      </c>
+      <c r="G632" t="s">
+        <v>649</v>
+      </c>
+      <c r="H632" t="s">
+        <v>12</v>
+      </c>
+      <c r="I632">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="J632">
+        <v>11.634</v>
+      </c>
+    </row>
+    <row r="633" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>1</v>
+      </c>
+      <c r="B633">
+        <v>42</v>
+      </c>
+      <c r="C633" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D633">
+        <v>42</v>
+      </c>
+      <c r="E633">
+        <v>2</v>
+      </c>
+      <c r="F633" t="s">
+        <v>10</v>
+      </c>
+      <c r="G633" t="s">
+        <v>650</v>
+      </c>
+      <c r="H633" t="s">
+        <v>12</v>
+      </c>
+      <c r="I633">
+        <v>3.7210000000000001</v>
+      </c>
+      <c r="J633">
+        <v>5.9580000000000002</v>
+      </c>
+      <c r="K633">
+        <v>9.0389999999999997</v>
+      </c>
+      <c r="L633">
+        <v>12.122999999999999</v>
+      </c>
+    </row>
+    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>1</v>
+      </c>
+      <c r="B634">
+        <v>43</v>
+      </c>
+      <c r="C634" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D634">
+        <v>43</v>
+      </c>
+      <c r="E634">
+        <v>1</v>
+      </c>
+      <c r="F634" t="s">
+        <v>13</v>
+      </c>
+      <c r="G634" t="s">
+        <v>651</v>
+      </c>
+      <c r="H634" t="s">
+        <v>12</v>
+      </c>
+      <c r="I634">
+        <v>4.0780000000000003</v>
+      </c>
+      <c r="J634">
+        <v>7.0910000000000002</v>
+      </c>
+      <c r="K634">
+        <v>11.198</v>
+      </c>
+    </row>
+    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>1</v>
+      </c>
+      <c r="B635">
+        <v>44</v>
+      </c>
+      <c r="C635" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D635">
+        <v>44</v>
+      </c>
+      <c r="E635">
+        <v>2</v>
+      </c>
+      <c r="F635" t="s">
+        <v>10</v>
+      </c>
+      <c r="G635" t="s">
+        <v>652</v>
+      </c>
+      <c r="H635" t="s">
+        <v>12</v>
+      </c>
+      <c r="I635">
+        <v>2.157</v>
+      </c>
+      <c r="J635">
+        <v>4.5380000000000003</v>
+      </c>
+      <c r="K635">
+        <v>7.5659999999999998</v>
+      </c>
+      <c r="L635">
+        <v>11.061999999999999</v>
+      </c>
+    </row>
+    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>1</v>
+      </c>
+      <c r="B636">
+        <v>45</v>
+      </c>
+      <c r="C636" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D636">
+        <v>45</v>
+      </c>
+      <c r="E636">
+        <v>1</v>
+      </c>
+      <c r="F636" t="s">
+        <v>13</v>
+      </c>
+      <c r="G636" t="s">
+        <v>653</v>
+      </c>
+      <c r="H636" t="s">
+        <v>12</v>
+      </c>
+      <c r="I636">
+        <v>7.5259999999999998</v>
+      </c>
+      <c r="J636">
+        <v>10.15</v>
+      </c>
+      <c r="K636">
+        <v>13.156000000000001</v>
+      </c>
+    </row>
+    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>1</v>
+      </c>
+      <c r="B637">
+        <v>46</v>
+      </c>
+      <c r="C637" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D637">
+        <v>46</v>
+      </c>
+      <c r="E637">
+        <v>2</v>
+      </c>
+      <c r="F637" t="s">
+        <v>10</v>
+      </c>
+      <c r="G637" t="s">
+        <v>654</v>
+      </c>
+      <c r="H637" t="s">
+        <v>12</v>
+      </c>
+      <c r="I637">
+        <v>7.6580000000000004</v>
+      </c>
+      <c r="J637">
+        <v>10.125</v>
+      </c>
+      <c r="K637">
+        <v>12.121</v>
+      </c>
+    </row>
+    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>1</v>
+      </c>
+      <c r="B638">
+        <v>47</v>
+      </c>
+      <c r="C638" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D638">
+        <v>47</v>
+      </c>
+      <c r="E638">
+        <v>1</v>
+      </c>
+      <c r="F638" t="s">
+        <v>13</v>
+      </c>
+      <c r="G638" t="s">
+        <v>655</v>
+      </c>
+      <c r="H638" t="s">
+        <v>12</v>
+      </c>
+      <c r="I638">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J638">
+        <v>7.6550000000000002</v>
+      </c>
+      <c r="K638">
+        <v>11.061</v>
+      </c>
+    </row>
+    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>1</v>
+      </c>
+      <c r="B639">
+        <v>48</v>
+      </c>
+      <c r="C639" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D639">
+        <v>48</v>
+      </c>
+      <c r="E639">
+        <v>2</v>
+      </c>
+      <c r="F639" t="s">
+        <v>10</v>
+      </c>
+      <c r="G639" t="s">
+        <v>656</v>
+      </c>
+      <c r="H639" t="s">
+        <v>12</v>
+      </c>
+      <c r="I639">
+        <v>3.55</v>
+      </c>
+      <c r="J639">
+        <v>7.56</v>
+      </c>
+      <c r="K639">
+        <v>13.111000000000001</v>
+      </c>
+    </row>
+    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>1</v>
+      </c>
+      <c r="B640">
+        <v>49</v>
+      </c>
+      <c r="C640" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D640">
+        <v>49</v>
+      </c>
+      <c r="E640">
+        <v>1</v>
+      </c>
+      <c r="F640" t="s">
+        <v>13</v>
+      </c>
+      <c r="G640" t="s">
+        <v>657</v>
+      </c>
+      <c r="H640" t="s">
+        <v>12</v>
+      </c>
+      <c r="I640">
+        <v>3.5409999999999999</v>
+      </c>
+      <c r="J640">
+        <v>9.5830000000000002</v>
+      </c>
+      <c r="K640">
+        <v>13.129</v>
+      </c>
+    </row>
+    <row r="641" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>1</v>
+      </c>
+      <c r="B641">
+        <v>50</v>
+      </c>
+      <c r="C641" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D641">
+        <v>50</v>
+      </c>
+      <c r="E641">
+        <v>2</v>
+      </c>
+      <c r="F641" t="s">
+        <v>10</v>
+      </c>
+      <c r="G641" t="s">
+        <v>658</v>
+      </c>
+      <c r="H641" t="s">
+        <v>12</v>
+      </c>
+      <c r="I641">
+        <v>2.6110000000000002</v>
+      </c>
+      <c r="J641">
+        <v>6.5410000000000004</v>
+      </c>
+      <c r="K641">
+        <v>8.6140000000000008</v>
+      </c>
+    </row>
+    <row r="642" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>1</v>
+      </c>
+      <c r="B642">
+        <v>51</v>
+      </c>
+      <c r="C642" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D642">
+        <v>51</v>
+      </c>
+      <c r="E642">
+        <v>1</v>
+      </c>
+      <c r="F642" t="s">
+        <v>13</v>
+      </c>
+      <c r="G642" t="s">
+        <v>659</v>
+      </c>
+      <c r="H642" t="s">
+        <v>12</v>
+      </c>
+      <c r="I642">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="J642">
+        <v>4.6260000000000003</v>
+      </c>
+      <c r="K642">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="643" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>1</v>
+      </c>
+      <c r="B643">
+        <v>52</v>
+      </c>
+      <c r="C643" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D643">
+        <v>52</v>
+      </c>
+      <c r="E643">
+        <v>2</v>
+      </c>
+      <c r="F643" t="s">
+        <v>10</v>
+      </c>
+      <c r="G643" t="s">
+        <v>660</v>
+      </c>
+      <c r="H643" t="s">
+        <v>12</v>
+      </c>
+      <c r="I643">
+        <v>3.645</v>
+      </c>
+      <c r="J643">
+        <v>6.7210000000000001</v>
+      </c>
+      <c r="K643">
+        <v>12.996</v>
+      </c>
+    </row>
+    <row r="644" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>1</v>
+      </c>
+      <c r="B644">
+        <v>53</v>
+      </c>
+      <c r="C644" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D644">
+        <v>53</v>
+      </c>
+      <c r="E644">
+        <v>1</v>
+      </c>
+      <c r="F644" t="s">
+        <v>13</v>
+      </c>
+      <c r="G644" t="s">
+        <v>661</v>
+      </c>
+      <c r="H644" t="s">
+        <v>12</v>
+      </c>
+      <c r="I644">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="J644">
+        <v>4.55</v>
+      </c>
+      <c r="K644">
+        <v>7.5720000000000001</v>
+      </c>
+    </row>
+    <row r="645" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>1</v>
+      </c>
+      <c r="B645">
+        <v>54</v>
+      </c>
+      <c r="C645" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D645">
+        <v>54</v>
+      </c>
+      <c r="E645">
+        <v>2</v>
+      </c>
+      <c r="F645" t="s">
+        <v>10</v>
+      </c>
+      <c r="G645" t="s">
+        <v>662</v>
+      </c>
+      <c r="H645" t="s">
+        <v>12</v>
+      </c>
+      <c r="I645">
+        <v>3.165</v>
+      </c>
+      <c r="J645">
+        <v>6.0839999999999996</v>
+      </c>
+      <c r="K645">
+        <v>9.5449999999999999</v>
+      </c>
+    </row>
+    <row r="646" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>1</v>
+      </c>
+      <c r="B646">
+        <v>55</v>
+      </c>
+      <c r="C646" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D646">
+        <v>55</v>
+      </c>
+      <c r="E646">
+        <v>1</v>
+      </c>
+      <c r="F646" t="s">
+        <v>13</v>
+      </c>
+      <c r="G646" t="s">
+        <v>663</v>
+      </c>
+      <c r="H646" t="s">
+        <v>12</v>
+      </c>
+      <c r="I646">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="J646">
+        <v>4.6790000000000003</v>
+      </c>
+      <c r="K646">
+        <v>11.093</v>
+      </c>
+    </row>
+    <row r="647" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>1</v>
+      </c>
+      <c r="B647">
+        <v>56</v>
+      </c>
+      <c r="C647" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D647">
+        <v>56</v>
+      </c>
+      <c r="E647">
+        <v>2</v>
+      </c>
+      <c r="F647" t="s">
+        <v>10</v>
+      </c>
+      <c r="G647" t="s">
+        <v>664</v>
+      </c>
+      <c r="H647" t="s">
+        <v>12</v>
+      </c>
+      <c r="I647">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="J647">
+        <v>5.0220000000000002</v>
+      </c>
+      <c r="K647">
+        <v>9.1280000000000001</v>
+      </c>
+      <c r="L647">
+        <v>11.997</v>
+      </c>
+    </row>
+    <row r="648" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>1</v>
+      </c>
+      <c r="B648">
+        <v>57</v>
+      </c>
+      <c r="C648" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D648">
+        <v>57</v>
+      </c>
+      <c r="E648">
+        <v>1</v>
+      </c>
+      <c r="F648" t="s">
+        <v>13</v>
+      </c>
+      <c r="G648" t="s">
+        <v>665</v>
+      </c>
+      <c r="H648" t="s">
+        <v>12</v>
+      </c>
+      <c r="I648">
+        <v>3.077</v>
+      </c>
+      <c r="J648">
+        <v>8.5510000000000002</v>
+      </c>
+      <c r="K648">
+        <v>10.625</v>
+      </c>
+    </row>
+    <row r="649" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>1</v>
+      </c>
+      <c r="B649">
+        <v>58</v>
+      </c>
+      <c r="C649" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D649">
+        <v>58</v>
+      </c>
+      <c r="E649">
+        <v>2</v>
+      </c>
+      <c r="F649" t="s">
+        <v>10</v>
+      </c>
+      <c r="G649" t="s">
+        <v>666</v>
+      </c>
+      <c r="H649" t="s">
+        <v>12</v>
+      </c>
+      <c r="I649">
+        <v>3.621</v>
+      </c>
+      <c r="J649">
+        <v>8.1229999999999993</v>
+      </c>
+      <c r="K649">
+        <v>10.201000000000001</v>
+      </c>
+    </row>
+    <row r="650" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>1</v>
+      </c>
+      <c r="B650">
+        <v>59</v>
+      </c>
+      <c r="C650" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D650">
+        <v>59</v>
+      </c>
+      <c r="E650">
+        <v>1</v>
+      </c>
+      <c r="F650" t="s">
+        <v>13</v>
+      </c>
+      <c r="G650" t="s">
+        <v>667</v>
+      </c>
+      <c r="H650" t="s">
+        <v>12</v>
+      </c>
+      <c r="I650">
+        <v>2.548</v>
+      </c>
+      <c r="J650">
+        <v>5.101</v>
+      </c>
+      <c r="K650">
+        <v>9.0549999999999997</v>
+      </c>
+    </row>
+    <row r="651" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>1</v>
+      </c>
+      <c r="B651">
+        <v>60</v>
+      </c>
+      <c r="C651" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D651">
+        <v>60</v>
+      </c>
+      <c r="E651">
+        <v>2</v>
+      </c>
+      <c r="F651" t="s">
+        <v>10</v>
+      </c>
+      <c r="G651" t="s">
+        <v>668</v>
+      </c>
+      <c r="H651" t="s">
+        <v>12</v>
+      </c>
+      <c r="I651">
+        <v>2.617</v>
+      </c>
+      <c r="J651">
+        <v>8.0280000000000005</v>
+      </c>
+      <c r="K651">
+        <v>10.638</v>
+      </c>
+    </row>
+    <row r="652" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>1</v>
+      </c>
+      <c r="B652">
+        <v>61</v>
+      </c>
+      <c r="C652" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D652">
+        <v>61</v>
+      </c>
+      <c r="E652">
+        <v>1</v>
+      </c>
+      <c r="F652" t="s">
+        <v>13</v>
+      </c>
+      <c r="G652" t="s">
+        <v>669</v>
+      </c>
+      <c r="H652" t="s">
+        <v>12</v>
+      </c>
+      <c r="I652">
+        <v>6.6470000000000002</v>
+      </c>
+      <c r="J652">
+        <v>8.641</v>
+      </c>
+      <c r="K652">
+        <v>10.566000000000001</v>
+      </c>
+    </row>
+    <row r="653" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>1</v>
+      </c>
+      <c r="B653">
+        <v>62</v>
+      </c>
+      <c r="C653" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D653">
+        <v>62</v>
+      </c>
+      <c r="E653">
+        <v>2</v>
+      </c>
+      <c r="F653" t="s">
+        <v>10</v>
+      </c>
+      <c r="G653" t="s">
+        <v>670</v>
+      </c>
+      <c r="H653" t="s">
+        <v>12</v>
+      </c>
+      <c r="I653">
+        <v>4.5529999999999999</v>
+      </c>
+      <c r="J653">
+        <v>7.5590000000000002</v>
+      </c>
+      <c r="K653">
+        <v>10.728</v>
+      </c>
+    </row>
+    <row r="654" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>1</v>
+      </c>
+      <c r="B654">
+        <v>63</v>
+      </c>
+      <c r="C654" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D654">
+        <v>63</v>
+      </c>
+      <c r="E654">
+        <v>1</v>
+      </c>
+      <c r="F654" t="s">
+        <v>13</v>
+      </c>
+      <c r="G654" t="s">
+        <v>671</v>
+      </c>
+      <c r="H654" t="s">
+        <v>12</v>
+      </c>
+      <c r="I654">
+        <v>3.6230000000000002</v>
+      </c>
+      <c r="J654">
+        <v>6.9390000000000001</v>
+      </c>
+      <c r="K654">
+        <v>10.579000000000001</v>
+      </c>
+    </row>
+    <row r="655" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>1</v>
+      </c>
+      <c r="B655">
+        <v>64</v>
+      </c>
+      <c r="C655" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D655">
+        <v>64</v>
+      </c>
+      <c r="E655">
+        <v>2</v>
+      </c>
+      <c r="F655" t="s">
+        <v>10</v>
+      </c>
+      <c r="G655" t="s">
+        <v>672</v>
+      </c>
+      <c r="H655" t="s">
+        <v>12</v>
+      </c>
+      <c r="I655">
+        <v>6.5149999999999997</v>
+      </c>
+      <c r="J655">
+        <v>12.101000000000001</v>
+      </c>
+    </row>
+    <row r="656" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>1</v>
+      </c>
+      <c r="B656">
+        <v>65</v>
+      </c>
+      <c r="C656" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D656">
+        <v>65</v>
+      </c>
+      <c r="E656">
+        <v>1</v>
+      </c>
+      <c r="F656" t="s">
+        <v>13</v>
+      </c>
+      <c r="G656" t="s">
+        <v>673</v>
+      </c>
+      <c r="H656" t="s">
+        <v>12</v>
+      </c>
+      <c r="I656">
+        <v>6.194</v>
+      </c>
+      <c r="J656">
+        <v>10.204000000000001</v>
+      </c>
+      <c r="K656">
+        <v>12.202</v>
+      </c>
+    </row>
+    <row r="657" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>1</v>
+      </c>
+      <c r="B657">
+        <v>66</v>
+      </c>
+      <c r="C657" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D657">
+        <v>66</v>
+      </c>
+      <c r="E657">
+        <v>2</v>
+      </c>
+      <c r="F657" t="s">
+        <v>10</v>
+      </c>
+      <c r="G657" t="s">
+        <v>674</v>
+      </c>
+      <c r="H657" t="s">
+        <v>12</v>
+      </c>
+      <c r="I657">
+        <v>6.0289999999999999</v>
+      </c>
+      <c r="J657">
+        <v>8.5630000000000006</v>
+      </c>
+      <c r="K657">
+        <v>11.505000000000001</v>
+      </c>
+    </row>
+    <row r="658" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>1</v>
+      </c>
+      <c r="B658">
+        <v>67</v>
+      </c>
+      <c r="C658" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D658">
+        <v>67</v>
+      </c>
+      <c r="E658">
+        <v>1</v>
+      </c>
+      <c r="F658" t="s">
+        <v>13</v>
+      </c>
+      <c r="G658" t="s">
+        <v>675</v>
+      </c>
+      <c r="H658" t="s">
+        <v>12</v>
+      </c>
+      <c r="I658">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="J658">
+        <v>4.5709999999999997</v>
+      </c>
+      <c r="K658">
+        <v>13.069000000000001</v>
+      </c>
+    </row>
+    <row r="659" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>1</v>
+      </c>
+      <c r="B659">
+        <v>68</v>
+      </c>
+      <c r="C659" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D659">
+        <v>68</v>
+      </c>
+      <c r="E659">
+        <v>2</v>
+      </c>
+      <c r="F659" t="s">
+        <v>10</v>
+      </c>
+      <c r="G659" t="s">
+        <v>676</v>
+      </c>
+      <c r="H659" t="s">
+        <v>12</v>
+      </c>
+      <c r="I659">
+        <v>2.1619999999999999</v>
+      </c>
+      <c r="J659">
+        <v>4.6159999999999997</v>
+      </c>
+      <c r="K659">
+        <v>10.093999999999999</v>
+      </c>
+    </row>
+    <row r="660" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>1</v>
+      </c>
+      <c r="B660">
+        <v>69</v>
+      </c>
+      <c r="C660" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D660">
+        <v>69</v>
+      </c>
+      <c r="E660">
+        <v>1</v>
+      </c>
+      <c r="F660" t="s">
+        <v>13</v>
+      </c>
+      <c r="G660" t="s">
+        <v>677</v>
+      </c>
+      <c r="H660" t="s">
+        <v>12</v>
+      </c>
+      <c r="I660">
+        <v>3.0939999999999999</v>
+      </c>
+      <c r="J660">
+        <v>7.1280000000000001</v>
+      </c>
+      <c r="K660">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="661" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>1</v>
+      </c>
+      <c r="B661">
+        <v>70</v>
+      </c>
+      <c r="C661" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D661">
+        <v>70</v>
+      </c>
+      <c r="E661">
+        <v>2</v>
+      </c>
+      <c r="F661" t="s">
+        <v>10</v>
+      </c>
+      <c r="G661" t="s">
+        <v>678</v>
+      </c>
+      <c r="H661" t="s">
+        <v>12</v>
+      </c>
+      <c r="I661">
+        <v>2.6190000000000002</v>
+      </c>
+      <c r="J661">
+        <v>4.6230000000000002</v>
+      </c>
+      <c r="K661">
+        <v>7.173</v>
+      </c>
+      <c r="L661">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="662" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>1</v>
+      </c>
+      <c r="B662">
+        <v>71</v>
+      </c>
+      <c r="C662" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D662">
+        <v>71</v>
+      </c>
+      <c r="E662">
+        <v>1</v>
+      </c>
+      <c r="F662" t="s">
+        <v>13</v>
+      </c>
+      <c r="G662" t="s">
+        <v>679</v>
+      </c>
+      <c r="H662" t="s">
+        <v>12</v>
+      </c>
+      <c r="I662">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="J662">
+        <v>6.4690000000000003</v>
+      </c>
+      <c r="K662">
+        <v>8.6229999999999993</v>
+      </c>
+    </row>
+    <row r="663" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>1</v>
+      </c>
+      <c r="B663">
+        <v>72</v>
+      </c>
+      <c r="C663" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D663">
+        <v>72</v>
+      </c>
+      <c r="E663">
+        <v>2</v>
+      </c>
+      <c r="F663" t="s">
+        <v>10</v>
+      </c>
+      <c r="G663" t="s">
+        <v>680</v>
+      </c>
+      <c r="H663" t="s">
+        <v>12</v>
+      </c>
+      <c r="I663">
+        <v>3.028</v>
+      </c>
+      <c r="J663">
+        <v>5.0190000000000001</v>
+      </c>
+      <c r="K663">
+        <v>8.0259999999999998</v>
+      </c>
+    </row>
+    <row r="664" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>1</v>
+      </c>
+      <c r="B664">
+        <v>73</v>
+      </c>
+      <c r="C664" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D664">
+        <v>73</v>
+      </c>
+      <c r="E664">
+        <v>1</v>
+      </c>
+      <c r="F664" t="s">
+        <v>13</v>
+      </c>
+      <c r="G664" t="s">
+        <v>681</v>
+      </c>
+      <c r="H664" t="s">
+        <v>12</v>
+      </c>
+      <c r="I664">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="J664">
+        <v>8.0939999999999994</v>
+      </c>
+      <c r="K664">
+        <v>13.109</v>
+      </c>
+    </row>
+    <row r="665" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>1</v>
+      </c>
+      <c r="B665">
+        <v>74</v>
+      </c>
+      <c r="C665" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D665">
+        <v>74</v>
+      </c>
+      <c r="E665">
+        <v>2</v>
+      </c>
+      <c r="F665" t="s">
+        <v>10</v>
+      </c>
+      <c r="G665" t="s">
+        <v>682</v>
+      </c>
+      <c r="H665" t="s">
+        <v>12</v>
+      </c>
+      <c r="I665">
+        <v>2.1619999999999999</v>
+      </c>
+      <c r="J665">
+        <v>10.14</v>
+      </c>
+      <c r="K665">
+        <v>12.526999999999999</v>
+      </c>
+    </row>
+    <row r="666" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>1</v>
+      </c>
+      <c r="B666">
+        <v>75</v>
+      </c>
+      <c r="C666" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D666">
+        <v>75</v>
+      </c>
+      <c r="E666">
+        <v>1</v>
+      </c>
+      <c r="F666" t="s">
+        <v>13</v>
+      </c>
+      <c r="G666" t="s">
+        <v>683</v>
+      </c>
+      <c r="H666" t="s">
+        <v>12</v>
+      </c>
+      <c r="I666">
+        <v>3.0089999999999999</v>
+      </c>
+      <c r="J666">
+        <v>9.125</v>
+      </c>
+      <c r="K666">
+        <v>12.606999999999999</v>
+      </c>
+    </row>
+    <row r="667" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>1</v>
+      </c>
+      <c r="B667">
+        <v>76</v>
+      </c>
+      <c r="C667" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D667">
+        <v>76</v>
+      </c>
+      <c r="E667">
+        <v>2</v>
+      </c>
+      <c r="F667" t="s">
+        <v>10</v>
+      </c>
+      <c r="G667" t="s">
+        <v>684</v>
+      </c>
+      <c r="H667" t="s">
+        <v>12</v>
+      </c>
+      <c r="I667">
+        <v>4.1120000000000001</v>
+      </c>
+      <c r="J667">
+        <v>7.58</v>
+      </c>
+      <c r="K667">
+        <v>11.052</v>
+      </c>
+    </row>
+    <row r="668" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>1</v>
+      </c>
+      <c r="B668">
+        <v>77</v>
+      </c>
+      <c r="C668" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D668">
+        <v>77</v>
+      </c>
+      <c r="E668">
+        <v>1</v>
+      </c>
+      <c r="F668" t="s">
+        <v>13</v>
+      </c>
+      <c r="G668" t="s">
+        <v>685</v>
+      </c>
+      <c r="H668" t="s">
+        <v>12</v>
+      </c>
+      <c r="I668">
+        <v>6.5650000000000004</v>
+      </c>
+      <c r="J668">
+        <v>9.1189999999999998</v>
+      </c>
+      <c r="K668">
+        <v>11.042999999999999</v>
+      </c>
+    </row>
+    <row r="669" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>1</v>
+      </c>
+      <c r="B669">
+        <v>78</v>
+      </c>
+      <c r="C669" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D669">
+        <v>78</v>
+      </c>
+      <c r="E669">
+        <v>2</v>
+      </c>
+      <c r="F669" t="s">
+        <v>10</v>
+      </c>
+      <c r="G669" t="s">
+        <v>686</v>
+      </c>
+      <c r="H669" t="s">
+        <v>12</v>
+      </c>
+      <c r="I669">
+        <v>5.1070000000000002</v>
+      </c>
+      <c r="J669">
+        <v>8.109</v>
+      </c>
+      <c r="K669">
+        <v>11.574</v>
+      </c>
+    </row>
+    <row r="670" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>1</v>
+      </c>
+      <c r="B670">
+        <v>79</v>
+      </c>
+      <c r="C670" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D670">
+        <v>79</v>
+      </c>
+      <c r="E670">
+        <v>1</v>
+      </c>
+      <c r="F670" t="s">
+        <v>13</v>
+      </c>
+      <c r="G670" t="s">
+        <v>687</v>
+      </c>
+      <c r="H670" t="s">
+        <v>12</v>
+      </c>
+      <c r="I670">
+        <v>5.0979999999999999</v>
+      </c>
+      <c r="J670">
+        <v>7.0270000000000001</v>
+      </c>
+      <c r="K670">
+        <v>9.5670000000000002</v>
+      </c>
+    </row>
+    <row r="671" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>1</v>
+      </c>
+      <c r="B671">
+        <v>80</v>
+      </c>
+      <c r="C671" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D671">
+        <v>80</v>
+      </c>
+      <c r="E671">
+        <v>2</v>
+      </c>
+      <c r="F671" t="s">
+        <v>10</v>
+      </c>
+      <c r="G671" t="s">
+        <v>688</v>
+      </c>
+      <c r="H671" t="s">
+        <v>12</v>
+      </c>
+      <c r="I671">
+        <v>3.6320000000000001</v>
+      </c>
+      <c r="J671">
+        <v>8.5679999999999996</v>
+      </c>
+      <c r="K671">
+        <v>10.641999999999999</v>
+      </c>
+    </row>
+    <row r="672" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>1</v>
+      </c>
+      <c r="B672">
+        <v>81</v>
+      </c>
+      <c r="C672" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D672">
+        <v>81</v>
+      </c>
+      <c r="E672">
+        <v>1</v>
+      </c>
+      <c r="F672" t="s">
+        <v>13</v>
+      </c>
+      <c r="G672" t="s">
+        <v>689</v>
+      </c>
+      <c r="H672" t="s">
+        <v>12</v>
+      </c>
+      <c r="I672">
+        <v>3.181</v>
+      </c>
+      <c r="J672">
+        <v>5.5810000000000004</v>
+      </c>
+      <c r="K672">
+        <v>7.508</v>
+      </c>
+      <c r="L672">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="673" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>1</v>
+      </c>
+      <c r="B673">
+        <v>82</v>
+      </c>
+      <c r="C673" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D673">
+        <v>82</v>
+      </c>
+      <c r="E673">
+        <v>2</v>
+      </c>
+      <c r="F673" t="s">
+        <v>10</v>
+      </c>
+      <c r="G673" t="s">
+        <v>690</v>
+      </c>
+      <c r="H673" t="s">
+        <v>12</v>
+      </c>
+      <c r="I673">
+        <v>3.6160000000000001</v>
+      </c>
+      <c r="J673">
+        <v>6.6210000000000004</v>
+      </c>
+      <c r="K673">
+        <v>10.025</v>
+      </c>
+    </row>
+    <row r="674" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>1</v>
+      </c>
+      <c r="B674">
+        <v>83</v>
+      </c>
+      <c r="C674" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D674">
+        <v>83</v>
+      </c>
+      <c r="E674">
+        <v>1</v>
+      </c>
+      <c r="F674" t="s">
+        <v>13</v>
+      </c>
+      <c r="G674" t="s">
+        <v>691</v>
+      </c>
+      <c r="H674" t="s">
+        <v>12</v>
+      </c>
+      <c r="I674">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="J674">
+        <v>8.1289999999999996</v>
+      </c>
+      <c r="K674">
+        <v>12.553000000000001</v>
+      </c>
+    </row>
+    <row r="675" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>1</v>
+      </c>
+      <c r="B675">
+        <v>84</v>
+      </c>
+      <c r="C675" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D675">
+        <v>84</v>
+      </c>
+      <c r="E675">
+        <v>2</v>
+      </c>
+      <c r="F675" t="s">
+        <v>10</v>
+      </c>
+      <c r="G675" t="s">
+        <v>692</v>
+      </c>
+      <c r="H675" t="s">
+        <v>12</v>
+      </c>
+      <c r="I675">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="J675">
+        <v>4.6420000000000003</v>
+      </c>
+      <c r="K675">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="676" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>1</v>
+      </c>
+      <c r="B676">
+        <v>85</v>
+      </c>
+      <c r="C676" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D676">
+        <v>85</v>
+      </c>
+      <c r="E676">
+        <v>1</v>
+      </c>
+      <c r="F676" t="s">
+        <v>13</v>
+      </c>
+      <c r="G676" t="s">
+        <v>693</v>
+      </c>
+      <c r="H676" t="s">
+        <v>12</v>
+      </c>
+      <c r="I676">
+        <v>6.6479999999999997</v>
+      </c>
+      <c r="J676">
+        <v>10.045</v>
+      </c>
+      <c r="K676">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="677" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>1</v>
+      </c>
+      <c r="B677">
+        <v>86</v>
+      </c>
+      <c r="C677" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D677">
+        <v>86</v>
+      </c>
+      <c r="E677">
+        <v>2</v>
+      </c>
+      <c r="F677" t="s">
+        <v>10</v>
+      </c>
+      <c r="G677" t="s">
+        <v>694</v>
+      </c>
+      <c r="H677" t="s">
+        <v>12</v>
+      </c>
+      <c r="I677">
+        <v>2.6320000000000001</v>
+      </c>
+      <c r="J677">
+        <v>7.6479999999999997</v>
+      </c>
+    </row>
+    <row r="678" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>1</v>
+      </c>
+      <c r="B678">
+        <v>87</v>
+      </c>
+      <c r="C678" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D678">
+        <v>87</v>
+      </c>
+      <c r="E678">
+        <v>1</v>
+      </c>
+      <c r="F678" t="s">
+        <v>13</v>
+      </c>
+      <c r="G678" t="s">
+        <v>695</v>
+      </c>
+      <c r="H678" t="s">
+        <v>12</v>
+      </c>
+      <c r="I678">
+        <v>2.6110000000000002</v>
+      </c>
+      <c r="J678">
+        <v>8.6430000000000007</v>
+      </c>
+      <c r="K678">
+        <v>12.115</v>
+      </c>
+    </row>
+    <row r="679" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>1</v>
+      </c>
+      <c r="B679">
+        <v>88</v>
+      </c>
+      <c r="C679" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D679">
+        <v>88</v>
+      </c>
+      <c r="E679">
+        <v>2</v>
+      </c>
+      <c r="F679" t="s">
+        <v>10</v>
+      </c>
+      <c r="G679" t="s">
+        <v>696</v>
+      </c>
+      <c r="H679" t="s">
+        <v>12</v>
+      </c>
+      <c r="I679">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="J679">
+        <v>5.0839999999999996</v>
+      </c>
+      <c r="K679">
+        <v>9.5640000000000001</v>
+      </c>
+    </row>
+    <row r="680" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>1</v>
+      </c>
+      <c r="B680">
+        <v>89</v>
+      </c>
+      <c r="C680" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D680">
+        <v>89</v>
+      </c>
+      <c r="E680">
+        <v>1</v>
+      </c>
+      <c r="F680" t="s">
+        <v>13</v>
+      </c>
+      <c r="G680" t="s">
+        <v>697</v>
+      </c>
+      <c r="H680" t="s">
+        <v>12</v>
+      </c>
+      <c r="I680">
+        <v>3.0350000000000001</v>
+      </c>
+      <c r="J680">
+        <v>10.563000000000001</v>
+      </c>
+      <c r="K680">
+        <v>13.108000000000001</v>
+      </c>
+    </row>
+    <row r="681" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>1</v>
+      </c>
+      <c r="B681">
+        <v>90</v>
+      </c>
+      <c r="C681" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D681">
+        <v>90</v>
+      </c>
+      <c r="E681">
+        <v>2</v>
+      </c>
+      <c r="F681" t="s">
+        <v>10</v>
+      </c>
+      <c r="G681" t="s">
+        <v>698</v>
+      </c>
+      <c r="H681" t="s">
+        <v>12</v>
+      </c>
+      <c r="I681">
+        <v>4.657</v>
+      </c>
+      <c r="J681">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="K681">
+        <v>10.616</v>
+      </c>
+      <c r="L681">
+        <v>13.083</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>1</v>
+      </c>
+      <c r="B682">
+        <v>91</v>
+      </c>
+      <c r="C682" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D682">
+        <v>91</v>
+      </c>
+      <c r="E682">
+        <v>1</v>
+      </c>
+      <c r="F682" t="s">
+        <v>13</v>
+      </c>
+      <c r="G682" t="s">
+        <v>699</v>
+      </c>
+      <c r="H682" t="s">
+        <v>12</v>
+      </c>
+      <c r="I682">
+        <v>4.0149999999999997</v>
+      </c>
+      <c r="J682">
+        <v>6.4939999999999998</v>
+      </c>
+      <c r="K682">
+        <v>10.026</v>
+      </c>
+    </row>
+    <row r="683" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>1</v>
+      </c>
+      <c r="B683">
+        <v>92</v>
+      </c>
+      <c r="C683" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D683">
+        <v>92</v>
+      </c>
+      <c r="E683">
+        <v>2</v>
+      </c>
+      <c r="F683" t="s">
+        <v>10</v>
+      </c>
+      <c r="G683" t="s">
+        <v>700</v>
+      </c>
+      <c r="H683" t="s">
+        <v>12</v>
+      </c>
+      <c r="I683">
+        <v>4.6280000000000001</v>
+      </c>
+      <c r="J683">
+        <v>6.6239999999999997</v>
+      </c>
+      <c r="K683">
+        <v>9.0890000000000004</v>
+      </c>
+      <c r="L683">
+        <v>12.015000000000001</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>1</v>
+      </c>
+      <c r="B684">
+        <v>93</v>
+      </c>
+      <c r="C684" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D684">
+        <v>93</v>
+      </c>
+      <c r="E684">
+        <v>1</v>
+      </c>
+      <c r="F684" t="s">
+        <v>13</v>
+      </c>
+      <c r="G684" t="s">
+        <v>701</v>
+      </c>
+      <c r="H684" t="s">
+        <v>12</v>
+      </c>
+      <c r="I684">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J684">
+        <v>7.5670000000000002</v>
+      </c>
+      <c r="K684">
+        <v>11.035</v>
+      </c>
+    </row>
+    <row r="685" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>1</v>
+      </c>
+      <c r="B685">
+        <v>94</v>
+      </c>
+      <c r="C685" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D685">
+        <v>94</v>
+      </c>
+      <c r="E685">
+        <v>2</v>
+      </c>
+      <c r="F685" t="s">
+        <v>10</v>
+      </c>
+      <c r="G685" t="s">
+        <v>702</v>
+      </c>
+      <c r="H685" t="s">
+        <v>12</v>
+      </c>
+      <c r="I685">
+        <v>2.157</v>
+      </c>
+      <c r="J685">
+        <v>7.1059999999999999</v>
+      </c>
+      <c r="K685">
+        <v>9.7539999999999996</v>
+      </c>
+      <c r="L685">
+        <v>12.601000000000001</v>
+      </c>
+    </row>
+    <row r="686" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>1</v>
+      </c>
+      <c r="B686">
+        <v>95</v>
+      </c>
+      <c r="C686" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D686">
+        <v>95</v>
+      </c>
+      <c r="E686">
+        <v>1</v>
+      </c>
+      <c r="F686" t="s">
+        <v>13</v>
+      </c>
+      <c r="G686" t="s">
+        <v>703</v>
+      </c>
+      <c r="H686" t="s">
+        <v>12</v>
+      </c>
+      <c r="I686">
+        <v>6.5830000000000002</v>
+      </c>
+      <c r="J686">
+        <v>10.058</v>
+      </c>
+      <c r="K686">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>1</v>
+      </c>
+      <c r="B687">
+        <v>96</v>
+      </c>
+      <c r="C687" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D687">
+        <v>96</v>
+      </c>
+      <c r="E687">
+        <v>2</v>
+      </c>
+      <c r="F687" t="s">
+        <v>10</v>
+      </c>
+      <c r="G687" t="s">
+        <v>704</v>
+      </c>
+      <c r="H687" t="s">
+        <v>12</v>
+      </c>
+      <c r="I687">
+        <v>3.6320000000000001</v>
+      </c>
+      <c r="J687">
+        <v>4.468</v>
+      </c>
+      <c r="K687">
+        <v>6.5650000000000004</v>
+      </c>
+      <c r="L687">
+        <v>11.058</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>1</v>
+      </c>
+      <c r="B688">
+        <v>97</v>
+      </c>
+      <c r="C688" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D688">
+        <v>97</v>
+      </c>
+      <c r="E688">
+        <v>1</v>
+      </c>
+      <c r="F688" t="s">
+        <v>13</v>
+      </c>
+      <c r="G688" t="s">
+        <v>705</v>
+      </c>
+      <c r="H688" t="s">
+        <v>12</v>
+      </c>
+      <c r="I688">
+        <v>7.5780000000000003</v>
+      </c>
+      <c r="J688">
+        <v>9.6609999999999996</v>
+      </c>
+      <c r="K688">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="689" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>1</v>
+      </c>
+      <c r="B689">
+        <v>98</v>
+      </c>
+      <c r="C689" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D689">
+        <v>98</v>
+      </c>
+      <c r="E689">
+        <v>2</v>
+      </c>
+      <c r="F689" t="s">
+        <v>10</v>
+      </c>
+      <c r="G689" t="s">
+        <v>706</v>
+      </c>
+      <c r="H689" t="s">
+        <v>12</v>
+      </c>
+      <c r="I689">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="J689">
+        <v>4.6429999999999998</v>
+      </c>
+      <c r="K689">
+        <v>12.646000000000001</v>
+      </c>
+    </row>
+    <row r="690" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>1</v>
+      </c>
+      <c r="B690">
+        <v>99</v>
+      </c>
+      <c r="C690" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D690">
+        <v>99</v>
+      </c>
+      <c r="E690">
+        <v>1</v>
+      </c>
+      <c r="F690" t="s">
+        <v>13</v>
+      </c>
+      <c r="G690" t="s">
+        <v>707</v>
+      </c>
+      <c r="H690" t="s">
+        <v>12</v>
+      </c>
+      <c r="I690">
+        <v>2.6179999999999999</v>
+      </c>
+      <c r="J690">
+        <v>4.6189999999999998</v>
+      </c>
+      <c r="K690">
+        <v>7.0759999999999996</v>
+      </c>
+      <c r="L690">
+        <v>9.0709999999999997</v>
+      </c>
+    </row>
+    <row r="691" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>1</v>
+      </c>
+      <c r="B691">
+        <v>100</v>
+      </c>
+      <c r="C691" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D691">
+        <v>100</v>
+      </c>
+      <c r="E691">
+        <v>2</v>
+      </c>
+      <c r="F691" t="s">
+        <v>10</v>
+      </c>
+      <c r="G691" t="s">
+        <v>708</v>
+      </c>
+      <c r="H691" t="s">
+        <v>12</v>
+      </c>
+      <c r="I691">
+        <v>4.6319999999999997</v>
+      </c>
+      <c r="J691">
+        <v>6.6360000000000001</v>
+      </c>
+      <c r="K691">
+        <v>11.023999999999999</v>
+      </c>
+    </row>
+    <row r="692" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>1</v>
+      </c>
+      <c r="B692">
+        <v>101</v>
+      </c>
+      <c r="C692" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D692">
+        <v>101</v>
+      </c>
+      <c r="E692">
+        <v>1</v>
+      </c>
+      <c r="F692" t="s">
+        <v>13</v>
+      </c>
+      <c r="G692" t="s">
+        <v>709</v>
+      </c>
+      <c r="H692" t="s">
+        <v>12</v>
+      </c>
+      <c r="I692">
+        <v>4.0350000000000001</v>
+      </c>
+      <c r="J692">
+        <v>7.0439999999999996</v>
+      </c>
+      <c r="K692">
+        <v>10.122</v>
+      </c>
+    </row>
+    <row r="693" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>1</v>
+      </c>
+      <c r="B693">
+        <v>102</v>
+      </c>
+      <c r="C693" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D693">
+        <v>102</v>
+      </c>
+      <c r="E693">
+        <v>2</v>
+      </c>
+      <c r="F693" t="s">
+        <v>10</v>
+      </c>
+      <c r="G693" t="s">
+        <v>710</v>
+      </c>
+      <c r="H693" t="s">
+        <v>12</v>
+      </c>
+      <c r="I693">
+        <v>4.556</v>
+      </c>
+      <c r="J693">
+        <v>7.5670000000000002</v>
+      </c>
+      <c r="K693">
+        <v>12.581</v>
+      </c>
+    </row>
+    <row r="694" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>1</v>
+      </c>
+      <c r="B694">
+        <v>103</v>
+      </c>
+      <c r="C694" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D694">
+        <v>103</v>
+      </c>
+      <c r="E694">
+        <v>1</v>
+      </c>
+      <c r="F694" t="s">
+        <v>13</v>
+      </c>
+      <c r="G694" t="s">
+        <v>711</v>
+      </c>
+      <c r="H694" t="s">
+        <v>12</v>
+      </c>
+      <c r="I694">
+        <v>4.0890000000000004</v>
+      </c>
+      <c r="J694">
+        <v>6.57</v>
+      </c>
+      <c r="K694">
+        <v>9.5760000000000005</v>
+      </c>
+      <c r="L694">
+        <v>12.055</v>
+      </c>
+    </row>
+    <row r="695" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>1</v>
+      </c>
+      <c r="B695">
+        <v>104</v>
+      </c>
+      <c r="C695" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D695">
+        <v>104</v>
+      </c>
+      <c r="E695">
+        <v>2</v>
+      </c>
+      <c r="F695" t="s">
+        <v>10</v>
+      </c>
+      <c r="G695" t="s">
+        <v>712</v>
+      </c>
+      <c r="H695" t="s">
+        <v>12</v>
+      </c>
+      <c r="I695">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="J695">
+        <v>9.5820000000000007</v>
+      </c>
+      <c r="K695">
+        <v>12.587</v>
+      </c>
+    </row>
+    <row r="696" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>1</v>
+      </c>
+      <c r="B696">
+        <v>105</v>
+      </c>
+      <c r="C696" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D696">
+        <v>105</v>
+      </c>
+      <c r="E696">
+        <v>1</v>
+      </c>
+      <c r="F696" t="s">
+        <v>13</v>
+      </c>
+      <c r="G696" t="s">
+        <v>713</v>
+      </c>
+      <c r="H696" t="s">
+        <v>12</v>
+      </c>
+      <c r="I696">
+        <v>4.0229999999999997</v>
+      </c>
+      <c r="J696">
+        <v>6.0970000000000004</v>
+      </c>
+      <c r="K696">
+        <v>9.0410000000000004</v>
+      </c>
+      <c r="L696">
+        <v>13.041</v>
+      </c>
+    </row>
+    <row r="697" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>1</v>
+      </c>
+      <c r="B697">
+        <v>106</v>
+      </c>
+      <c r="C697" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D697">
+        <v>106</v>
+      </c>
+      <c r="E697">
+        <v>2</v>
+      </c>
+      <c r="F697" t="s">
+        <v>10</v>
+      </c>
+      <c r="G697" t="s">
+        <v>714</v>
+      </c>
+      <c r="H697" t="s">
+        <v>12</v>
+      </c>
+      <c r="I697">
+        <v>3.0939999999999999</v>
+      </c>
+      <c r="J697">
+        <v>10.587999999999999</v>
+      </c>
+      <c r="K697">
+        <v>12.585000000000001</v>
+      </c>
+    </row>
+    <row r="698" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>1</v>
+      </c>
+      <c r="B698">
+        <v>107</v>
+      </c>
+      <c r="C698" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D698">
+        <v>107</v>
+      </c>
+      <c r="E698">
+        <v>1</v>
+      </c>
+      <c r="F698" t="s">
+        <v>13</v>
+      </c>
+      <c r="G698" t="s">
+        <v>715</v>
+      </c>
+      <c r="H698" t="s">
+        <v>12</v>
+      </c>
+      <c r="I698">
+        <v>4.6429999999999998</v>
+      </c>
+      <c r="J698">
+        <v>7.181</v>
+      </c>
+      <c r="K698">
+        <v>11.576000000000001</v>
+      </c>
+    </row>
+    <row r="699" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>1</v>
+      </c>
+      <c r="B699">
+        <v>108</v>
+      </c>
+      <c r="C699" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D699">
+        <v>108</v>
+      </c>
+      <c r="E699">
+        <v>2</v>
+      </c>
+      <c r="F699" t="s">
+        <v>10</v>
+      </c>
+      <c r="G699" t="s">
+        <v>716</v>
+      </c>
+      <c r="H699" t="s">
+        <v>12</v>
+      </c>
+      <c r="I699">
+        <v>3.617</v>
+      </c>
+      <c r="J699">
+        <v>7.0960000000000001</v>
+      </c>
+      <c r="K699">
+        <v>13.188000000000001</v>
+      </c>
+    </row>
+    <row r="700" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>1</v>
+      </c>
+      <c r="B700">
+        <v>109</v>
+      </c>
+      <c r="C700" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D700">
+        <v>109</v>
+      </c>
+      <c r="E700">
+        <v>1</v>
+      </c>
+      <c r="F700" t="s">
+        <v>13</v>
+      </c>
+      <c r="G700" t="s">
+        <v>717</v>
+      </c>
+      <c r="H700" t="s">
+        <v>12</v>
+      </c>
+      <c r="I700">
+        <v>8.0030000000000001</v>
+      </c>
+      <c r="J700">
+        <v>10.622</v>
+      </c>
+      <c r="K700">
+        <v>12.542</v>
+      </c>
+    </row>
+    <row r="701" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>1</v>
+      </c>
+      <c r="B701">
+        <v>110</v>
+      </c>
+      <c r="C701" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D701">
+        <v>110</v>
+      </c>
+      <c r="E701">
+        <v>2</v>
+      </c>
+      <c r="F701" t="s">
+        <v>10</v>
+      </c>
+      <c r="G701" t="s">
+        <v>718</v>
+      </c>
+      <c r="H701" t="s">
+        <v>12</v>
+      </c>
+      <c r="I701">
+        <v>5.0739999999999998</v>
+      </c>
+      <c r="J701">
+        <v>7.6109999999999998</v>
+      </c>
+      <c r="K701">
+        <v>9.6</v>
+      </c>
+      <c r="L701">
+        <v>11.518000000000001</v>
+      </c>
+    </row>
+    <row r="702" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>1</v>
+      </c>
+      <c r="B702">
+        <v>111</v>
+      </c>
+      <c r="C702" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D702">
+        <v>111</v>
+      </c>
+      <c r="E702">
+        <v>1</v>
+      </c>
+      <c r="F702" t="s">
+        <v>13</v>
+      </c>
+      <c r="G702" t="s">
+        <v>719</v>
+      </c>
+      <c r="H702" t="s">
+        <v>12</v>
+      </c>
+      <c r="I702">
+        <v>6.1210000000000004</v>
+      </c>
+      <c r="J702">
+        <v>9.6010000000000009</v>
+      </c>
+      <c r="K702">
+        <v>12.613</v>
+      </c>
+    </row>
+    <row r="703" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>1</v>
+      </c>
+      <c r="B703">
+        <v>112</v>
+      </c>
+      <c r="C703" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D703">
+        <v>112</v>
+      </c>
+      <c r="E703">
+        <v>2</v>
+      </c>
+      <c r="F703" t="s">
+        <v>10</v>
+      </c>
+      <c r="G703" t="s">
+        <v>720</v>
+      </c>
+      <c r="H703" t="s">
+        <v>12</v>
+      </c>
+      <c r="I703">
+        <v>5.6470000000000002</v>
+      </c>
+      <c r="J703">
+        <v>8.657</v>
+      </c>
+      <c r="K703">
+        <v>11.678000000000001</v>
+      </c>
+    </row>
+    <row r="704" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>1</v>
+      </c>
+      <c r="B704">
+        <v>113</v>
+      </c>
+      <c r="C704" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D704">
+        <v>113</v>
+      </c>
+      <c r="E704">
+        <v>1</v>
+      </c>
+      <c r="F704" t="s">
+        <v>13</v>
+      </c>
+      <c r="G704" t="s">
+        <v>721</v>
+      </c>
+      <c r="H704" t="s">
+        <v>12</v>
+      </c>
+      <c r="I704">
+        <v>3.1579999999999999</v>
+      </c>
+      <c r="J704">
+        <v>5.077</v>
+      </c>
+      <c r="K704">
+        <v>8.0749999999999993</v>
+      </c>
+    </row>
+    <row r="705" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>1</v>
+      </c>
+      <c r="B705">
+        <v>114</v>
+      </c>
+      <c r="C705" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D705">
+        <v>114</v>
+      </c>
+      <c r="E705">
+        <v>2</v>
+      </c>
+      <c r="F705" t="s">
+        <v>10</v>
+      </c>
+      <c r="G705" t="s">
+        <v>722</v>
+      </c>
+      <c r="H705" t="s">
+        <v>12</v>
+      </c>
+      <c r="I705">
+        <v>5.7160000000000002</v>
+      </c>
+      <c r="J705">
+        <v>10.59</v>
+      </c>
+      <c r="K705">
+        <v>12.602</v>
+      </c>
+    </row>
+    <row r="706" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>1</v>
+      </c>
+      <c r="B706">
+        <v>115</v>
+      </c>
+      <c r="C706" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D706">
+        <v>115</v>
+      </c>
+      <c r="E706">
+        <v>1</v>
+      </c>
+      <c r="F706" t="s">
+        <v>13</v>
+      </c>
+      <c r="G706" t="s">
+        <v>723</v>
+      </c>
+      <c r="H706" t="s">
+        <v>12</v>
+      </c>
+      <c r="I706">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="J706">
+        <v>9.4870000000000001</v>
+      </c>
+      <c r="K706">
+        <v>11.567</v>
+      </c>
+    </row>
+    <row r="707" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>1</v>
+      </c>
+      <c r="B707">
+        <v>116</v>
+      </c>
+      <c r="C707" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D707">
+        <v>116</v>
+      </c>
+      <c r="E707">
+        <v>2</v>
+      </c>
+      <c r="F707" t="s">
+        <v>10</v>
+      </c>
+      <c r="G707" t="s">
+        <v>724</v>
+      </c>
+      <c r="H707" t="s">
+        <v>12</v>
+      </c>
+      <c r="I707">
+        <v>4.0209999999999999</v>
+      </c>
+      <c r="J707">
+        <v>6.1</v>
+      </c>
+      <c r="K707">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="708" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>1</v>
+      </c>
+      <c r="B708">
+        <v>117</v>
+      </c>
+      <c r="C708" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D708">
+        <v>117</v>
+      </c>
+      <c r="E708">
+        <v>1</v>
+      </c>
+      <c r="F708" t="s">
+        <v>13</v>
+      </c>
+      <c r="G708" t="s">
+        <v>725</v>
+      </c>
+      <c r="H708" t="s">
+        <v>12</v>
+      </c>
+      <c r="I708">
+        <v>4.6130000000000004</v>
+      </c>
+      <c r="J708">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="K708">
+        <v>13.086</v>
+      </c>
+    </row>
+    <row r="709" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>1</v>
+      </c>
+      <c r="B709">
+        <v>118</v>
+      </c>
+      <c r="C709" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D709">
+        <v>118</v>
+      </c>
+      <c r="E709">
+        <v>2</v>
+      </c>
+      <c r="F709" t="s">
+        <v>10</v>
+      </c>
+      <c r="G709" t="s">
+        <v>726</v>
+      </c>
+      <c r="H709" t="s">
+        <v>12</v>
+      </c>
+      <c r="I709">
+        <v>5.5679999999999996</v>
+      </c>
+      <c r="J709">
+        <v>8.1050000000000004</v>
+      </c>
+      <c r="K709">
+        <v>11.561</v>
+      </c>
+    </row>
+    <row r="710" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>1</v>
+      </c>
+      <c r="B710">
+        <v>119</v>
+      </c>
+      <c r="C710" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D710">
+        <v>119</v>
+      </c>
+      <c r="E710">
+        <v>1</v>
+      </c>
+      <c r="F710" t="s">
+        <v>13</v>
+      </c>
+      <c r="G710" t="s">
+        <v>727</v>
+      </c>
+      <c r="H710" t="s">
+        <v>12</v>
+      </c>
+      <c r="I710">
+        <v>5.556</v>
+      </c>
+      <c r="J710">
+        <v>9.0340000000000007</v>
+      </c>
+      <c r="K710">
+        <v>11.59</v>
+      </c>
+    </row>
+    <row r="711" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>1</v>
+      </c>
+      <c r="B711">
+        <v>120</v>
+      </c>
+      <c r="C711" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D711">
+        <v>120</v>
+      </c>
+      <c r="E711">
+        <v>2</v>
+      </c>
+      <c r="F711" t="s">
+        <v>10</v>
+      </c>
+      <c r="G711" t="s">
+        <v>728</v>
+      </c>
+      <c r="H711" t="s">
+        <v>12</v>
+      </c>
+      <c r="I711">
+        <v>3.1640000000000001</v>
+      </c>
+      <c r="J711">
+        <v>10.122999999999999</v>
+      </c>
+      <c r="K711">
+        <v>13.141999999999999</v>
+      </c>
+    </row>
+    <row r="712" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>1</v>
+      </c>
+      <c r="B712">
+        <v>121</v>
+      </c>
+      <c r="C712" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D712">
+        <v>121</v>
+      </c>
+      <c r="E712">
+        <v>1</v>
+      </c>
+      <c r="F712" t="s">
+        <v>13</v>
+      </c>
+      <c r="G712" t="s">
+        <v>729</v>
+      </c>
+      <c r="H712" t="s">
+        <v>12</v>
+      </c>
+      <c r="I712">
+        <v>4.5419999999999998</v>
+      </c>
+      <c r="J712">
+        <v>8.5519999999999996</v>
+      </c>
+      <c r="K712">
+        <v>12.573</v>
+      </c>
+    </row>
+    <row r="713" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>1</v>
+      </c>
+      <c r="B713">
+        <v>122</v>
+      </c>
+      <c r="C713" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D713">
+        <v>122</v>
+      </c>
+      <c r="E713">
+        <v>2</v>
+      </c>
+      <c r="F713" t="s">
+        <v>10</v>
+      </c>
+      <c r="G713" t="s">
+        <v>730</v>
+      </c>
+      <c r="H713" t="s">
+        <v>12</v>
+      </c>
+      <c r="I713">
+        <v>3.6309999999999998</v>
+      </c>
+      <c r="J713">
+        <v>6.0389999999999997</v>
+      </c>
+      <c r="K713">
+        <v>8.1120000000000001</v>
+      </c>
+      <c r="L713">
+        <v>12.598000000000001</v>
+      </c>
+    </row>
+    <row r="714" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>1</v>
+      </c>
+      <c r="B714">
+        <v>123</v>
+      </c>
+      <c r="C714" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D714">
+        <v>123</v>
+      </c>
+      <c r="E714">
+        <v>1</v>
+      </c>
+      <c r="F714" t="s">
+        <v>13</v>
+      </c>
+      <c r="G714" t="s">
+        <v>731</v>
+      </c>
+      <c r="H714" t="s">
+        <v>12</v>
+      </c>
+      <c r="I714">
+        <v>2.153</v>
+      </c>
+      <c r="J714">
+        <v>12.544</v>
+      </c>
+    </row>
+    <row r="715" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>1</v>
+      </c>
+      <c r="B715">
+        <v>124</v>
+      </c>
+      <c r="C715" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D715">
+        <v>124</v>
+      </c>
+      <c r="E715">
+        <v>2</v>
+      </c>
+      <c r="F715" t="s">
+        <v>10</v>
+      </c>
+      <c r="G715" t="s">
+        <v>732</v>
+      </c>
+      <c r="H715" t="s">
+        <v>12</v>
+      </c>
+      <c r="I715">
+        <v>7.19</v>
+      </c>
+      <c r="J715">
+        <v>9.1910000000000007</v>
+      </c>
+      <c r="K715">
+        <v>11.981999999999999</v>
+      </c>
+    </row>
+    <row r="716" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>1</v>
+      </c>
+      <c r="B716">
+        <v>125</v>
+      </c>
+      <c r="C716" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D716">
+        <v>125</v>
+      </c>
+      <c r="E716">
+        <v>1</v>
+      </c>
+      <c r="F716" t="s">
+        <v>13</v>
+      </c>
+      <c r="G716" t="s">
+        <v>733</v>
+      </c>
+      <c r="H716" t="s">
+        <v>12</v>
+      </c>
+      <c r="I716">
+        <v>3.5640000000000001</v>
+      </c>
+      <c r="J716">
+        <v>7.5119999999999996</v>
+      </c>
+    </row>
+    <row r="717" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>1</v>
+      </c>
+      <c r="B717">
+        <v>126</v>
+      </c>
+      <c r="C717" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D717">
+        <v>126</v>
+      </c>
+      <c r="E717">
+        <v>2</v>
+      </c>
+      <c r="F717" t="s">
+        <v>10</v>
+      </c>
+      <c r="G717" t="s">
+        <v>734</v>
+      </c>
+      <c r="H717" t="s">
+        <v>12</v>
+      </c>
+      <c r="I717">
+        <v>3.1739999999999999</v>
+      </c>
+      <c r="J717">
+        <v>8.5359999999999996</v>
+      </c>
+      <c r="K717">
+        <v>12.032</v>
+      </c>
+      <c r="L717">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="718" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>1</v>
+      </c>
+      <c r="B718">
+        <v>127</v>
+      </c>
+      <c r="C718" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D718">
+        <v>127</v>
+      </c>
+      <c r="E718">
+        <v>1</v>
+      </c>
+      <c r="F718" t="s">
+        <v>13</v>
+      </c>
+      <c r="G718" t="s">
+        <v>735</v>
+      </c>
+      <c r="H718" t="s">
+        <v>12</v>
+      </c>
+      <c r="I718">
+        <v>2.16</v>
+      </c>
+      <c r="J718">
+        <v>8.0519999999999996</v>
+      </c>
+      <c r="K718">
+        <v>10.605</v>
+      </c>
+    </row>
+    <row r="719" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>1</v>
+      </c>
+      <c r="B719">
+        <v>128</v>
+      </c>
+      <c r="C719" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D719">
+        <v>128</v>
+      </c>
+      <c r="E719">
+        <v>2</v>
+      </c>
+      <c r="F719" t="s">
+        <v>10</v>
+      </c>
+      <c r="G719" t="s">
+        <v>736</v>
+      </c>
+      <c r="H719" t="s">
+        <v>12</v>
+      </c>
+      <c r="I719">
+        <v>3.5489999999999999</v>
+      </c>
+      <c r="J719">
+        <v>5.6260000000000003</v>
+      </c>
+      <c r="K719">
+        <v>8.0960000000000001</v>
+      </c>
+      <c r="L719">
+        <v>11.026999999999999</v>
+      </c>
+    </row>
+    <row r="720" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>1</v>
+      </c>
+      <c r="B720">
+        <v>129</v>
+      </c>
+      <c r="C720" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D720">
+        <v>129</v>
+      </c>
+      <c r="E720">
+        <v>1</v>
+      </c>
+      <c r="F720" t="s">
+        <v>13</v>
+      </c>
+      <c r="G720" t="s">
+        <v>737</v>
+      </c>
+      <c r="H720" t="s">
+        <v>12</v>
+      </c>
+      <c r="I720">
+        <v>2.6240000000000001</v>
+      </c>
+      <c r="J720">
+        <v>4.6269999999999998</v>
+      </c>
+      <c r="K720">
+        <v>7.0090000000000003</v>
+      </c>
+      <c r="L720">
+        <v>11.023</v>
+      </c>
+    </row>
+    <row r="721" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>1</v>
+      </c>
+      <c r="B721">
+        <v>130</v>
+      </c>
+      <c r="C721" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D721">
+        <v>130</v>
+      </c>
+      <c r="E721">
+        <v>2</v>
+      </c>
+      <c r="F721" t="s">
+        <v>10</v>
+      </c>
+      <c r="G721" t="s">
+        <v>738</v>
+      </c>
+      <c r="H721" t="s">
+        <v>12</v>
+      </c>
+      <c r="I721">
+        <v>4.5789999999999997</v>
+      </c>
+      <c r="J721">
+        <v>7.1230000000000002</v>
+      </c>
+      <c r="K721">
+        <v>9.0470000000000006</v>
+      </c>
+      <c r="L721">
+        <v>11.132</v>
+      </c>
+    </row>
+    <row r="722" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>1</v>
+      </c>
+      <c r="B722">
+        <v>131</v>
+      </c>
+      <c r="C722" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D722">
+        <v>131</v>
+      </c>
+      <c r="E722">
+        <v>1</v>
+      </c>
+      <c r="F722" t="s">
+        <v>13</v>
+      </c>
+      <c r="G722" t="s">
+        <v>739</v>
+      </c>
+      <c r="H722" t="s">
+        <v>12</v>
+      </c>
+      <c r="I722">
+        <v>6.024</v>
+      </c>
+      <c r="J722">
+        <v>8.02</v>
+      </c>
+      <c r="K722">
+        <v>9.9529999999999994</v>
+      </c>
+      <c r="L722">
+        <v>12.965999999999999</v>
+      </c>
+    </row>
+    <row r="723" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>1</v>
+      </c>
+      <c r="B723">
+        <v>132</v>
+      </c>
+      <c r="C723" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D723">
+        <v>132</v>
+      </c>
+      <c r="E723">
+        <v>2</v>
+      </c>
+      <c r="F723" t="s">
+        <v>10</v>
+      </c>
+      <c r="G723" t="s">
+        <v>740</v>
+      </c>
+      <c r="H723" t="s">
+        <v>12</v>
+      </c>
+      <c r="I723">
+        <v>4.5620000000000003</v>
+      </c>
+      <c r="J723">
+        <v>7.1040000000000001</v>
+      </c>
+      <c r="K723">
+        <v>12.045</v>
+      </c>
+    </row>
+    <row r="724" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>1</v>
+      </c>
+      <c r="B724">
+        <v>133</v>
+      </c>
+      <c r="C724" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D724">
+        <v>133</v>
+      </c>
+      <c r="E724">
+        <v>1</v>
+      </c>
+      <c r="F724" t="s">
+        <v>13</v>
+      </c>
+      <c r="G724" t="s">
+        <v>741</v>
+      </c>
+      <c r="H724" t="s">
+        <v>12</v>
+      </c>
+      <c r="I724">
+        <v>2.6190000000000002</v>
+      </c>
+      <c r="J724">
+        <v>6.4829999999999997</v>
+      </c>
+      <c r="K724">
+        <v>9.1059999999999999</v>
+      </c>
+    </row>
+    <row r="725" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>1</v>
+      </c>
+      <c r="B725">
+        <v>134</v>
+      </c>
+      <c r="C725" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D725">
+        <v>134</v>
+      </c>
+      <c r="E725">
+        <v>2</v>
+      </c>
+      <c r="F725" t="s">
+        <v>10</v>
+      </c>
+      <c r="G725" t="s">
+        <v>742</v>
+      </c>
+      <c r="H725" t="s">
+        <v>12</v>
+      </c>
+      <c r="I725">
+        <v>3.552</v>
+      </c>
+      <c r="J725">
+        <v>5.5650000000000004</v>
+      </c>
+      <c r="K725">
+        <v>7.6440000000000001</v>
+      </c>
+      <c r="L725">
+        <v>11.510999999999999</v>
+      </c>
+    </row>
+    <row r="726" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>1</v>
+      </c>
+      <c r="B726">
+        <v>135</v>
+      </c>
+      <c r="C726" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D726">
+        <v>135</v>
+      </c>
+      <c r="E726">
+        <v>1</v>
+      </c>
+      <c r="F726" t="s">
+        <v>13</v>
+      </c>
+      <c r="G726" t="s">
+        <v>743</v>
+      </c>
+      <c r="H726" t="s">
+        <v>12</v>
+      </c>
+      <c r="I726">
+        <v>5.1050000000000004</v>
+      </c>
+      <c r="J726">
+        <v>8.1110000000000007</v>
+      </c>
+      <c r="K726">
+        <v>12.519</v>
+      </c>
+    </row>
+    <row r="727" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>1</v>
+      </c>
+      <c r="B727">
+        <v>136</v>
+      </c>
+      <c r="C727" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D727">
+        <v>136</v>
+      </c>
+      <c r="E727">
+        <v>2</v>
+      </c>
+      <c r="F727" t="s">
+        <v>10</v>
+      </c>
+      <c r="G727" t="s">
+        <v>744</v>
+      </c>
+      <c r="H727" t="s">
+        <v>12</v>
+      </c>
+      <c r="I727">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="J727">
+        <v>7.024</v>
+      </c>
+      <c r="K727">
+        <v>9.6460000000000008</v>
+      </c>
+    </row>
+    <row r="728" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>1</v>
+      </c>
+      <c r="B728">
+        <v>137</v>
+      </c>
+      <c r="C728" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D728">
+        <v>137</v>
+      </c>
+      <c r="E728">
+        <v>1</v>
+      </c>
+      <c r="F728" t="s">
+        <v>13</v>
+      </c>
+      <c r="G728" t="s">
+        <v>745</v>
+      </c>
+      <c r="H728" t="s">
+        <v>12</v>
+      </c>
+      <c r="I728">
+        <v>3.4980000000000002</v>
+      </c>
+      <c r="J728">
+        <v>9.0619999999999994</v>
+      </c>
+      <c r="K728">
+        <v>11.609</v>
+      </c>
+    </row>
+    <row r="729" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>1</v>
+      </c>
+      <c r="B729">
+        <v>138</v>
+      </c>
+      <c r="C729" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D729">
+        <v>138</v>
+      </c>
+      <c r="E729">
+        <v>2</v>
+      </c>
+      <c r="F729" t="s">
+        <v>10</v>
+      </c>
+      <c r="G729" t="s">
+        <v>746</v>
+      </c>
+      <c r="H729" t="s">
+        <v>12</v>
+      </c>
+      <c r="I729">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="J729">
+        <v>4.6269999999999998</v>
+      </c>
+      <c r="K729">
+        <v>10.119</v>
+      </c>
+    </row>
+    <row r="730" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>1</v>
+      </c>
+      <c r="B730">
+        <v>139</v>
+      </c>
+      <c r="C730" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D730">
+        <v>139</v>
+      </c>
+      <c r="E730">
+        <v>1</v>
+      </c>
+      <c r="F730" t="s">
+        <v>13</v>
+      </c>
+      <c r="G730" t="s">
+        <v>747</v>
+      </c>
+      <c r="H730" t="s">
+        <v>12</v>
+      </c>
+      <c r="I730">
+        <v>4.5049999999999999</v>
+      </c>
+      <c r="J730">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="K730">
+        <v>13.093</v>
+      </c>
+    </row>
+    <row r="731" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>1</v>
+      </c>
+      <c r="B731">
+        <v>140</v>
+      </c>
+      <c r="C731" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D731">
+        <v>140</v>
+      </c>
+      <c r="E731">
+        <v>2</v>
+      </c>
+      <c r="F731" t="s">
+        <v>10</v>
+      </c>
+      <c r="G731" t="s">
+        <v>748</v>
+      </c>
+      <c r="H731" t="s">
+        <v>12</v>
+      </c>
+      <c r="I731">
+        <v>3.1629999999999998</v>
+      </c>
+      <c r="J731">
+        <v>5.56</v>
+      </c>
+      <c r="K731">
+        <v>7.5759999999999996</v>
+      </c>
+      <c r="L731">
+        <v>10.041</v>
+      </c>
+    </row>
+    <row r="732" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>1</v>
+      </c>
+      <c r="B732">
+        <v>141</v>
+      </c>
+      <c r="C732" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D732">
+        <v>141</v>
+      </c>
+      <c r="E732">
+        <v>1</v>
+      </c>
+      <c r="F732" t="s">
+        <v>13</v>
+      </c>
+      <c r="G732" t="s">
+        <v>749</v>
+      </c>
+      <c r="H732" t="s">
+        <v>12</v>
+      </c>
+      <c r="I732">
+        <v>2.6269999999999998</v>
+      </c>
+      <c r="J732">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="K732">
+        <v>12.523</v>
+      </c>
+    </row>
+    <row r="733" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>1</v>
+      </c>
+      <c r="B733">
+        <v>142</v>
+      </c>
+      <c r="C733" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D733">
+        <v>142</v>
+      </c>
+      <c r="E733">
+        <v>2</v>
+      </c>
+      <c r="F733" t="s">
+        <v>10</v>
+      </c>
+      <c r="G733" t="s">
+        <v>750</v>
+      </c>
+      <c r="H733" t="s">
+        <v>12</v>
+      </c>
+      <c r="I733">
+        <v>2.62</v>
+      </c>
+      <c r="J733">
+        <v>6.02</v>
+      </c>
+      <c r="K733">
+        <v>8.0210000000000008</v>
+      </c>
+    </row>
+    <row r="734" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>1</v>
+      </c>
+      <c r="B734">
+        <v>143</v>
+      </c>
+      <c r="C734" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D734">
+        <v>143</v>
+      </c>
+      <c r="E734">
+        <v>1</v>
+      </c>
+      <c r="F734" t="s">
+        <v>13</v>
+      </c>
+      <c r="G734" t="s">
+        <v>751</v>
+      </c>
+      <c r="H734" t="s">
+        <v>12</v>
+      </c>
+      <c r="I734">
+        <v>2.16</v>
+      </c>
+      <c r="J734">
+        <v>5.0910000000000002</v>
+      </c>
+      <c r="K734">
+        <v>8.5559999999999992</v>
+      </c>
+    </row>
+    <row r="735" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>1</v>
+      </c>
+      <c r="B735">
+        <v>144</v>
+      </c>
+      <c r="C735" s="1">
+        <v>45141</v>
+      </c>
+      <c r="D735">
+        <v>144</v>
+      </c>
+      <c r="E735">
+        <v>2</v>
+      </c>
+      <c r="F735" t="s">
+        <v>10</v>
+      </c>
+      <c r="G735" t="s">
+        <v>752</v>
+      </c>
+      <c r="H735" t="s">
+        <v>12</v>
+      </c>
+      <c r="I735">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="J735">
+        <v>4.0919999999999996</v>
+      </c>
+      <c r="K735">
+        <v>7.6529999999999996</v>
+      </c>
+      <c r="L735">
+        <v>13.065</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fNIRSandGerbils.xlsx
+++ b/data/fNIRSandGerbils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benri\Documents\GitHub\fNIRSandGerbils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3990893F-28F0-4F00-9F1B-D7F9141144F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42792D10-E710-4C80-AD5D-CE79B4D80D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="720" windowWidth="15564" windowHeight="12240" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E27CA675-299A-4EB1-A046-89C40DE47D7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3361" uniqueCount="898">
   <si>
     <t>S</t>
   </si>
@@ -2295,6 +2295,441 @@
   </si>
   <si>
     <t>D:\Experiments\fNIRSandGerbils\stim\s_001\unscrambled\92_unscrambled.wav</t>
+  </si>
+  <si>
+    <t>newpilot93</t>
+  </si>
+  <si>
+    <t>scrambled_diff_talker</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\102_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>scrambled_same_talker</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\100_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>unscrambled_diff_talker</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\103_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>unscrambled_same_talker</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\101_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\106_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\104_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\114_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\105_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\107_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\116_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\109_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\111_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\115_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\108_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\113_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\118_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\120_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\117_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\11_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\10_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\122_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\121_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\125_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\110_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\123_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\12_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\112_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\126_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\124_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\133_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\119_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\129_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\127_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\141_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\135_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\130_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\17_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\137_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\136_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\128_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\138_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\131_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\18_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\13_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\1_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\132_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\139_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\142_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\134_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\140_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\143_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\22_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\15_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\26_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\144_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\16_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\14_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\19_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\28_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\20_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\32_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\21_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\27_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\23_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\24_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\29_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\25_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\34_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\37_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\36_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\2_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\31_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\46_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\38_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\30_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\33_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\51_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\39_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\35_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\43_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\52_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\40_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\45_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\3_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\55_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\44_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\53_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\41_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\48_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\42_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\57_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\56_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\47_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\4_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\61_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\58_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\50_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\5_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\63_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\49_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\70_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\54_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\60_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\62_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\72_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\66_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\59_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\67_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\64_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\69_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\68_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\77_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\65_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\6_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\78_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\75_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\7_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\71_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\74_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\86_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\82_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\73_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\90_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\83_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\76_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\85_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\87_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\92_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\88_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\89_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\93_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\79_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\8_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\91_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\95_unscrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\80_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_same_talker\9_scrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_same_talker\96_unscrambled_st.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\scrambled_diff_talker\81_scrambled_dt.wav</t>
+  </si>
+  <si>
+    <t>D:\Experiments\fNIRSandGerbils\stim\s_newpilot93\unscrambled_diff_talker\97_unscrambled_dt.wav</t>
   </si>
 </sst>
 </file>
@@ -2647,10 +3082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E945CDA-0894-470B-A916-C9F7C84C6ED4}">
-  <dimension ref="A1:M735"/>
+  <dimension ref="A1:O875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
-      <selection activeCell="E604" sqref="E604"/>
+    <sheetView tabSelected="1" topLeftCell="G734" workbookViewId="0">
+      <selection activeCell="G738" sqref="G738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28785,6 +29220,5431 @@
         <v>13.065</v>
       </c>
     </row>
+    <row r="736" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>753</v>
+      </c>
+      <c r="B736">
+        <v>1</v>
+      </c>
+      <c r="C736" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D736">
+        <v>1</v>
+      </c>
+      <c r="E736">
+        <v>1</v>
+      </c>
+      <c r="F736" t="s">
+        <v>754</v>
+      </c>
+      <c r="G736" t="s">
+        <v>755</v>
+      </c>
+      <c r="H736" t="s">
+        <v>12</v>
+      </c>
+      <c r="I736">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="J736">
+        <v>4.4560000000000004</v>
+      </c>
+      <c r="K736">
+        <v>7.6449999999999996</v>
+      </c>
+      <c r="L736">
+        <v>10.286</v>
+      </c>
+    </row>
+    <row r="737" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>753</v>
+      </c>
+      <c r="B737">
+        <v>2</v>
+      </c>
+      <c r="C737" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D737">
+        <v>2</v>
+      </c>
+      <c r="E737">
+        <v>2</v>
+      </c>
+      <c r="F737" t="s">
+        <v>756</v>
+      </c>
+      <c r="G737" t="s">
+        <v>757</v>
+      </c>
+      <c r="H737" t="s">
+        <v>12</v>
+      </c>
+      <c r="I737">
+        <v>5.39</v>
+      </c>
+      <c r="J737">
+        <v>7.6440000000000001</v>
+      </c>
+      <c r="K737">
+        <v>10.662000000000001</v>
+      </c>
+      <c r="L737">
+        <v>11.968999999999999</v>
+      </c>
+    </row>
+    <row r="738" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>753</v>
+      </c>
+      <c r="B738">
+        <v>3</v>
+      </c>
+      <c r="C738" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D738">
+        <v>3</v>
+      </c>
+      <c r="E738">
+        <v>3</v>
+      </c>
+      <c r="F738" t="s">
+        <v>758</v>
+      </c>
+      <c r="G738" t="s">
+        <v>759</v>
+      </c>
+      <c r="H738" t="s">
+        <v>12</v>
+      </c>
+      <c r="I738">
+        <v>1.837</v>
+      </c>
+      <c r="J738">
+        <v>5.0810000000000004</v>
+      </c>
+      <c r="K738">
+        <v>9.6539999999999999</v>
+      </c>
+      <c r="L738">
+        <v>11.273999999999999</v>
+      </c>
+    </row>
+    <row r="739" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>753</v>
+      </c>
+      <c r="B739">
+        <v>4</v>
+      </c>
+      <c r="C739" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D739">
+        <v>4</v>
+      </c>
+      <c r="E739">
+        <v>4</v>
+      </c>
+      <c r="F739" t="s">
+        <v>760</v>
+      </c>
+      <c r="G739" t="s">
+        <v>761</v>
+      </c>
+      <c r="H739" t="s">
+        <v>12</v>
+      </c>
+      <c r="I739">
+        <v>4.3959999999999999</v>
+      </c>
+      <c r="J739">
+        <v>5.4640000000000004</v>
+      </c>
+      <c r="K739">
+        <v>7.0250000000000004</v>
+      </c>
+      <c r="L739">
+        <v>8.4969999999999999</v>
+      </c>
+      <c r="M739">
+        <v>10.968</v>
+      </c>
+    </row>
+    <row r="740" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>753</v>
+      </c>
+      <c r="B740">
+        <v>5</v>
+      </c>
+      <c r="C740" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D740">
+        <v>5</v>
+      </c>
+      <c r="E740">
+        <v>3</v>
+      </c>
+      <c r="F740" t="s">
+        <v>758</v>
+      </c>
+      <c r="G740" t="s">
+        <v>762</v>
+      </c>
+      <c r="H740" t="s">
+        <v>12</v>
+      </c>
+      <c r="I740">
+        <v>3.3929999999999998</v>
+      </c>
+      <c r="J740">
+        <v>4.62</v>
+      </c>
+      <c r="K740">
+        <v>6.702</v>
+      </c>
+      <c r="L740">
+        <v>8.7029999999999994</v>
+      </c>
+    </row>
+    <row r="741" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>753</v>
+      </c>
+      <c r="B741">
+        <v>6</v>
+      </c>
+      <c r="C741" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D741">
+        <v>6</v>
+      </c>
+      <c r="E741">
+        <v>1</v>
+      </c>
+      <c r="F741" t="s">
+        <v>754</v>
+      </c>
+      <c r="G741" t="s">
+        <v>763</v>
+      </c>
+      <c r="H741" t="s">
+        <v>12</v>
+      </c>
+      <c r="I741">
+        <v>4.2430000000000003</v>
+      </c>
+      <c r="J741">
+        <v>7.8049999999999997</v>
+      </c>
+      <c r="K741">
+        <v>8.7249999999999996</v>
+      </c>
+      <c r="L741">
+        <v>10.651</v>
+      </c>
+      <c r="M741">
+        <v>11.882</v>
+      </c>
+    </row>
+    <row r="742" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>753</v>
+      </c>
+      <c r="B742">
+        <v>7</v>
+      </c>
+      <c r="C742" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D742">
+        <v>7</v>
+      </c>
+      <c r="E742">
+        <v>2</v>
+      </c>
+      <c r="F742" t="s">
+        <v>756</v>
+      </c>
+      <c r="G742" t="s">
+        <v>764</v>
+      </c>
+      <c r="H742" t="s">
+        <v>12</v>
+      </c>
+      <c r="I742">
+        <v>5.2619999999999996</v>
+      </c>
+      <c r="J742">
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="K742">
+        <v>8.3330000000000002</v>
+      </c>
+      <c r="L742">
+        <v>11.677</v>
+      </c>
+    </row>
+    <row r="743" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>753</v>
+      </c>
+      <c r="B743">
+        <v>8</v>
+      </c>
+      <c r="C743" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D743">
+        <v>8</v>
+      </c>
+      <c r="E743">
+        <v>4</v>
+      </c>
+      <c r="F743" t="s">
+        <v>760</v>
+      </c>
+      <c r="G743" t="s">
+        <v>765</v>
+      </c>
+      <c r="H743" t="s">
+        <v>12</v>
+      </c>
+      <c r="I743">
+        <v>2.85</v>
+      </c>
+      <c r="J743">
+        <v>4.6859999999999999</v>
+      </c>
+      <c r="K743">
+        <v>5.5250000000000004</v>
+      </c>
+      <c r="L743">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="744" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>753</v>
+      </c>
+      <c r="B744">
+        <v>9</v>
+      </c>
+      <c r="C744" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D744">
+        <v>9</v>
+      </c>
+      <c r="E744">
+        <v>1</v>
+      </c>
+      <c r="F744" t="s">
+        <v>754</v>
+      </c>
+      <c r="G744" t="s">
+        <v>766</v>
+      </c>
+      <c r="H744" t="s">
+        <v>12</v>
+      </c>
+      <c r="I744">
+        <v>5.7549999999999999</v>
+      </c>
+      <c r="J744">
+        <v>7.0679999999999996</v>
+      </c>
+      <c r="K744">
+        <v>12.035</v>
+      </c>
+    </row>
+    <row r="745" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>753</v>
+      </c>
+      <c r="B745">
+        <v>10</v>
+      </c>
+      <c r="C745" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D745">
+        <v>10</v>
+      </c>
+      <c r="E745">
+        <v>2</v>
+      </c>
+      <c r="F745" t="s">
+        <v>756</v>
+      </c>
+      <c r="G745" t="s">
+        <v>767</v>
+      </c>
+      <c r="H745" t="s">
+        <v>12</v>
+      </c>
+      <c r="I745">
+        <v>3.161</v>
+      </c>
+      <c r="J745">
+        <v>5.0110000000000001</v>
+      </c>
+      <c r="K745">
+        <v>7.5709999999999997</v>
+      </c>
+      <c r="L745">
+        <v>8.407</v>
+      </c>
+    </row>
+    <row r="746" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>753</v>
+      </c>
+      <c r="B746">
+        <v>11</v>
+      </c>
+      <c r="C746" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D746">
+        <v>11</v>
+      </c>
+      <c r="E746">
+        <v>3</v>
+      </c>
+      <c r="F746" t="s">
+        <v>758</v>
+      </c>
+      <c r="G746" t="s">
+        <v>768</v>
+      </c>
+      <c r="H746" t="s">
+        <v>12</v>
+      </c>
+      <c r="I746">
+        <v>4.41</v>
+      </c>
+      <c r="J746">
+        <v>5.8680000000000003</v>
+      </c>
+      <c r="K746">
+        <v>7.0129999999999999</v>
+      </c>
+      <c r="L746">
+        <v>8.1590000000000007</v>
+      </c>
+    </row>
+    <row r="747" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>753</v>
+      </c>
+      <c r="B747">
+        <v>12</v>
+      </c>
+      <c r="C747" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D747">
+        <v>12</v>
+      </c>
+      <c r="E747">
+        <v>4</v>
+      </c>
+      <c r="F747" t="s">
+        <v>760</v>
+      </c>
+      <c r="G747" t="s">
+        <v>769</v>
+      </c>
+      <c r="H747" t="s">
+        <v>12</v>
+      </c>
+      <c r="I747">
+        <v>4.87</v>
+      </c>
+      <c r="J747">
+        <v>5.7229999999999999</v>
+      </c>
+      <c r="K747">
+        <v>11.523</v>
+      </c>
+    </row>
+    <row r="748" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>753</v>
+      </c>
+      <c r="B748">
+        <v>13</v>
+      </c>
+      <c r="C748" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D748">
+        <v>13</v>
+      </c>
+      <c r="E748">
+        <v>3</v>
+      </c>
+      <c r="F748" t="s">
+        <v>758</v>
+      </c>
+      <c r="G748" t="s">
+        <v>770</v>
+      </c>
+      <c r="H748" t="s">
+        <v>12</v>
+      </c>
+      <c r="I748">
+        <v>2.5470000000000002</v>
+      </c>
+      <c r="J748">
+        <v>3.6880000000000002</v>
+      </c>
+      <c r="K748">
+        <v>5.8440000000000003</v>
+      </c>
+      <c r="L748">
+        <v>8.7810000000000006</v>
+      </c>
+    </row>
+    <row r="749" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>753</v>
+      </c>
+      <c r="B749">
+        <v>14</v>
+      </c>
+      <c r="C749" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D749">
+        <v>14</v>
+      </c>
+      <c r="E749">
+        <v>1</v>
+      </c>
+      <c r="F749" t="s">
+        <v>754</v>
+      </c>
+      <c r="G749" t="s">
+        <v>771</v>
+      </c>
+      <c r="H749" t="s">
+        <v>12</v>
+      </c>
+      <c r="I749">
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="J749">
+        <v>5.9349999999999996</v>
+      </c>
+      <c r="K749">
+        <v>10.726000000000001</v>
+      </c>
+      <c r="L749">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="750" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>753</v>
+      </c>
+      <c r="B750">
+        <v>15</v>
+      </c>
+      <c r="C750" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D750">
+        <v>15</v>
+      </c>
+      <c r="E750">
+        <v>4</v>
+      </c>
+      <c r="F750" t="s">
+        <v>760</v>
+      </c>
+      <c r="G750" t="s">
+        <v>772</v>
+      </c>
+      <c r="H750" t="s">
+        <v>12</v>
+      </c>
+      <c r="I750">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="J750">
+        <v>8.6280000000000001</v>
+      </c>
+      <c r="K750">
+        <v>10.233000000000001</v>
+      </c>
+    </row>
+    <row r="751" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>753</v>
+      </c>
+      <c r="B751">
+        <v>16</v>
+      </c>
+      <c r="C751" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D751">
+        <v>16</v>
+      </c>
+      <c r="E751">
+        <v>2</v>
+      </c>
+      <c r="F751" t="s">
+        <v>756</v>
+      </c>
+      <c r="G751" t="s">
+        <v>773</v>
+      </c>
+      <c r="H751" t="s">
+        <v>12</v>
+      </c>
+      <c r="I751">
+        <v>4.181</v>
+      </c>
+      <c r="J751">
+        <v>6.5670000000000002</v>
+      </c>
+      <c r="K751">
+        <v>7.6379999999999999</v>
+      </c>
+      <c r="L751">
+        <v>8.4789999999999992</v>
+      </c>
+      <c r="M751">
+        <v>9.7240000000000002</v>
+      </c>
+    </row>
+    <row r="752" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>753</v>
+      </c>
+      <c r="B752">
+        <v>17</v>
+      </c>
+      <c r="C752" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D752">
+        <v>17</v>
+      </c>
+      <c r="E752">
+        <v>3</v>
+      </c>
+      <c r="F752" t="s">
+        <v>758</v>
+      </c>
+      <c r="G752" t="s">
+        <v>774</v>
+      </c>
+      <c r="H752" t="s">
+        <v>12</v>
+      </c>
+      <c r="I752">
+        <v>2.222</v>
+      </c>
+      <c r="J752">
+        <v>6.1829999999999998</v>
+      </c>
+      <c r="K752">
+        <v>7.1790000000000003</v>
+      </c>
+      <c r="L752">
+        <v>9.2850000000000001</v>
+      </c>
+    </row>
+    <row r="753" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>753</v>
+      </c>
+      <c r="B753">
+        <v>18</v>
+      </c>
+      <c r="C753" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D753">
+        <v>18</v>
+      </c>
+      <c r="E753">
+        <v>4</v>
+      </c>
+      <c r="F753" t="s">
+        <v>760</v>
+      </c>
+      <c r="G753" t="s">
+        <v>775</v>
+      </c>
+      <c r="H753" t="s">
+        <v>12</v>
+      </c>
+      <c r="I753">
+        <v>1.7</v>
+      </c>
+      <c r="J753">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="K753">
+        <v>7.577</v>
+      </c>
+      <c r="L753">
+        <v>8.6470000000000002</v>
+      </c>
+    </row>
+    <row r="754" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>753</v>
+      </c>
+      <c r="B754">
+        <v>19</v>
+      </c>
+      <c r="C754" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D754">
+        <v>19</v>
+      </c>
+      <c r="E754">
+        <v>2</v>
+      </c>
+      <c r="F754" t="s">
+        <v>756</v>
+      </c>
+      <c r="G754" t="s">
+        <v>776</v>
+      </c>
+      <c r="H754" t="s">
+        <v>12</v>
+      </c>
+      <c r="I754">
+        <v>5.9619999999999997</v>
+      </c>
+      <c r="J754">
+        <v>9.4489999999999998</v>
+      </c>
+      <c r="K754">
+        <v>10.525</v>
+      </c>
+      <c r="L754">
+        <v>11.516</v>
+      </c>
+    </row>
+    <row r="755" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>753</v>
+      </c>
+      <c r="B755">
+        <v>20</v>
+      </c>
+      <c r="C755" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D755">
+        <v>20</v>
+      </c>
+      <c r="E755">
+        <v>1</v>
+      </c>
+      <c r="F755" t="s">
+        <v>754</v>
+      </c>
+      <c r="G755" t="s">
+        <v>777</v>
+      </c>
+      <c r="H755" t="s">
+        <v>12</v>
+      </c>
+      <c r="I755">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="J755">
+        <v>5.55</v>
+      </c>
+      <c r="K755">
+        <v>7.1710000000000003</v>
+      </c>
+      <c r="L755">
+        <v>8.8629999999999995</v>
+      </c>
+      <c r="M755">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="756" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>753</v>
+      </c>
+      <c r="B756">
+        <v>21</v>
+      </c>
+      <c r="C756" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D756">
+        <v>21</v>
+      </c>
+      <c r="E756">
+        <v>2</v>
+      </c>
+      <c r="F756" t="s">
+        <v>756</v>
+      </c>
+      <c r="G756" t="s">
+        <v>778</v>
+      </c>
+      <c r="H756" t="s">
+        <v>12</v>
+      </c>
+      <c r="I756">
+        <v>5.1989999999999998</v>
+      </c>
+      <c r="J756">
+        <v>7.2089999999999996</v>
+      </c>
+      <c r="K756">
+        <v>8.3569999999999993</v>
+      </c>
+      <c r="L756">
+        <v>10.282</v>
+      </c>
+    </row>
+    <row r="757" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>753</v>
+      </c>
+      <c r="B757">
+        <v>22</v>
+      </c>
+      <c r="C757" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D757">
+        <v>22</v>
+      </c>
+      <c r="E757">
+        <v>4</v>
+      </c>
+      <c r="F757" t="s">
+        <v>760</v>
+      </c>
+      <c r="G757" t="s">
+        <v>779</v>
+      </c>
+      <c r="H757" t="s">
+        <v>12</v>
+      </c>
+      <c r="I757">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="J757">
+        <v>6.1849999999999996</v>
+      </c>
+      <c r="K757">
+        <v>7.0330000000000004</v>
+      </c>
+    </row>
+    <row r="758" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>753</v>
+      </c>
+      <c r="B758">
+        <v>23</v>
+      </c>
+      <c r="C758" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D758">
+        <v>23</v>
+      </c>
+      <c r="E758">
+        <v>3</v>
+      </c>
+      <c r="F758" t="s">
+        <v>758</v>
+      </c>
+      <c r="G758" t="s">
+        <v>780</v>
+      </c>
+      <c r="H758" t="s">
+        <v>12</v>
+      </c>
+      <c r="I758">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="J758">
+        <v>6.1769999999999996</v>
+      </c>
+      <c r="K758">
+        <v>7.9459999999999997</v>
+      </c>
+      <c r="L758">
+        <v>12.135999999999999</v>
+      </c>
+    </row>
+    <row r="759" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>753</v>
+      </c>
+      <c r="B759">
+        <v>24</v>
+      </c>
+      <c r="C759" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D759">
+        <v>24</v>
+      </c>
+      <c r="E759">
+        <v>1</v>
+      </c>
+      <c r="F759" t="s">
+        <v>754</v>
+      </c>
+      <c r="G759" t="s">
+        <v>781</v>
+      </c>
+      <c r="H759" t="s">
+        <v>12</v>
+      </c>
+      <c r="I759">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="J759">
+        <v>4.149</v>
+      </c>
+      <c r="K759">
+        <v>6.5389999999999997</v>
+      </c>
+      <c r="L759">
+        <v>7.8449999999999998</v>
+      </c>
+      <c r="M759">
+        <v>8.7629999999999999</v>
+      </c>
+      <c r="N759">
+        <v>9.9280000000000008</v>
+      </c>
+    </row>
+    <row r="760" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>753</v>
+      </c>
+      <c r="B760">
+        <v>25</v>
+      </c>
+      <c r="C760" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D760">
+        <v>25</v>
+      </c>
+      <c r="E760">
+        <v>2</v>
+      </c>
+      <c r="F760" t="s">
+        <v>756</v>
+      </c>
+      <c r="G760" t="s">
+        <v>782</v>
+      </c>
+      <c r="H760" t="s">
+        <v>12</v>
+      </c>
+      <c r="I760">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="J760">
+        <v>6.0869999999999997</v>
+      </c>
+      <c r="K760">
+        <v>9.0169999999999995</v>
+      </c>
+      <c r="L760">
+        <v>11.879</v>
+      </c>
+    </row>
+    <row r="761" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>753</v>
+      </c>
+      <c r="B761">
+        <v>26</v>
+      </c>
+      <c r="C761" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D761">
+        <v>26</v>
+      </c>
+      <c r="E761">
+        <v>3</v>
+      </c>
+      <c r="F761" t="s">
+        <v>758</v>
+      </c>
+      <c r="G761" t="s">
+        <v>783</v>
+      </c>
+      <c r="H761" t="s">
+        <v>12</v>
+      </c>
+      <c r="I761">
+        <v>3.6139999999999999</v>
+      </c>
+      <c r="J761">
+        <v>4.9139999999999997</v>
+      </c>
+      <c r="K761">
+        <v>5.8280000000000003</v>
+      </c>
+      <c r="L761">
+        <v>7.907</v>
+      </c>
+    </row>
+    <row r="762" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>753</v>
+      </c>
+      <c r="B762">
+        <v>27</v>
+      </c>
+      <c r="C762" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D762">
+        <v>27</v>
+      </c>
+      <c r="E762">
+        <v>1</v>
+      </c>
+      <c r="F762" t="s">
+        <v>754</v>
+      </c>
+      <c r="G762" t="s">
+        <v>784</v>
+      </c>
+      <c r="H762" t="s">
+        <v>12</v>
+      </c>
+      <c r="I762">
+        <v>4.085</v>
+      </c>
+      <c r="J762">
+        <v>5.5430000000000001</v>
+      </c>
+      <c r="K762">
+        <v>7.4809999999999999</v>
+      </c>
+      <c r="L762">
+        <v>8.6349999999999998</v>
+      </c>
+    </row>
+    <row r="763" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>753</v>
+      </c>
+      <c r="B763">
+        <v>28</v>
+      </c>
+      <c r="C763" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D763">
+        <v>28</v>
+      </c>
+      <c r="E763">
+        <v>4</v>
+      </c>
+      <c r="F763" t="s">
+        <v>760</v>
+      </c>
+      <c r="G763" t="s">
+        <v>785</v>
+      </c>
+      <c r="H763" t="s">
+        <v>12</v>
+      </c>
+      <c r="I763">
+        <v>1.69</v>
+      </c>
+      <c r="J763">
+        <v>4.0720000000000001</v>
+      </c>
+      <c r="K763">
+        <v>5.5270000000000001</v>
+      </c>
+      <c r="L763">
+        <v>7.1390000000000002</v>
+      </c>
+      <c r="M763">
+        <v>8.9860000000000007</v>
+      </c>
+      <c r="N763">
+        <v>10.994</v>
+      </c>
+    </row>
+    <row r="764" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>753</v>
+      </c>
+      <c r="B764">
+        <v>29</v>
+      </c>
+      <c r="C764" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D764">
+        <v>29</v>
+      </c>
+      <c r="E764">
+        <v>2</v>
+      </c>
+      <c r="F764" t="s">
+        <v>756</v>
+      </c>
+      <c r="G764" t="s">
+        <v>786</v>
+      </c>
+      <c r="H764" t="s">
+        <v>12</v>
+      </c>
+      <c r="I764">
+        <v>1.772</v>
+      </c>
+      <c r="J764">
+        <v>5.88</v>
+      </c>
+      <c r="K764">
+        <v>7.5720000000000001</v>
+      </c>
+      <c r="L764">
+        <v>11.836</v>
+      </c>
+    </row>
+    <row r="765" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>753</v>
+      </c>
+      <c r="B765">
+        <v>30</v>
+      </c>
+      <c r="C765" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D765">
+        <v>30</v>
+      </c>
+      <c r="E765">
+        <v>3</v>
+      </c>
+      <c r="F765" t="s">
+        <v>758</v>
+      </c>
+      <c r="G765" t="s">
+        <v>787</v>
+      </c>
+      <c r="H765" t="s">
+        <v>12</v>
+      </c>
+      <c r="I765">
+        <v>3.5670000000000002</v>
+      </c>
+      <c r="J765">
+        <v>6.4240000000000004</v>
+      </c>
+    </row>
+    <row r="766" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>753</v>
+      </c>
+      <c r="B766">
+        <v>31</v>
+      </c>
+      <c r="C766" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D766">
+        <v>31</v>
+      </c>
+      <c r="E766">
+        <v>1</v>
+      </c>
+      <c r="F766" t="s">
+        <v>754</v>
+      </c>
+      <c r="G766" t="s">
+        <v>788</v>
+      </c>
+      <c r="H766" t="s">
+        <v>12</v>
+      </c>
+      <c r="I766">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="J766">
+        <v>5.0880000000000001</v>
+      </c>
+      <c r="K766">
+        <v>7.95</v>
+      </c>
+      <c r="L766">
+        <v>12.127000000000001</v>
+      </c>
+    </row>
+    <row r="767" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>753</v>
+      </c>
+      <c r="B767">
+        <v>32</v>
+      </c>
+      <c r="C767" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D767">
+        <v>32</v>
+      </c>
+      <c r="E767">
+        <v>4</v>
+      </c>
+      <c r="F767" t="s">
+        <v>760</v>
+      </c>
+      <c r="G767" t="s">
+        <v>789</v>
+      </c>
+      <c r="H767" t="s">
+        <v>12</v>
+      </c>
+      <c r="I767">
+        <v>5.8840000000000003</v>
+      </c>
+      <c r="J767">
+        <v>6.6420000000000003</v>
+      </c>
+      <c r="K767">
+        <v>9.4329999999999998</v>
+      </c>
+      <c r="L767">
+        <v>11.670999999999999</v>
+      </c>
+    </row>
+    <row r="768" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>753</v>
+      </c>
+      <c r="B768">
+        <v>33</v>
+      </c>
+      <c r="C768" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D768">
+        <v>33</v>
+      </c>
+      <c r="E768">
+        <v>1</v>
+      </c>
+      <c r="F768" t="s">
+        <v>754</v>
+      </c>
+      <c r="G768" t="s">
+        <v>790</v>
+      </c>
+      <c r="H768" t="s">
+        <v>12</v>
+      </c>
+      <c r="I768">
+        <v>3.488</v>
+      </c>
+      <c r="J768">
+        <v>7.1959999999999997</v>
+      </c>
+      <c r="K768">
+        <v>10.127000000000001</v>
+      </c>
+      <c r="L768">
+        <v>11.430999999999999</v>
+      </c>
+    </row>
+    <row r="769" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>753</v>
+      </c>
+      <c r="B769">
+        <v>34</v>
+      </c>
+      <c r="C769" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D769">
+        <v>34</v>
+      </c>
+      <c r="E769">
+        <v>2</v>
+      </c>
+      <c r="F769" t="s">
+        <v>756</v>
+      </c>
+      <c r="G769" t="s">
+        <v>791</v>
+      </c>
+      <c r="H769" t="s">
+        <v>12</v>
+      </c>
+      <c r="I769">
+        <v>2.625</v>
+      </c>
+      <c r="J769">
+        <v>8.3829999999999991</v>
+      </c>
+      <c r="K769">
+        <v>9.3940000000000001</v>
+      </c>
+      <c r="L769">
+        <v>10.695</v>
+      </c>
+    </row>
+    <row r="770" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>753</v>
+      </c>
+      <c r="B770">
+        <v>35</v>
+      </c>
+      <c r="C770" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D770">
+        <v>35</v>
+      </c>
+      <c r="E770">
+        <v>3</v>
+      </c>
+      <c r="F770" t="s">
+        <v>758</v>
+      </c>
+      <c r="G770" t="s">
+        <v>792</v>
+      </c>
+      <c r="H770" t="s">
+        <v>12</v>
+      </c>
+      <c r="I770">
+        <v>1.764</v>
+      </c>
+      <c r="J770">
+        <v>3.165</v>
+      </c>
+      <c r="K770">
+        <v>5.0170000000000003</v>
+      </c>
+      <c r="L770">
+        <v>6.7069999999999999</v>
+      </c>
+      <c r="M770">
+        <v>8.5549999999999997</v>
+      </c>
+      <c r="N770">
+        <v>9.7059999999999995</v>
+      </c>
+      <c r="O770">
+        <v>10.935</v>
+      </c>
+    </row>
+    <row r="771" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>753</v>
+      </c>
+      <c r="B771">
+        <v>36</v>
+      </c>
+      <c r="C771" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D771">
+        <v>36</v>
+      </c>
+      <c r="E771">
+        <v>4</v>
+      </c>
+      <c r="F771" t="s">
+        <v>760</v>
+      </c>
+      <c r="G771" t="s">
+        <v>793</v>
+      </c>
+      <c r="H771" t="s">
+        <v>12</v>
+      </c>
+      <c r="I771">
+        <v>6.423</v>
+      </c>
+      <c r="J771">
+        <v>8.1189999999999998</v>
+      </c>
+      <c r="K771">
+        <v>8.8829999999999991</v>
+      </c>
+      <c r="L771">
+        <v>9.718</v>
+      </c>
+    </row>
+    <row r="772" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>753</v>
+      </c>
+      <c r="B772">
+        <v>37</v>
+      </c>
+      <c r="C772" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D772">
+        <v>37</v>
+      </c>
+      <c r="E772">
+        <v>2</v>
+      </c>
+      <c r="F772" t="s">
+        <v>756</v>
+      </c>
+      <c r="G772" t="s">
+        <v>794</v>
+      </c>
+      <c r="H772" t="s">
+        <v>12</v>
+      </c>
+      <c r="I772">
+        <v>4.6420000000000003</v>
+      </c>
+      <c r="J772">
+        <v>6.2549999999999999</v>
+      </c>
+      <c r="K772">
+        <v>8.0269999999999992</v>
+      </c>
+      <c r="L772">
+        <v>12.045999999999999</v>
+      </c>
+    </row>
+    <row r="773" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>753</v>
+      </c>
+      <c r="B773">
+        <v>38</v>
+      </c>
+      <c r="C773" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D773">
+        <v>38</v>
+      </c>
+      <c r="E773">
+        <v>4</v>
+      </c>
+      <c r="F773" t="s">
+        <v>760</v>
+      </c>
+      <c r="G773" t="s">
+        <v>795</v>
+      </c>
+      <c r="H773" t="s">
+        <v>12</v>
+      </c>
+      <c r="I773">
+        <v>3.6960000000000002</v>
+      </c>
+      <c r="J773">
+        <v>10.426</v>
+      </c>
+      <c r="K773">
+        <v>11.282</v>
+      </c>
+    </row>
+    <row r="774" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>753</v>
+      </c>
+      <c r="B774">
+        <v>39</v>
+      </c>
+      <c r="C774" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D774">
+        <v>39</v>
+      </c>
+      <c r="E774">
+        <v>3</v>
+      </c>
+      <c r="F774" t="s">
+        <v>758</v>
+      </c>
+      <c r="G774" t="s">
+        <v>796</v>
+      </c>
+      <c r="H774" t="s">
+        <v>12</v>
+      </c>
+      <c r="I774">
+        <v>1.851</v>
+      </c>
+      <c r="J774">
+        <v>3.5419999999999998</v>
+      </c>
+      <c r="K774">
+        <v>5.548</v>
+      </c>
+      <c r="L774">
+        <v>10.680999999999999</v>
+      </c>
+    </row>
+    <row r="775" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>753</v>
+      </c>
+      <c r="B775">
+        <v>40</v>
+      </c>
+      <c r="C775" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D775">
+        <v>40</v>
+      </c>
+      <c r="E775">
+        <v>1</v>
+      </c>
+      <c r="F775" t="s">
+        <v>754</v>
+      </c>
+      <c r="G775" t="s">
+        <v>797</v>
+      </c>
+      <c r="H775" t="s">
+        <v>12</v>
+      </c>
+      <c r="I775">
+        <v>8.2149999999999999</v>
+      </c>
+      <c r="J775">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="776" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>753</v>
+      </c>
+      <c r="B776">
+        <v>41</v>
+      </c>
+      <c r="C776" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D776">
+        <v>41</v>
+      </c>
+      <c r="E776">
+        <v>4</v>
+      </c>
+      <c r="F776" t="s">
+        <v>760</v>
+      </c>
+      <c r="G776" t="s">
+        <v>798</v>
+      </c>
+      <c r="H776" t="s">
+        <v>12</v>
+      </c>
+      <c r="I776">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="J776">
+        <v>4.0640000000000001</v>
+      </c>
+      <c r="K776">
+        <v>7.3070000000000004</v>
+      </c>
+    </row>
+    <row r="777" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>753</v>
+      </c>
+      <c r="B777">
+        <v>42</v>
+      </c>
+      <c r="C777" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D777">
+        <v>42</v>
+      </c>
+      <c r="E777">
+        <v>1</v>
+      </c>
+      <c r="F777" t="s">
+        <v>754</v>
+      </c>
+      <c r="G777" t="s">
+        <v>799</v>
+      </c>
+      <c r="H777" t="s">
+        <v>12</v>
+      </c>
+      <c r="I777">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="J777">
+        <v>5.6449999999999996</v>
+      </c>
+      <c r="K777">
+        <v>9.2750000000000004</v>
+      </c>
+      <c r="L777">
+        <v>12.212</v>
+      </c>
+    </row>
+    <row r="778" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>753</v>
+      </c>
+      <c r="B778">
+        <v>43</v>
+      </c>
+      <c r="C778" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D778">
+        <v>43</v>
+      </c>
+      <c r="E778">
+        <v>2</v>
+      </c>
+      <c r="F778" t="s">
+        <v>756</v>
+      </c>
+      <c r="G778" t="s">
+        <v>800</v>
+      </c>
+      <c r="H778" t="s">
+        <v>12</v>
+      </c>
+      <c r="I778">
+        <v>4.7080000000000002</v>
+      </c>
+      <c r="J778">
+        <v>8.3550000000000004</v>
+      </c>
+      <c r="K778">
+        <v>11.917999999999999</v>
+      </c>
+    </row>
+    <row r="779" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>753</v>
+      </c>
+      <c r="B779">
+        <v>44</v>
+      </c>
+      <c r="C779" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D779">
+        <v>44</v>
+      </c>
+      <c r="E779">
+        <v>3</v>
+      </c>
+      <c r="F779" t="s">
+        <v>758</v>
+      </c>
+      <c r="G779" t="s">
+        <v>801</v>
+      </c>
+      <c r="H779" t="s">
+        <v>12</v>
+      </c>
+      <c r="I779">
+        <v>5.2569999999999997</v>
+      </c>
+      <c r="J779">
+        <v>6.7919999999999998</v>
+      </c>
+      <c r="K779">
+        <v>7.7110000000000003</v>
+      </c>
+      <c r="L779">
+        <v>9.4830000000000005</v>
+      </c>
+    </row>
+    <row r="780" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>753</v>
+      </c>
+      <c r="B780">
+        <v>45</v>
+      </c>
+      <c r="C780" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D780">
+        <v>45</v>
+      </c>
+      <c r="E780">
+        <v>2</v>
+      </c>
+      <c r="F780" t="s">
+        <v>756</v>
+      </c>
+      <c r="G780" t="s">
+        <v>802</v>
+      </c>
+      <c r="H780" t="s">
+        <v>12</v>
+      </c>
+      <c r="I780">
+        <v>2.637</v>
+      </c>
+      <c r="J780">
+        <v>4.17</v>
+      </c>
+      <c r="K780">
+        <v>5.8639999999999999</v>
+      </c>
+      <c r="L780">
+        <v>6.3959999999999999</v>
+      </c>
+    </row>
+    <row r="781" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>753</v>
+      </c>
+      <c r="B781">
+        <v>46</v>
+      </c>
+      <c r="C781" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D781">
+        <v>46</v>
+      </c>
+      <c r="E781">
+        <v>1</v>
+      </c>
+      <c r="F781" t="s">
+        <v>754</v>
+      </c>
+      <c r="G781" t="s">
+        <v>803</v>
+      </c>
+      <c r="H781" t="s">
+        <v>12</v>
+      </c>
+      <c r="I781">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="J781">
+        <v>4.0880000000000001</v>
+      </c>
+      <c r="K781">
+        <v>11.359</v>
+      </c>
+    </row>
+    <row r="782" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>753</v>
+      </c>
+      <c r="B782">
+        <v>47</v>
+      </c>
+      <c r="C782" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D782">
+        <v>47</v>
+      </c>
+      <c r="E782">
+        <v>4</v>
+      </c>
+      <c r="F782" t="s">
+        <v>760</v>
+      </c>
+      <c r="G782" t="s">
+        <v>804</v>
+      </c>
+      <c r="H782" t="s">
+        <v>12</v>
+      </c>
+      <c r="I782">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="J782">
+        <v>3.6080000000000001</v>
+      </c>
+      <c r="K782">
+        <v>4.5229999999999997</v>
+      </c>
+      <c r="L782">
+        <v>9.3940000000000001</v>
+      </c>
+      <c r="M782">
+        <v>11.246</v>
+      </c>
+    </row>
+    <row r="783" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>753</v>
+      </c>
+      <c r="B783">
+        <v>48</v>
+      </c>
+      <c r="C783" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D783">
+        <v>48</v>
+      </c>
+      <c r="E783">
+        <v>3</v>
+      </c>
+      <c r="F783" t="s">
+        <v>758</v>
+      </c>
+      <c r="G783" t="s">
+        <v>805</v>
+      </c>
+      <c r="H783" t="s">
+        <v>12</v>
+      </c>
+      <c r="I783">
+        <v>3.0870000000000002</v>
+      </c>
+      <c r="J783">
+        <v>7.1890000000000001</v>
+      </c>
+      <c r="K783">
+        <v>9.7409999999999997</v>
+      </c>
+      <c r="L783">
+        <v>11.124000000000001</v>
+      </c>
+    </row>
+    <row r="784" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>753</v>
+      </c>
+      <c r="B784">
+        <v>49</v>
+      </c>
+      <c r="C784" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D784">
+        <v>49</v>
+      </c>
+      <c r="E784">
+        <v>1</v>
+      </c>
+      <c r="F784" t="s">
+        <v>754</v>
+      </c>
+      <c r="G784" t="s">
+        <v>806</v>
+      </c>
+      <c r="H784" t="s">
+        <v>12</v>
+      </c>
+      <c r="I784">
+        <v>4.0890000000000004</v>
+      </c>
+      <c r="J784">
+        <v>6.6310000000000002</v>
+      </c>
+      <c r="K784">
+        <v>7.6269999999999998</v>
+      </c>
+      <c r="L784">
+        <v>9.3230000000000004</v>
+      </c>
+      <c r="M784">
+        <v>11.868</v>
+      </c>
+    </row>
+    <row r="785" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
+        <v>753</v>
+      </c>
+      <c r="B785">
+        <v>50</v>
+      </c>
+      <c r="C785" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D785">
+        <v>50</v>
+      </c>
+      <c r="E785">
+        <v>4</v>
+      </c>
+      <c r="F785" t="s">
+        <v>760</v>
+      </c>
+      <c r="G785" t="s">
+        <v>807</v>
+      </c>
+      <c r="H785" t="s">
+        <v>12</v>
+      </c>
+      <c r="I785">
+        <v>9.8409999999999993</v>
+      </c>
+    </row>
+    <row r="786" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>753</v>
+      </c>
+      <c r="B786">
+        <v>51</v>
+      </c>
+      <c r="C786" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D786">
+        <v>51</v>
+      </c>
+      <c r="E786">
+        <v>3</v>
+      </c>
+      <c r="F786" t="s">
+        <v>758</v>
+      </c>
+      <c r="G786" t="s">
+        <v>808</v>
+      </c>
+      <c r="H786" t="s">
+        <v>12</v>
+      </c>
+      <c r="I786">
+        <v>1.915</v>
+      </c>
+      <c r="J786">
+        <v>2.8319999999999999</v>
+      </c>
+      <c r="K786">
+        <v>5.69</v>
+      </c>
+      <c r="L786">
+        <v>6.9189999999999996</v>
+      </c>
+      <c r="M786">
+        <v>9.31</v>
+      </c>
+      <c r="N786">
+        <v>11.776999999999999</v>
+      </c>
+    </row>
+    <row r="787" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>753</v>
+      </c>
+      <c r="B787">
+        <v>52</v>
+      </c>
+      <c r="C787" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D787">
+        <v>52</v>
+      </c>
+      <c r="E787">
+        <v>2</v>
+      </c>
+      <c r="F787" t="s">
+        <v>756</v>
+      </c>
+      <c r="G787" t="s">
+        <v>809</v>
+      </c>
+      <c r="H787" t="s">
+        <v>12</v>
+      </c>
+      <c r="I787">
+        <v>4.0110000000000001</v>
+      </c>
+      <c r="J787">
+        <v>6.0309999999999997</v>
+      </c>
+      <c r="K787">
+        <v>9.9039999999999999</v>
+      </c>
+      <c r="L787">
+        <v>11.615</v>
+      </c>
+    </row>
+    <row r="788" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
+        <v>753</v>
+      </c>
+      <c r="B788">
+        <v>53</v>
+      </c>
+      <c r="C788" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D788">
+        <v>53</v>
+      </c>
+      <c r="E788">
+        <v>4</v>
+      </c>
+      <c r="F788" t="s">
+        <v>760</v>
+      </c>
+      <c r="G788" t="s">
+        <v>810</v>
+      </c>
+      <c r="H788" t="s">
+        <v>12</v>
+      </c>
+      <c r="I788">
+        <v>4.0789999999999997</v>
+      </c>
+      <c r="J788">
+        <v>6.3040000000000003</v>
+      </c>
+      <c r="K788">
+        <v>8.3889999999999993</v>
+      </c>
+      <c r="L788">
+        <v>9.2260000000000009</v>
+      </c>
+      <c r="M788">
+        <v>12.166</v>
+      </c>
+    </row>
+    <row r="789" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>753</v>
+      </c>
+      <c r="B789">
+        <v>54</v>
+      </c>
+      <c r="C789" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D789">
+        <v>54</v>
+      </c>
+      <c r="E789">
+        <v>2</v>
+      </c>
+      <c r="F789" t="s">
+        <v>756</v>
+      </c>
+      <c r="G789" t="s">
+        <v>811</v>
+      </c>
+      <c r="H789" t="s">
+        <v>12</v>
+      </c>
+      <c r="I789">
+        <v>2.5390000000000001</v>
+      </c>
+      <c r="J789">
+        <v>3.609</v>
+      </c>
+      <c r="K789">
+        <v>4.8259999999999996</v>
+      </c>
+      <c r="L789">
+        <v>5.8239999999999998</v>
+      </c>
+      <c r="M789">
+        <v>7.7629999999999999</v>
+      </c>
+    </row>
+    <row r="790" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
+        <v>753</v>
+      </c>
+      <c r="B790">
+        <v>55</v>
+      </c>
+      <c r="C790" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D790">
+        <v>55</v>
+      </c>
+      <c r="E790">
+        <v>1</v>
+      </c>
+      <c r="F790" t="s">
+        <v>754</v>
+      </c>
+      <c r="G790" t="s">
+        <v>812</v>
+      </c>
+      <c r="H790" t="s">
+        <v>12</v>
+      </c>
+      <c r="I790">
+        <v>4.9470000000000001</v>
+      </c>
+      <c r="J790">
+        <v>6.8</v>
+      </c>
+      <c r="K790">
+        <v>12.086</v>
+      </c>
+    </row>
+    <row r="791" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>753</v>
+      </c>
+      <c r="B791">
+        <v>56</v>
+      </c>
+      <c r="C791" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D791">
+        <v>56</v>
+      </c>
+      <c r="E791">
+        <v>3</v>
+      </c>
+      <c r="F791" t="s">
+        <v>758</v>
+      </c>
+      <c r="G791" t="s">
+        <v>813</v>
+      </c>
+      <c r="H791" t="s">
+        <v>12</v>
+      </c>
+      <c r="I791">
+        <v>1.766</v>
+      </c>
+      <c r="J791">
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="K791">
+        <v>8.4109999999999996</v>
+      </c>
+      <c r="L791">
+        <v>9.6560000000000006</v>
+      </c>
+      <c r="M791">
+        <v>10.643000000000001</v>
+      </c>
+    </row>
+    <row r="792" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>753</v>
+      </c>
+      <c r="B792">
+        <v>57</v>
+      </c>
+      <c r="C792" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D792">
+        <v>57</v>
+      </c>
+      <c r="E792">
+        <v>1</v>
+      </c>
+      <c r="F792" t="s">
+        <v>754</v>
+      </c>
+      <c r="G792" t="s">
+        <v>814</v>
+      </c>
+      <c r="H792" t="s">
+        <v>12</v>
+      </c>
+      <c r="I792">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="J792">
+        <v>6.492</v>
+      </c>
+      <c r="K792">
+        <v>7.5609999999999999</v>
+      </c>
+      <c r="L792">
+        <v>10.045999999999999</v>
+      </c>
+    </row>
+    <row r="793" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>753</v>
+      </c>
+      <c r="B793">
+        <v>58</v>
+      </c>
+      <c r="C793" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D793">
+        <v>58</v>
+      </c>
+      <c r="E793">
+        <v>3</v>
+      </c>
+      <c r="F793" t="s">
+        <v>758</v>
+      </c>
+      <c r="G793" t="s">
+        <v>815</v>
+      </c>
+      <c r="H793" t="s">
+        <v>12</v>
+      </c>
+      <c r="I793">
+        <v>4.0279999999999996</v>
+      </c>
+      <c r="J793">
+        <v>6.7160000000000002</v>
+      </c>
+      <c r="K793">
+        <v>8.1679999999999993</v>
+      </c>
+      <c r="L793">
+        <v>12.098000000000001</v>
+      </c>
+    </row>
+    <row r="794" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>753</v>
+      </c>
+      <c r="B794">
+        <v>59</v>
+      </c>
+      <c r="C794" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D794">
+        <v>59</v>
+      </c>
+      <c r="E794">
+        <v>2</v>
+      </c>
+      <c r="F794" t="s">
+        <v>756</v>
+      </c>
+      <c r="G794" t="s">
+        <v>816</v>
+      </c>
+      <c r="H794" t="s">
+        <v>12</v>
+      </c>
+      <c r="I794">
+        <v>1.923</v>
+      </c>
+      <c r="J794">
+        <v>3.8450000000000002</v>
+      </c>
+      <c r="K794">
+        <v>6.774</v>
+      </c>
+      <c r="L794">
+        <v>11.718999999999999</v>
+      </c>
+    </row>
+    <row r="795" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>753</v>
+      </c>
+      <c r="B795">
+        <v>60</v>
+      </c>
+      <c r="C795" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D795">
+        <v>60</v>
+      </c>
+      <c r="E795">
+        <v>4</v>
+      </c>
+      <c r="F795" t="s">
+        <v>760</v>
+      </c>
+      <c r="G795" t="s">
+        <v>817</v>
+      </c>
+      <c r="H795" t="s">
+        <v>12</v>
+      </c>
+      <c r="I795">
+        <v>1.992</v>
+      </c>
+      <c r="J795">
+        <v>3.371</v>
+      </c>
+      <c r="K795">
+        <v>5.9829999999999997</v>
+      </c>
+      <c r="L795">
+        <v>6.9770000000000003</v>
+      </c>
+      <c r="M795">
+        <v>9.3889999999999993</v>
+      </c>
+    </row>
+    <row r="796" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>753</v>
+      </c>
+      <c r="B796">
+        <v>61</v>
+      </c>
+      <c r="C796" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D796">
+        <v>61</v>
+      </c>
+      <c r="E796">
+        <v>2</v>
+      </c>
+      <c r="F796" t="s">
+        <v>756</v>
+      </c>
+      <c r="G796" t="s">
+        <v>818</v>
+      </c>
+      <c r="H796" t="s">
+        <v>12</v>
+      </c>
+      <c r="I796">
+        <v>2.4009999999999998</v>
+      </c>
+      <c r="J796">
+        <v>3.161</v>
+      </c>
+      <c r="K796">
+        <v>5.6349999999999998</v>
+      </c>
+      <c r="L796">
+        <v>8.5150000000000006</v>
+      </c>
+      <c r="M796">
+        <v>11.157</v>
+      </c>
+    </row>
+    <row r="797" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>753</v>
+      </c>
+      <c r="B797">
+        <v>62</v>
+      </c>
+      <c r="C797" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D797">
+        <v>62</v>
+      </c>
+      <c r="E797">
+        <v>1</v>
+      </c>
+      <c r="F797" t="s">
+        <v>754</v>
+      </c>
+      <c r="G797" t="s">
+        <v>819</v>
+      </c>
+      <c r="H797" t="s">
+        <v>12</v>
+      </c>
+      <c r="I797">
+        <v>4.625</v>
+      </c>
+      <c r="J797">
+        <v>6.7809999999999997</v>
+      </c>
+      <c r="K797">
+        <v>7.5430000000000001</v>
+      </c>
+      <c r="L797">
+        <v>10.787000000000001</v>
+      </c>
+    </row>
+    <row r="798" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>753</v>
+      </c>
+      <c r="B798">
+        <v>63</v>
+      </c>
+      <c r="C798" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D798">
+        <v>63</v>
+      </c>
+      <c r="E798">
+        <v>3</v>
+      </c>
+      <c r="F798" t="s">
+        <v>758</v>
+      </c>
+      <c r="G798" t="s">
+        <v>820</v>
+      </c>
+      <c r="H798" t="s">
+        <v>12</v>
+      </c>
+      <c r="I798">
+        <v>1.913</v>
+      </c>
+      <c r="J798">
+        <v>4.3780000000000001</v>
+      </c>
+      <c r="K798">
+        <v>6.3179999999999996</v>
+      </c>
+      <c r="L798">
+        <v>7.0960000000000001</v>
+      </c>
+      <c r="M798">
+        <v>11.576000000000001</v>
+      </c>
+    </row>
+    <row r="799" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>753</v>
+      </c>
+      <c r="B799">
+        <v>64</v>
+      </c>
+      <c r="C799" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D799">
+        <v>64</v>
+      </c>
+      <c r="E799">
+        <v>4</v>
+      </c>
+      <c r="F799" t="s">
+        <v>760</v>
+      </c>
+      <c r="G799" t="s">
+        <v>821</v>
+      </c>
+      <c r="H799" t="s">
+        <v>12</v>
+      </c>
+      <c r="I799">
+        <v>5.9530000000000003</v>
+      </c>
+      <c r="J799">
+        <v>8.0990000000000002</v>
+      </c>
+      <c r="K799">
+        <v>11.885</v>
+      </c>
+    </row>
+    <row r="800" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>753</v>
+      </c>
+      <c r="B800">
+        <v>65</v>
+      </c>
+      <c r="C800" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D800">
+        <v>65</v>
+      </c>
+      <c r="E800">
+        <v>1</v>
+      </c>
+      <c r="F800" t="s">
+        <v>754</v>
+      </c>
+      <c r="G800" t="s">
+        <v>822</v>
+      </c>
+      <c r="H800" t="s">
+        <v>12</v>
+      </c>
+      <c r="I800">
+        <v>5.4779999999999998</v>
+      </c>
+      <c r="J800">
+        <v>6.8579999999999997</v>
+      </c>
+      <c r="K800">
+        <v>9.6340000000000003</v>
+      </c>
+      <c r="L800">
+        <v>11.637</v>
+      </c>
+    </row>
+    <row r="801" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>753</v>
+      </c>
+      <c r="B801">
+        <v>66</v>
+      </c>
+      <c r="C801" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D801">
+        <v>66</v>
+      </c>
+      <c r="E801">
+        <v>3</v>
+      </c>
+      <c r="F801" t="s">
+        <v>758</v>
+      </c>
+      <c r="G801" t="s">
+        <v>823</v>
+      </c>
+      <c r="H801" t="s">
+        <v>12</v>
+      </c>
+      <c r="I801">
+        <v>1.845</v>
+      </c>
+      <c r="J801">
+        <v>4.234</v>
+      </c>
+      <c r="K801">
+        <v>7.9370000000000003</v>
+      </c>
+      <c r="L801">
+        <v>10.249000000000001</v>
+      </c>
+    </row>
+    <row r="802" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>753</v>
+      </c>
+      <c r="B802">
+        <v>67</v>
+      </c>
+      <c r="C802" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D802">
+        <v>67</v>
+      </c>
+      <c r="E802">
+        <v>4</v>
+      </c>
+      <c r="F802" t="s">
+        <v>760</v>
+      </c>
+      <c r="G802" t="s">
+        <v>824</v>
+      </c>
+      <c r="H802" t="s">
+        <v>12</v>
+      </c>
+      <c r="I802">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J802">
+        <v>3.5190000000000001</v>
+      </c>
+      <c r="K802">
+        <v>6.4359999999999999</v>
+      </c>
+      <c r="L802">
+        <v>8.423</v>
+      </c>
+    </row>
+    <row r="803" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>753</v>
+      </c>
+      <c r="B803">
+        <v>68</v>
+      </c>
+      <c r="C803" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D803">
+        <v>68</v>
+      </c>
+      <c r="E803">
+        <v>2</v>
+      </c>
+      <c r="F803" t="s">
+        <v>756</v>
+      </c>
+      <c r="G803" t="s">
+        <v>825</v>
+      </c>
+      <c r="H803" t="s">
+        <v>12</v>
+      </c>
+      <c r="I803">
+        <v>7.585</v>
+      </c>
+      <c r="J803">
+        <v>11.208</v>
+      </c>
+      <c r="K803">
+        <v>12.037000000000001</v>
+      </c>
+    </row>
+    <row r="804" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>753</v>
+      </c>
+      <c r="B804">
+        <v>69</v>
+      </c>
+      <c r="C804" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D804">
+        <v>69</v>
+      </c>
+      <c r="E804">
+        <v>4</v>
+      </c>
+      <c r="F804" t="s">
+        <v>760</v>
+      </c>
+      <c r="G804" t="s">
+        <v>826</v>
+      </c>
+      <c r="H804" t="s">
+        <v>12</v>
+      </c>
+      <c r="I804">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="J804">
+        <v>5.9470000000000001</v>
+      </c>
+      <c r="K804">
+        <v>8.407</v>
+      </c>
+      <c r="L804">
+        <v>9.3219999999999992</v>
+      </c>
+      <c r="M804">
+        <v>11.477</v>
+      </c>
+    </row>
+    <row r="805" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>753</v>
+      </c>
+      <c r="B805">
+        <v>70</v>
+      </c>
+      <c r="C805" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D805">
+        <v>70</v>
+      </c>
+      <c r="E805">
+        <v>2</v>
+      </c>
+      <c r="F805" t="s">
+        <v>756</v>
+      </c>
+      <c r="G805" t="s">
+        <v>827</v>
+      </c>
+      <c r="H805" t="s">
+        <v>12</v>
+      </c>
+      <c r="I805">
+        <v>3.9489999999999998</v>
+      </c>
+      <c r="J805">
+        <v>5.726</v>
+      </c>
+      <c r="K805">
+        <v>7.734</v>
+      </c>
+      <c r="L805">
+        <v>9.3520000000000003</v>
+      </c>
+    </row>
+    <row r="806" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>753</v>
+      </c>
+      <c r="B806">
+        <v>71</v>
+      </c>
+      <c r="C806" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D806">
+        <v>71</v>
+      </c>
+      <c r="E806">
+        <v>1</v>
+      </c>
+      <c r="F806" t="s">
+        <v>754</v>
+      </c>
+      <c r="G806" t="s">
+        <v>828</v>
+      </c>
+      <c r="H806" t="s">
+        <v>12</v>
+      </c>
+      <c r="I806">
+        <v>1.61</v>
+      </c>
+      <c r="J806">
+        <v>3.8420000000000001</v>
+      </c>
+      <c r="K806">
+        <v>7.3959999999999999</v>
+      </c>
+      <c r="L806">
+        <v>8.2360000000000007</v>
+      </c>
+      <c r="M806">
+        <v>9.39</v>
+      </c>
+    </row>
+    <row r="807" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>753</v>
+      </c>
+      <c r="B807">
+        <v>72</v>
+      </c>
+      <c r="C807" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D807">
+        <v>72</v>
+      </c>
+      <c r="E807">
+        <v>3</v>
+      </c>
+      <c r="F807" t="s">
+        <v>758</v>
+      </c>
+      <c r="G807" t="s">
+        <v>829</v>
+      </c>
+      <c r="H807" t="s">
+        <v>12</v>
+      </c>
+      <c r="I807">
+        <v>3.2389999999999999</v>
+      </c>
+      <c r="J807">
+        <v>4.774</v>
+      </c>
+      <c r="K807">
+        <v>5.9210000000000003</v>
+      </c>
+      <c r="L807">
+        <v>8.1609999999999996</v>
+      </c>
+      <c r="M807">
+        <v>11.738</v>
+      </c>
+    </row>
+    <row r="808" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>753</v>
+      </c>
+      <c r="B808">
+        <v>73</v>
+      </c>
+      <c r="C808" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D808">
+        <v>73</v>
+      </c>
+      <c r="E808">
+        <v>2</v>
+      </c>
+      <c r="F808" t="s">
+        <v>756</v>
+      </c>
+      <c r="G808" t="s">
+        <v>830</v>
+      </c>
+      <c r="H808" t="s">
+        <v>12</v>
+      </c>
+      <c r="I808">
+        <v>5.1890000000000001</v>
+      </c>
+      <c r="J808">
+        <v>9.3849999999999998</v>
+      </c>
+      <c r="K808">
+        <v>10.608000000000001</v>
+      </c>
+      <c r="L808">
+        <v>11.682</v>
+      </c>
+    </row>
+    <row r="809" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>753</v>
+      </c>
+      <c r="B809">
+        <v>74</v>
+      </c>
+      <c r="C809" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D809">
+        <v>74</v>
+      </c>
+      <c r="E809">
+        <v>4</v>
+      </c>
+      <c r="F809" t="s">
+        <v>760</v>
+      </c>
+      <c r="G809" t="s">
+        <v>831</v>
+      </c>
+      <c r="H809" t="s">
+        <v>12</v>
+      </c>
+      <c r="I809">
+        <v>6.3380000000000001</v>
+      </c>
+      <c r="J809">
+        <v>7.8940000000000001</v>
+      </c>
+      <c r="K809">
+        <v>10.667999999999999</v>
+      </c>
+    </row>
+    <row r="810" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>753</v>
+      </c>
+      <c r="B810">
+        <v>75</v>
+      </c>
+      <c r="C810" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D810">
+        <v>75</v>
+      </c>
+      <c r="E810">
+        <v>1</v>
+      </c>
+      <c r="F810" t="s">
+        <v>754</v>
+      </c>
+      <c r="G810" t="s">
+        <v>832</v>
+      </c>
+      <c r="H810" t="s">
+        <v>12</v>
+      </c>
+      <c r="I810">
+        <v>6.1109999999999998</v>
+      </c>
+      <c r="J810">
+        <v>6.87</v>
+      </c>
+      <c r="K810">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="L810">
+        <v>9.8840000000000003</v>
+      </c>
+      <c r="M810">
+        <v>11.114000000000001</v>
+      </c>
+    </row>
+    <row r="811" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>753</v>
+      </c>
+      <c r="B811">
+        <v>76</v>
+      </c>
+      <c r="C811" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D811">
+        <v>76</v>
+      </c>
+      <c r="E811">
+        <v>3</v>
+      </c>
+      <c r="F811" t="s">
+        <v>758</v>
+      </c>
+      <c r="G811" t="s">
+        <v>833</v>
+      </c>
+      <c r="H811" t="s">
+        <v>12</v>
+      </c>
+      <c r="I811">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="J811">
+        <v>3.3860000000000001</v>
+      </c>
+      <c r="K811">
+        <v>6.0839999999999996</v>
+      </c>
+      <c r="L811">
+        <v>8.7129999999999992</v>
+      </c>
+      <c r="M811">
+        <v>10.808</v>
+      </c>
+      <c r="N811">
+        <v>11.645</v>
+      </c>
+    </row>
+    <row r="812" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>753</v>
+      </c>
+      <c r="B812">
+        <v>77</v>
+      </c>
+      <c r="C812" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D812">
+        <v>77</v>
+      </c>
+      <c r="E812">
+        <v>2</v>
+      </c>
+      <c r="F812" t="s">
+        <v>756</v>
+      </c>
+      <c r="G812" t="s">
+        <v>834</v>
+      </c>
+      <c r="H812" t="s">
+        <v>12</v>
+      </c>
+      <c r="I812">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="J812">
+        <v>4.0039999999999996</v>
+      </c>
+      <c r="K812">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="L812">
+        <v>10.503</v>
+      </c>
+    </row>
+    <row r="813" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>753</v>
+      </c>
+      <c r="B813">
+        <v>78</v>
+      </c>
+      <c r="C813" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D813">
+        <v>78</v>
+      </c>
+      <c r="E813">
+        <v>3</v>
+      </c>
+      <c r="F813" t="s">
+        <v>758</v>
+      </c>
+      <c r="G813" t="s">
+        <v>835</v>
+      </c>
+      <c r="H813" t="s">
+        <v>12</v>
+      </c>
+      <c r="I813">
+        <v>1.615</v>
+      </c>
+      <c r="J813">
+        <v>3.5489999999999999</v>
+      </c>
+      <c r="K813">
+        <v>7.1710000000000003</v>
+      </c>
+      <c r="L813">
+        <v>11.425000000000001</v>
+      </c>
+    </row>
+    <row r="814" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>753</v>
+      </c>
+      <c r="B814">
+        <v>79</v>
+      </c>
+      <c r="C814" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D814">
+        <v>79</v>
+      </c>
+      <c r="E814">
+        <v>1</v>
+      </c>
+      <c r="F814" t="s">
+        <v>754</v>
+      </c>
+      <c r="G814" t="s">
+        <v>836</v>
+      </c>
+      <c r="H814" t="s">
+        <v>12</v>
+      </c>
+      <c r="I814">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="J814">
+        <v>6.4050000000000002</v>
+      </c>
+      <c r="K814">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L814">
+        <v>10.715</v>
+      </c>
+    </row>
+    <row r="815" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>753</v>
+      </c>
+      <c r="B815">
+        <v>80</v>
+      </c>
+      <c r="C815" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D815">
+        <v>80</v>
+      </c>
+      <c r="E815">
+        <v>4</v>
+      </c>
+      <c r="F815" t="s">
+        <v>760</v>
+      </c>
+      <c r="G815" t="s">
+        <v>837</v>
+      </c>
+      <c r="H815" t="s">
+        <v>12</v>
+      </c>
+      <c r="I815">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="J815">
+        <v>8.0440000000000005</v>
+      </c>
+      <c r="K815">
+        <v>10.038</v>
+      </c>
+    </row>
+    <row r="816" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>753</v>
+      </c>
+      <c r="B816">
+        <v>81</v>
+      </c>
+      <c r="C816" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D816">
+        <v>81</v>
+      </c>
+      <c r="E816">
+        <v>2</v>
+      </c>
+      <c r="F816" t="s">
+        <v>756</v>
+      </c>
+      <c r="G816" t="s">
+        <v>838</v>
+      </c>
+      <c r="H816" t="s">
+        <v>12</v>
+      </c>
+      <c r="I816">
+        <v>4.09</v>
+      </c>
+      <c r="J816">
+        <v>5.6269999999999998</v>
+      </c>
+      <c r="K816">
+        <v>7.5510000000000002</v>
+      </c>
+      <c r="L816">
+        <v>11.433999999999999</v>
+      </c>
+    </row>
+    <row r="817" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>753</v>
+      </c>
+      <c r="B817">
+        <v>82</v>
+      </c>
+      <c r="C817" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D817">
+        <v>82</v>
+      </c>
+      <c r="E817">
+        <v>1</v>
+      </c>
+      <c r="F817" t="s">
+        <v>754</v>
+      </c>
+      <c r="G817" t="s">
+        <v>839</v>
+      </c>
+      <c r="H817" t="s">
+        <v>12</v>
+      </c>
+      <c r="I817">
+        <v>2.5640000000000001</v>
+      </c>
+      <c r="J817">
+        <v>4.4109999999999996</v>
+      </c>
+      <c r="K817">
+        <v>5.8090000000000002</v>
+      </c>
+      <c r="L817">
+        <v>8.5109999999999992</v>
+      </c>
+      <c r="M817">
+        <v>11.849</v>
+      </c>
+    </row>
+    <row r="818" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>753</v>
+      </c>
+      <c r="B818">
+        <v>83</v>
+      </c>
+      <c r="C818" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D818">
+        <v>83</v>
+      </c>
+      <c r="E818">
+        <v>4</v>
+      </c>
+      <c r="F818" t="s">
+        <v>760</v>
+      </c>
+      <c r="G818" t="s">
+        <v>840</v>
+      </c>
+      <c r="H818" t="s">
+        <v>12</v>
+      </c>
+      <c r="I818">
+        <v>2.2349999999999999</v>
+      </c>
+      <c r="J818">
+        <v>5.3109999999999999</v>
+      </c>
+      <c r="K818">
+        <v>8.0109999999999992</v>
+      </c>
+      <c r="L818">
+        <v>9.5440000000000005</v>
+      </c>
+    </row>
+    <row r="819" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>753</v>
+      </c>
+      <c r="B819">
+        <v>84</v>
+      </c>
+      <c r="C819" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D819">
+        <v>84</v>
+      </c>
+      <c r="E819">
+        <v>3</v>
+      </c>
+      <c r="F819" t="s">
+        <v>758</v>
+      </c>
+      <c r="G819" t="s">
+        <v>841</v>
+      </c>
+      <c r="H819" t="s">
+        <v>12</v>
+      </c>
+      <c r="I819">
+        <v>4.4710000000000001</v>
+      </c>
+      <c r="J819">
+        <v>5.4660000000000002</v>
+      </c>
+      <c r="K819">
+        <v>8.3279999999999994</v>
+      </c>
+      <c r="L819">
+        <v>10.484</v>
+      </c>
+    </row>
+    <row r="820" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>753</v>
+      </c>
+      <c r="B820">
+        <v>85</v>
+      </c>
+      <c r="C820" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D820">
+        <v>85</v>
+      </c>
+      <c r="E820">
+        <v>4</v>
+      </c>
+      <c r="F820" t="s">
+        <v>760</v>
+      </c>
+      <c r="G820" t="s">
+        <v>842</v>
+      </c>
+      <c r="H820" t="s">
+        <v>12</v>
+      </c>
+      <c r="I820">
+        <v>4.2450000000000001</v>
+      </c>
+      <c r="J820">
+        <v>4.9409999999999998</v>
+      </c>
+      <c r="K820">
+        <v>6.1760000000000002</v>
+      </c>
+      <c r="L820">
+        <v>8.0229999999999997</v>
+      </c>
+      <c r="M820">
+        <v>10.805999999999999</v>
+      </c>
+    </row>
+    <row r="821" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>753</v>
+      </c>
+      <c r="B821">
+        <v>86</v>
+      </c>
+      <c r="C821" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D821">
+        <v>86</v>
+      </c>
+      <c r="E821">
+        <v>3</v>
+      </c>
+      <c r="F821" t="s">
+        <v>758</v>
+      </c>
+      <c r="G821" t="s">
+        <v>843</v>
+      </c>
+      <c r="H821" t="s">
+        <v>12</v>
+      </c>
+      <c r="I821">
+        <v>2.23</v>
+      </c>
+      <c r="J821">
+        <v>3.6080000000000001</v>
+      </c>
+      <c r="K821">
+        <v>4.9119999999999999</v>
+      </c>
+      <c r="L821">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="M821">
+        <v>11.243</v>
+      </c>
+    </row>
+    <row r="822" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>753</v>
+      </c>
+      <c r="B822">
+        <v>87</v>
+      </c>
+      <c r="C822" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D822">
+        <v>87</v>
+      </c>
+      <c r="E822">
+        <v>2</v>
+      </c>
+      <c r="F822" t="s">
+        <v>756</v>
+      </c>
+      <c r="G822" t="s">
+        <v>844</v>
+      </c>
+      <c r="H822" t="s">
+        <v>12</v>
+      </c>
+      <c r="I822">
+        <v>2.1619999999999999</v>
+      </c>
+      <c r="J822">
+        <v>9.2910000000000004</v>
+      </c>
+      <c r="K822">
+        <v>10.672000000000001</v>
+      </c>
+    </row>
+    <row r="823" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>753</v>
+      </c>
+      <c r="B823">
+        <v>88</v>
+      </c>
+      <c r="C823" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D823">
+        <v>88</v>
+      </c>
+      <c r="E823">
+        <v>1</v>
+      </c>
+      <c r="F823" t="s">
+        <v>754</v>
+      </c>
+      <c r="G823" t="s">
+        <v>845</v>
+      </c>
+      <c r="H823" t="s">
+        <v>12</v>
+      </c>
+      <c r="I823">
+        <v>2</v>
+      </c>
+      <c r="J823">
+        <v>4.2549999999999999</v>
+      </c>
+      <c r="K823">
+        <v>6.492</v>
+      </c>
+      <c r="L823">
+        <v>9.657</v>
+      </c>
+      <c r="M823">
+        <v>11.598000000000001</v>
+      </c>
+    </row>
+    <row r="824" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>753</v>
+      </c>
+      <c r="B824">
+        <v>89</v>
+      </c>
+      <c r="C824" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D824">
+        <v>89</v>
+      </c>
+      <c r="E824">
+        <v>3</v>
+      </c>
+      <c r="F824" t="s">
+        <v>758</v>
+      </c>
+      <c r="G824" t="s">
+        <v>846</v>
+      </c>
+      <c r="H824" t="s">
+        <v>12</v>
+      </c>
+      <c r="I824">
+        <v>5.2539999999999996</v>
+      </c>
+      <c r="J824">
+        <v>6.4829999999999997</v>
+      </c>
+      <c r="K824">
+        <v>7.7069999999999999</v>
+      </c>
+      <c r="L824">
+        <v>8.7769999999999992</v>
+      </c>
+      <c r="M824">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="825" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>753</v>
+      </c>
+      <c r="B825">
+        <v>90</v>
+      </c>
+      <c r="C825" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D825">
+        <v>90</v>
+      </c>
+      <c r="E825">
+        <v>1</v>
+      </c>
+      <c r="F825" t="s">
+        <v>754</v>
+      </c>
+      <c r="G825" t="s">
+        <v>847</v>
+      </c>
+      <c r="H825" t="s">
+        <v>12</v>
+      </c>
+      <c r="I825">
+        <v>7.1950000000000003</v>
+      </c>
+      <c r="J825">
+        <v>8.9749999999999996</v>
+      </c>
+      <c r="K825">
+        <v>11.999000000000001</v>
+      </c>
+    </row>
+    <row r="826" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>753</v>
+      </c>
+      <c r="B826">
+        <v>91</v>
+      </c>
+      <c r="C826" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D826">
+        <v>91</v>
+      </c>
+      <c r="E826">
+        <v>2</v>
+      </c>
+      <c r="F826" t="s">
+        <v>756</v>
+      </c>
+      <c r="G826" t="s">
+        <v>848</v>
+      </c>
+      <c r="H826" t="s">
+        <v>12</v>
+      </c>
+      <c r="I826">
+        <v>3.3220000000000001</v>
+      </c>
+      <c r="J826">
+        <v>6.5709999999999997</v>
+      </c>
+      <c r="K826">
+        <v>7.4269999999999996</v>
+      </c>
+      <c r="L826">
+        <v>9.59</v>
+      </c>
+      <c r="M826">
+        <v>11.832000000000001</v>
+      </c>
+    </row>
+    <row r="827" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>753</v>
+      </c>
+      <c r="B827">
+        <v>92</v>
+      </c>
+      <c r="C827" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D827">
+        <v>92</v>
+      </c>
+      <c r="E827">
+        <v>4</v>
+      </c>
+      <c r="F827" t="s">
+        <v>760</v>
+      </c>
+      <c r="G827" t="s">
+        <v>849</v>
+      </c>
+      <c r="H827" t="s">
+        <v>12</v>
+      </c>
+      <c r="I827">
+        <v>1.851</v>
+      </c>
+      <c r="J827">
+        <v>2.766</v>
+      </c>
+      <c r="K827">
+        <v>8.4329999999999998</v>
+      </c>
+      <c r="L827">
+        <v>10.053000000000001</v>
+      </c>
+      <c r="M827">
+        <v>10.657999999999999</v>
+      </c>
+    </row>
+    <row r="828" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>753</v>
+      </c>
+      <c r="B828">
+        <v>93</v>
+      </c>
+      <c r="C828" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D828">
+        <v>93</v>
+      </c>
+      <c r="E828">
+        <v>1</v>
+      </c>
+      <c r="F828" t="s">
+        <v>754</v>
+      </c>
+      <c r="G828" t="s">
+        <v>850</v>
+      </c>
+      <c r="H828" t="s">
+        <v>12</v>
+      </c>
+      <c r="I828">
+        <v>2.3260000000000001</v>
+      </c>
+      <c r="J828">
+        <v>5.1669999999999998</v>
+      </c>
+      <c r="K828">
+        <v>6.4130000000000003</v>
+      </c>
+      <c r="L828">
+        <v>10.827999999999999</v>
+      </c>
+    </row>
+    <row r="829" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>753</v>
+      </c>
+      <c r="B829">
+        <v>94</v>
+      </c>
+      <c r="C829" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D829">
+        <v>94</v>
+      </c>
+      <c r="E829">
+        <v>3</v>
+      </c>
+      <c r="F829" t="s">
+        <v>758</v>
+      </c>
+      <c r="G829" t="s">
+        <v>851</v>
+      </c>
+      <c r="H829" t="s">
+        <v>12</v>
+      </c>
+      <c r="I829">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="J829">
+        <v>2.6030000000000002</v>
+      </c>
+      <c r="K829">
+        <v>3.52</v>
+      </c>
+      <c r="L829">
+        <v>7.9989999999999997</v>
+      </c>
+      <c r="M829">
+        <v>8.9139999999999997</v>
+      </c>
+      <c r="N829">
+        <v>11.920999999999999</v>
+      </c>
+    </row>
+    <row r="830" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>753</v>
+      </c>
+      <c r="B830">
+        <v>95</v>
+      </c>
+      <c r="C830" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D830">
+        <v>95</v>
+      </c>
+      <c r="E830">
+        <v>2</v>
+      </c>
+      <c r="F830" t="s">
+        <v>756</v>
+      </c>
+      <c r="G830" t="s">
+        <v>852</v>
+      </c>
+      <c r="H830" t="s">
+        <v>12</v>
+      </c>
+      <c r="I830">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="J830">
+        <v>5.0789999999999997</v>
+      </c>
+      <c r="K830">
+        <v>7.2290000000000001</v>
+      </c>
+      <c r="L830">
+        <v>10.557</v>
+      </c>
+    </row>
+    <row r="831" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>753</v>
+      </c>
+      <c r="B831">
+        <v>96</v>
+      </c>
+      <c r="C831" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D831">
+        <v>96</v>
+      </c>
+      <c r="E831">
+        <v>4</v>
+      </c>
+      <c r="F831" t="s">
+        <v>760</v>
+      </c>
+      <c r="G831" t="s">
+        <v>853</v>
+      </c>
+      <c r="H831" t="s">
+        <v>12</v>
+      </c>
+      <c r="I831">
+        <v>5.1719999999999997</v>
+      </c>
+      <c r="J831">
+        <v>6.2409999999999997</v>
+      </c>
+      <c r="K831">
+        <v>10.497</v>
+      </c>
+      <c r="L831">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="832" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>753</v>
+      </c>
+      <c r="B832">
+        <v>97</v>
+      </c>
+      <c r="C832" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D832">
+        <v>97</v>
+      </c>
+      <c r="E832">
+        <v>3</v>
+      </c>
+      <c r="F832" t="s">
+        <v>758</v>
+      </c>
+      <c r="G832" t="s">
+        <v>854</v>
+      </c>
+      <c r="H832" t="s">
+        <v>12</v>
+      </c>
+      <c r="I832">
+        <v>5.4880000000000004</v>
+      </c>
+      <c r="J832">
+        <v>6.64</v>
+      </c>
+      <c r="K832">
+        <v>10.134</v>
+      </c>
+      <c r="L832">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="833" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>753</v>
+      </c>
+      <c r="B833">
+        <v>98</v>
+      </c>
+      <c r="C833" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D833">
+        <v>98</v>
+      </c>
+      <c r="E833">
+        <v>4</v>
+      </c>
+      <c r="F833" t="s">
+        <v>760</v>
+      </c>
+      <c r="G833" t="s">
+        <v>855</v>
+      </c>
+      <c r="H833" t="s">
+        <v>12</v>
+      </c>
+      <c r="I833">
+        <v>1.946</v>
+      </c>
+      <c r="J833">
+        <v>5.4219999999999997</v>
+      </c>
+      <c r="K833">
+        <v>6.9610000000000003</v>
+      </c>
+      <c r="L833">
+        <v>8.109</v>
+      </c>
+      <c r="M833">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="834" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>753</v>
+      </c>
+      <c r="B834">
+        <v>99</v>
+      </c>
+      <c r="C834" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D834">
+        <v>99</v>
+      </c>
+      <c r="E834">
+        <v>2</v>
+      </c>
+      <c r="F834" t="s">
+        <v>756</v>
+      </c>
+      <c r="G834" t="s">
+        <v>856</v>
+      </c>
+      <c r="H834" t="s">
+        <v>12</v>
+      </c>
+      <c r="I834">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="J834">
+        <v>3.7629999999999999</v>
+      </c>
+      <c r="K834">
+        <v>4.5250000000000004</v>
+      </c>
+    </row>
+    <row r="835" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>753</v>
+      </c>
+      <c r="B835">
+        <v>100</v>
+      </c>
+      <c r="C835" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D835">
+        <v>100</v>
+      </c>
+      <c r="E835">
+        <v>1</v>
+      </c>
+      <c r="F835" t="s">
+        <v>754</v>
+      </c>
+      <c r="G835" t="s">
+        <v>857</v>
+      </c>
+      <c r="H835" t="s">
+        <v>12</v>
+      </c>
+      <c r="I835">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="J835">
+        <v>2.7549999999999999</v>
+      </c>
+      <c r="K835">
+        <v>4.0659999999999998</v>
+      </c>
+      <c r="L835">
+        <v>8.2490000000000006</v>
+      </c>
+      <c r="M835">
+        <v>10.412000000000001</v>
+      </c>
+      <c r="N835">
+        <v>11.406000000000001</v>
+      </c>
+    </row>
+    <row r="836" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>753</v>
+      </c>
+      <c r="B836">
+        <v>101</v>
+      </c>
+      <c r="C836" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D836">
+        <v>101</v>
+      </c>
+      <c r="E836">
+        <v>2</v>
+      </c>
+      <c r="F836" t="s">
+        <v>756</v>
+      </c>
+      <c r="G836" t="s">
+        <v>858</v>
+      </c>
+      <c r="H836" t="s">
+        <v>12</v>
+      </c>
+      <c r="I836">
+        <v>2.93</v>
+      </c>
+      <c r="J836">
+        <v>5.2370000000000001</v>
+      </c>
+      <c r="K836">
+        <v>6.54</v>
+      </c>
+      <c r="L836">
+        <v>7.6120000000000001</v>
+      </c>
+      <c r="M836">
+        <v>8.8460000000000001</v>
+      </c>
+    </row>
+    <row r="837" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>753</v>
+      </c>
+      <c r="B837">
+        <v>102</v>
+      </c>
+      <c r="C837" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D837">
+        <v>102</v>
+      </c>
+      <c r="E837">
+        <v>1</v>
+      </c>
+      <c r="F837" t="s">
+        <v>754</v>
+      </c>
+      <c r="G837" t="s">
+        <v>859</v>
+      </c>
+      <c r="H837" t="s">
+        <v>12</v>
+      </c>
+      <c r="I837">
+        <v>5.093</v>
+      </c>
+      <c r="J837">
+        <v>9.1259999999999994</v>
+      </c>
+      <c r="K837">
+        <v>10.194000000000001</v>
+      </c>
+    </row>
+    <row r="838" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>753</v>
+      </c>
+      <c r="B838">
+        <v>103</v>
+      </c>
+      <c r="C838" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D838">
+        <v>103</v>
+      </c>
+      <c r="E838">
+        <v>4</v>
+      </c>
+      <c r="F838" t="s">
+        <v>760</v>
+      </c>
+      <c r="G838" t="s">
+        <v>860</v>
+      </c>
+      <c r="H838" t="s">
+        <v>12</v>
+      </c>
+      <c r="I838">
+        <v>2.7869999999999999</v>
+      </c>
+      <c r="J838">
+        <v>3.9409999999999998</v>
+      </c>
+      <c r="K838">
+        <v>5.0880000000000001</v>
+      </c>
+      <c r="L838">
+        <v>6.2590000000000003</v>
+      </c>
+      <c r="M838">
+        <v>7.2510000000000003</v>
+      </c>
+    </row>
+    <row r="839" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>753</v>
+      </c>
+      <c r="B839">
+        <v>104</v>
+      </c>
+      <c r="C839" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D839">
+        <v>104</v>
+      </c>
+      <c r="E839">
+        <v>3</v>
+      </c>
+      <c r="F839" t="s">
+        <v>758</v>
+      </c>
+      <c r="G839" t="s">
+        <v>861</v>
+      </c>
+      <c r="H839" t="s">
+        <v>12</v>
+      </c>
+      <c r="I839">
+        <v>1.9330000000000001</v>
+      </c>
+      <c r="J839">
+        <v>2.8490000000000002</v>
+      </c>
+      <c r="K839">
+        <v>7.3319999999999999</v>
+      </c>
+      <c r="L839">
+        <v>8.2490000000000006</v>
+      </c>
+      <c r="M839">
+        <v>9.7840000000000007</v>
+      </c>
+      <c r="N839">
+        <v>10.933999999999999</v>
+      </c>
+      <c r="O839">
+        <v>11.925000000000001</v>
+      </c>
+    </row>
+    <row r="840" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>753</v>
+      </c>
+      <c r="B840">
+        <v>105</v>
+      </c>
+      <c r="C840" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D840">
+        <v>105</v>
+      </c>
+      <c r="E840">
+        <v>2</v>
+      </c>
+      <c r="F840" t="s">
+        <v>756</v>
+      </c>
+      <c r="G840" t="s">
+        <v>862</v>
+      </c>
+      <c r="H840" t="s">
+        <v>12</v>
+      </c>
+      <c r="I840">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="J840">
+        <v>4.33</v>
+      </c>
+      <c r="K840">
+        <v>7.7210000000000001</v>
+      </c>
+      <c r="L840">
+        <v>11.846</v>
+      </c>
+    </row>
+    <row r="841" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>753</v>
+      </c>
+      <c r="B841">
+        <v>106</v>
+      </c>
+      <c r="C841" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D841">
+        <v>106</v>
+      </c>
+      <c r="E841">
+        <v>3</v>
+      </c>
+      <c r="F841" t="s">
+        <v>758</v>
+      </c>
+      <c r="G841" t="s">
+        <v>863</v>
+      </c>
+      <c r="H841" t="s">
+        <v>12</v>
+      </c>
+      <c r="I841">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="J841">
+        <v>3.6040000000000001</v>
+      </c>
+      <c r="K841">
+        <v>8.2479999999999993</v>
+      </c>
+      <c r="L841">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="M841">
+        <v>11.161</v>
+      </c>
+    </row>
+    <row r="842" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>753</v>
+      </c>
+      <c r="B842">
+        <v>107</v>
+      </c>
+      <c r="C842" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D842">
+        <v>107</v>
+      </c>
+      <c r="E842">
+        <v>1</v>
+      </c>
+      <c r="F842" t="s">
+        <v>754</v>
+      </c>
+      <c r="G842" t="s">
+        <v>864</v>
+      </c>
+      <c r="H842" t="s">
+        <v>12</v>
+      </c>
+      <c r="I842">
+        <v>3.7839999999999998</v>
+      </c>
+      <c r="J842">
+        <v>4.5430000000000001</v>
+      </c>
+      <c r="K842">
+        <v>5.3840000000000003</v>
+      </c>
+      <c r="L842">
+        <v>12.208</v>
+      </c>
+    </row>
+    <row r="843" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>753</v>
+      </c>
+      <c r="B843">
+        <v>108</v>
+      </c>
+      <c r="C843" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D843">
+        <v>108</v>
+      </c>
+      <c r="E843">
+        <v>4</v>
+      </c>
+      <c r="F843" t="s">
+        <v>760</v>
+      </c>
+      <c r="G843" t="s">
+        <v>865</v>
+      </c>
+      <c r="H843" t="s">
+        <v>12</v>
+      </c>
+      <c r="I843">
+        <v>4.327</v>
+      </c>
+      <c r="J843">
+        <v>6.0919999999999996</v>
+      </c>
+      <c r="K843">
+        <v>7.0990000000000002</v>
+      </c>
+      <c r="L843">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="M843">
+        <v>10.173</v>
+      </c>
+      <c r="N843">
+        <v>11.881</v>
+      </c>
+    </row>
+    <row r="844" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>753</v>
+      </c>
+      <c r="B844">
+        <v>109</v>
+      </c>
+      <c r="C844" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D844">
+        <v>109</v>
+      </c>
+      <c r="E844">
+        <v>1</v>
+      </c>
+      <c r="F844" t="s">
+        <v>754</v>
+      </c>
+      <c r="G844" t="s">
+        <v>866</v>
+      </c>
+      <c r="H844" t="s">
+        <v>12</v>
+      </c>
+      <c r="I844">
+        <v>2.9409999999999998</v>
+      </c>
+      <c r="J844">
+        <v>4.165</v>
+      </c>
+      <c r="K844">
+        <v>6.1870000000000003</v>
+      </c>
+      <c r="L844">
+        <v>8.9619999999999997</v>
+      </c>
+      <c r="M844">
+        <v>10.188000000000001</v>
+      </c>
+    </row>
+    <row r="845" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>753</v>
+      </c>
+      <c r="B845">
+        <v>110</v>
+      </c>
+      <c r="C845" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D845">
+        <v>110</v>
+      </c>
+      <c r="E845">
+        <v>4</v>
+      </c>
+      <c r="F845" t="s">
+        <v>760</v>
+      </c>
+      <c r="G845" t="s">
+        <v>867</v>
+      </c>
+      <c r="H845" t="s">
+        <v>12</v>
+      </c>
+      <c r="I845">
+        <v>1.861</v>
+      </c>
+      <c r="J845">
+        <v>4.4930000000000003</v>
+      </c>
+    </row>
+    <row r="846" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>753</v>
+      </c>
+      <c r="B846">
+        <v>111</v>
+      </c>
+      <c r="C846" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D846">
+        <v>111</v>
+      </c>
+      <c r="E846">
+        <v>3</v>
+      </c>
+      <c r="F846" t="s">
+        <v>758</v>
+      </c>
+      <c r="G846" t="s">
+        <v>868</v>
+      </c>
+      <c r="H846" t="s">
+        <v>12</v>
+      </c>
+      <c r="I846">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="J846">
+        <v>5.1680000000000001</v>
+      </c>
+      <c r="K846">
+        <v>6.7080000000000002</v>
+      </c>
+      <c r="L846">
+        <v>11.032</v>
+      </c>
+    </row>
+    <row r="847" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>753</v>
+      </c>
+      <c r="B847">
+        <v>112</v>
+      </c>
+      <c r="C847" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D847">
+        <v>112</v>
+      </c>
+      <c r="E847">
+        <v>2</v>
+      </c>
+      <c r="F847" t="s">
+        <v>756</v>
+      </c>
+      <c r="G847" t="s">
+        <v>869</v>
+      </c>
+      <c r="H847" t="s">
+        <v>12</v>
+      </c>
+      <c r="I847">
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="J847">
+        <v>4.1580000000000004</v>
+      </c>
+      <c r="K847">
+        <v>7.5650000000000004</v>
+      </c>
+      <c r="L847">
+        <v>9.65</v>
+      </c>
+      <c r="M847">
+        <v>11.183999999999999</v>
+      </c>
+    </row>
+    <row r="848" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>753</v>
+      </c>
+      <c r="B848">
+        <v>113</v>
+      </c>
+      <c r="C848" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D848">
+        <v>113</v>
+      </c>
+      <c r="E848">
+        <v>1</v>
+      </c>
+      <c r="F848" t="s">
+        <v>754</v>
+      </c>
+      <c r="G848" t="s">
+        <v>870</v>
+      </c>
+      <c r="H848" t="s">
+        <v>12</v>
+      </c>
+      <c r="I848">
+        <v>3.7090000000000001</v>
+      </c>
+      <c r="J848">
+        <v>7.5039999999999996</v>
+      </c>
+      <c r="K848">
+        <v>8.7379999999999995</v>
+      </c>
+    </row>
+    <row r="849" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>753</v>
+      </c>
+      <c r="B849">
+        <v>114</v>
+      </c>
+      <c r="C849" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D849">
+        <v>114</v>
+      </c>
+      <c r="E849">
+        <v>4</v>
+      </c>
+      <c r="F849" t="s">
+        <v>760</v>
+      </c>
+      <c r="G849" t="s">
+        <v>871</v>
+      </c>
+      <c r="H849" t="s">
+        <v>12</v>
+      </c>
+      <c r="I849">
+        <v>2.16</v>
+      </c>
+      <c r="J849">
+        <v>4.5629999999999997</v>
+      </c>
+      <c r="K849">
+        <v>5.3959999999999999</v>
+      </c>
+      <c r="L849">
+        <v>7.7910000000000004</v>
+      </c>
+      <c r="M849">
+        <v>11.967000000000001</v>
+      </c>
+    </row>
+    <row r="850" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>753</v>
+      </c>
+      <c r="B850">
+        <v>115</v>
+      </c>
+      <c r="C850" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D850">
+        <v>115</v>
+      </c>
+      <c r="E850">
+        <v>2</v>
+      </c>
+      <c r="F850" t="s">
+        <v>756</v>
+      </c>
+      <c r="G850" t="s">
+        <v>872</v>
+      </c>
+      <c r="H850" t="s">
+        <v>12</v>
+      </c>
+      <c r="I850">
+        <v>2.93</v>
+      </c>
+      <c r="J850">
+        <v>7.9470000000000001</v>
+      </c>
+      <c r="K850">
+        <v>8.8670000000000009</v>
+      </c>
+      <c r="L850">
+        <v>9.9420000000000002</v>
+      </c>
+      <c r="M850">
+        <v>12.098000000000001</v>
+      </c>
+    </row>
+    <row r="851" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>753</v>
+      </c>
+      <c r="B851">
+        <v>116</v>
+      </c>
+      <c r="C851" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D851">
+        <v>116</v>
+      </c>
+      <c r="E851">
+        <v>3</v>
+      </c>
+      <c r="F851" t="s">
+        <v>758</v>
+      </c>
+      <c r="G851" t="s">
+        <v>873</v>
+      </c>
+      <c r="H851" t="s">
+        <v>12</v>
+      </c>
+      <c r="I851">
+        <v>4.165</v>
+      </c>
+      <c r="J851">
+        <v>6.5519999999999996</v>
+      </c>
+      <c r="K851">
+        <v>8.484</v>
+      </c>
+      <c r="L851">
+        <v>9.5519999999999996</v>
+      </c>
+      <c r="M851">
+        <v>11.789</v>
+      </c>
+    </row>
+    <row r="852" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>753</v>
+      </c>
+      <c r="B852">
+        <v>117</v>
+      </c>
+      <c r="C852" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D852">
+        <v>117</v>
+      </c>
+      <c r="E852">
+        <v>2</v>
+      </c>
+      <c r="F852" t="s">
+        <v>756</v>
+      </c>
+      <c r="G852" t="s">
+        <v>874</v>
+      </c>
+      <c r="H852" t="s">
+        <v>12</v>
+      </c>
+      <c r="I852">
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="J852">
+        <v>3.8450000000000002</v>
+      </c>
+      <c r="K852">
+        <v>9.5060000000000002</v>
+      </c>
+      <c r="L852">
+        <v>11.198</v>
+      </c>
+    </row>
+    <row r="853" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>753</v>
+      </c>
+      <c r="B853">
+        <v>118</v>
+      </c>
+      <c r="C853" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D853">
+        <v>118</v>
+      </c>
+      <c r="E853">
+        <v>1</v>
+      </c>
+      <c r="F853" t="s">
+        <v>754</v>
+      </c>
+      <c r="G853" t="s">
+        <v>875</v>
+      </c>
+      <c r="H853" t="s">
+        <v>12</v>
+      </c>
+      <c r="I853">
+        <v>7.3769999999999998</v>
+      </c>
+      <c r="J853">
+        <v>8.2360000000000007</v>
+      </c>
+      <c r="K853">
+        <v>9.3119999999999994</v>
+      </c>
+      <c r="L853">
+        <v>10.535</v>
+      </c>
+    </row>
+    <row r="854" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>753</v>
+      </c>
+      <c r="B854">
+        <v>119</v>
+      </c>
+      <c r="C854" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D854">
+        <v>119</v>
+      </c>
+      <c r="E854">
+        <v>4</v>
+      </c>
+      <c r="F854" t="s">
+        <v>760</v>
+      </c>
+      <c r="G854" t="s">
+        <v>876</v>
+      </c>
+      <c r="H854" t="s">
+        <v>12</v>
+      </c>
+      <c r="I854">
+        <v>6.7549999999999999</v>
+      </c>
+      <c r="J854">
+        <v>7.9850000000000003</v>
+      </c>
+      <c r="K854">
+        <v>8.61</v>
+      </c>
+      <c r="L854">
+        <v>10.231999999999999</v>
+      </c>
+    </row>
+    <row r="855" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>753</v>
+      </c>
+      <c r="B855">
+        <v>120</v>
+      </c>
+      <c r="C855" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D855">
+        <v>120</v>
+      </c>
+      <c r="E855">
+        <v>3</v>
+      </c>
+      <c r="F855" t="s">
+        <v>758</v>
+      </c>
+      <c r="G855" t="s">
+        <v>877</v>
+      </c>
+      <c r="H855" t="s">
+        <v>12</v>
+      </c>
+      <c r="I855">
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="J855">
+        <v>3.7869999999999999</v>
+      </c>
+      <c r="K855">
+        <v>5.7329999999999997</v>
+      </c>
+      <c r="L855">
+        <v>7.7329999999999997</v>
+      </c>
+      <c r="M855">
+        <v>9.6590000000000007</v>
+      </c>
+      <c r="N855">
+        <v>12.206</v>
+      </c>
+    </row>
+    <row r="856" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>753</v>
+      </c>
+      <c r="B856">
+        <v>121</v>
+      </c>
+      <c r="C856" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D856">
+        <v>121</v>
+      </c>
+      <c r="E856">
+        <v>4</v>
+      </c>
+      <c r="F856" t="s">
+        <v>760</v>
+      </c>
+      <c r="G856" t="s">
+        <v>878</v>
+      </c>
+      <c r="H856" t="s">
+        <v>12</v>
+      </c>
+      <c r="I856">
+        <v>3.0819999999999999</v>
+      </c>
+      <c r="J856">
+        <v>3.92</v>
+      </c>
+      <c r="K856">
+        <v>9.8109999999999999</v>
+      </c>
+      <c r="L856">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="857" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>753</v>
+      </c>
+      <c r="B857">
+        <v>122</v>
+      </c>
+      <c r="C857" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D857">
+        <v>122</v>
+      </c>
+      <c r="E857">
+        <v>1</v>
+      </c>
+      <c r="F857" t="s">
+        <v>754</v>
+      </c>
+      <c r="G857" t="s">
+        <v>879</v>
+      </c>
+      <c r="H857" t="s">
+        <v>12</v>
+      </c>
+      <c r="I857">
+        <v>1.607</v>
+      </c>
+      <c r="J857">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="K857">
+        <v>9.4209999999999994</v>
+      </c>
+      <c r="L857">
+        <v>10.805</v>
+      </c>
+    </row>
+    <row r="858" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>753</v>
+      </c>
+      <c r="B858">
+        <v>123</v>
+      </c>
+      <c r="C858" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D858">
+        <v>123</v>
+      </c>
+      <c r="E858">
+        <v>3</v>
+      </c>
+      <c r="F858" t="s">
+        <v>758</v>
+      </c>
+      <c r="G858" t="s">
+        <v>880</v>
+      </c>
+      <c r="H858" t="s">
+        <v>12</v>
+      </c>
+      <c r="I858">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="J858">
+        <v>6.19</v>
+      </c>
+      <c r="K858">
+        <v>7.0289999999999999</v>
+      </c>
+      <c r="L858">
+        <v>7.8040000000000003</v>
+      </c>
+    </row>
+    <row r="859" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>753</v>
+      </c>
+      <c r="B859">
+        <v>124</v>
+      </c>
+      <c r="C859" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D859">
+        <v>124</v>
+      </c>
+      <c r="E859">
+        <v>2</v>
+      </c>
+      <c r="F859" t="s">
+        <v>756</v>
+      </c>
+      <c r="G859" t="s">
+        <v>881</v>
+      </c>
+      <c r="H859" t="s">
+        <v>12</v>
+      </c>
+      <c r="I859">
+        <v>2.766</v>
+      </c>
+      <c r="J859">
+        <v>4.7649999999999997</v>
+      </c>
+      <c r="K859">
+        <v>10.647</v>
+      </c>
+    </row>
+    <row r="860" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>753</v>
+      </c>
+      <c r="B860">
+        <v>125</v>
+      </c>
+      <c r="C860" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D860">
+        <v>125</v>
+      </c>
+      <c r="E860">
+        <v>1</v>
+      </c>
+      <c r="F860" t="s">
+        <v>754</v>
+      </c>
+      <c r="G860" t="s">
+        <v>882</v>
+      </c>
+      <c r="H860" t="s">
+        <v>12</v>
+      </c>
+      <c r="I860">
+        <v>2.548</v>
+      </c>
+      <c r="J860">
+        <v>5.258</v>
+      </c>
+      <c r="K860">
+        <v>8.6690000000000005</v>
+      </c>
+      <c r="L860">
+        <v>10.057</v>
+      </c>
+      <c r="M860">
+        <v>11.755000000000001</v>
+      </c>
+    </row>
+    <row r="861" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>753</v>
+      </c>
+      <c r="B861">
+        <v>126</v>
+      </c>
+      <c r="C861" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D861">
+        <v>126</v>
+      </c>
+      <c r="E861">
+        <v>2</v>
+      </c>
+      <c r="F861" t="s">
+        <v>756</v>
+      </c>
+      <c r="G861" t="s">
+        <v>883</v>
+      </c>
+      <c r="H861" t="s">
+        <v>12</v>
+      </c>
+      <c r="I861">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="J861">
+        <v>6.1150000000000002</v>
+      </c>
+      <c r="K861">
+        <v>7.9790000000000001</v>
+      </c>
+      <c r="L861">
+        <v>9.2059999999999995</v>
+      </c>
+      <c r="M861">
+        <v>10.442</v>
+      </c>
+    </row>
+    <row r="862" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>753</v>
+      </c>
+      <c r="B862">
+        <v>127</v>
+      </c>
+      <c r="C862" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D862">
+        <v>127</v>
+      </c>
+      <c r="E862">
+        <v>4</v>
+      </c>
+      <c r="F862" t="s">
+        <v>760</v>
+      </c>
+      <c r="G862" t="s">
+        <v>884</v>
+      </c>
+      <c r="H862" t="s">
+        <v>12</v>
+      </c>
+      <c r="I862">
+        <v>2.7789999999999999</v>
+      </c>
+      <c r="J862">
+        <v>4.2279999999999998</v>
+      </c>
+      <c r="K862">
+        <v>5.1539999999999999</v>
+      </c>
+      <c r="L862">
+        <v>7.24</v>
+      </c>
+      <c r="M862">
+        <v>9.2449999999999992</v>
+      </c>
+      <c r="N862">
+        <v>10.255000000000001</v>
+      </c>
+    </row>
+    <row r="863" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>753</v>
+      </c>
+      <c r="B863">
+        <v>128</v>
+      </c>
+      <c r="C863" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D863">
+        <v>128</v>
+      </c>
+      <c r="E863">
+        <v>3</v>
+      </c>
+      <c r="F863" t="s">
+        <v>758</v>
+      </c>
+      <c r="G863" t="s">
+        <v>885</v>
+      </c>
+      <c r="H863" t="s">
+        <v>12</v>
+      </c>
+      <c r="I863">
+        <v>3.778</v>
+      </c>
+      <c r="J863">
+        <v>5.63</v>
+      </c>
+      <c r="K863">
+        <v>8.2550000000000008</v>
+      </c>
+      <c r="L863">
+        <v>10.494999999999999</v>
+      </c>
+      <c r="M863">
+        <v>11.957000000000001</v>
+      </c>
+    </row>
+    <row r="864" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>753</v>
+      </c>
+      <c r="B864">
+        <v>129</v>
+      </c>
+      <c r="C864" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D864">
+        <v>129</v>
+      </c>
+      <c r="E864">
+        <v>2</v>
+      </c>
+      <c r="F864" t="s">
+        <v>756</v>
+      </c>
+      <c r="G864" t="s">
+        <v>886</v>
+      </c>
+      <c r="H864" t="s">
+        <v>12</v>
+      </c>
+      <c r="I864">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="J864">
+        <v>8.1959999999999997</v>
+      </c>
+      <c r="K864">
+        <v>10.215</v>
+      </c>
+      <c r="L864">
+        <v>11.131</v>
+      </c>
+      <c r="M864">
+        <v>12.122</v>
+      </c>
+    </row>
+    <row r="865" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>753</v>
+      </c>
+      <c r="B865">
+        <v>130</v>
+      </c>
+      <c r="C865" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D865">
+        <v>130</v>
+      </c>
+      <c r="E865">
+        <v>4</v>
+      </c>
+      <c r="F865" t="s">
+        <v>760</v>
+      </c>
+      <c r="G865" t="s">
+        <v>887</v>
+      </c>
+      <c r="H865" t="s">
+        <v>12</v>
+      </c>
+      <c r="I865">
+        <v>1.851</v>
+      </c>
+      <c r="J865">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K865">
+        <v>3.6819999999999999</v>
+      </c>
+      <c r="L865">
+        <v>5.2960000000000003</v>
+      </c>
+      <c r="M865">
+        <v>7.2949999999999999</v>
+      </c>
+    </row>
+    <row r="866" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>753</v>
+      </c>
+      <c r="B866">
+        <v>131</v>
+      </c>
+      <c r="C866" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D866">
+        <v>131</v>
+      </c>
+      <c r="E866">
+        <v>3</v>
+      </c>
+      <c r="F866" t="s">
+        <v>758</v>
+      </c>
+      <c r="G866" t="s">
+        <v>888</v>
+      </c>
+      <c r="H866" t="s">
+        <v>12</v>
+      </c>
+      <c r="I866">
+        <v>3.3260000000000001</v>
+      </c>
+      <c r="J866">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K866">
+        <v>9.0340000000000007</v>
+      </c>
+      <c r="L866">
+        <v>11.037000000000001</v>
+      </c>
+    </row>
+    <row r="867" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>753</v>
+      </c>
+      <c r="B867">
+        <v>132</v>
+      </c>
+      <c r="C867" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D867">
+        <v>132</v>
+      </c>
+      <c r="E867">
+        <v>1</v>
+      </c>
+      <c r="F867" t="s">
+        <v>754</v>
+      </c>
+      <c r="G867" t="s">
+        <v>889</v>
+      </c>
+      <c r="H867" t="s">
+        <v>12</v>
+      </c>
+      <c r="I867">
+        <v>2.09</v>
+      </c>
+      <c r="J867">
+        <v>4.4749999999999996</v>
+      </c>
+      <c r="K867">
+        <v>5.6210000000000004</v>
+      </c>
+      <c r="L867">
+        <v>8.8640000000000008</v>
+      </c>
+      <c r="M867">
+        <v>10.866</v>
+      </c>
+    </row>
+    <row r="868" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>753</v>
+      </c>
+      <c r="B868">
+        <v>133</v>
+      </c>
+      <c r="C868" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D868">
+        <v>133</v>
+      </c>
+      <c r="E868">
+        <v>2</v>
+      </c>
+      <c r="F868" t="s">
+        <v>756</v>
+      </c>
+      <c r="G868" t="s">
+        <v>890</v>
+      </c>
+      <c r="H868" t="s">
+        <v>12</v>
+      </c>
+      <c r="I868">
+        <v>2.2349999999999999</v>
+      </c>
+      <c r="J868">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K868">
+        <v>3.8220000000000001</v>
+      </c>
+      <c r="L868">
+        <v>5.2809999999999997</v>
+      </c>
+      <c r="M868">
+        <v>11.863</v>
+      </c>
+    </row>
+    <row r="869" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>753</v>
+      </c>
+      <c r="B869">
+        <v>134</v>
+      </c>
+      <c r="C869" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D869">
+        <v>134</v>
+      </c>
+      <c r="E869">
+        <v>4</v>
+      </c>
+      <c r="F869" t="s">
+        <v>760</v>
+      </c>
+      <c r="G869" t="s">
+        <v>891</v>
+      </c>
+      <c r="H869" t="s">
+        <v>12</v>
+      </c>
+      <c r="I869">
+        <v>2.4660000000000002</v>
+      </c>
+      <c r="J869">
+        <v>5.0030000000000001</v>
+      </c>
+      <c r="K869">
+        <v>8.2550000000000008</v>
+      </c>
+      <c r="L869">
+        <v>11.138</v>
+      </c>
+    </row>
+    <row r="870" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>753</v>
+      </c>
+      <c r="B870">
+        <v>135</v>
+      </c>
+      <c r="C870" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D870">
+        <v>135</v>
+      </c>
+      <c r="E870">
+        <v>3</v>
+      </c>
+      <c r="F870" t="s">
+        <v>758</v>
+      </c>
+      <c r="G870" t="s">
+        <v>892</v>
+      </c>
+      <c r="H870" t="s">
+        <v>12</v>
+      </c>
+      <c r="I870">
+        <v>6.4820000000000002</v>
+      </c>
+      <c r="J870">
+        <v>8.1750000000000007</v>
+      </c>
+      <c r="K870">
+        <v>8.9320000000000004</v>
+      </c>
+      <c r="L870">
+        <v>11.085000000000001</v>
+      </c>
+    </row>
+    <row r="871" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>753</v>
+      </c>
+      <c r="B871">
+        <v>136</v>
+      </c>
+      <c r="C871" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D871">
+        <v>136</v>
+      </c>
+      <c r="E871">
+        <v>1</v>
+      </c>
+      <c r="F871" t="s">
+        <v>754</v>
+      </c>
+      <c r="G871" t="s">
+        <v>893</v>
+      </c>
+      <c r="H871" t="s">
+        <v>12</v>
+      </c>
+      <c r="I871">
+        <v>5.8029999999999999</v>
+      </c>
+      <c r="J871">
+        <v>10.688000000000001</v>
+      </c>
+    </row>
+    <row r="872" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>753</v>
+      </c>
+      <c r="B872">
+        <v>137</v>
+      </c>
+      <c r="C872" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D872">
+        <v>137</v>
+      </c>
+      <c r="E872">
+        <v>2</v>
+      </c>
+      <c r="F872" t="s">
+        <v>756</v>
+      </c>
+      <c r="G872" t="s">
+        <v>894</v>
+      </c>
+      <c r="H872" t="s">
+        <v>12</v>
+      </c>
+      <c r="I872">
+        <v>1.611</v>
+      </c>
+      <c r="J872">
+        <v>3.6219999999999999</v>
+      </c>
+      <c r="K872">
+        <v>5.0830000000000002</v>
+      </c>
+      <c r="L872">
+        <v>6.56</v>
+      </c>
+      <c r="M872">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="873" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>753</v>
+      </c>
+      <c r="B873">
+        <v>138</v>
+      </c>
+      <c r="C873" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D873">
+        <v>138</v>
+      </c>
+      <c r="E873">
+        <v>4</v>
+      </c>
+      <c r="F873" t="s">
+        <v>760</v>
+      </c>
+      <c r="G873" t="s">
+        <v>895</v>
+      </c>
+      <c r="H873" t="s">
+        <v>12</v>
+      </c>
+      <c r="I873">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="J873">
+        <v>4.7770000000000001</v>
+      </c>
+      <c r="K873">
+        <v>7.7859999999999996</v>
+      </c>
+      <c r="L873">
+        <v>11.026999999999999</v>
+      </c>
+    </row>
+    <row r="874" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>753</v>
+      </c>
+      <c r="B874">
+        <v>139</v>
+      </c>
+      <c r="C874" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D874">
+        <v>139</v>
+      </c>
+      <c r="E874">
+        <v>1</v>
+      </c>
+      <c r="F874" t="s">
+        <v>754</v>
+      </c>
+      <c r="G874" t="s">
+        <v>896</v>
+      </c>
+      <c r="H874" t="s">
+        <v>12</v>
+      </c>
+      <c r="I874">
+        <v>1.609</v>
+      </c>
+      <c r="J874">
+        <v>3.6040000000000001</v>
+      </c>
+      <c r="K874">
+        <v>4.5149999999999997</v>
+      </c>
+      <c r="L874">
+        <v>7.21</v>
+      </c>
+      <c r="M874">
+        <v>11.772</v>
+      </c>
+    </row>
+    <row r="875" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>753</v>
+      </c>
+      <c r="B875">
+        <v>140</v>
+      </c>
+      <c r="C875" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D875">
+        <v>140</v>
+      </c>
+      <c r="E875">
+        <v>3</v>
+      </c>
+      <c r="F875" t="s">
+        <v>758</v>
+      </c>
+      <c r="G875" t="s">
+        <v>897</v>
+      </c>
+      <c r="H875" t="s">
+        <v>12</v>
+      </c>
+      <c r="I875">
+        <v>3.625</v>
+      </c>
+      <c r="J875">
+        <v>5.7119999999999997</v>
+      </c>
+      <c r="K875">
+        <v>10.585000000000001</v>
+      </c>
+      <c r="L875">
+        <v>12.047000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
